--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5240" uniqueCount="231">
   <si>
     <t>Process</t>
   </si>
@@ -124,6 +124,9 @@
     <t>typical</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>tsmc2p (1)</t>
   </si>
   <si>
@@ -157,10 +160,7 @@
     <t>0.77</t>
   </si>
   <si>
-    <t>rcbest_ccbest</t>
-  </si>
-  <si>
-    <t>n/a</t>
+    <t>rcbest_ccbest_t</t>
   </si>
   <si>
     <t>tsmc2p (2)</t>
@@ -199,7 +199,7 @@
     <t>0.63</t>
   </si>
   <si>
-    <t>rcworst_ccworst</t>
+    <t>rcworst_ccworst_t</t>
   </si>
   <si>
     <t>tsmc2p (4)</t>
@@ -713,7 +713,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,8 +736,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +754,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,10 +776,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,49 +1198,49 @@
       <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="R2">
-        <v>41.213773</v>
-      </c>
-      <c r="S2">
-        <v>79.58353</v>
-      </c>
-      <c r="T2">
-        <v>5534.0949</v>
+      <c r="R2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
         <v>31</v>
@@ -1244,16 +1258,16 @@
         <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1261,34 +1275,34 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
         <v>31</v>
@@ -1306,16 +1320,16 @@
         <v>34</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1344,7 +1358,7 @@
         <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
         <v>59</v>
@@ -1370,14 +1384,14 @@
       <c r="Q5" t="s">
         <v>61</v>
       </c>
-      <c r="R5">
-        <v>35.881396</v>
-      </c>
-      <c r="S5">
-        <v>73.965811</v>
-      </c>
-      <c r="T5">
-        <v>3213.0787</v>
+      <c r="R5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1433,13 +1447,13 @@
         <v>61</v>
       </c>
       <c r="R6">
-        <v>39.362003</v>
+        <v>40.178854</v>
       </c>
       <c r="S6">
-        <v>49.772195</v>
+        <v>67.51956199999999</v>
       </c>
       <c r="T6">
-        <v>3273.2233</v>
+        <v>4174.3219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1468,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>59</v>
@@ -1495,13 +1509,13 @@
         <v>61</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1557,13 +1571,13 @@
         <v>61</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1592,7 +1606,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -1619,13 +1633,13 @@
         <v>61</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1681,13 +1695,13 @@
         <v>61</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1695,34 +1709,34 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
         <v>31</v>
@@ -1740,16 +1754,16 @@
         <v>34</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1757,34 +1771,34 @@
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
         <v>31</v>
@@ -1802,16 +1816,16 @@
         <v>34</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1819,19 +1833,19 @@
         <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
         <v>57</v>
@@ -1840,13 +1854,13 @@
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
         <v>31</v>
@@ -1864,16 +1878,16 @@
         <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1881,22 +1895,22 @@
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
@@ -1905,10 +1919,10 @@
         <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
         <v>31</v>
@@ -1926,16 +1940,16 @@
         <v>34</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1943,34 +1957,34 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
         <v>31</v>
@@ -1988,16 +2002,16 @@
         <v>34</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2005,19 +2019,19 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
         <v>57</v>
@@ -2029,10 +2043,10 @@
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s">
         <v>31</v>
@@ -2050,16 +2064,16 @@
         <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2082,13 +2096,13 @@
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
@@ -2115,13 +2129,13 @@
         <v>61</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2144,13 +2158,13 @@
         <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s">
         <v>59</v>
@@ -2177,13 +2191,13 @@
         <v>61</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2209,10 +2223,10 @@
         <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
         <v>59</v>
@@ -2239,13 +2253,13 @@
         <v>61</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2268,10 +2282,10 @@
         <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
         <v>50</v>
@@ -2301,13 +2315,13 @@
         <v>61</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2330,7 +2344,7 @@
         <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -2363,13 +2377,13 @@
         <v>61</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2395,7 +2409,7 @@
         <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
         <v>50</v>
@@ -2425,13 +2439,13 @@
         <v>61</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2454,13 +2468,13 @@
         <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
         <v>59</v>
@@ -2484,16 +2498,16 @@
         <v>34</v>
       </c>
       <c r="Q23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2516,13 +2530,13 @@
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
         <v>59</v>
@@ -2546,16 +2560,16 @@
         <v>34</v>
       </c>
       <c r="Q24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2581,10 +2595,10 @@
         <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
         <v>59</v>
@@ -2608,16 +2622,16 @@
         <v>34</v>
       </c>
       <c r="Q25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2640,10 +2654,10 @@
         <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
         <v>50</v>
@@ -2670,16 +2684,16 @@
         <v>34</v>
       </c>
       <c r="Q26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2702,7 +2716,7 @@
         <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
         <v>58</v>
@@ -2732,16 +2746,16 @@
         <v>34</v>
       </c>
       <c r="Q27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2767,7 +2781,7 @@
         <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
         <v>50</v>
@@ -2794,16 +2808,16 @@
         <v>34</v>
       </c>
       <c r="Q28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2826,13 +2840,13 @@
         <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s">
         <v>59</v>
@@ -2859,13 +2873,13 @@
         <v>61</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2888,13 +2902,13 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
         <v>58</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
         <v>59</v>
@@ -2921,13 +2935,13 @@
         <v>61</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2953,10 +2967,10 @@
         <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
         <v>59</v>
@@ -2983,13 +2997,13 @@
         <v>61</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3012,10 +3026,10 @@
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
         <v>50</v>
@@ -3045,13 +3059,13 @@
         <v>61</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3074,7 +3088,7 @@
         <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s">
         <v>58</v>
@@ -3107,13 +3121,13 @@
         <v>61</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3139,7 +3153,7 @@
         <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
         <v>50</v>
@@ -3169,13 +3183,13 @@
         <v>61</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3198,13 +3212,13 @@
         <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s">
         <v>59</v>
@@ -3228,16 +3242,16 @@
         <v>34</v>
       </c>
       <c r="Q35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3260,13 +3274,13 @@
         <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
         <v>58</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s">
         <v>59</v>
@@ -3290,16 +3304,16 @@
         <v>34</v>
       </c>
       <c r="Q36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3325,10 +3339,10 @@
         <v>57</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s">
         <v>59</v>
@@ -3352,16 +3366,16 @@
         <v>34</v>
       </c>
       <c r="Q37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3384,10 +3398,10 @@
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s">
         <v>50</v>
@@ -3414,16 +3428,16 @@
         <v>34</v>
       </c>
       <c r="Q38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3446,7 +3460,7 @@
         <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s">
         <v>58</v>
@@ -3476,16 +3490,16 @@
         <v>34</v>
       </c>
       <c r="Q39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3511,7 +3525,7 @@
         <v>57</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
         <v>50</v>
@@ -3538,16 +3552,16 @@
         <v>34</v>
       </c>
       <c r="Q40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3570,13 +3584,13 @@
         <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s">
         <v>59</v>
@@ -3602,14 +3616,14 @@
       <c r="Q41" t="s">
         <v>61</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>48</v>
+      <c r="R41">
+        <v>27.422346</v>
+      </c>
+      <c r="S41">
+        <v>320.13596</v>
+      </c>
+      <c r="T41">
+        <v>5600.6793</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3632,13 +3646,13 @@
         <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s">
         <v>58</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s">
         <v>59</v>
@@ -3664,14 +3678,14 @@
       <c r="Q42" t="s">
         <v>61</v>
       </c>
-      <c r="R42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>48</v>
+      <c r="R42">
+        <v>27.422346</v>
+      </c>
+      <c r="S42">
+        <v>281.81895</v>
+      </c>
+      <c r="T42">
+        <v>5075.2297</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3697,10 +3711,10 @@
         <v>57</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s">
         <v>59</v>
@@ -3727,13 +3741,13 @@
         <v>61</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3756,10 +3770,10 @@
         <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s">
         <v>50</v>
@@ -3789,13 +3803,13 @@
         <v>61</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3818,7 +3832,7 @@
         <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s">
         <v>58</v>
@@ -3851,13 +3865,13 @@
         <v>61</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3883,7 +3897,7 @@
         <v>57</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s">
         <v>50</v>
@@ -3913,13 +3927,13 @@
         <v>61</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3942,13 +3956,13 @@
         <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s">
         <v>59</v>
@@ -3972,16 +3986,16 @@
         <v>34</v>
       </c>
       <c r="Q47" t="s">
-        <v>47</v>
-      </c>
-      <c r="R47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>48</v>
+      <c r="R47">
+        <v>27.422346</v>
+      </c>
+      <c r="S47">
+        <v>320.13596</v>
+      </c>
+      <c r="T47">
+        <v>5600.6793</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4004,13 +4018,13 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s">
         <v>58</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s">
         <v>59</v>
@@ -4034,16 +4048,16 @@
         <v>34</v>
       </c>
       <c r="Q48" t="s">
-        <v>47</v>
-      </c>
-      <c r="R48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>48</v>
+      <c r="R48">
+        <v>27.422346</v>
+      </c>
+      <c r="S48">
+        <v>281.81895</v>
+      </c>
+      <c r="T48">
+        <v>5075.2297</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4069,10 +4083,10 @@
         <v>57</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s">
         <v>59</v>
@@ -4096,16 +4110,16 @@
         <v>34</v>
       </c>
       <c r="Q49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4128,10 +4142,10 @@
         <v>56</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
         <v>50</v>
@@ -4158,16 +4172,16 @@
         <v>34</v>
       </c>
       <c r="Q50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4190,7 +4204,7 @@
         <v>56</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s">
         <v>58</v>
@@ -4220,16 +4234,16 @@
         <v>34</v>
       </c>
       <c r="Q51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4255,7 +4269,7 @@
         <v>57</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s">
         <v>50</v>
@@ -4282,16 +4296,16 @@
         <v>34</v>
       </c>
       <c r="Q52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4347,13 +4361,13 @@
         <v>35</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4361,34 +4375,34 @@
         <v>119</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J54" t="s">
         <v>120</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L54" t="s">
         <v>31</v>
@@ -4406,16 +4420,16 @@
         <v>34</v>
       </c>
       <c r="Q54" t="s">
-        <v>47</v>
-      </c>
-      <c r="R54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>48</v>
+      <c r="R54">
+        <v>30.168426</v>
+      </c>
+      <c r="S54">
+        <v>504.86979</v>
+      </c>
+      <c r="T54">
+        <v>9554.239</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4423,25 +4437,25 @@
         <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s">
         <v>50</v>
@@ -4450,7 +4464,7 @@
         <v>120</v>
       </c>
       <c r="K55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L55" t="s">
         <v>31</v>
@@ -4468,16 +4482,16 @@
         <v>34</v>
       </c>
       <c r="Q55" t="s">
-        <v>47</v>
-      </c>
-      <c r="R55" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S55" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>48</v>
+      <c r="R55">
+        <v>44.048943</v>
+      </c>
+      <c r="S55">
+        <v>149.30646</v>
+      </c>
+      <c r="T55" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4506,7 +4520,7 @@
         <v>58</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s">
         <v>123</v>
@@ -4533,13 +4547,13 @@
         <v>61</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4595,13 +4609,13 @@
         <v>61</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4630,7 +4644,7 @@
         <v>58</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s">
         <v>123</v>
@@ -4657,13 +4671,13 @@
         <v>61</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4719,13 +4733,13 @@
         <v>61</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4754,7 +4768,7 @@
         <v>58</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s">
         <v>123</v>
@@ -4781,13 +4795,13 @@
         <v>61</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4843,13 +4857,13 @@
         <v>61</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4857,34 +4871,34 @@
         <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62" t="s">
         <v>58</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s">
         <v>120</v>
       </c>
       <c r="K62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L62" t="s">
         <v>31</v>
@@ -4902,16 +4916,16 @@
         <v>34</v>
       </c>
       <c r="Q62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4919,34 +4933,34 @@
         <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>57</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s">
         <v>120</v>
       </c>
       <c r="K63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L63" t="s">
         <v>31</v>
@@ -4964,16 +4978,16 @@
         <v>34</v>
       </c>
       <c r="Q63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4981,19 +4995,19 @@
         <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
         <v>57</v>
@@ -5002,13 +5016,13 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s">
         <v>120</v>
       </c>
       <c r="K64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L64" t="s">
         <v>31</v>
@@ -5026,16 +5040,16 @@
         <v>34</v>
       </c>
       <c r="Q64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5043,22 +5057,22 @@
         <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H65" t="s">
         <v>58</v>
@@ -5070,7 +5084,7 @@
         <v>120</v>
       </c>
       <c r="K65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L65" t="s">
         <v>31</v>
@@ -5088,16 +5102,16 @@
         <v>34</v>
       </c>
       <c r="Q65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5105,25 +5119,25 @@
         <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
         <v>57</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s">
         <v>50</v>
@@ -5132,7 +5146,7 @@
         <v>120</v>
       </c>
       <c r="K66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L66" t="s">
         <v>31</v>
@@ -5150,16 +5164,16 @@
         <v>34</v>
       </c>
       <c r="Q66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5167,19 +5181,19 @@
         <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
         <v>57</v>
@@ -5194,7 +5208,7 @@
         <v>120</v>
       </c>
       <c r="K67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L67" t="s">
         <v>31</v>
@@ -5212,16 +5226,16 @@
         <v>34</v>
       </c>
       <c r="Q67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5244,13 +5258,13 @@
         <v>56</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s">
         <v>123</v>
@@ -5277,13 +5291,13 @@
         <v>61</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5306,13 +5320,13 @@
         <v>56</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s">
         <v>58</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J69" t="s">
         <v>123</v>
@@ -5339,13 +5353,13 @@
         <v>61</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5371,10 +5385,10 @@
         <v>57</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J70" t="s">
         <v>123</v>
@@ -5401,13 +5415,13 @@
         <v>61</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5430,10 +5444,10 @@
         <v>56</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I71" t="s">
         <v>50</v>
@@ -5463,13 +5477,13 @@
         <v>61</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5492,7 +5506,7 @@
         <v>56</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s">
         <v>58</v>
@@ -5525,13 +5539,13 @@
         <v>61</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5557,7 +5571,7 @@
         <v>57</v>
       </c>
       <c r="H73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s">
         <v>50</v>
@@ -5587,13 +5601,13 @@
         <v>61</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5616,13 +5630,13 @@
         <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s">
         <v>123</v>
@@ -5646,16 +5660,16 @@
         <v>34</v>
       </c>
       <c r="Q74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5678,13 +5692,13 @@
         <v>56</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H75" t="s">
         <v>58</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J75" t="s">
         <v>123</v>
@@ -5708,16 +5722,16 @@
         <v>34</v>
       </c>
       <c r="Q75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5743,10 +5757,10 @@
         <v>57</v>
       </c>
       <c r="H76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s">
         <v>123</v>
@@ -5770,16 +5784,16 @@
         <v>34</v>
       </c>
       <c r="Q76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5802,10 +5816,10 @@
         <v>56</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I77" t="s">
         <v>50</v>
@@ -5832,16 +5846,16 @@
         <v>34</v>
       </c>
       <c r="Q77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5864,7 +5878,7 @@
         <v>56</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
         <v>58</v>
@@ -5894,16 +5908,16 @@
         <v>34</v>
       </c>
       <c r="Q78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5929,7 +5943,7 @@
         <v>57</v>
       </c>
       <c r="H79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s">
         <v>50</v>
@@ -5956,16 +5970,16 @@
         <v>34</v>
       </c>
       <c r="Q79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5988,13 +6002,13 @@
         <v>56</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s">
         <v>123</v>
@@ -6021,13 +6035,13 @@
         <v>61</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6050,13 +6064,13 @@
         <v>56</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
         <v>58</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J81" t="s">
         <v>123</v>
@@ -6083,13 +6097,13 @@
         <v>61</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6115,10 +6129,10 @@
         <v>57</v>
       </c>
       <c r="H82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J82" t="s">
         <v>123</v>
@@ -6145,13 +6159,13 @@
         <v>61</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6174,10 +6188,10 @@
         <v>56</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I83" t="s">
         <v>50</v>
@@ -6207,13 +6221,13 @@
         <v>61</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6236,7 +6250,7 @@
         <v>56</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84" t="s">
         <v>58</v>
@@ -6269,13 +6283,13 @@
         <v>61</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6301,7 +6315,7 @@
         <v>57</v>
       </c>
       <c r="H85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I85" t="s">
         <v>50</v>
@@ -6331,13 +6345,13 @@
         <v>61</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6360,13 +6374,13 @@
         <v>56</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J86" t="s">
         <v>123</v>
@@ -6390,16 +6404,16 @@
         <v>34</v>
       </c>
       <c r="Q86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6422,13 +6436,13 @@
         <v>56</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s">
         <v>58</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J87" t="s">
         <v>123</v>
@@ -6452,16 +6466,16 @@
         <v>34</v>
       </c>
       <c r="Q87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6487,10 +6501,10 @@
         <v>57</v>
       </c>
       <c r="H88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J88" t="s">
         <v>123</v>
@@ -6514,16 +6528,16 @@
         <v>34</v>
       </c>
       <c r="Q88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6546,10 +6560,10 @@
         <v>56</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I89" t="s">
         <v>50</v>
@@ -6576,16 +6590,16 @@
         <v>34</v>
       </c>
       <c r="Q89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6608,7 +6622,7 @@
         <v>56</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H90" t="s">
         <v>58</v>
@@ -6638,16 +6652,16 @@
         <v>34</v>
       </c>
       <c r="Q90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6673,7 +6687,7 @@
         <v>57</v>
       </c>
       <c r="H91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I91" t="s">
         <v>50</v>
@@ -6700,16 +6714,16 @@
         <v>34</v>
       </c>
       <c r="Q91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6732,13 +6746,13 @@
         <v>56</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J92" t="s">
         <v>123</v>
@@ -6765,13 +6779,13 @@
         <v>61</v>
       </c>
       <c r="R92" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6794,13 +6808,13 @@
         <v>56</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H93" t="s">
         <v>58</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J93" t="s">
         <v>123</v>
@@ -6827,13 +6841,13 @@
         <v>61</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6859,10 +6873,10 @@
         <v>57</v>
       </c>
       <c r="H94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J94" t="s">
         <v>123</v>
@@ -6889,13 +6903,13 @@
         <v>61</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6918,10 +6932,10 @@
         <v>56</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I95" t="s">
         <v>50</v>
@@ -6951,13 +6965,13 @@
         <v>61</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6980,7 +6994,7 @@
         <v>56</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H96" t="s">
         <v>58</v>
@@ -7013,13 +7027,13 @@
         <v>61</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7045,7 +7059,7 @@
         <v>57</v>
       </c>
       <c r="H97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I97" t="s">
         <v>50</v>
@@ -7075,13 +7089,13 @@
         <v>61</v>
       </c>
       <c r="R97" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7104,13 +7118,13 @@
         <v>56</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J98" t="s">
         <v>123</v>
@@ -7134,16 +7148,16 @@
         <v>34</v>
       </c>
       <c r="Q98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7166,13 +7180,13 @@
         <v>56</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s">
         <v>58</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J99" t="s">
         <v>123</v>
@@ -7196,16 +7210,16 @@
         <v>34</v>
       </c>
       <c r="Q99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7231,10 +7245,10 @@
         <v>57</v>
       </c>
       <c r="H100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J100" t="s">
         <v>123</v>
@@ -7258,16 +7272,16 @@
         <v>34</v>
       </c>
       <c r="Q100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7290,10 +7304,10 @@
         <v>56</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I101" t="s">
         <v>50</v>
@@ -7320,16 +7334,16 @@
         <v>34</v>
       </c>
       <c r="Q101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R101" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7352,7 +7366,7 @@
         <v>56</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H102" t="s">
         <v>58</v>
@@ -7382,16 +7396,16 @@
         <v>34</v>
       </c>
       <c r="Q102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R102" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7417,7 +7431,7 @@
         <v>57</v>
       </c>
       <c r="H103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I103" t="s">
         <v>50</v>
@@ -7444,16 +7458,16 @@
         <v>34</v>
       </c>
       <c r="Q103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7509,13 +7523,13 @@
         <v>35</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7523,34 +7537,34 @@
         <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L105" t="s">
         <v>31</v>
@@ -7568,16 +7582,16 @@
         <v>34</v>
       </c>
       <c r="Q105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7585,34 +7599,34 @@
         <v>173</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I106" t="s">
         <v>50</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L106" t="s">
         <v>31</v>
@@ -7630,16 +7644,16 @@
         <v>34</v>
       </c>
       <c r="Q106" t="s">
-        <v>47</v>
-      </c>
-      <c r="R106" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S106" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>48</v>
+      <c r="R106">
+        <v>44.476167</v>
+      </c>
+      <c r="S106">
+        <v>144.60968</v>
+      </c>
+      <c r="T106" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7668,7 +7682,7 @@
         <v>58</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J107" t="s">
         <v>60</v>
@@ -7695,13 +7709,13 @@
         <v>61</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7757,13 +7771,13 @@
         <v>61</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7792,7 +7806,7 @@
         <v>58</v>
       </c>
       <c r="I109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J109" t="s">
         <v>60</v>
@@ -7819,13 +7833,13 @@
         <v>61</v>
       </c>
       <c r="R109" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7881,13 +7895,13 @@
         <v>61</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7916,7 +7930,7 @@
         <v>58</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J111" t="s">
         <v>60</v>
@@ -7943,13 +7957,13 @@
         <v>61</v>
       </c>
       <c r="R111" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -8005,13 +8019,13 @@
         <v>61</v>
       </c>
       <c r="R112" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -8019,34 +8033,34 @@
         <v>180</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H113" t="s">
         <v>58</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L113" t="s">
         <v>31</v>
@@ -8064,16 +8078,16 @@
         <v>34</v>
       </c>
       <c r="Q113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R113" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8081,34 +8095,34 @@
         <v>181</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
         <v>57</v>
       </c>
       <c r="H114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L114" t="s">
         <v>31</v>
@@ -8126,16 +8140,16 @@
         <v>34</v>
       </c>
       <c r="Q114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R114" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -8143,19 +8157,19 @@
         <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
         <v>57</v>
@@ -8164,13 +8178,13 @@
         <v>58</v>
       </c>
       <c r="I115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L115" t="s">
         <v>31</v>
@@ -8188,16 +8202,16 @@
         <v>34</v>
       </c>
       <c r="Q115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R115" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -8205,22 +8219,22 @@
         <v>183</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H116" t="s">
         <v>58</v>
@@ -8229,10 +8243,10 @@
         <v>50</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L116" t="s">
         <v>31</v>
@@ -8250,16 +8264,16 @@
         <v>34</v>
       </c>
       <c r="Q116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R116" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -8267,34 +8281,34 @@
         <v>184</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
         <v>57</v>
       </c>
       <c r="H117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I117" t="s">
         <v>50</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L117" t="s">
         <v>31</v>
@@ -8312,16 +8326,16 @@
         <v>34</v>
       </c>
       <c r="Q117" t="s">
-        <v>47</v>
-      </c>
-      <c r="R117" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S117" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T117" s="2" t="s">
-        <v>48</v>
+      <c r="R117">
+        <v>45.984425</v>
+      </c>
+      <c r="S117">
+        <v>104.96949</v>
+      </c>
+      <c r="T117">
+        <v>9599.073200000001</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -8329,19 +8343,19 @@
         <v>185</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
         <v>57</v>
@@ -8353,10 +8367,10 @@
         <v>50</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L118" t="s">
         <v>31</v>
@@ -8374,16 +8388,16 @@
         <v>34</v>
       </c>
       <c r="Q118" t="s">
-        <v>47</v>
-      </c>
-      <c r="R118" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T118" s="2" t="s">
-        <v>48</v>
+      <c r="R118">
+        <v>45.984425</v>
+      </c>
+      <c r="S118">
+        <v>88.405276</v>
+      </c>
+      <c r="T118">
+        <v>8763.543900000001</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -8406,13 +8420,13 @@
         <v>56</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J119" t="s">
         <v>60</v>
@@ -8439,13 +8453,13 @@
         <v>61</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8468,13 +8482,13 @@
         <v>56</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H120" t="s">
         <v>58</v>
       </c>
       <c r="I120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J120" t="s">
         <v>60</v>
@@ -8501,13 +8515,13 @@
         <v>61</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -8533,10 +8547,10 @@
         <v>57</v>
       </c>
       <c r="H121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J121" t="s">
         <v>60</v>
@@ -8563,13 +8577,13 @@
         <v>61</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -8592,10 +8606,10 @@
         <v>56</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I122" t="s">
         <v>50</v>
@@ -8625,13 +8639,13 @@
         <v>61</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8654,7 +8668,7 @@
         <v>56</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H123" t="s">
         <v>58</v>
@@ -8687,13 +8701,13 @@
         <v>61</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8719,7 +8733,7 @@
         <v>57</v>
       </c>
       <c r="H124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I124" t="s">
         <v>50</v>
@@ -8749,13 +8763,13 @@
         <v>61</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8778,13 +8792,13 @@
         <v>56</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J125" t="s">
         <v>60</v>
@@ -8808,16 +8822,16 @@
         <v>34</v>
       </c>
       <c r="Q125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R125" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8840,13 +8854,13 @@
         <v>56</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126" t="s">
         <v>58</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J126" t="s">
         <v>60</v>
@@ -8870,16 +8884,16 @@
         <v>34</v>
       </c>
       <c r="Q126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R126" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8905,10 +8919,10 @@
         <v>57</v>
       </c>
       <c r="H127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J127" t="s">
         <v>60</v>
@@ -8932,16 +8946,16 @@
         <v>34</v>
       </c>
       <c r="Q127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8964,10 +8978,10 @@
         <v>56</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I128" t="s">
         <v>50</v>
@@ -8994,16 +9008,16 @@
         <v>34</v>
       </c>
       <c r="Q128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R128" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -9026,7 +9040,7 @@
         <v>56</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H129" t="s">
         <v>58</v>
@@ -9056,16 +9070,16 @@
         <v>34</v>
       </c>
       <c r="Q129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R129" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -9091,7 +9105,7 @@
         <v>57</v>
       </c>
       <c r="H130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I130" t="s">
         <v>50</v>
@@ -9118,16 +9132,16 @@
         <v>34</v>
       </c>
       <c r="Q130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R130" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -9150,13 +9164,13 @@
         <v>56</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J131" t="s">
         <v>60</v>
@@ -9183,13 +9197,13 @@
         <v>61</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T131" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9212,13 +9226,13 @@
         <v>56</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H132" t="s">
         <v>58</v>
       </c>
       <c r="I132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J132" t="s">
         <v>60</v>
@@ -9245,13 +9259,13 @@
         <v>61</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T132" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9277,10 +9291,10 @@
         <v>57</v>
       </c>
       <c r="H133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J133" t="s">
         <v>60</v>
@@ -9307,13 +9321,13 @@
         <v>61</v>
       </c>
       <c r="R133" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T133" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9336,10 +9350,10 @@
         <v>56</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I134" t="s">
         <v>50</v>
@@ -9369,13 +9383,13 @@
         <v>61</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -9398,7 +9412,7 @@
         <v>56</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H135" t="s">
         <v>58</v>
@@ -9431,13 +9445,13 @@
         <v>61</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9463,7 +9477,7 @@
         <v>57</v>
       </c>
       <c r="H136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I136" t="s">
         <v>50</v>
@@ -9493,13 +9507,13 @@
         <v>61</v>
       </c>
       <c r="R136" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9522,13 +9536,13 @@
         <v>56</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H137" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J137" t="s">
         <v>60</v>
@@ -9552,16 +9566,16 @@
         <v>34</v>
       </c>
       <c r="Q137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R137" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9584,13 +9598,13 @@
         <v>56</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H138" t="s">
         <v>58</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J138" t="s">
         <v>60</v>
@@ -9614,16 +9628,16 @@
         <v>34</v>
       </c>
       <c r="Q138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R138" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9649,10 +9663,10 @@
         <v>57</v>
       </c>
       <c r="H139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I139" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J139" t="s">
         <v>60</v>
@@ -9676,16 +9690,16 @@
         <v>34</v>
       </c>
       <c r="Q139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9708,10 +9722,10 @@
         <v>56</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I140" t="s">
         <v>50</v>
@@ -9738,16 +9752,16 @@
         <v>34</v>
       </c>
       <c r="Q140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R140" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9770,7 +9784,7 @@
         <v>56</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H141" t="s">
         <v>58</v>
@@ -9800,16 +9814,16 @@
         <v>34</v>
       </c>
       <c r="Q141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T141" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9835,7 +9849,7 @@
         <v>57</v>
       </c>
       <c r="H142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I142" t="s">
         <v>50</v>
@@ -9862,16 +9876,16 @@
         <v>34</v>
       </c>
       <c r="Q142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -9894,13 +9908,13 @@
         <v>56</v>
       </c>
       <c r="G143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J143" t="s">
         <v>60</v>
@@ -9927,13 +9941,13 @@
         <v>61</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T143" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9956,13 +9970,13 @@
         <v>56</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H144" t="s">
         <v>58</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J144" t="s">
         <v>60</v>
@@ -9989,13 +10003,13 @@
         <v>61</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T144" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10021,10 +10035,10 @@
         <v>57</v>
       </c>
       <c r="H145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J145" t="s">
         <v>60</v>
@@ -10051,13 +10065,13 @@
         <v>61</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T145" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10080,10 +10094,10 @@
         <v>56</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I146" t="s">
         <v>50</v>
@@ -10113,13 +10127,13 @@
         <v>61</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -10142,7 +10156,7 @@
         <v>56</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H147" t="s">
         <v>58</v>
@@ -10175,13 +10189,13 @@
         <v>61</v>
       </c>
       <c r="R147" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T147" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10207,7 +10221,7 @@
         <v>57</v>
       </c>
       <c r="H148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I148" t="s">
         <v>50</v>
@@ -10237,13 +10251,13 @@
         <v>61</v>
       </c>
       <c r="R148" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T148" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -10266,13 +10280,13 @@
         <v>56</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J149" t="s">
         <v>60</v>
@@ -10296,16 +10310,16 @@
         <v>34</v>
       </c>
       <c r="Q149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R149" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S149" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T149" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -10328,13 +10342,13 @@
         <v>56</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H150" t="s">
         <v>58</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J150" t="s">
         <v>60</v>
@@ -10358,16 +10372,16 @@
         <v>34</v>
       </c>
       <c r="Q150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T150" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10393,10 +10407,10 @@
         <v>57</v>
       </c>
       <c r="H151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J151" t="s">
         <v>60</v>
@@ -10420,16 +10434,16 @@
         <v>34</v>
       </c>
       <c r="Q151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R151" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T151" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10452,10 +10466,10 @@
         <v>56</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I152" t="s">
         <v>50</v>
@@ -10482,16 +10496,16 @@
         <v>34</v>
       </c>
       <c r="Q152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R152" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10514,7 +10528,7 @@
         <v>56</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H153" t="s">
         <v>58</v>
@@ -10544,16 +10558,16 @@
         <v>34</v>
       </c>
       <c r="Q153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T153" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10579,7 +10593,7 @@
         <v>57</v>
       </c>
       <c r="H154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I154" t="s">
         <v>50</v>
@@ -10606,16 +10620,16 @@
         <v>34</v>
       </c>
       <c r="Q154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R154" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="1" customFormat="1">
@@ -10685,13 +10699,13 @@
         <v>222</v>
       </c>
       <c r="R156" s="1">
-        <v>35.881396</v>
+        <v>27.422346</v>
       </c>
       <c r="S156" s="1">
-        <v>49.772195</v>
-      </c>
-      <c r="T156" s="1">
-        <v>3213.0787</v>
+        <v>67.51956199999999</v>
+      </c>
+      <c r="T156" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
@@ -10699,13 +10713,13 @@
         <v>223</v>
       </c>
       <c r="R157" s="1">
-        <v>41.213773</v>
+        <v>45.984425</v>
       </c>
       <c r="S157" s="1">
-        <v>79.58353</v>
+        <v>504.86979</v>
       </c>
       <c r="T157" s="1">
-        <v>5534.0949</v>
+        <v>9599.073200000001</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
@@ -10751,13 +10765,13 @@
         <v>228</v>
       </c>
       <c r="R162" s="1">
-        <v>38.81906</v>
+        <v>36.05306</v>
       </c>
       <c r="S162" s="1">
-        <v>67.77385</v>
+        <v>226.359</v>
       </c>
       <c r="T162" s="1">
-        <v>4006.799</v>
+        <v>5344.3</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
@@ -10765,13 +10779,13 @@
         <v>229</v>
       </c>
       <c r="R163" s="1">
-        <v>2.210528</v>
+        <v>8.256845</v>
       </c>
       <c r="S163" s="1">
-        <v>12.934044</v>
+        <v>131.500861</v>
       </c>
       <c r="T163" s="1">
-        <v>1080.240404</v>
+        <v>3260.154939</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
@@ -10779,13 +10793,13 @@
         <v>230</v>
       </c>
       <c r="R164" s="1">
-        <v>5.69444</v>
+        <v>22.901926</v>
       </c>
       <c r="S164" s="1">
-        <v>19.084122</v>
+        <v>58.09394</v>
       </c>
       <c r="T164" s="1">
-        <v>26.960185</v>
+        <v>61.002469</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -1447,13 +1447,13 @@
         <v>61</v>
       </c>
       <c r="R6">
-        <v>40.178854</v>
+        <v>40.871918</v>
       </c>
       <c r="S6">
-        <v>67.51956199999999</v>
+        <v>60.531762</v>
       </c>
       <c r="T6">
-        <v>4174.3219</v>
+        <v>4339.1039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -3617,13 +3617,13 @@
         <v>61</v>
       </c>
       <c r="R41">
-        <v>27.422346</v>
+        <v>24.036388</v>
       </c>
       <c r="S41">
-        <v>320.13596</v>
+        <v>300.91925</v>
       </c>
       <c r="T41">
-        <v>5600.6793</v>
+        <v>4238.5112</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3679,13 +3679,13 @@
         <v>61</v>
       </c>
       <c r="R42">
-        <v>27.422346</v>
+        <v>24.036388</v>
       </c>
       <c r="S42">
-        <v>281.81895</v>
+        <v>255.29627</v>
       </c>
       <c r="T42">
-        <v>5075.2297</v>
+        <v>3644.8159</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3989,13 +3989,13 @@
         <v>48</v>
       </c>
       <c r="R47">
-        <v>27.422346</v>
+        <v>25.155574</v>
       </c>
       <c r="S47">
-        <v>320.13596</v>
+        <v>309.7239</v>
       </c>
       <c r="T47">
-        <v>5600.6793</v>
+        <v>4818.1578</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4051,13 +4051,13 @@
         <v>48</v>
       </c>
       <c r="R48">
-        <v>27.422346</v>
+        <v>25.155574</v>
       </c>
       <c r="S48">
-        <v>281.81895</v>
+        <v>261.75187</v>
       </c>
       <c r="T48">
-        <v>5075.2297</v>
+        <v>4152.1388</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4423,13 +4423,13 @@
         <v>48</v>
       </c>
       <c r="R54">
-        <v>30.168426</v>
+        <v>29.062159</v>
       </c>
       <c r="S54">
-        <v>504.86979</v>
+        <v>536.18692</v>
       </c>
       <c r="T54">
-        <v>9554.239</v>
+        <v>9597.522999999999</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4485,10 +4485,10 @@
         <v>48</v>
       </c>
       <c r="R55">
-        <v>44.048943</v>
+        <v>44.715429</v>
       </c>
       <c r="S55">
-        <v>149.30646</v>
+        <v>138.60933</v>
       </c>
       <c r="T55" s="3">
         <v>0</v>
@@ -7647,10 +7647,10 @@
         <v>48</v>
       </c>
       <c r="R106">
-        <v>44.476167</v>
+        <v>45.2621</v>
       </c>
       <c r="S106">
-        <v>144.60968</v>
+        <v>132.08504</v>
       </c>
       <c r="T106" s="3">
         <v>0</v>
@@ -8329,13 +8329,13 @@
         <v>48</v>
       </c>
       <c r="R117">
-        <v>45.984425</v>
+        <v>46.718073</v>
       </c>
       <c r="S117">
-        <v>104.96949</v>
+        <v>95.700428</v>
       </c>
       <c r="T117">
-        <v>9599.073200000001</v>
+        <v>9888.912</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -8391,13 +8391,13 @@
         <v>48</v>
       </c>
       <c r="R118">
-        <v>45.984425</v>
+        <v>46.718073</v>
       </c>
       <c r="S118">
-        <v>88.405276</v>
+        <v>76.01830099999999</v>
       </c>
       <c r="T118">
-        <v>8763.543900000001</v>
+        <v>8717.4125</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -10699,10 +10699,10 @@
         <v>222</v>
       </c>
       <c r="R156" s="1">
-        <v>27.422346</v>
+        <v>24.036388</v>
       </c>
       <c r="S156" s="1">
-        <v>67.51956199999999</v>
+        <v>60.531762</v>
       </c>
       <c r="T156" s="3">
         <v>0</v>
@@ -10713,13 +10713,13 @@
         <v>223</v>
       </c>
       <c r="R157" s="1">
-        <v>45.984425</v>
+        <v>46.718073</v>
       </c>
       <c r="S157" s="1">
-        <v>504.86979</v>
+        <v>536.18692</v>
       </c>
       <c r="T157" s="1">
-        <v>9599.073200000001</v>
+        <v>9888.912</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
@@ -10765,13 +10765,13 @@
         <v>228</v>
       </c>
       <c r="R162" s="1">
-        <v>36.05306</v>
+        <v>35.17317</v>
       </c>
       <c r="S162" s="1">
-        <v>226.359</v>
+        <v>216.6823</v>
       </c>
       <c r="T162" s="1">
-        <v>5344.3</v>
+        <v>4939.658</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
@@ -10779,13 +10779,13 @@
         <v>229</v>
       </c>
       <c r="R163" s="1">
-        <v>8.256845</v>
+        <v>9.889343999999999</v>
       </c>
       <c r="S163" s="1">
-        <v>131.500861</v>
+        <v>139.074138</v>
       </c>
       <c r="T163" s="1">
-        <v>3260.154939</v>
+        <v>3353.006558</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
@@ -10793,13 +10793,13 @@
         <v>230</v>
       </c>
       <c r="R164" s="1">
-        <v>22.901926</v>
+        <v>28.116158</v>
       </c>
       <c r="S164" s="1">
-        <v>58.09394</v>
+        <v>64.18343299999999</v>
       </c>
       <c r="T164" s="1">
-        <v>61.002469</v>
+        <v>67.87932600000001</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="231">
   <si>
     <t>Process</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>tsmc2p (17)</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (18)</t>
@@ -728,7 +731,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
+      <color rgb="FF000000 "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -743,7 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2235,19 +2238,19 @@
       <c r="Q19" t="s">
         <v>60</v>
       </c>
-      <c r="R19">
-        <v>35.263346</v>
-      </c>
-      <c r="S19">
-        <v>123.6622</v>
-      </c>
-      <c r="T19">
-        <v>4491.0858</v>
+      <c r="R19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
@@ -2309,7 +2312,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -2433,7 +2436,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
@@ -2495,7 +2498,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
@@ -2557,7 +2560,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -2619,7 +2622,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -2681,7 +2684,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
@@ -2805,7 +2808,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
@@ -2867,7 +2870,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
@@ -2991,7 +2994,7 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -3053,7 +3056,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -3115,7 +3118,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
@@ -3177,7 +3180,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
@@ -3301,7 +3304,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
@@ -3363,7 +3366,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
@@ -3425,7 +3428,7 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
@@ -3487,7 +3490,7 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
@@ -3549,7 +3552,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
         <v>69</v>
@@ -3611,7 +3614,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
         <v>69</v>
@@ -3673,7 +3676,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
         <v>69</v>
@@ -3735,7 +3738,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
         <v>69</v>
@@ -3797,7 +3800,7 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
         <v>69</v>
@@ -3859,7 +3862,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
         <v>69</v>
@@ -3921,7 +3924,7 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
         <v>69</v>
@@ -3983,7 +3986,7 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B48" t="s">
         <v>69</v>
@@ -4045,7 +4048,7 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
         <v>69</v>
@@ -4107,7 +4110,7 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
@@ -4169,7 +4172,7 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
@@ -4231,7 +4234,7 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
         <v>69</v>
@@ -4293,7 +4296,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -4320,7 +4323,7 @@
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K53" t="s">
         <v>30</v>
@@ -4355,7 +4358,7 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -4382,7 +4385,7 @@
         <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K54" t="s">
         <v>46</v>
@@ -4417,7 +4420,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -4444,7 +4447,7 @@
         <v>49</v>
       </c>
       <c r="J55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K55" t="s">
         <v>46</v>
@@ -4473,13 +4476,13 @@
       <c r="S55">
         <v>138.60933</v>
       </c>
-      <c r="T55" s="2">
-        <v>0</v>
+      <c r="T55">
+        <v>12432.386</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
         <v>51</v>
@@ -4506,7 +4509,7 @@
         <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K56" t="s">
         <v>59</v>
@@ -4541,7 +4544,7 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
@@ -4568,7 +4571,7 @@
         <v>49</v>
       </c>
       <c r="J57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K57" t="s">
         <v>59</v>
@@ -4603,7 +4606,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
@@ -4630,7 +4633,7 @@
         <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K58" t="s">
         <v>59</v>
@@ -4665,7 +4668,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
@@ -4692,7 +4695,7 @@
         <v>49</v>
       </c>
       <c r="J59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K59" t="s">
         <v>59</v>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
@@ -4754,7 +4757,7 @@
         <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K60" t="s">
         <v>59</v>
@@ -4789,7 +4792,7 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -4816,7 +4819,7 @@
         <v>49</v>
       </c>
       <c r="J61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K61" t="s">
         <v>59</v>
@@ -4851,7 +4854,7 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -4878,7 +4881,7 @@
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K62" t="s">
         <v>46</v>
@@ -4913,7 +4916,7 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -4940,7 +4943,7 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K63" t="s">
         <v>46</v>
@@ -4963,19 +4966,19 @@
       <c r="Q63" t="s">
         <v>47</v>
       </c>
-      <c r="R63">
-        <v>29.52999</v>
-      </c>
-      <c r="S63">
-        <v>428.99505</v>
-      </c>
-      <c r="T63">
-        <v>7962.5754</v>
+      <c r="R63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -5002,7 +5005,7 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s">
         <v>46</v>
@@ -5025,19 +5028,19 @@
       <c r="Q64" t="s">
         <v>47</v>
       </c>
-      <c r="R64">
-        <v>29.52999</v>
-      </c>
-      <c r="S64">
-        <v>355.13251</v>
-      </c>
-      <c r="T64">
-        <v>6998.3284</v>
+      <c r="R64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -5064,7 +5067,7 @@
         <v>49</v>
       </c>
       <c r="J65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K65" t="s">
         <v>46</v>
@@ -5093,13 +5096,13 @@
       <c r="S65">
         <v>110.2109</v>
       </c>
-      <c r="T65" s="2">
-        <v>0</v>
+      <c r="T65">
+        <v>10917.126</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -5126,7 +5129,7 @@
         <v>49</v>
       </c>
       <c r="J66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K66" t="s">
         <v>46</v>
@@ -5149,19 +5152,19 @@
       <c r="Q66" t="s">
         <v>47</v>
       </c>
-      <c r="R66">
-        <v>46.49525</v>
-      </c>
-      <c r="S66">
-        <v>98.242238</v>
-      </c>
-      <c r="T66" s="2">
-        <v>0</v>
+      <c r="R66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -5188,7 +5191,7 @@
         <v>49</v>
       </c>
       <c r="J67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K67" t="s">
         <v>46</v>
@@ -5211,19 +5214,19 @@
       <c r="Q67" t="s">
         <v>47</v>
       </c>
-      <c r="R67">
-        <v>46.49525</v>
-      </c>
-      <c r="S67">
-        <v>78.02426</v>
-      </c>
-      <c r="T67">
-        <v>9073.204</v>
+      <c r="R67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
         <v>51</v>
@@ -5250,7 +5253,7 @@
         <v>44</v>
       </c>
       <c r="J68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K68" t="s">
         <v>59</v>
@@ -5273,19 +5276,19 @@
       <c r="Q68" t="s">
         <v>60</v>
       </c>
-      <c r="R68">
-        <v>27.36724</v>
-      </c>
-      <c r="S68">
-        <v>320.04048</v>
-      </c>
-      <c r="T68">
-        <v>6106.1845</v>
+      <c r="R68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
         <v>51</v>
@@ -5312,7 +5315,7 @@
         <v>44</v>
       </c>
       <c r="J69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K69" t="s">
         <v>59</v>
@@ -5335,19 +5338,19 @@
       <c r="Q69" t="s">
         <v>60</v>
       </c>
-      <c r="R69">
-        <v>27.36724</v>
-      </c>
-      <c r="S69">
-        <v>260.45745</v>
-      </c>
-      <c r="T69">
-        <v>5190.8046</v>
+      <c r="R69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
         <v>51</v>
@@ -5374,7 +5377,7 @@
         <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K70" t="s">
         <v>59</v>
@@ -5397,19 +5400,19 @@
       <c r="Q70" t="s">
         <v>60</v>
       </c>
-      <c r="R70">
-        <v>32.956755</v>
-      </c>
-      <c r="S70">
-        <v>170.79833</v>
-      </c>
-      <c r="T70">
-        <v>5684.3265</v>
+      <c r="R70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
         <v>51</v>
@@ -5436,7 +5439,7 @@
         <v>49</v>
       </c>
       <c r="J71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K71" t="s">
         <v>59</v>
@@ -5459,19 +5462,19 @@
       <c r="Q71" t="s">
         <v>60</v>
       </c>
-      <c r="R71">
-        <v>21.073297</v>
-      </c>
-      <c r="S71">
-        <v>493.28801</v>
-      </c>
-      <c r="T71">
-        <v>5198.8548</v>
+      <c r="R71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
         <v>51</v>
@@ -5498,7 +5501,7 @@
         <v>49</v>
       </c>
       <c r="J72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K72" t="s">
         <v>59</v>
@@ -5521,19 +5524,19 @@
       <c r="Q72" t="s">
         <v>60</v>
       </c>
-      <c r="R72">
-        <v>21.073297</v>
-      </c>
-      <c r="S72">
-        <v>405.67414</v>
-      </c>
-      <c r="T72">
-        <v>4343.5827</v>
+      <c r="R72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
         <v>51</v>
@@ -5560,7 +5563,7 @@
         <v>49</v>
       </c>
       <c r="J73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K73" t="s">
         <v>59</v>
@@ -5583,19 +5586,19 @@
       <c r="Q73" t="s">
         <v>60</v>
       </c>
-      <c r="R73">
-        <v>29.302433</v>
-      </c>
-      <c r="S73">
-        <v>206.62788</v>
-      </c>
-      <c r="T73">
-        <v>5314.1581</v>
+      <c r="R73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s">
         <v>51</v>
@@ -5622,7 +5625,7 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K74" t="s">
         <v>59</v>
@@ -5645,19 +5648,19 @@
       <c r="Q74" t="s">
         <v>47</v>
       </c>
-      <c r="R74">
-        <v>28.105681</v>
-      </c>
-      <c r="S74">
-        <v>304.46825</v>
-      </c>
-      <c r="T74">
-        <v>6217.0582</v>
+      <c r="R74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
         <v>51</v>
@@ -5684,7 +5687,7 @@
         <v>44</v>
       </c>
       <c r="J75" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K75" t="s">
         <v>59</v>
@@ -5707,19 +5710,19 @@
       <c r="Q75" t="s">
         <v>47</v>
       </c>
-      <c r="R75">
-        <v>28.105681</v>
-      </c>
-      <c r="S75">
-        <v>247.53096</v>
-      </c>
-      <c r="T75">
-        <v>5295.5802</v>
+      <c r="R75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
         <v>51</v>
@@ -5746,7 +5749,7 @@
         <v>44</v>
       </c>
       <c r="J76" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K76" t="s">
         <v>59</v>
@@ -5769,19 +5772,19 @@
       <c r="Q76" t="s">
         <v>47</v>
       </c>
-      <c r="R76">
-        <v>33.424408</v>
-      </c>
-      <c r="S76">
-        <v>165.61405</v>
-      </c>
-      <c r="T76">
-        <v>5716.7151</v>
+      <c r="R76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
         <v>51</v>
@@ -5808,7 +5811,7 @@
         <v>49</v>
       </c>
       <c r="J77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K77" t="s">
         <v>59</v>
@@ -5831,19 +5834,19 @@
       <c r="Q77" t="s">
         <v>47</v>
       </c>
-      <c r="R77">
-        <v>21.934754</v>
-      </c>
-      <c r="S77">
-        <v>464.42183</v>
-      </c>
-      <c r="T77">
-        <v>5364.327</v>
+      <c r="R77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
         <v>51</v>
@@ -5870,7 +5873,7 @@
         <v>49</v>
       </c>
       <c r="J78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K78" t="s">
         <v>59</v>
@@ -5893,19 +5896,19 @@
       <c r="Q78" t="s">
         <v>47</v>
       </c>
-      <c r="R78">
-        <v>21.934754</v>
-      </c>
-      <c r="S78">
-        <v>381.4353</v>
-      </c>
-      <c r="T78">
-        <v>4485.2057</v>
+      <c r="R78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
@@ -5932,7 +5935,7 @@
         <v>49</v>
       </c>
       <c r="J79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K79" t="s">
         <v>59</v>
@@ -5955,19 +5958,19 @@
       <c r="Q79" t="s">
         <v>47</v>
       </c>
-      <c r="R79">
-        <v>30.087919</v>
-      </c>
-      <c r="S79">
-        <v>195.05137</v>
-      </c>
-      <c r="T79">
-        <v>5420.7807</v>
+      <c r="R79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
         <v>63</v>
@@ -5994,7 +5997,7 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K80" t="s">
         <v>59</v>
@@ -6029,7 +6032,7 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
@@ -6056,7 +6059,7 @@
         <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K81" t="s">
         <v>59</v>
@@ -6079,19 +6082,19 @@
       <c r="Q81" t="s">
         <v>60</v>
       </c>
-      <c r="R81">
-        <v>27.477116</v>
-      </c>
-      <c r="S81">
-        <v>278.78313</v>
-      </c>
-      <c r="T81">
-        <v>5580.4622</v>
+      <c r="R81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
@@ -6118,7 +6121,7 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K82" t="s">
         <v>59</v>
@@ -6153,7 +6156,7 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
         <v>63</v>
@@ -6180,7 +6183,7 @@
         <v>49</v>
       </c>
       <c r="J83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K83" t="s">
         <v>59</v>
@@ -6203,19 +6206,19 @@
       <c r="Q83" t="s">
         <v>60</v>
       </c>
-      <c r="R83">
-        <v>22.84392</v>
-      </c>
-      <c r="S83">
-        <v>463.73991</v>
-      </c>
-      <c r="T83">
-        <v>5930.2171</v>
+      <c r="R83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
         <v>63</v>
@@ -6242,7 +6245,7 @@
         <v>49</v>
       </c>
       <c r="J84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K84" t="s">
         <v>59</v>
@@ -6277,7 +6280,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
         <v>63</v>
@@ -6304,7 +6307,7 @@
         <v>49</v>
       </c>
       <c r="J85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K85" t="s">
         <v>59</v>
@@ -6327,19 +6330,19 @@
       <c r="Q85" t="s">
         <v>60</v>
       </c>
-      <c r="R85">
-        <v>31.85254</v>
-      </c>
-      <c r="S85">
-        <v>180.79839</v>
-      </c>
-      <c r="T85">
-        <v>6070.2096</v>
+      <c r="R85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
         <v>63</v>
@@ -6366,7 +6369,7 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K86" t="s">
         <v>59</v>
@@ -6389,19 +6392,19 @@
       <c r="Q86" t="s">
         <v>47</v>
       </c>
-      <c r="R86">
-        <v>28.338634</v>
-      </c>
-      <c r="S86">
-        <v>321.10021</v>
-      </c>
-      <c r="T86">
-        <v>6679.5224</v>
+      <c r="R86" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
         <v>63</v>
@@ -6428,7 +6431,7 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K87" t="s">
         <v>59</v>
@@ -6463,7 +6466,7 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
         <v>63</v>
@@ -6490,7 +6493,7 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K88" t="s">
         <v>59</v>
@@ -6525,7 +6528,7 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
         <v>63</v>
@@ -6552,7 +6555,7 @@
         <v>49</v>
       </c>
       <c r="J89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K89" t="s">
         <v>59</v>
@@ -6587,7 +6590,7 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
         <v>63</v>
@@ -6614,7 +6617,7 @@
         <v>49</v>
       </c>
       <c r="J90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K90" t="s">
         <v>59</v>
@@ -6649,7 +6652,7 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
         <v>63</v>
@@ -6676,7 +6679,7 @@
         <v>49</v>
       </c>
       <c r="J91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K91" t="s">
         <v>59</v>
@@ -6711,7 +6714,7 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
         <v>69</v>
@@ -6738,7 +6741,7 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K92" t="s">
         <v>59</v>
@@ -6773,7 +6776,7 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
         <v>69</v>
@@ -6800,7 +6803,7 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K93" t="s">
         <v>59</v>
@@ -6835,7 +6838,7 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
@@ -6862,7 +6865,7 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K94" t="s">
         <v>59</v>
@@ -6897,7 +6900,7 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
         <v>69</v>
@@ -6924,7 +6927,7 @@
         <v>49</v>
       </c>
       <c r="J95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K95" t="s">
         <v>59</v>
@@ -6959,7 +6962,7 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B96" t="s">
         <v>69</v>
@@ -6986,7 +6989,7 @@
         <v>49</v>
       </c>
       <c r="J96" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K96" t="s">
         <v>59</v>
@@ -7021,7 +7024,7 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
         <v>69</v>
@@ -7048,7 +7051,7 @@
         <v>49</v>
       </c>
       <c r="J97" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K97" t="s">
         <v>59</v>
@@ -7083,7 +7086,7 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
         <v>69</v>
@@ -7110,7 +7113,7 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K98" t="s">
         <v>59</v>
@@ -7145,7 +7148,7 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
         <v>69</v>
@@ -7172,7 +7175,7 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K99" t="s">
         <v>59</v>
@@ -7207,7 +7210,7 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
         <v>69</v>
@@ -7234,7 +7237,7 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K100" t="s">
         <v>59</v>
@@ -7269,7 +7272,7 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B101" t="s">
         <v>69</v>
@@ -7296,7 +7299,7 @@
         <v>49</v>
       </c>
       <c r="J101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K101" t="s">
         <v>59</v>
@@ -7331,7 +7334,7 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B102" t="s">
         <v>69</v>
@@ -7358,7 +7361,7 @@
         <v>49</v>
       </c>
       <c r="J102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K102" t="s">
         <v>59</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
         <v>69</v>
@@ -7420,7 +7423,7 @@
         <v>49</v>
       </c>
       <c r="J103" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K103" t="s">
         <v>59</v>
@@ -7455,7 +7458,7 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
@@ -7517,7 +7520,7 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -7579,7 +7582,7 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -7635,13 +7638,13 @@
       <c r="S106">
         <v>132.08504</v>
       </c>
-      <c r="T106" s="2">
-        <v>0</v>
+      <c r="T106">
+        <v>11808.694</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
         <v>51</v>
@@ -7703,7 +7706,7 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
         <v>51</v>
@@ -7765,7 +7768,7 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B109" t="s">
         <v>63</v>
@@ -7827,7 +7830,7 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B110" t="s">
         <v>63</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -7951,7 +7954,7 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
@@ -8013,7 +8016,7 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -8075,7 +8078,7 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -8137,7 +8140,7 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -8199,7 +8202,7 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -8255,13 +8258,13 @@
       <c r="S116">
         <v>105.04378</v>
       </c>
-      <c r="T116" s="2">
-        <v>0</v>
+      <c r="T116">
+        <v>10404.685</v>
       </c>
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -8323,7 +8326,7 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -8385,7 +8388,7 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s">
         <v>51</v>
@@ -8447,7 +8450,7 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
         <v>51</v>
@@ -8509,7 +8512,7 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B121" t="s">
         <v>51</v>
@@ -8571,7 +8574,7 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B122" t="s">
         <v>51</v>
@@ -8633,7 +8636,7 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
         <v>51</v>
@@ -8695,7 +8698,7 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B124" t="s">
         <v>51</v>
@@ -8757,7 +8760,7 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B125" t="s">
         <v>51</v>
@@ -8819,7 +8822,7 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B126" t="s">
         <v>51</v>
@@ -8881,7 +8884,7 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B127" t="s">
         <v>51</v>
@@ -8943,7 +8946,7 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
         <v>51</v>
@@ -9005,7 +9008,7 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B129" t="s">
         <v>51</v>
@@ -9067,7 +9070,7 @@
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B130" t="s">
         <v>51</v>
@@ -9129,7 +9132,7 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B131" t="s">
         <v>63</v>
@@ -9191,7 +9194,7 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
         <v>63</v>
@@ -9253,7 +9256,7 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B133" t="s">
         <v>63</v>
@@ -9315,7 +9318,7 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B134" t="s">
         <v>63</v>
@@ -9377,7 +9380,7 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
         <v>63</v>
@@ -9439,7 +9442,7 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B136" t="s">
         <v>63</v>
@@ -9501,7 +9504,7 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B137" t="s">
         <v>63</v>
@@ -9563,7 +9566,7 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B138" t="s">
         <v>63</v>
@@ -9625,7 +9628,7 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -9687,7 +9690,7 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B140" t="s">
         <v>63</v>
@@ -9749,7 +9752,7 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -9811,7 +9814,7 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
@@ -9873,7 +9876,7 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B143" t="s">
         <v>69</v>
@@ -9935,7 +9938,7 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B144" t="s">
         <v>69</v>
@@ -9997,7 +10000,7 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B145" t="s">
         <v>69</v>
@@ -10059,7 +10062,7 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B146" t="s">
         <v>69</v>
@@ -10121,7 +10124,7 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B147" t="s">
         <v>69</v>
@@ -10183,7 +10186,7 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B148" t="s">
         <v>69</v>
@@ -10245,7 +10248,7 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B149" t="s">
         <v>69</v>
@@ -10307,7 +10310,7 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B150" t="s">
         <v>69</v>
@@ -10369,7 +10372,7 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B151" t="s">
         <v>69</v>
@@ -10431,7 +10434,7 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B152" t="s">
         <v>69</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B153" t="s">
         <v>69</v>
@@ -10555,7 +10558,7 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B154" t="s">
         <v>69</v>
@@ -10679,21 +10682,21 @@
     </row>
     <row r="156" spans="1:20" s="1" customFormat="1">
       <c r="Q156" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R156" s="1">
-        <v>21.073297</v>
+        <v>22.84392</v>
       </c>
       <c r="S156" s="1">
         <v>60.531762</v>
       </c>
-      <c r="T156" s="2">
-        <v>0</v>
+      <c r="T156" s="1">
+        <v>3508.7659</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
       <c r="Q157" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R157" s="1">
         <v>46.718073</v>
@@ -10702,17 +10705,17 @@
         <v>536.18692</v>
       </c>
       <c r="T157" s="1">
-        <v>9888.912</v>
+        <v>12432.386</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
       <c r="Q158" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:20" s="1" customFormat="1">
       <c r="Q159" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R159" s="1">
         <v>20</v>
@@ -10726,12 +10729,12 @@
     </row>
     <row r="160" spans="1:20" s="1" customFormat="1">
       <c r="Q160" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="161" spans="17:20" s="1" customFormat="1">
       <c r="Q161" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R161" s="1">
         <v>20</v>
@@ -10745,44 +10748,44 @@
     </row>
     <row r="162" spans="17:20" s="1" customFormat="1">
       <c r="Q162" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R162" s="1">
-        <v>34.39629949673202</v>
+        <v>35.16722975757576</v>
       </c>
       <c r="S162" s="1">
-        <v>203.7350700784313</v>
+        <v>191.118028590909</v>
       </c>
       <c r="T162" s="1">
-        <v>6075.743349019607</v>
+        <v>6500.215457575757</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
       <c r="Q163" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R163" s="1">
-        <v>6.596522838338181</v>
+        <v>6.22966706389459</v>
       </c>
       <c r="S163" s="1">
-        <v>115.3246120887908</v>
+        <v>108.841079235021</v>
       </c>
       <c r="T163" s="1">
-        <v>1747.214461360871</v>
+        <v>1623.969410959594</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
       <c r="Q164" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R164" s="1">
-        <v>19.17800151427602</v>
+        <v>17.7144094284327</v>
       </c>
       <c r="S164" s="1">
-        <v>56.60518439186468</v>
+        <v>56.9496661500192</v>
       </c>
       <c r="T164" s="1">
-        <v>28.75721308476279</v>
+        <v>24.98331665401827</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="230">
   <si>
     <t>Process</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>tsmc2p (17)</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (18)</t>
@@ -713,7 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,26 +726,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000 "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -763,10 +747,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2238,19 +2221,19 @@
       <c r="Q19" t="s">
         <v>60</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>83</v>
+      <c r="R19">
+        <v>35.263346</v>
+      </c>
+      <c r="S19">
+        <v>123.6622</v>
+      </c>
+      <c r="T19">
+        <v>4491.0858</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
@@ -2312,7 +2295,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -2374,7 +2357,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -2436,7 +2419,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
@@ -2498,7 +2481,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
@@ -2560,7 +2543,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -2622,7 +2605,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -2684,7 +2667,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -2746,7 +2729,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
@@ -2808,7 +2791,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
@@ -2870,7 +2853,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
@@ -2932,7 +2915,7 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
@@ -2994,7 +2977,7 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -3056,7 +3039,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -3118,7 +3101,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
@@ -3180,7 +3163,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
@@ -3242,7 +3225,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
@@ -3304,7 +3287,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
@@ -3366,7 +3349,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
@@ -3428,7 +3411,7 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
@@ -3490,7 +3473,7 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
@@ -3552,7 +3535,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
         <v>69</v>
@@ -3614,7 +3597,7 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
         <v>69</v>
@@ -3676,7 +3659,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
         <v>69</v>
@@ -3738,7 +3721,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
         <v>69</v>
@@ -3800,7 +3783,7 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
         <v>69</v>
@@ -3862,7 +3845,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
         <v>69</v>
@@ -3924,7 +3907,7 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
         <v>69</v>
@@ -3986,7 +3969,7 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
         <v>69</v>
@@ -4048,7 +4031,7 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
         <v>69</v>
@@ -4110,7 +4093,7 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
@@ -4172,7 +4155,7 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
@@ -4234,7 +4217,7 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
         <v>69</v>
@@ -4296,7 +4279,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -4323,7 +4306,7 @@
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K53" t="s">
         <v>30</v>
@@ -4358,7 +4341,7 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -4385,7 +4368,7 @@
         <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K54" t="s">
         <v>46</v>
@@ -4420,7 +4403,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -4447,7 +4430,7 @@
         <v>49</v>
       </c>
       <c r="J55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K55" t="s">
         <v>46</v>
@@ -4482,7 +4465,7 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
         <v>51</v>
@@ -4509,7 +4492,7 @@
         <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K56" t="s">
         <v>59</v>
@@ -4544,7 +4527,7 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
@@ -4571,7 +4554,7 @@
         <v>49</v>
       </c>
       <c r="J57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K57" t="s">
         <v>59</v>
@@ -4606,7 +4589,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
@@ -4633,7 +4616,7 @@
         <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K58" t="s">
         <v>59</v>
@@ -4668,7 +4651,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
@@ -4695,7 +4678,7 @@
         <v>49</v>
       </c>
       <c r="J59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K59" t="s">
         <v>59</v>
@@ -4730,7 +4713,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
@@ -4757,7 +4740,7 @@
         <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K60" t="s">
         <v>59</v>
@@ -4792,7 +4775,7 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -4819,7 +4802,7 @@
         <v>49</v>
       </c>
       <c r="J61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K61" t="s">
         <v>59</v>
@@ -4854,7 +4837,7 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -4881,7 +4864,7 @@
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K62" t="s">
         <v>46</v>
@@ -4916,7 +4899,7 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -4943,7 +4926,7 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K63" t="s">
         <v>46</v>
@@ -4966,19 +4949,19 @@
       <c r="Q63" t="s">
         <v>47</v>
       </c>
-      <c r="R63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>83</v>
+      <c r="R63">
+        <v>29.52999</v>
+      </c>
+      <c r="S63">
+        <v>428.99505</v>
+      </c>
+      <c r="T63">
+        <v>7962.5754</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -5005,7 +4988,7 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K64" t="s">
         <v>46</v>
@@ -5028,19 +5011,19 @@
       <c r="Q64" t="s">
         <v>47</v>
       </c>
-      <c r="R64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>83</v>
+      <c r="R64">
+        <v>29.52999</v>
+      </c>
+      <c r="S64">
+        <v>355.13251</v>
+      </c>
+      <c r="T64">
+        <v>6998.3284</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -5067,7 +5050,7 @@
         <v>49</v>
       </c>
       <c r="J65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K65" t="s">
         <v>46</v>
@@ -5102,7 +5085,7 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -5129,7 +5112,7 @@
         <v>49</v>
       </c>
       <c r="J66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K66" t="s">
         <v>46</v>
@@ -5152,19 +5135,19 @@
       <c r="Q66" t="s">
         <v>47</v>
       </c>
-      <c r="R66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>83</v>
+      <c r="R66">
+        <v>46.49525</v>
+      </c>
+      <c r="S66">
+        <v>98.242238</v>
+      </c>
+      <c r="T66">
+        <v>10313.489</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -5191,7 +5174,7 @@
         <v>49</v>
       </c>
       <c r="J67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K67" t="s">
         <v>46</v>
@@ -5214,19 +5197,19 @@
       <c r="Q67" t="s">
         <v>47</v>
       </c>
-      <c r="R67" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>83</v>
+      <c r="R67">
+        <v>46.49525</v>
+      </c>
+      <c r="S67">
+        <v>78.02426</v>
+      </c>
+      <c r="T67">
+        <v>9073.204</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
         <v>51</v>
@@ -5253,7 +5236,7 @@
         <v>44</v>
       </c>
       <c r="J68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K68" t="s">
         <v>59</v>
@@ -5276,19 +5259,19 @@
       <c r="Q68" t="s">
         <v>60</v>
       </c>
-      <c r="R68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>83</v>
+      <c r="R68">
+        <v>27.36724</v>
+      </c>
+      <c r="S68">
+        <v>320.04048</v>
+      </c>
+      <c r="T68">
+        <v>6106.1845</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
         <v>51</v>
@@ -5315,7 +5298,7 @@
         <v>44</v>
       </c>
       <c r="J69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K69" t="s">
         <v>59</v>
@@ -5338,19 +5321,19 @@
       <c r="Q69" t="s">
         <v>60</v>
       </c>
-      <c r="R69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>83</v>
+      <c r="R69">
+        <v>27.36724</v>
+      </c>
+      <c r="S69">
+        <v>260.45745</v>
+      </c>
+      <c r="T69">
+        <v>5190.8046</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
         <v>51</v>
@@ -5377,7 +5360,7 @@
         <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K70" t="s">
         <v>59</v>
@@ -5400,19 +5383,19 @@
       <c r="Q70" t="s">
         <v>60</v>
       </c>
-      <c r="R70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>83</v>
+      <c r="R70">
+        <v>32.956755</v>
+      </c>
+      <c r="S70">
+        <v>170.79833</v>
+      </c>
+      <c r="T70">
+        <v>5684.3265</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
         <v>51</v>
@@ -5439,7 +5422,7 @@
         <v>49</v>
       </c>
       <c r="J71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K71" t="s">
         <v>59</v>
@@ -5462,19 +5445,19 @@
       <c r="Q71" t="s">
         <v>60</v>
       </c>
-      <c r="R71" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>83</v>
+      <c r="R71">
+        <v>21.073297</v>
+      </c>
+      <c r="S71">
+        <v>493.28801</v>
+      </c>
+      <c r="T71">
+        <v>5198.8548</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
         <v>51</v>
@@ -5501,7 +5484,7 @@
         <v>49</v>
       </c>
       <c r="J72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K72" t="s">
         <v>59</v>
@@ -5524,19 +5507,19 @@
       <c r="Q72" t="s">
         <v>60</v>
       </c>
-      <c r="R72" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>83</v>
+      <c r="R72">
+        <v>21.073297</v>
+      </c>
+      <c r="S72">
+        <v>405.67414</v>
+      </c>
+      <c r="T72">
+        <v>4343.5827</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
         <v>51</v>
@@ -5563,7 +5546,7 @@
         <v>49</v>
       </c>
       <c r="J73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K73" t="s">
         <v>59</v>
@@ -5586,19 +5569,19 @@
       <c r="Q73" t="s">
         <v>60</v>
       </c>
-      <c r="R73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>83</v>
+      <c r="R73">
+        <v>29.302433</v>
+      </c>
+      <c r="S73">
+        <v>206.62788</v>
+      </c>
+      <c r="T73">
+        <v>5314.1581</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
         <v>51</v>
@@ -5625,7 +5608,7 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K74" t="s">
         <v>59</v>
@@ -5648,19 +5631,19 @@
       <c r="Q74" t="s">
         <v>47</v>
       </c>
-      <c r="R74" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>83</v>
+      <c r="R74">
+        <v>28.105681</v>
+      </c>
+      <c r="S74">
+        <v>304.46825</v>
+      </c>
+      <c r="T74">
+        <v>6217.0582</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
         <v>51</v>
@@ -5687,7 +5670,7 @@
         <v>44</v>
       </c>
       <c r="J75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K75" t="s">
         <v>59</v>
@@ -5710,19 +5693,19 @@
       <c r="Q75" t="s">
         <v>47</v>
       </c>
-      <c r="R75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>83</v>
+      <c r="R75">
+        <v>28.105681</v>
+      </c>
+      <c r="S75">
+        <v>247.53096</v>
+      </c>
+      <c r="T75">
+        <v>5295.5802</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
         <v>51</v>
@@ -5749,7 +5732,7 @@
         <v>44</v>
       </c>
       <c r="J76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K76" t="s">
         <v>59</v>
@@ -5772,19 +5755,19 @@
       <c r="Q76" t="s">
         <v>47</v>
       </c>
-      <c r="R76" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>83</v>
+      <c r="R76">
+        <v>33.424408</v>
+      </c>
+      <c r="S76">
+        <v>165.61405</v>
+      </c>
+      <c r="T76">
+        <v>5716.7151</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
         <v>51</v>
@@ -5811,7 +5794,7 @@
         <v>49</v>
       </c>
       <c r="J77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K77" t="s">
         <v>59</v>
@@ -5834,19 +5817,19 @@
       <c r="Q77" t="s">
         <v>47</v>
       </c>
-      <c r="R77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T77" s="2" t="s">
-        <v>83</v>
+      <c r="R77">
+        <v>21.934754</v>
+      </c>
+      <c r="S77">
+        <v>464.42183</v>
+      </c>
+      <c r="T77">
+        <v>5364.327</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
         <v>51</v>
@@ -5873,7 +5856,7 @@
         <v>49</v>
       </c>
       <c r="J78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K78" t="s">
         <v>59</v>
@@ -5896,19 +5879,19 @@
       <c r="Q78" t="s">
         <v>47</v>
       </c>
-      <c r="R78" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>83</v>
+      <c r="R78">
+        <v>21.934754</v>
+      </c>
+      <c r="S78">
+        <v>381.4353</v>
+      </c>
+      <c r="T78">
+        <v>4485.2057</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
@@ -5935,7 +5918,7 @@
         <v>49</v>
       </c>
       <c r="J79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K79" t="s">
         <v>59</v>
@@ -5958,19 +5941,19 @@
       <c r="Q79" t="s">
         <v>47</v>
       </c>
-      <c r="R79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>83</v>
+      <c r="R79">
+        <v>30.087919</v>
+      </c>
+      <c r="S79">
+        <v>195.05137</v>
+      </c>
+      <c r="T79">
+        <v>5420.7807</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
         <v>63</v>
@@ -5997,7 +5980,7 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K80" t="s">
         <v>59</v>
@@ -6032,7 +6015,7 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
@@ -6059,7 +6042,7 @@
         <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K81" t="s">
         <v>59</v>
@@ -6082,19 +6065,19 @@
       <c r="Q81" t="s">
         <v>60</v>
       </c>
-      <c r="R81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>83</v>
+      <c r="R81">
+        <v>27.477116</v>
+      </c>
+      <c r="S81">
+        <v>278.78313</v>
+      </c>
+      <c r="T81">
+        <v>5580.4622</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
@@ -6121,7 +6104,7 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K82" t="s">
         <v>59</v>
@@ -6156,7 +6139,7 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
         <v>63</v>
@@ -6183,7 +6166,7 @@
         <v>49</v>
       </c>
       <c r="J83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K83" t="s">
         <v>59</v>
@@ -6206,19 +6189,19 @@
       <c r="Q83" t="s">
         <v>60</v>
       </c>
-      <c r="R83" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>83</v>
+      <c r="R83">
+        <v>22.84392</v>
+      </c>
+      <c r="S83">
+        <v>463.73991</v>
+      </c>
+      <c r="T83">
+        <v>5930.2171</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B84" t="s">
         <v>63</v>
@@ -6245,7 +6228,7 @@
         <v>49</v>
       </c>
       <c r="J84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K84" t="s">
         <v>59</v>
@@ -6280,7 +6263,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
         <v>63</v>
@@ -6307,7 +6290,7 @@
         <v>49</v>
       </c>
       <c r="J85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K85" t="s">
         <v>59</v>
@@ -6330,19 +6313,19 @@
       <c r="Q85" t="s">
         <v>60</v>
       </c>
-      <c r="R85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>83</v>
+      <c r="R85">
+        <v>31.85254</v>
+      </c>
+      <c r="S85">
+        <v>180.79839</v>
+      </c>
+      <c r="T85">
+        <v>6070.2096</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
         <v>63</v>
@@ -6369,7 +6352,7 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K86" t="s">
         <v>59</v>
@@ -6392,19 +6375,19 @@
       <c r="Q86" t="s">
         <v>47</v>
       </c>
-      <c r="R86" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>83</v>
+      <c r="R86">
+        <v>28.338634</v>
+      </c>
+      <c r="S86">
+        <v>321.10021</v>
+      </c>
+      <c r="T86">
+        <v>6679.5224</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B87" t="s">
         <v>63</v>
@@ -6431,7 +6414,7 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K87" t="s">
         <v>59</v>
@@ -6466,7 +6449,7 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B88" t="s">
         <v>63</v>
@@ -6493,7 +6476,7 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K88" t="s">
         <v>59</v>
@@ -6528,7 +6511,7 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
         <v>63</v>
@@ -6555,7 +6538,7 @@
         <v>49</v>
       </c>
       <c r="J89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K89" t="s">
         <v>59</v>
@@ -6590,7 +6573,7 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
         <v>63</v>
@@ -6617,7 +6600,7 @@
         <v>49</v>
       </c>
       <c r="J90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K90" t="s">
         <v>59</v>
@@ -6652,7 +6635,7 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
         <v>63</v>
@@ -6679,7 +6662,7 @@
         <v>49</v>
       </c>
       <c r="J91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K91" t="s">
         <v>59</v>
@@ -6714,7 +6697,7 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92" t="s">
         <v>69</v>
@@ -6741,7 +6724,7 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K92" t="s">
         <v>59</v>
@@ -6776,7 +6759,7 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
         <v>69</v>
@@ -6803,7 +6786,7 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K93" t="s">
         <v>59</v>
@@ -6838,7 +6821,7 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
@@ -6865,7 +6848,7 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K94" t="s">
         <v>59</v>
@@ -6900,7 +6883,7 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B95" t="s">
         <v>69</v>
@@ -6927,7 +6910,7 @@
         <v>49</v>
       </c>
       <c r="J95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K95" t="s">
         <v>59</v>
@@ -6962,7 +6945,7 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B96" t="s">
         <v>69</v>
@@ -6989,7 +6972,7 @@
         <v>49</v>
       </c>
       <c r="J96" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K96" t="s">
         <v>59</v>
@@ -7024,7 +7007,7 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B97" t="s">
         <v>69</v>
@@ -7051,7 +7034,7 @@
         <v>49</v>
       </c>
       <c r="J97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K97" t="s">
         <v>59</v>
@@ -7086,7 +7069,7 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B98" t="s">
         <v>69</v>
@@ -7113,7 +7096,7 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K98" t="s">
         <v>59</v>
@@ -7148,7 +7131,7 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
         <v>69</v>
@@ -7175,7 +7158,7 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K99" t="s">
         <v>59</v>
@@ -7210,7 +7193,7 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
         <v>69</v>
@@ -7237,7 +7220,7 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K100" t="s">
         <v>59</v>
@@ -7272,7 +7255,7 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
         <v>69</v>
@@ -7299,7 +7282,7 @@
         <v>49</v>
       </c>
       <c r="J101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K101" t="s">
         <v>59</v>
@@ -7334,7 +7317,7 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102" t="s">
         <v>69</v>
@@ -7361,7 +7344,7 @@
         <v>49</v>
       </c>
       <c r="J102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K102" t="s">
         <v>59</v>
@@ -7396,7 +7379,7 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
         <v>69</v>
@@ -7423,7 +7406,7 @@
         <v>49</v>
       </c>
       <c r="J103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K103" t="s">
         <v>59</v>
@@ -7458,7 +7441,7 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
@@ -7520,7 +7503,7 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -7582,7 +7565,7 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -7644,7 +7627,7 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
         <v>51</v>
@@ -7706,7 +7689,7 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
         <v>51</v>
@@ -7768,7 +7751,7 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" t="s">
         <v>63</v>
@@ -7830,7 +7813,7 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B110" t="s">
         <v>63</v>
@@ -7892,7 +7875,7 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -7954,7 +7937,7 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
@@ -8016,7 +7999,7 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -8078,7 +8061,7 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -8140,7 +8123,7 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -8202,7 +8185,7 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -8264,7 +8247,7 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -8326,7 +8309,7 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -8388,7 +8371,7 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B119" t="s">
         <v>51</v>
@@ -8450,7 +8433,7 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B120" t="s">
         <v>51</v>
@@ -8512,7 +8495,7 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B121" t="s">
         <v>51</v>
@@ -8574,7 +8557,7 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B122" t="s">
         <v>51</v>
@@ -8636,7 +8619,7 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B123" t="s">
         <v>51</v>
@@ -8698,7 +8681,7 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B124" t="s">
         <v>51</v>
@@ -8760,7 +8743,7 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B125" t="s">
         <v>51</v>
@@ -8822,7 +8805,7 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" t="s">
         <v>51</v>
@@ -8884,7 +8867,7 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B127" t="s">
         <v>51</v>
@@ -8946,7 +8929,7 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B128" t="s">
         <v>51</v>
@@ -9008,7 +8991,7 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B129" t="s">
         <v>51</v>
@@ -9070,7 +9053,7 @@
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B130" t="s">
         <v>51</v>
@@ -9132,7 +9115,7 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B131" t="s">
         <v>63</v>
@@ -9194,7 +9177,7 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B132" t="s">
         <v>63</v>
@@ -9256,7 +9239,7 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B133" t="s">
         <v>63</v>
@@ -9318,7 +9301,7 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B134" t="s">
         <v>63</v>
@@ -9380,7 +9363,7 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B135" t="s">
         <v>63</v>
@@ -9442,7 +9425,7 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B136" t="s">
         <v>63</v>
@@ -9504,7 +9487,7 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B137" t="s">
         <v>63</v>
@@ -9566,7 +9549,7 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B138" t="s">
         <v>63</v>
@@ -9628,7 +9611,7 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -9690,7 +9673,7 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B140" t="s">
         <v>63</v>
@@ -9752,7 +9735,7 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -9814,7 +9797,7 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
@@ -9876,7 +9859,7 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
         <v>69</v>
@@ -9938,7 +9921,7 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B144" t="s">
         <v>69</v>
@@ -10000,7 +9983,7 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B145" t="s">
         <v>69</v>
@@ -10062,7 +10045,7 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B146" t="s">
         <v>69</v>
@@ -10124,7 +10107,7 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B147" t="s">
         <v>69</v>
@@ -10186,7 +10169,7 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B148" t="s">
         <v>69</v>
@@ -10248,7 +10231,7 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B149" t="s">
         <v>69</v>
@@ -10310,7 +10293,7 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B150" t="s">
         <v>69</v>
@@ -10372,7 +10355,7 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B151" t="s">
         <v>69</v>
@@ -10434,7 +10417,7 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B152" t="s">
         <v>69</v>
@@ -10496,7 +10479,7 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B153" t="s">
         <v>69</v>
@@ -10558,7 +10541,7 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B154" t="s">
         <v>69</v>
@@ -10682,10 +10665,10 @@
     </row>
     <row r="156" spans="1:20" s="1" customFormat="1">
       <c r="Q156" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R156" s="1">
-        <v>22.84392</v>
+        <v>21.073297</v>
       </c>
       <c r="S156" s="1">
         <v>60.531762</v>
@@ -10696,7 +10679,7 @@
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
       <c r="Q157" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R157" s="1">
         <v>46.718073</v>
@@ -10710,12 +10693,12 @@
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
       <c r="Q158" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="159" spans="1:20" s="1" customFormat="1">
       <c r="Q159" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R159" s="1">
         <v>20</v>
@@ -10729,12 +10712,12 @@
     </row>
     <row r="160" spans="1:20" s="1" customFormat="1">
       <c r="Q160" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="17:20" s="1" customFormat="1">
       <c r="Q161" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R161" s="1">
         <v>20</v>
@@ -10748,44 +10731,44 @@
     </row>
     <row r="162" spans="17:20" s="1" customFormat="1">
       <c r="Q162" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R162" s="1">
-        <v>35.16722975757576</v>
+        <v>34.39629949673202</v>
       </c>
       <c r="S162" s="1">
-        <v>191.118028590909</v>
+        <v>203.7350700784313</v>
       </c>
       <c r="T162" s="1">
-        <v>6500.215457575757</v>
+        <v>6440.948447058824</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
       <c r="Q163" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R163" s="1">
-        <v>6.22966706389459</v>
+        <v>6.596522838338181</v>
       </c>
       <c r="S163" s="1">
-        <v>108.841079235021</v>
+        <v>115.3246120887908</v>
       </c>
       <c r="T163" s="1">
-        <v>1623.969410959594</v>
+        <v>1607.789952139154</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
       <c r="Q164" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R164" s="1">
-        <v>17.7144094284327</v>
+        <v>19.17800151427602</v>
       </c>
       <c r="S164" s="1">
-        <v>56.9496661500192</v>
+        <v>56.60518439186468</v>
       </c>
       <c r="T164" s="1">
-        <v>24.98331665401827</v>
+        <v>24.96200622244277</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -106,7 +106,7 @@
     <t>0.42</t>
   </si>
   <si>
-    <t>0.70</t>
+    <t>0.75</t>
   </si>
   <si>
     <t>8g</t>
@@ -154,7 +154,7 @@
     <t>0.441</t>
   </si>
   <si>
-    <t>0.77</t>
+    <t>0.825</t>
   </si>
   <si>
     <t>rcbest_ccbest_t</t>
@@ -193,7 +193,7 @@
     <t>0.386</t>
   </si>
   <si>
-    <t>0.63</t>
+    <t>0.675</t>
   </si>
   <si>
     <t>rcworst_ccworst_t</t>
@@ -1168,13 +1168,13 @@
         <v>35</v>
       </c>
       <c r="R2">
-        <v>41.439854</v>
+        <v>41.806514</v>
       </c>
       <c r="S2">
-        <v>97.07048399999999</v>
+        <v>99.558757</v>
       </c>
       <c r="T2">
-        <v>6335.0625</v>
+        <v>9048.505300000001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1230,13 +1230,13 @@
         <v>47</v>
       </c>
       <c r="R3">
-        <v>23.869202</v>
+        <v>25.644473</v>
       </c>
       <c r="S3">
-        <v>470.75756</v>
+        <v>485.66163</v>
       </c>
       <c r="T3">
-        <v>6101.303</v>
+        <v>8631.9954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1292,13 +1292,13 @@
         <v>47</v>
       </c>
       <c r="R4">
-        <v>43.008886</v>
+        <v>43.312553</v>
       </c>
       <c r="S4">
-        <v>136.23816</v>
+        <v>142.48518</v>
       </c>
       <c r="T4">
-        <v>9398.132</v>
+        <v>14150.715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1354,13 +1354,13 @@
         <v>60</v>
       </c>
       <c r="R5">
-        <v>35.263346</v>
+        <v>36.368942</v>
       </c>
       <c r="S5">
-        <v>100.08987</v>
+        <v>97.29862900000001</v>
       </c>
       <c r="T5">
-        <v>3911.256</v>
+        <v>5280.1534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1416,13 +1416,13 @@
         <v>60</v>
       </c>
       <c r="R6">
-        <v>40.871918</v>
+        <v>41.635654</v>
       </c>
       <c r="S6">
-        <v>60.531762</v>
+        <v>62.660822</v>
       </c>
       <c r="T6">
-        <v>4339.1039</v>
+        <v>6007.4219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1478,13 +1478,13 @@
         <v>60</v>
       </c>
       <c r="R7">
-        <v>34.653097</v>
+        <v>35.910102</v>
       </c>
       <c r="S7">
-        <v>129.00347</v>
+        <v>111.62265</v>
       </c>
       <c r="T7">
-        <v>4406.6329</v>
+        <v>5683.7395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1540,13 +1540,13 @@
         <v>60</v>
       </c>
       <c r="R8">
-        <v>43.249092</v>
+        <v>43.329854</v>
       </c>
       <c r="S8">
-        <v>66.2368</v>
+        <v>65.446952</v>
       </c>
       <c r="T8">
-        <v>5530.4675</v>
+        <v>7185.7152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1602,13 +1602,13 @@
         <v>60</v>
       </c>
       <c r="R9">
-        <v>25.163754</v>
+        <v>26.578147</v>
       </c>
       <c r="S9">
-        <v>221.33439</v>
+        <v>242.19302</v>
       </c>
       <c r="T9">
-        <v>3508.7659</v>
+        <v>4807.066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1664,13 +1664,13 @@
         <v>60</v>
       </c>
       <c r="R10">
-        <v>41.647634</v>
+        <v>42.678424</v>
       </c>
       <c r="S10">
-        <v>62.582534</v>
+        <v>65.816748</v>
       </c>
       <c r="T10">
-        <v>4746.0104</v>
+        <v>6973.9932</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1726,13 +1726,13 @@
         <v>47</v>
       </c>
       <c r="R11">
-        <v>23.869202</v>
+        <v>25.644473</v>
       </c>
       <c r="S11">
-        <v>398.85945</v>
+        <v>404.1764</v>
       </c>
       <c r="T11">
-        <v>5275.519</v>
+        <v>7273.8072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1788,13 +1788,13 @@
         <v>47</v>
       </c>
       <c r="R12">
-        <v>25.322573</v>
+        <v>26.239935</v>
       </c>
       <c r="S12">
-        <v>391.88353</v>
+        <v>388.57199</v>
       </c>
       <c r="T12">
-        <v>5803.6348</v>
+        <v>7327.3767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1850,13 +1850,13 @@
         <v>47</v>
       </c>
       <c r="R13">
-        <v>25.322573</v>
+        <v>26.239935</v>
       </c>
       <c r="S13">
-        <v>330.01657</v>
+        <v>323.53735</v>
       </c>
       <c r="T13">
-        <v>5019.5825</v>
+        <v>6189.1044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1912,13 +1912,13 @@
         <v>47</v>
       </c>
       <c r="R14">
-        <v>43.008886</v>
+        <v>43.312553</v>
       </c>
       <c r="S14">
-        <v>109.0934</v>
+        <v>113.46133</v>
       </c>
       <c r="T14">
-        <v>8289.7495</v>
+        <v>12110.566</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1974,13 +1974,13 @@
         <v>47</v>
       </c>
       <c r="R15">
-        <v>45.38224</v>
+        <v>44.917504</v>
       </c>
       <c r="S15">
-        <v>95.14726</v>
+        <v>101.69105</v>
       </c>
       <c r="T15">
-        <v>8289.1469</v>
+        <v>11776.879</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2036,13 +2036,13 @@
         <v>47</v>
       </c>
       <c r="R16">
-        <v>45.38224</v>
+        <v>44.917504</v>
       </c>
       <c r="S16">
-        <v>75.80198</v>
+        <v>80.777497</v>
       </c>
       <c r="T16">
-        <v>7316.4236</v>
+        <v>10096.417</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2098,13 +2098,13 @@
         <v>60</v>
       </c>
       <c r="R17">
-        <v>33.177904</v>
+        <v>34.800246</v>
       </c>
       <c r="S17">
-        <v>170.53911</v>
+        <v>166.70549</v>
       </c>
       <c r="T17">
-        <v>5058.2035</v>
+        <v>7280.0879</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2160,13 +2160,13 @@
         <v>60</v>
       </c>
       <c r="R18">
-        <v>33.177904</v>
+        <v>34.800246</v>
       </c>
       <c r="S18">
-        <v>138.9585</v>
+        <v>133.62341</v>
       </c>
       <c r="T18">
-        <v>4403.5287</v>
+        <v>6135.6868</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2222,13 +2222,13 @@
         <v>60</v>
       </c>
       <c r="R19">
-        <v>35.263346</v>
+        <v>36.368942</v>
       </c>
       <c r="S19">
-        <v>123.6622</v>
+        <v>121.6368</v>
       </c>
       <c r="T19">
-        <v>4491.0858</v>
+        <v>6257.2365</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2284,13 +2284,13 @@
         <v>60</v>
       </c>
       <c r="R20">
-        <v>39.073548</v>
+        <v>39.967141</v>
       </c>
       <c r="S20">
-        <v>105.28991</v>
+        <v>109.12276</v>
       </c>
       <c r="T20">
-        <v>5693.2194</v>
+        <v>8201.6607</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2346,13 +2346,13 @@
         <v>60</v>
       </c>
       <c r="R21">
-        <v>39.073548</v>
+        <v>39.967141</v>
       </c>
       <c r="S21">
-        <v>83.53110700000001</v>
+        <v>86.254442</v>
       </c>
       <c r="T21">
-        <v>4942.0493</v>
+        <v>6914.1574</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2408,13 +2408,13 @@
         <v>60</v>
       </c>
       <c r="R22">
-        <v>40.871918</v>
+        <v>41.635654</v>
       </c>
       <c r="S22">
-        <v>76.405305</v>
+        <v>79.341475</v>
       </c>
       <c r="T22">
-        <v>4995.559</v>
+        <v>7114.6632</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2470,13 +2470,13 @@
         <v>47</v>
       </c>
       <c r="R23">
-        <v>33.693538</v>
+        <v>34.800246</v>
       </c>
       <c r="S23">
-        <v>169.51575</v>
+        <v>166.70549</v>
       </c>
       <c r="T23">
-        <v>5273.8161</v>
+        <v>7280.0879</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2532,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="R24">
-        <v>33.693538</v>
+        <v>34.800246</v>
       </c>
       <c r="S24">
-        <v>137.69229</v>
+        <v>133.62341</v>
       </c>
       <c r="T24">
-        <v>4591.2946</v>
+        <v>6135.6868</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2594,13 +2594,13 @@
         <v>47</v>
       </c>
       <c r="R25">
-        <v>35.740272</v>
+        <v>36.368942</v>
       </c>
       <c r="S25">
-        <v>122.17788</v>
+        <v>121.6368</v>
       </c>
       <c r="T25">
-        <v>4644.0431</v>
+        <v>6257.2365</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2656,13 +2656,13 @@
         <v>47</v>
       </c>
       <c r="R26">
-        <v>39.075325</v>
+        <v>39.967141</v>
       </c>
       <c r="S26">
-        <v>106.34241</v>
+        <v>109.12276</v>
       </c>
       <c r="T26">
-        <v>5796.0997</v>
+        <v>8201.6607</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2718,13 +2718,13 @@
         <v>47</v>
       </c>
       <c r="R27">
-        <v>39.075325</v>
+        <v>39.967141</v>
       </c>
       <c r="S27">
-        <v>84.391452</v>
+        <v>86.254442</v>
       </c>
       <c r="T27">
-        <v>5029.4002</v>
+        <v>6914.1574</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2780,13 +2780,13 @@
         <v>47</v>
       </c>
       <c r="R28">
-        <v>40.882559</v>
+        <v>41.635654</v>
       </c>
       <c r="S28">
-        <v>77.01743</v>
+        <v>79.341475</v>
       </c>
       <c r="T28">
-        <v>5074.3805</v>
+        <v>7114.6632</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2842,13 +2842,13 @@
         <v>60</v>
       </c>
       <c r="R29">
-        <v>31.44454</v>
+        <v>34.568348</v>
       </c>
       <c r="S29">
-        <v>255.21513</v>
+        <v>190.31836</v>
       </c>
       <c r="T29">
-        <v>5809.3668</v>
+        <v>7965.0652</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2904,13 +2904,13 @@
         <v>60</v>
       </c>
       <c r="R30">
-        <v>31.44454</v>
+        <v>34.568348</v>
       </c>
       <c r="S30">
-        <v>207.87844</v>
+        <v>152.71919</v>
       </c>
       <c r="T30">
-        <v>5077.5782</v>
+        <v>6731.0073</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2966,13 +2966,13 @@
         <v>60</v>
       </c>
       <c r="R31">
-        <v>34.653097</v>
+        <v>35.910102</v>
       </c>
       <c r="S31">
-        <v>159.73294</v>
+        <v>139.27034</v>
       </c>
       <c r="T31">
-        <v>5040.1637</v>
+        <v>6719.0012</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3028,13 +3028,13 @@
         <v>60</v>
       </c>
       <c r="R32">
-        <v>41.045256</v>
+        <v>41.797112</v>
       </c>
       <c r="S32">
-        <v>120.49657</v>
+        <v>114.14818</v>
       </c>
       <c r="T32">
-        <v>7210.2907</v>
+        <v>9873.860699999999</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3090,13 +3090,13 @@
         <v>60</v>
       </c>
       <c r="R33">
-        <v>41.045256</v>
+        <v>41.797112</v>
       </c>
       <c r="S33">
-        <v>95.87634199999999</v>
+        <v>90.23294300000001</v>
       </c>
       <c r="T33">
-        <v>6318.5659</v>
+        <v>8394.476199999999</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3152,13 +3152,13 @@
         <v>60</v>
       </c>
       <c r="R34">
-        <v>43.249092</v>
+        <v>43.329854</v>
       </c>
       <c r="S34">
-        <v>83.488799</v>
+        <v>82.863861</v>
       </c>
       <c r="T34">
-        <v>6309.2205</v>
+        <v>8444.280000000001</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3214,13 +3214,13 @@
         <v>47</v>
       </c>
       <c r="R35">
-        <v>32.34415</v>
+        <v>34.568348</v>
       </c>
       <c r="S35">
-        <v>242.41797</v>
+        <v>190.31836</v>
       </c>
       <c r="T35">
-        <v>6069.7363</v>
+        <v>7965.0652</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3276,13 +3276,13 @@
         <v>47</v>
       </c>
       <c r="R36">
-        <v>32.34415</v>
+        <v>34.568348</v>
       </c>
       <c r="S36">
-        <v>196.99906</v>
+        <v>152.71919</v>
       </c>
       <c r="T36">
-        <v>5306.1093</v>
+        <v>6731.0073</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3338,13 +3338,13 @@
         <v>47</v>
       </c>
       <c r="R37">
-        <v>35.381096</v>
+        <v>35.910102</v>
       </c>
       <c r="S37">
-        <v>153.40319</v>
+        <v>139.27034</v>
       </c>
       <c r="T37">
-        <v>5228.4753</v>
+        <v>6719.0012</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3400,13 +3400,13 @@
         <v>47</v>
       </c>
       <c r="R38">
-        <v>41.103523</v>
+        <v>41.797112</v>
       </c>
       <c r="S38">
-        <v>121.31167</v>
+        <v>114.14818</v>
       </c>
       <c r="T38">
-        <v>7378.7998</v>
+        <v>9873.860699999999</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3462,13 +3462,13 @@
         <v>47</v>
       </c>
       <c r="R39">
-        <v>41.103523</v>
+        <v>41.797112</v>
       </c>
       <c r="S39">
-        <v>96.54196899999999</v>
+        <v>90.23294300000001</v>
       </c>
       <c r="T39">
-        <v>6463.579</v>
+        <v>8394.476199999999</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3524,13 +3524,13 @@
         <v>47</v>
       </c>
       <c r="R40">
-        <v>43.264315</v>
+        <v>43.329854</v>
       </c>
       <c r="S40">
-        <v>84.267759</v>
+        <v>82.863861</v>
       </c>
       <c r="T40">
-        <v>6435.2135</v>
+        <v>8444.280000000001</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3586,13 +3586,13 @@
         <v>60</v>
       </c>
       <c r="R41">
-        <v>24.036388</v>
+        <v>26.095624</v>
       </c>
       <c r="S41">
-        <v>300.91925</v>
+        <v>357.44649</v>
       </c>
       <c r="T41">
-        <v>4238.5112</v>
+        <v>6652.6046</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3648,13 +3648,13 @@
         <v>60</v>
       </c>
       <c r="R42">
-        <v>24.036388</v>
+        <v>26.095624</v>
       </c>
       <c r="S42">
-        <v>255.29627</v>
+        <v>295.64497</v>
       </c>
       <c r="T42">
-        <v>3644.8159</v>
+        <v>5587.7321</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3710,13 +3710,13 @@
         <v>60</v>
       </c>
       <c r="R43">
-        <v>25.163754</v>
+        <v>26.578147</v>
       </c>
       <c r="S43">
-        <v>262.8935</v>
+        <v>293.18854</v>
       </c>
       <c r="T43">
-        <v>4082.5065</v>
+        <v>5719.152</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3772,13 +3772,13 @@
         <v>60</v>
       </c>
       <c r="R44">
-        <v>39.742383</v>
+        <v>41.109513</v>
       </c>
       <c r="S44">
-        <v>105.37403</v>
+        <v>113.29544</v>
       </c>
       <c r="T44">
-        <v>6097.1094</v>
+        <v>9588.1656</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3834,13 +3834,13 @@
         <v>60</v>
       </c>
       <c r="R45">
-        <v>39.742383</v>
+        <v>41.109513</v>
       </c>
       <c r="S45">
-        <v>84.679044</v>
+        <v>89.896242</v>
       </c>
       <c r="T45">
-        <v>5319.8619</v>
+        <v>8112.4441</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3896,13 +3896,13 @@
         <v>60</v>
       </c>
       <c r="R46">
-        <v>41.647634</v>
+        <v>42.678424</v>
       </c>
       <c r="S46">
-        <v>78.38494900000001</v>
+        <v>83.07185200000001</v>
       </c>
       <c r="T46">
-        <v>5437.902</v>
+        <v>8225.030500000001</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3958,13 +3958,13 @@
         <v>47</v>
       </c>
       <c r="R47">
-        <v>25.155574</v>
+        <v>26.095624</v>
       </c>
       <c r="S47">
-        <v>309.7239</v>
+        <v>357.44649</v>
       </c>
       <c r="T47">
-        <v>4818.1578</v>
+        <v>6652.6046</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4020,13 +4020,13 @@
         <v>47</v>
       </c>
       <c r="R48">
-        <v>25.155574</v>
+        <v>26.095624</v>
       </c>
       <c r="S48">
-        <v>261.75187</v>
+        <v>295.64497</v>
       </c>
       <c r="T48">
-        <v>4152.1388</v>
+        <v>5587.7321</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4082,13 +4082,13 @@
         <v>47</v>
       </c>
       <c r="R49">
-        <v>26.051628</v>
+        <v>26.578147</v>
       </c>
       <c r="S49">
-        <v>267.1025</v>
+        <v>293.18854</v>
       </c>
       <c r="T49">
-        <v>4459.15</v>
+        <v>5719.152</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4144,13 +4144,13 @@
         <v>47</v>
       </c>
       <c r="R50">
-        <v>40.232241</v>
+        <v>41.109513</v>
       </c>
       <c r="S50">
-        <v>106.00117</v>
+        <v>113.29544</v>
       </c>
       <c r="T50">
-        <v>6484.3655</v>
+        <v>9588.1656</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4206,13 +4206,13 @@
         <v>47</v>
       </c>
       <c r="R51">
-        <v>40.232241</v>
+        <v>41.109513</v>
       </c>
       <c r="S51">
-        <v>84.835778</v>
+        <v>89.896242</v>
       </c>
       <c r="T51">
-        <v>5651.0974</v>
+        <v>8112.4441</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4268,13 +4268,13 @@
         <v>47</v>
       </c>
       <c r="R52">
-        <v>41.962425</v>
+        <v>42.678424</v>
       </c>
       <c r="S52">
-        <v>78.751383</v>
+        <v>83.07185200000001</v>
       </c>
       <c r="T52">
-        <v>5701.4947</v>
+        <v>8225.030500000001</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4330,13 +4330,13 @@
         <v>35</v>
       </c>
       <c r="R53">
-        <v>40.316339</v>
+        <v>41.94246</v>
       </c>
       <c r="S53">
-        <v>121.22298</v>
+        <v>105.20418</v>
       </c>
       <c r="T53">
-        <v>8355.665300000001</v>
+        <v>9880.6849</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4392,13 +4392,13 @@
         <v>47</v>
       </c>
       <c r="R54">
-        <v>29.062159</v>
+        <v>28.280392</v>
       </c>
       <c r="S54">
-        <v>536.18692</v>
+        <v>536.51921</v>
       </c>
       <c r="T54">
-        <v>9597.522999999999</v>
+        <v>11496.005</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4454,13 +4454,13 @@
         <v>47</v>
       </c>
       <c r="R55">
-        <v>44.715429</v>
+        <v>44.056306</v>
       </c>
       <c r="S55">
-        <v>138.60933</v>
+        <v>142.80788</v>
       </c>
       <c r="T55">
-        <v>12432.386</v>
+        <v>15516.717</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4516,13 +4516,13 @@
         <v>60</v>
       </c>
       <c r="R56">
-        <v>32.956755</v>
+        <v>36.580361</v>
       </c>
       <c r="S56">
-        <v>137.17659</v>
+        <v>102.78494</v>
       </c>
       <c r="T56">
-        <v>4854.6142</v>
+        <v>5768.9357</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4578,13 +4578,13 @@
         <v>60</v>
       </c>
       <c r="R57">
-        <v>29.302433</v>
+        <v>40.248747</v>
       </c>
       <c r="S57">
-        <v>166.43785</v>
+        <v>77.767678</v>
       </c>
       <c r="T57">
-        <v>4424.3339</v>
+        <v>6733.1727</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4640,13 +4640,13 @@
         <v>60</v>
       </c>
       <c r="R58">
-        <v>33.316491</v>
+        <v>36.163823</v>
       </c>
       <c r="S58">
-        <v>144.60482</v>
+        <v>114.33385</v>
       </c>
       <c r="T58">
-        <v>5205.6308</v>
+        <v>6092.1109</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4702,13 +4702,13 @@
         <v>60</v>
       </c>
       <c r="R59">
-        <v>31.85254</v>
+        <v>41.187382</v>
       </c>
       <c r="S59">
-        <v>145.11708</v>
+        <v>76.919477</v>
       </c>
       <c r="T59">
-        <v>5070.6823</v>
+        <v>7320.914</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4764,13 +4764,13 @@
         <v>60</v>
       </c>
       <c r="R60">
-        <v>30.270004</v>
+        <v>28.734773</v>
       </c>
       <c r="S60">
-        <v>240.37308</v>
+        <v>264.57373</v>
       </c>
       <c r="T60">
-        <v>5530.3921</v>
+        <v>6216.6979</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4826,13 +4826,13 @@
         <v>60</v>
       </c>
       <c r="R61">
-        <v>42.089733</v>
+        <v>43.551251</v>
       </c>
       <c r="S61">
-        <v>82.839608</v>
+        <v>72.753097</v>
       </c>
       <c r="T61">
-        <v>7143.6974</v>
+        <v>8350.9409</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4888,13 +4888,13 @@
         <v>47</v>
       </c>
       <c r="R62">
-        <v>29.062159</v>
+        <v>28.280392</v>
       </c>
       <c r="S62">
-        <v>443.64898</v>
+        <v>443.14848</v>
       </c>
       <c r="T62">
-        <v>8427.4571</v>
+        <v>9825.0195</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4950,13 +4950,13 @@
         <v>47</v>
       </c>
       <c r="R63">
-        <v>29.52999</v>
+        <v>28.580705</v>
       </c>
       <c r="S63">
-        <v>428.99505</v>
+        <v>427.28712</v>
       </c>
       <c r="T63">
-        <v>7962.5754</v>
+        <v>9445.115599999999</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5012,13 +5012,13 @@
         <v>47</v>
       </c>
       <c r="R64">
-        <v>29.52999</v>
+        <v>28.580705</v>
       </c>
       <c r="S64">
-        <v>355.13251</v>
+        <v>353.10298</v>
       </c>
       <c r="T64">
-        <v>6998.3284</v>
+        <v>8078.4012</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5074,13 +5074,13 @@
         <v>47</v>
       </c>
       <c r="R65">
-        <v>44.715429</v>
+        <v>44.056306</v>
       </c>
       <c r="S65">
-        <v>110.2109</v>
+        <v>113.29347</v>
       </c>
       <c r="T65">
-        <v>10917.126</v>
+        <v>13261.328</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5136,13 +5136,13 @@
         <v>47</v>
       </c>
       <c r="R66">
-        <v>46.49525</v>
+        <v>45.494982</v>
       </c>
       <c r="S66">
-        <v>98.242238</v>
+        <v>102.08419</v>
       </c>
       <c r="T66">
-        <v>10313.489</v>
+        <v>12936.163</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5198,13 +5198,13 @@
         <v>47</v>
       </c>
       <c r="R67">
-        <v>46.49525</v>
+        <v>45.494982</v>
       </c>
       <c r="S67">
-        <v>78.02426</v>
+        <v>80.87502499999999</v>
       </c>
       <c r="T67">
-        <v>9073.204</v>
+        <v>11060.724</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5260,13 +5260,13 @@
         <v>60</v>
       </c>
       <c r="R68">
-        <v>27.36724</v>
+        <v>34.65763</v>
       </c>
       <c r="S68">
-        <v>320.04048</v>
+        <v>184.91281</v>
       </c>
       <c r="T68">
-        <v>6106.1845</v>
+        <v>7996.0318</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5322,13 +5322,13 @@
         <v>60</v>
       </c>
       <c r="R69">
-        <v>27.36724</v>
+        <v>34.65763</v>
       </c>
       <c r="S69">
-        <v>260.45745</v>
+        <v>147.14427</v>
       </c>
       <c r="T69">
-        <v>5190.8046</v>
+        <v>6710.4567</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5384,13 +5384,13 @@
         <v>60</v>
       </c>
       <c r="R70">
-        <v>32.956755</v>
+        <v>36.580361</v>
       </c>
       <c r="S70">
-        <v>170.79833</v>
+        <v>129.3795</v>
       </c>
       <c r="T70">
-        <v>5684.3265</v>
+        <v>6863.622</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5446,13 +5446,13 @@
         <v>60</v>
       </c>
       <c r="R71">
-        <v>21.073297</v>
+        <v>37.441731</v>
       </c>
       <c r="S71">
-        <v>493.28801</v>
+        <v>148.57177</v>
       </c>
       <c r="T71">
-        <v>5198.8548</v>
+        <v>9073.1922</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5508,13 +5508,13 @@
         <v>60</v>
       </c>
       <c r="R72">
-        <v>21.073297</v>
+        <v>37.441731</v>
       </c>
       <c r="S72">
-        <v>405.67414</v>
+        <v>117.53087</v>
       </c>
       <c r="T72">
-        <v>4343.5827</v>
+        <v>7558.8454</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5570,13 +5570,13 @@
         <v>60</v>
       </c>
       <c r="R73">
-        <v>29.302433</v>
+        <v>40.248747</v>
       </c>
       <c r="S73">
-        <v>206.62788</v>
+        <v>98.468473</v>
       </c>
       <c r="T73">
-        <v>5314.1581</v>
+        <v>8047.0502</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5632,13 +5632,13 @@
         <v>47</v>
       </c>
       <c r="R74">
-        <v>28.105681</v>
+        <v>34.65763</v>
       </c>
       <c r="S74">
-        <v>304.46825</v>
+        <v>184.91281</v>
       </c>
       <c r="T74">
-        <v>6217.0582</v>
+        <v>7996.0318</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5694,13 +5694,13 @@
         <v>47</v>
       </c>
       <c r="R75">
-        <v>28.105681</v>
+        <v>34.65763</v>
       </c>
       <c r="S75">
-        <v>247.53096</v>
+        <v>147.14427</v>
       </c>
       <c r="T75">
-        <v>5295.5802</v>
+        <v>6710.4567</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5756,13 +5756,13 @@
         <v>47</v>
       </c>
       <c r="R76">
-        <v>33.424408</v>
+        <v>36.580361</v>
       </c>
       <c r="S76">
-        <v>165.61405</v>
+        <v>129.3795</v>
       </c>
       <c r="T76">
-        <v>5716.7151</v>
+        <v>6863.622</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5818,13 +5818,13 @@
         <v>47</v>
       </c>
       <c r="R77">
-        <v>21.934754</v>
+        <v>37.441731</v>
       </c>
       <c r="S77">
-        <v>464.42183</v>
+        <v>148.57177</v>
       </c>
       <c r="T77">
-        <v>5364.327</v>
+        <v>9073.1922</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5880,13 +5880,13 @@
         <v>47</v>
       </c>
       <c r="R78">
-        <v>21.934754</v>
+        <v>37.441731</v>
       </c>
       <c r="S78">
-        <v>381.4353</v>
+        <v>117.53087</v>
       </c>
       <c r="T78">
-        <v>4485.2057</v>
+        <v>7558.8454</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5942,13 +5942,13 @@
         <v>47</v>
       </c>
       <c r="R79">
-        <v>30.087919</v>
+        <v>40.248747</v>
       </c>
       <c r="S79">
-        <v>195.05137</v>
+        <v>98.468473</v>
       </c>
       <c r="T79">
-        <v>5420.7807</v>
+        <v>8047.0502</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6004,13 +6004,13 @@
         <v>60</v>
       </c>
       <c r="R80">
-        <v>27.477116</v>
+        <v>34.51093</v>
       </c>
       <c r="S80">
-        <v>340.24508</v>
+        <v>200.88344</v>
       </c>
       <c r="T80">
-        <v>6540.6506</v>
+        <v>8506.423699999999</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6066,13 +6066,13 @@
         <v>60</v>
       </c>
       <c r="R81">
-        <v>27.477116</v>
+        <v>34.51093</v>
       </c>
       <c r="S81">
-        <v>278.78313</v>
+        <v>160.1221</v>
       </c>
       <c r="T81">
-        <v>5580.4622</v>
+        <v>7149.5067</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6128,13 +6128,13 @@
         <v>60</v>
       </c>
       <c r="R82">
-        <v>33.316491</v>
+        <v>36.163823</v>
       </c>
       <c r="S82">
-        <v>179.81037</v>
+        <v>143.61837</v>
       </c>
       <c r="T82">
-        <v>6077.0183</v>
+        <v>7236.4796</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6190,13 +6190,13 @@
         <v>60</v>
       </c>
       <c r="R83">
-        <v>22.84392</v>
+        <v>38.709868</v>
       </c>
       <c r="S83">
-        <v>463.73991</v>
+        <v>143.41261</v>
       </c>
       <c r="T83">
-        <v>5930.2171</v>
+        <v>9959.9619</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6252,13 +6252,13 @@
         <v>60</v>
       </c>
       <c r="R84">
-        <v>22.84392</v>
+        <v>38.709868</v>
       </c>
       <c r="S84">
-        <v>381.61161</v>
+        <v>113.41432</v>
       </c>
       <c r="T84">
-        <v>4969.8274</v>
+        <v>8320.551799999999</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6314,13 +6314,13 @@
         <v>60</v>
       </c>
       <c r="R85">
-        <v>31.85254</v>
+        <v>41.187382</v>
       </c>
       <c r="S85">
-        <v>180.79839</v>
+        <v>97.380245</v>
       </c>
       <c r="T85">
-        <v>6070.2096</v>
+        <v>8727.865100000001</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6376,13 +6376,13 @@
         <v>47</v>
       </c>
       <c r="R86">
-        <v>28.338634</v>
+        <v>34.51093</v>
       </c>
       <c r="S86">
-        <v>321.10021</v>
+        <v>200.88344</v>
       </c>
       <c r="T86">
-        <v>6679.5224</v>
+        <v>8506.423699999999</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6438,13 +6438,13 @@
         <v>47</v>
       </c>
       <c r="R87">
-        <v>28.338634</v>
+        <v>34.51093</v>
       </c>
       <c r="S87">
-        <v>262.51023</v>
+        <v>160.1221</v>
       </c>
       <c r="T87">
-        <v>5708.1672</v>
+        <v>7149.5067</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6500,13 +6500,13 @@
         <v>47</v>
       </c>
       <c r="R88">
-        <v>33.832238</v>
+        <v>36.163823</v>
       </c>
       <c r="S88">
-        <v>173.59021</v>
+        <v>143.61837</v>
       </c>
       <c r="T88">
-        <v>6111.3826</v>
+        <v>7236.4796</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6562,13 +6562,13 @@
         <v>47</v>
       </c>
       <c r="R89">
-        <v>23.92184</v>
+        <v>38.709868</v>
       </c>
       <c r="S89">
-        <v>429.03261</v>
+        <v>143.41261</v>
       </c>
       <c r="T89">
-        <v>6145.7276</v>
+        <v>9959.9619</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6624,13 +6624,13 @@
         <v>47</v>
       </c>
       <c r="R90">
-        <v>23.92184</v>
+        <v>38.709868</v>
       </c>
       <c r="S90">
-        <v>352.14172</v>
+        <v>113.41432</v>
       </c>
       <c r="T90">
-        <v>5151.8044</v>
+        <v>8320.551799999999</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6686,13 +6686,13 @@
         <v>47</v>
       </c>
       <c r="R91">
-        <v>32.583822</v>
+        <v>41.187382</v>
       </c>
       <c r="S91">
-        <v>171.66173</v>
+        <v>97.380245</v>
       </c>
       <c r="T91">
-        <v>6182.4519</v>
+        <v>8727.865100000001</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6748,13 +6748,13 @@
         <v>60</v>
       </c>
       <c r="R92">
-        <v>29.363313</v>
+        <v>28.407381</v>
       </c>
       <c r="S92">
-        <v>373.7662</v>
+        <v>401.6325</v>
       </c>
       <c r="T92">
-        <v>7478.5436</v>
+        <v>8768.8125</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6810,13 +6810,13 @@
         <v>60</v>
       </c>
       <c r="R93">
-        <v>29.363313</v>
+        <v>28.407381</v>
       </c>
       <c r="S93">
-        <v>304.62514</v>
+        <v>328.12822</v>
       </c>
       <c r="T93">
-        <v>6496.1689</v>
+        <v>7438.9597</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6872,13 +6872,13 @@
         <v>60</v>
       </c>
       <c r="R94">
-        <v>30.270004</v>
+        <v>28.734773</v>
       </c>
       <c r="S94">
-        <v>295.01352</v>
+        <v>323.9399</v>
       </c>
       <c r="T94">
-        <v>6354.0333</v>
+        <v>7326.9411</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6934,13 +6934,13 @@
         <v>60</v>
       </c>
       <c r="R95">
-        <v>38.788395</v>
+        <v>42.064773</v>
       </c>
       <c r="S95">
-        <v>159.52794</v>
+        <v>127.37684</v>
       </c>
       <c r="T95">
-        <v>9311.5422</v>
+        <v>11584.157</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6996,13 +6996,13 @@
         <v>60</v>
       </c>
       <c r="R96">
-        <v>38.788395</v>
+        <v>42.064773</v>
       </c>
       <c r="S96">
-        <v>127.08289</v>
+        <v>100.78156</v>
       </c>
       <c r="T96">
-        <v>8026.4962</v>
+        <v>9838.2626</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7058,13 +7058,13 @@
         <v>60</v>
       </c>
       <c r="R97">
-        <v>42.089733</v>
+        <v>43.551251</v>
       </c>
       <c r="S97">
-        <v>104.30291</v>
+        <v>92.02782500000001</v>
       </c>
       <c r="T97">
-        <v>8240.682000000001</v>
+        <v>9825.374900000001</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7120,13 +7120,13 @@
         <v>47</v>
       </c>
       <c r="R98">
-        <v>29.673037</v>
+        <v>28.407381</v>
       </c>
       <c r="S98">
-        <v>367.31512</v>
+        <v>401.6325</v>
       </c>
       <c r="T98">
-        <v>7544.2082</v>
+        <v>8768.8125</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7182,13 +7182,13 @@
         <v>47</v>
       </c>
       <c r="R99">
-        <v>29.673037</v>
+        <v>28.407381</v>
       </c>
       <c r="S99">
-        <v>299.2412</v>
+        <v>328.12822</v>
       </c>
       <c r="T99">
-        <v>6557.8892</v>
+        <v>7438.9597</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7244,13 +7244,13 @@
         <v>47</v>
       </c>
       <c r="R100">
-        <v>30.500107</v>
+        <v>28.734773</v>
       </c>
       <c r="S100">
-        <v>290.8907</v>
+        <v>323.9399</v>
       </c>
       <c r="T100">
-        <v>6398.7824</v>
+        <v>7326.9411</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7306,13 +7306,13 @@
         <v>47</v>
       </c>
       <c r="R101">
-        <v>39.189448</v>
+        <v>42.064773</v>
       </c>
       <c r="S101">
-        <v>156.65765</v>
+        <v>127.37684</v>
       </c>
       <c r="T101">
-        <v>9390.7929</v>
+        <v>11584.157</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7368,13 +7368,13 @@
         <v>47</v>
       </c>
       <c r="R102">
-        <v>39.189448</v>
+        <v>42.064773</v>
       </c>
       <c r="S102">
-        <v>124.78526</v>
+        <v>100.78156</v>
       </c>
       <c r="T102">
-        <v>8108.7809</v>
+        <v>9838.2626</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7430,13 +7430,13 @@
         <v>47</v>
       </c>
       <c r="R103">
-        <v>42.292094</v>
+        <v>43.551251</v>
       </c>
       <c r="S103">
-        <v>103.60046</v>
+        <v>92.02782500000001</v>
       </c>
       <c r="T103">
-        <v>8241.781999999999</v>
+        <v>9825.374900000001</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7492,13 +7492,13 @@
         <v>35</v>
       </c>
       <c r="R104">
-        <v>42.473603</v>
+        <v>42.127437</v>
       </c>
       <c r="S104">
-        <v>105.23078</v>
+        <v>103.67527</v>
       </c>
       <c r="T104">
-        <v>8087.4816</v>
+        <v>9841.2228</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7554,13 +7554,13 @@
         <v>47</v>
       </c>
       <c r="R105">
-        <v>28.922166</v>
+        <v>28.307944</v>
       </c>
       <c r="S105">
-        <v>524.3223400000001</v>
+        <v>532.1758599999999</v>
       </c>
       <c r="T105">
-        <v>9228.846799999999</v>
+        <v>11450.338</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7616,13 +7616,13 @@
         <v>47</v>
       </c>
       <c r="R106">
-        <v>45.2621</v>
+        <v>44.082851</v>
       </c>
       <c r="S106">
-        <v>132.08504</v>
+        <v>142.42841</v>
       </c>
       <c r="T106">
-        <v>11808.694</v>
+        <v>15474.873</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7678,13 +7678,13 @@
         <v>60</v>
       </c>
       <c r="R107">
-        <v>35.897415</v>
+        <v>36.910827</v>
       </c>
       <c r="S107">
-        <v>114.02855</v>
+        <v>100.50221</v>
       </c>
       <c r="T107">
-        <v>4947.0473</v>
+        <v>5773.3382</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7740,13 +7740,13 @@
         <v>60</v>
       </c>
       <c r="R108">
-        <v>38.245667</v>
+        <v>41.703052</v>
       </c>
       <c r="S108">
-        <v>91.831284</v>
+        <v>71.219098</v>
       </c>
       <c r="T108">
-        <v>5672.8746</v>
+        <v>6941.1439</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7802,13 +7802,13 @@
         <v>60</v>
       </c>
       <c r="R109">
-        <v>35.627809</v>
+        <v>36.394956</v>
       </c>
       <c r="S109">
-        <v>127.89552</v>
+        <v>112.58438</v>
       </c>
       <c r="T109">
-        <v>5247.0209</v>
+        <v>6080.2528</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7864,13 +7864,13 @@
         <v>60</v>
       </c>
       <c r="R110">
-        <v>39.431386</v>
+        <v>42.40256</v>
       </c>
       <c r="S110">
-        <v>91.020646</v>
+        <v>71.44812899999999</v>
       </c>
       <c r="T110">
-        <v>6292.1429</v>
+        <v>7481.5344</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7926,13 +7926,13 @@
         <v>60</v>
       </c>
       <c r="R111">
-        <v>29.998958</v>
+        <v>28.790135</v>
       </c>
       <c r="S111">
-        <v>238.95753</v>
+        <v>260.09303</v>
       </c>
       <c r="T111">
-        <v>5255.4659</v>
+        <v>6152.7615</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7988,13 +7988,13 @@
         <v>60</v>
       </c>
       <c r="R112">
-        <v>44.200466</v>
+        <v>43.772812</v>
       </c>
       <c r="S112">
-        <v>70.396929</v>
+        <v>71.326317</v>
       </c>
       <c r="T112">
-        <v>6690.5537</v>
+        <v>8288.386399999999</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -8050,13 +8050,13 @@
         <v>47</v>
       </c>
       <c r="R113">
-        <v>28.922166</v>
+        <v>28.307944</v>
       </c>
       <c r="S113">
-        <v>436.27699</v>
+        <v>439.77996</v>
       </c>
       <c r="T113">
-        <v>8119.0961</v>
+        <v>9787.556200000001</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8112,13 +8112,13 @@
         <v>47</v>
       </c>
       <c r="R114">
-        <v>29.440016</v>
+        <v>28.603264</v>
       </c>
       <c r="S114">
-        <v>421.1044</v>
+        <v>424.14498</v>
       </c>
       <c r="T114">
-        <v>7746.3661</v>
+        <v>9405.990599999999</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -8174,13 +8174,13 @@
         <v>47</v>
       </c>
       <c r="R115">
-        <v>29.440016</v>
+        <v>28.603264</v>
       </c>
       <c r="S115">
-        <v>349.87685</v>
+        <v>350.68363</v>
       </c>
       <c r="T115">
-        <v>6816.1523</v>
+        <v>8046.9066</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -8236,13 +8236,13 @@
         <v>47</v>
       </c>
       <c r="R116">
-        <v>45.2621</v>
+        <v>44.082851</v>
       </c>
       <c r="S116">
-        <v>105.04378</v>
+        <v>113.00623</v>
       </c>
       <c r="T116">
-        <v>10404.685</v>
+        <v>13229.871</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -8298,13 +8298,13 @@
         <v>47</v>
       </c>
       <c r="R117">
-        <v>46.718073</v>
+        <v>45.517997</v>
       </c>
       <c r="S117">
-        <v>95.700428</v>
+        <v>101.83293</v>
       </c>
       <c r="T117">
-        <v>9888.912</v>
+        <v>12894.386</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -8360,13 +8360,13 @@
         <v>47</v>
       </c>
       <c r="R118">
-        <v>46.718073</v>
+        <v>45.517997</v>
       </c>
       <c r="S118">
-        <v>76.01830099999999</v>
+        <v>80.68286500000001</v>
       </c>
       <c r="T118">
-        <v>8717.4125</v>
+        <v>11028.838</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -8422,13 +8422,13 @@
         <v>60</v>
       </c>
       <c r="R119">
-        <v>31.940454</v>
+        <v>35.178573</v>
       </c>
       <c r="S119">
-        <v>235.64065</v>
+        <v>178.22092</v>
       </c>
       <c r="T119">
-        <v>6498.5829</v>
+        <v>8020.1947</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8484,13 +8484,13 @@
         <v>60</v>
       </c>
       <c r="R120">
-        <v>31.940454</v>
+        <v>35.178573</v>
       </c>
       <c r="S120">
-        <v>190.64428</v>
+        <v>141.97212</v>
       </c>
       <c r="T120">
-        <v>5615.152</v>
+        <v>6754.0308</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -8546,13 +8546,13 @@
         <v>60</v>
       </c>
       <c r="R121">
-        <v>35.897415</v>
+        <v>36.910827</v>
       </c>
       <c r="S121">
-        <v>142.22894</v>
+        <v>126.37306</v>
       </c>
       <c r="T121">
-        <v>5706.371</v>
+        <v>6849.1107</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -8608,13 +8608,13 @@
         <v>60</v>
       </c>
       <c r="R122">
-        <v>32.522889</v>
+        <v>39.538255</v>
       </c>
       <c r="S122">
-        <v>217.87054</v>
+        <v>130.60764</v>
       </c>
       <c r="T122">
-        <v>7090.7236</v>
+        <v>9491.065000000001</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8670,13 +8670,13 @@
         <v>60</v>
       </c>
       <c r="R123">
-        <v>32.522889</v>
+        <v>39.538255</v>
       </c>
       <c r="S123">
-        <v>175.73708</v>
+        <v>103.28853</v>
       </c>
       <c r="T123">
-        <v>6049.3357</v>
+        <v>7990.1687</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8732,13 +8732,13 @@
         <v>60</v>
       </c>
       <c r="R124">
-        <v>38.245667</v>
+        <v>41.703052</v>
       </c>
       <c r="S124">
-        <v>115.21627</v>
+        <v>90.178191</v>
       </c>
       <c r="T124">
-        <v>6614.4882</v>
+        <v>8227.1641</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8794,13 +8794,13 @@
         <v>47</v>
       </c>
       <c r="R125">
-        <v>32.342654</v>
+        <v>35.178573</v>
       </c>
       <c r="S125">
-        <v>229.81802</v>
+        <v>178.22092</v>
       </c>
       <c r="T125">
-        <v>6544.3011</v>
+        <v>8020.1947</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8856,13 +8856,13 @@
         <v>47</v>
       </c>
       <c r="R126">
-        <v>32.342654</v>
+        <v>35.178573</v>
       </c>
       <c r="S126">
-        <v>185.84947</v>
+        <v>141.97212</v>
       </c>
       <c r="T126">
-        <v>5661.8018</v>
+        <v>6754.0308</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8918,13 +8918,13 @@
         <v>47</v>
       </c>
       <c r="R127">
-        <v>36.13024</v>
+        <v>36.910827</v>
       </c>
       <c r="S127">
-        <v>140.1293</v>
+        <v>126.37306</v>
       </c>
       <c r="T127">
-        <v>5714.0128</v>
+        <v>6849.1107</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8980,13 +8980,13 @@
         <v>47</v>
       </c>
       <c r="R128">
-        <v>33.149974</v>
+        <v>39.538255</v>
       </c>
       <c r="S128">
-        <v>209.26693</v>
+        <v>130.60764</v>
       </c>
       <c r="T128">
-        <v>7188.5648</v>
+        <v>9491.065000000001</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -9042,13 +9042,13 @@
         <v>47</v>
       </c>
       <c r="R129">
-        <v>33.149974</v>
+        <v>39.538255</v>
       </c>
       <c r="S129">
-        <v>168.63188</v>
+        <v>103.28853</v>
       </c>
       <c r="T129">
-        <v>6144.1564</v>
+        <v>7990.1687</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -9104,13 +9104,13 @@
         <v>47</v>
       </c>
       <c r="R130">
-        <v>38.570059</v>
+        <v>41.703052</v>
       </c>
       <c r="S130">
-        <v>113.26461</v>
+        <v>90.178191</v>
       </c>
       <c r="T130">
-        <v>6634.8758</v>
+        <v>8227.1641</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -9166,13 +9166,13 @@
         <v>60</v>
       </c>
       <c r="R131">
-        <v>31.226638</v>
+        <v>34.905312</v>
       </c>
       <c r="S131">
-        <v>275.04984</v>
+        <v>195.44647</v>
       </c>
       <c r="T131">
-        <v>6966.5279</v>
+        <v>8509.7068</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9228,13 +9228,13 @@
         <v>60</v>
       </c>
       <c r="R132">
-        <v>31.226638</v>
+        <v>34.905312</v>
       </c>
       <c r="S132">
-        <v>224.12854</v>
+        <v>156.00585</v>
       </c>
       <c r="T132">
-        <v>6033.9561</v>
+        <v>7175.3486</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9290,13 +9290,13 @@
         <v>60</v>
       </c>
       <c r="R133">
-        <v>35.627809</v>
+        <v>36.394956</v>
       </c>
       <c r="S133">
-        <v>159.17027</v>
+        <v>141.22221</v>
       </c>
       <c r="T133">
-        <v>6039.5377</v>
+        <v>7203.2853</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9352,13 +9352,13 @@
         <v>60</v>
       </c>
       <c r="R134">
-        <v>33.304869</v>
+        <v>40.480344</v>
       </c>
       <c r="S134">
-        <v>226.00638</v>
+        <v>128.8616</v>
       </c>
       <c r="T134">
-        <v>7934.6033</v>
+        <v>10307.988</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -9414,13 +9414,13 @@
         <v>60</v>
       </c>
       <c r="R135">
-        <v>33.304869</v>
+        <v>40.480344</v>
       </c>
       <c r="S135">
-        <v>182.67504</v>
+        <v>101.89416</v>
       </c>
       <c r="T135">
-        <v>6790.0521</v>
+        <v>8691.0311</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9476,13 +9476,13 @@
         <v>60</v>
       </c>
       <c r="R136">
-        <v>39.431386</v>
+        <v>42.40256</v>
       </c>
       <c r="S136">
-        <v>114.24744</v>
+        <v>90.454622</v>
       </c>
       <c r="T136">
-        <v>7314.6439</v>
+        <v>8856.766900000001</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9538,13 +9538,13 @@
         <v>47</v>
       </c>
       <c r="R137">
-        <v>31.817417</v>
+        <v>34.905312</v>
       </c>
       <c r="S137">
-        <v>263.70897</v>
+        <v>195.44647</v>
       </c>
       <c r="T137">
-        <v>7024.0881</v>
+        <v>8509.7068</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9600,13 +9600,13 @@
         <v>47</v>
       </c>
       <c r="R138">
-        <v>31.817417</v>
+        <v>34.905312</v>
       </c>
       <c r="S138">
-        <v>214.53622</v>
+        <v>156.00585</v>
       </c>
       <c r="T138">
-        <v>6090.2119</v>
+        <v>7175.3486</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9662,13 +9662,13 @@
         <v>47</v>
       </c>
       <c r="R139">
-        <v>35.958598</v>
+        <v>36.394956</v>
       </c>
       <c r="S139">
-        <v>155.18375</v>
+        <v>141.22221</v>
       </c>
       <c r="T139">
-        <v>6050.4656</v>
+        <v>7203.2853</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9724,13 +9724,13 @@
         <v>47</v>
       </c>
       <c r="R140">
-        <v>34.141141</v>
+        <v>40.480344</v>
       </c>
       <c r="S140">
-        <v>212.90737</v>
+        <v>128.8616</v>
       </c>
       <c r="T140">
-        <v>8054.5233</v>
+        <v>10307.988</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9786,13 +9786,13 @@
         <v>47</v>
       </c>
       <c r="R141">
-        <v>34.141141</v>
+        <v>40.480344</v>
       </c>
       <c r="S141">
-        <v>171.73211</v>
+        <v>101.89416</v>
       </c>
       <c r="T141">
-        <v>6903.3862</v>
+        <v>8691.0311</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9848,13 +9848,13 @@
         <v>47</v>
       </c>
       <c r="R142">
-        <v>39.762547</v>
+        <v>42.40256</v>
       </c>
       <c r="S142">
-        <v>112.12398</v>
+        <v>90.454622</v>
       </c>
       <c r="T142">
-        <v>7331.6965</v>
+        <v>8856.766900000001</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -9910,13 +9910,13 @@
         <v>60</v>
       </c>
       <c r="R143">
-        <v>29.283849</v>
+        <v>28.4848</v>
       </c>
       <c r="S143">
-        <v>361.19087</v>
+        <v>392.81934</v>
       </c>
       <c r="T143">
-        <v>7004.868</v>
+        <v>8668.7299</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9972,13 +9972,13 @@
         <v>60</v>
       </c>
       <c r="R144">
-        <v>29.283849</v>
+        <v>28.4848</v>
       </c>
       <c r="S144">
-        <v>297.98596</v>
+        <v>321.59428</v>
       </c>
       <c r="T144">
-        <v>6123.4648</v>
+        <v>7361.6262</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10034,13 +10034,13 @@
         <v>60</v>
       </c>
       <c r="R145">
-        <v>29.998958</v>
+        <v>28.790135</v>
       </c>
       <c r="S145">
-        <v>290.73705</v>
+        <v>317.85419</v>
       </c>
       <c r="T145">
-        <v>6014.6309</v>
+        <v>7244.4813</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10096,13 +10096,13 @@
         <v>60</v>
       </c>
       <c r="R146">
-        <v>42.206456</v>
+        <v>42.347177</v>
       </c>
       <c r="S146">
-        <v>124.77253</v>
+        <v>124.20696</v>
       </c>
       <c r="T146">
-        <v>8931.9419</v>
+        <v>11485.831</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -10158,13 +10158,13 @@
         <v>60</v>
       </c>
       <c r="R147">
-        <v>42.206456</v>
+        <v>42.347177</v>
       </c>
       <c r="S147">
-        <v>99.185802</v>
+        <v>98.287915</v>
       </c>
       <c r="T147">
-        <v>7809.4783</v>
+        <v>9772.0519</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10220,13 +10220,13 @@
         <v>60</v>
       </c>
       <c r="R148">
-        <v>44.200466</v>
+        <v>43.772812</v>
       </c>
       <c r="S148">
-        <v>88.70097800000001</v>
+        <v>90.212957</v>
       </c>
       <c r="T148">
-        <v>7637.4511</v>
+        <v>9736.203799999999</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -10282,13 +10282,13 @@
         <v>47</v>
       </c>
       <c r="R149">
-        <v>29.578234</v>
+        <v>28.4848</v>
       </c>
       <c r="S149">
-        <v>358.27633</v>
+        <v>392.81934</v>
       </c>
       <c r="T149">
-        <v>7147.626</v>
+        <v>8668.7299</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -10344,13 +10344,13 @@
         <v>47</v>
       </c>
       <c r="R150">
-        <v>29.578234</v>
+        <v>28.4848</v>
       </c>
       <c r="S150">
-        <v>294.95203</v>
+        <v>321.59428</v>
       </c>
       <c r="T150">
-        <v>6246.8817</v>
+        <v>7361.6262</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10406,13 +10406,13 @@
         <v>47</v>
       </c>
       <c r="R151">
-        <v>30.267003</v>
+        <v>28.790135</v>
       </c>
       <c r="S151">
-        <v>287.98506</v>
+        <v>317.85419</v>
       </c>
       <c r="T151">
-        <v>6122.1237</v>
+        <v>7244.4813</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10468,13 +10468,13 @@
         <v>47</v>
       </c>
       <c r="R152">
-        <v>42.278481</v>
+        <v>42.347177</v>
       </c>
       <c r="S152">
-        <v>125.36497</v>
+        <v>124.20696</v>
       </c>
       <c r="T152">
-        <v>8996.6504</v>
+        <v>11485.831</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10530,13 +10530,13 @@
         <v>47</v>
       </c>
       <c r="R153">
-        <v>42.278481</v>
+        <v>42.347177</v>
       </c>
       <c r="S153">
-        <v>99.67292999999999</v>
+        <v>98.287915</v>
       </c>
       <c r="T153">
-        <v>7869.0068</v>
+        <v>9772.0519</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10592,13 +10592,13 @@
         <v>47</v>
       </c>
       <c r="R154">
-        <v>44.191331</v>
+        <v>43.772812</v>
       </c>
       <c r="S154">
-        <v>89.505481</v>
+        <v>90.212957</v>
       </c>
       <c r="T154">
-        <v>7702.6719</v>
+        <v>9736.203799999999</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="1" customFormat="1">
@@ -10668,13 +10668,13 @@
         <v>221</v>
       </c>
       <c r="R156" s="1">
-        <v>21.073297</v>
+        <v>25.644473</v>
       </c>
       <c r="S156" s="1">
-        <v>60.531762</v>
+        <v>62.660822</v>
       </c>
       <c r="T156" s="1">
-        <v>3508.7659</v>
+        <v>4807.066</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
@@ -10682,13 +10682,13 @@
         <v>222</v>
       </c>
       <c r="R157" s="1">
-        <v>46.718073</v>
+        <v>45.517997</v>
       </c>
       <c r="S157" s="1">
-        <v>536.18692</v>
+        <v>536.51921</v>
       </c>
       <c r="T157" s="1">
-        <v>12432.386</v>
+        <v>15516.717</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
@@ -10734,13 +10734,13 @@
         <v>227</v>
       </c>
       <c r="R162" s="1">
-        <v>34.39629949673202</v>
+        <v>37.00025268627452</v>
       </c>
       <c r="S162" s="1">
-        <v>203.7350700784313</v>
+        <v>170.9020487385622</v>
       </c>
       <c r="T162" s="1">
-        <v>6440.948447058824</v>
+        <v>8371.182799346412</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
@@ -10748,13 +10748,13 @@
         <v>228</v>
       </c>
       <c r="R163" s="1">
-        <v>6.596522838338181</v>
+        <v>5.745781686751988</v>
       </c>
       <c r="S163" s="1">
-        <v>115.3246120887908</v>
+        <v>109.4388374245474</v>
       </c>
       <c r="T163" s="1">
-        <v>1607.789952139154</v>
+        <v>1950.032482983352</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
@@ -10762,13 +10762,13 @@
         <v>229</v>
       </c>
       <c r="R164" s="1">
-        <v>19.17800151427602</v>
+        <v>15.5290336405822</v>
       </c>
       <c r="S164" s="1">
-        <v>56.60518439186468</v>
+        <v>64.03600087437317</v>
       </c>
       <c r="T164" s="1">
-        <v>24.96200622244277</v>
+        <v>23.29458727308646</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -1168,13 +1168,13 @@
         <v>35</v>
       </c>
       <c r="R2">
-        <v>41.806514</v>
+        <v>41.710423</v>
       </c>
       <c r="S2">
-        <v>99.558757</v>
+        <v>100.31855</v>
       </c>
       <c r="T2">
-        <v>9048.505300000001</v>
+        <v>6936.8579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1230,13 +1230,13 @@
         <v>47</v>
       </c>
       <c r="R3">
-        <v>25.644473</v>
+        <v>22.97735</v>
       </c>
       <c r="S3">
-        <v>485.66163</v>
+        <v>477.73893</v>
       </c>
       <c r="T3">
-        <v>8631.9954</v>
+        <v>5662.6349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1292,13 +1292,13 @@
         <v>47</v>
       </c>
       <c r="R4">
-        <v>43.312553</v>
+        <v>42.86326</v>
       </c>
       <c r="S4">
-        <v>142.48518</v>
+        <v>145.77342</v>
       </c>
       <c r="T4">
-        <v>14150.715</v>
+        <v>10235.39</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1354,13 +1354,13 @@
         <v>60</v>
       </c>
       <c r="R5">
-        <v>36.368942</v>
+        <v>35.779893</v>
       </c>
       <c r="S5">
-        <v>97.29862900000001</v>
+        <v>100.54057</v>
       </c>
       <c r="T5">
-        <v>5280.1534</v>
+        <v>4248.7936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1416,13 +1416,13 @@
         <v>60</v>
       </c>
       <c r="R6">
-        <v>41.635654</v>
+        <v>41.710295</v>
       </c>
       <c r="S6">
-        <v>62.660822</v>
+        <v>60.243707</v>
       </c>
       <c r="T6">
-        <v>6007.4219</v>
+        <v>4795.8564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1478,13 +1478,13 @@
         <v>60</v>
       </c>
       <c r="R7">
-        <v>35.910102</v>
+        <v>35.628701</v>
       </c>
       <c r="S7">
-        <v>111.62265</v>
+        <v>124.60195</v>
       </c>
       <c r="T7">
-        <v>5683.7395</v>
+        <v>4800.8072</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1540,13 +1540,13 @@
         <v>60</v>
       </c>
       <c r="R8">
-        <v>43.329854</v>
+        <v>44.201686</v>
       </c>
       <c r="S8">
-        <v>65.446952</v>
+        <v>64.994482</v>
       </c>
       <c r="T8">
-        <v>7185.7152</v>
+        <v>6070.918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1602,13 +1602,13 @@
         <v>60</v>
       </c>
       <c r="R9">
-        <v>26.578147</v>
+        <v>23.888187</v>
       </c>
       <c r="S9">
-        <v>242.19302</v>
+        <v>221.88188</v>
       </c>
       <c r="T9">
-        <v>4807.066</v>
+        <v>3132.1323</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1664,13 +1664,13 @@
         <v>60</v>
       </c>
       <c r="R10">
-        <v>42.678424</v>
+        <v>42.065844</v>
       </c>
       <c r="S10">
-        <v>65.816748</v>
+        <v>64.03134</v>
       </c>
       <c r="T10">
-        <v>6973.9932</v>
+        <v>5208.7659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1726,13 +1726,13 @@
         <v>47</v>
       </c>
       <c r="R11">
-        <v>25.644473</v>
+        <v>22.97735</v>
       </c>
       <c r="S11">
-        <v>404.1764</v>
+        <v>407.80297</v>
       </c>
       <c r="T11">
-        <v>7273.8072</v>
+        <v>4914.6557</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1788,13 +1788,13 @@
         <v>47</v>
       </c>
       <c r="R12">
-        <v>26.239935</v>
+        <v>23.808201</v>
       </c>
       <c r="S12">
-        <v>388.57199</v>
+        <v>402.9555</v>
       </c>
       <c r="T12">
-        <v>7327.3767</v>
+        <v>5140.2086</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1850,13 +1850,13 @@
         <v>47</v>
       </c>
       <c r="R13">
-        <v>26.239935</v>
+        <v>23.808201</v>
       </c>
       <c r="S13">
-        <v>323.53735</v>
+        <v>342.48882</v>
       </c>
       <c r="T13">
-        <v>6189.1044</v>
+        <v>4457.0922</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1912,13 +1912,13 @@
         <v>47</v>
       </c>
       <c r="R14">
-        <v>43.312553</v>
+        <v>42.86326</v>
       </c>
       <c r="S14">
-        <v>113.46133</v>
+        <v>116.96806</v>
       </c>
       <c r="T14">
-        <v>12110.566</v>
+        <v>9017.4015</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1974,13 +1974,13 @@
         <v>47</v>
       </c>
       <c r="R15">
-        <v>44.917504</v>
+        <v>45.225633</v>
       </c>
       <c r="S15">
-        <v>101.69105</v>
+        <v>100.66214</v>
       </c>
       <c r="T15">
-        <v>11776.879</v>
+        <v>8673.013199999999</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2036,13 +2036,13 @@
         <v>47</v>
       </c>
       <c r="R16">
-        <v>44.917504</v>
+        <v>45.225633</v>
       </c>
       <c r="S16">
-        <v>80.777497</v>
+        <v>80.32186900000001</v>
       </c>
       <c r="T16">
-        <v>10096.417</v>
+        <v>7655.2874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2098,13 +2098,13 @@
         <v>60</v>
       </c>
       <c r="R17">
-        <v>34.800246</v>
+        <v>33.762706</v>
       </c>
       <c r="S17">
-        <v>166.70549</v>
+        <v>169.24299</v>
       </c>
       <c r="T17">
-        <v>7280.0879</v>
+        <v>5521.3614</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2160,13 +2160,13 @@
         <v>60</v>
       </c>
       <c r="R18">
-        <v>34.800246</v>
+        <v>33.762706</v>
       </c>
       <c r="S18">
-        <v>133.62341</v>
+        <v>138.02178</v>
       </c>
       <c r="T18">
-        <v>6135.6868</v>
+        <v>4797.1164</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2222,13 +2222,13 @@
         <v>60</v>
       </c>
       <c r="R19">
-        <v>36.368942</v>
+        <v>35.779893</v>
       </c>
       <c r="S19">
-        <v>121.6368</v>
+        <v>124.06687</v>
       </c>
       <c r="T19">
-        <v>6257.2365</v>
+        <v>4884.9763</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2284,13 +2284,13 @@
         <v>60</v>
       </c>
       <c r="R20">
-        <v>39.967141</v>
+        <v>39.980187</v>
       </c>
       <c r="S20">
-        <v>109.12276</v>
+        <v>104.03165</v>
       </c>
       <c r="T20">
-        <v>8201.6607</v>
+        <v>6314.2446</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2346,13 +2346,13 @@
         <v>60</v>
       </c>
       <c r="R21">
-        <v>39.967141</v>
+        <v>39.980187</v>
       </c>
       <c r="S21">
-        <v>86.254442</v>
+        <v>82.495456</v>
       </c>
       <c r="T21">
-        <v>6914.1574</v>
+        <v>5475.8587</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2408,13 +2408,13 @@
         <v>60</v>
       </c>
       <c r="R22">
-        <v>41.635654</v>
+        <v>41.710295</v>
       </c>
       <c r="S22">
-        <v>79.341475</v>
+        <v>76.06012699999999</v>
       </c>
       <c r="T22">
-        <v>7114.6632</v>
+        <v>5525.5191</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2470,13 +2470,13 @@
         <v>47</v>
       </c>
       <c r="R23">
-        <v>34.800246</v>
+        <v>34.282187</v>
       </c>
       <c r="S23">
-        <v>166.70549</v>
+        <v>168.05346</v>
       </c>
       <c r="T23">
-        <v>7280.0879</v>
+        <v>5715.969</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2532,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="R24">
-        <v>34.800246</v>
+        <v>34.282187</v>
       </c>
       <c r="S24">
-        <v>133.62341</v>
+        <v>136.68371</v>
       </c>
       <c r="T24">
-        <v>6135.6868</v>
+        <v>4969.6572</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2594,13 +2594,13 @@
         <v>47</v>
       </c>
       <c r="R25">
-        <v>36.368942</v>
+        <v>36.255172</v>
       </c>
       <c r="S25">
-        <v>121.6368</v>
+        <v>122.58539</v>
       </c>
       <c r="T25">
-        <v>6257.2365</v>
+        <v>5016.2633</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2656,13 +2656,13 @@
         <v>47</v>
       </c>
       <c r="R26">
-        <v>39.967141</v>
+        <v>40.040073</v>
       </c>
       <c r="S26">
-        <v>109.12276</v>
+        <v>104.70799</v>
       </c>
       <c r="T26">
-        <v>8201.6607</v>
+        <v>6395.5455</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2718,13 +2718,13 @@
         <v>47</v>
       </c>
       <c r="R27">
-        <v>39.967141</v>
+        <v>40.040073</v>
       </c>
       <c r="S27">
-        <v>86.254442</v>
+        <v>83.04122599999999</v>
       </c>
       <c r="T27">
-        <v>6914.1574</v>
+        <v>5547.1401</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2780,13 +2780,13 @@
         <v>47</v>
       </c>
       <c r="R28">
-        <v>41.635654</v>
+        <v>41.766089</v>
       </c>
       <c r="S28">
-        <v>79.341475</v>
+        <v>76.487875</v>
       </c>
       <c r="T28">
-        <v>7114.6632</v>
+        <v>5579.7145</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2842,13 +2842,13 @@
         <v>60</v>
       </c>
       <c r="R29">
-        <v>34.568348</v>
+        <v>32.808844</v>
       </c>
       <c r="S29">
-        <v>190.31836</v>
+        <v>235.68174</v>
       </c>
       <c r="T29">
-        <v>7965.0652</v>
+        <v>6339.4492</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2904,13 +2904,13 @@
         <v>60</v>
       </c>
       <c r="R30">
-        <v>34.568348</v>
+        <v>32.808844</v>
       </c>
       <c r="S30">
-        <v>152.71919</v>
+        <v>191.45934</v>
       </c>
       <c r="T30">
-        <v>6731.0073</v>
+        <v>5531.8911</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2966,13 +2966,13 @@
         <v>60</v>
       </c>
       <c r="R31">
-        <v>35.910102</v>
+        <v>35.628701</v>
       </c>
       <c r="S31">
-        <v>139.27034</v>
+        <v>154.38099</v>
       </c>
       <c r="T31">
-        <v>6719.0012</v>
+        <v>5495.5522</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3028,13 +3028,13 @@
         <v>60</v>
       </c>
       <c r="R32">
-        <v>41.797112</v>
+        <v>42.32836</v>
       </c>
       <c r="S32">
-        <v>114.14818</v>
+        <v>114.13227</v>
       </c>
       <c r="T32">
-        <v>9873.860699999999</v>
+        <v>7938.4534</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3090,13 +3090,13 @@
         <v>60</v>
       </c>
       <c r="R33">
-        <v>41.797112</v>
+        <v>42.32836</v>
       </c>
       <c r="S33">
-        <v>90.23294300000001</v>
+        <v>90.632468</v>
       </c>
       <c r="T33">
-        <v>8394.476199999999</v>
+        <v>6952.0855</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3152,13 +3152,13 @@
         <v>60</v>
       </c>
       <c r="R34">
-        <v>43.329854</v>
+        <v>44.201686</v>
       </c>
       <c r="S34">
-        <v>82.863861</v>
+        <v>81.984722</v>
       </c>
       <c r="T34">
-        <v>8444.280000000001</v>
+        <v>6928.2937</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3214,13 +3214,13 @@
         <v>47</v>
       </c>
       <c r="R35">
-        <v>34.568348</v>
+        <v>33.658975</v>
       </c>
       <c r="S35">
-        <v>190.31836</v>
+        <v>225.58703</v>
       </c>
       <c r="T35">
-        <v>7965.0652</v>
+        <v>6581.7186</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3276,13 +3276,13 @@
         <v>47</v>
       </c>
       <c r="R36">
-        <v>34.568348</v>
+        <v>33.658975</v>
       </c>
       <c r="S36">
-        <v>152.71919</v>
+        <v>182.85254</v>
       </c>
       <c r="T36">
-        <v>6731.0073</v>
+        <v>5747.5141</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3338,13 +3338,13 @@
         <v>47</v>
       </c>
       <c r="R37">
-        <v>35.910102</v>
+        <v>36.279947</v>
       </c>
       <c r="S37">
-        <v>139.27034</v>
+        <v>149.51575</v>
       </c>
       <c r="T37">
-        <v>6719.0012</v>
+        <v>5656.6953</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3400,13 +3400,13 @@
         <v>47</v>
       </c>
       <c r="R38">
-        <v>41.797112</v>
+        <v>42.417634</v>
       </c>
       <c r="S38">
-        <v>114.14818</v>
+        <v>114.87281</v>
       </c>
       <c r="T38">
-        <v>9873.860699999999</v>
+        <v>8078.5558</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3462,13 +3462,13 @@
         <v>47</v>
       </c>
       <c r="R39">
-        <v>41.797112</v>
+        <v>42.417634</v>
       </c>
       <c r="S39">
-        <v>90.23294300000001</v>
+        <v>91.228112</v>
       </c>
       <c r="T39">
-        <v>8394.476199999999</v>
+        <v>7074.5059</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3524,13 +3524,13 @@
         <v>47</v>
       </c>
       <c r="R40">
-        <v>43.329854</v>
+        <v>44.260943</v>
       </c>
       <c r="S40">
-        <v>82.863861</v>
+        <v>82.596414</v>
       </c>
       <c r="T40">
-        <v>8444.280000000001</v>
+        <v>7021.9544</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3586,13 +3586,13 @@
         <v>60</v>
       </c>
       <c r="R41">
-        <v>26.095624</v>
+        <v>22.798999</v>
       </c>
       <c r="S41">
-        <v>357.44649</v>
+        <v>300.24373</v>
       </c>
       <c r="T41">
-        <v>6652.6046</v>
+        <v>3773.4641</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3648,13 +3648,13 @@
         <v>60</v>
       </c>
       <c r="R42">
-        <v>26.095624</v>
+        <v>22.798999</v>
       </c>
       <c r="S42">
-        <v>295.64497</v>
+        <v>256.04727</v>
       </c>
       <c r="T42">
-        <v>5587.7321</v>
+        <v>3243.1745</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3710,13 +3710,13 @@
         <v>60</v>
       </c>
       <c r="R43">
-        <v>26.578147</v>
+        <v>23.888187</v>
       </c>
       <c r="S43">
-        <v>293.18854</v>
+        <v>261.66625</v>
       </c>
       <c r="T43">
-        <v>5719.152</v>
+        <v>3650.179</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3772,13 +3772,13 @@
         <v>60</v>
       </c>
       <c r="R44">
-        <v>41.109513</v>
+        <v>40.222361</v>
       </c>
       <c r="S44">
-        <v>113.29544</v>
+        <v>108.2718</v>
       </c>
       <c r="T44">
-        <v>9588.1656</v>
+        <v>6855.0811</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3834,13 +3834,13 @@
         <v>60</v>
       </c>
       <c r="R45">
-        <v>41.109513</v>
+        <v>40.222361</v>
       </c>
       <c r="S45">
-        <v>89.896242</v>
+        <v>87.01839699999999</v>
       </c>
       <c r="T45">
-        <v>8112.4441</v>
+        <v>5966.7846</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3896,13 +3896,13 @@
         <v>60</v>
       </c>
       <c r="R46">
-        <v>42.678424</v>
+        <v>42.065844</v>
       </c>
       <c r="S46">
-        <v>83.07185200000001</v>
+        <v>80.100443</v>
       </c>
       <c r="T46">
-        <v>8225.030500000001</v>
+        <v>5975.5961</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3958,13 +3958,13 @@
         <v>47</v>
       </c>
       <c r="R47">
-        <v>26.095624</v>
+        <v>23.974268</v>
       </c>
       <c r="S47">
-        <v>357.44649</v>
+        <v>308.624</v>
       </c>
       <c r="T47">
-        <v>6652.6046</v>
+        <v>4374.2774</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4020,13 +4020,13 @@
         <v>47</v>
       </c>
       <c r="R48">
-        <v>26.095624</v>
+        <v>23.974268</v>
       </c>
       <c r="S48">
-        <v>295.64497</v>
+        <v>262.42584</v>
       </c>
       <c r="T48">
-        <v>5587.7321</v>
+        <v>3759.7491</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4082,13 +4082,13 @@
         <v>47</v>
       </c>
       <c r="R49">
-        <v>26.578147</v>
+        <v>24.944585</v>
       </c>
       <c r="S49">
-        <v>293.18854</v>
+        <v>265.35686</v>
       </c>
       <c r="T49">
-        <v>5719.152</v>
+        <v>4096.4974</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4144,13 +4144,13 @@
         <v>47</v>
       </c>
       <c r="R50">
-        <v>41.109513</v>
+        <v>40.589013</v>
       </c>
       <c r="S50">
-        <v>113.29544</v>
+        <v>108.4368</v>
       </c>
       <c r="T50">
-        <v>9588.1656</v>
+        <v>7087.3794</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4206,13 +4206,13 @@
         <v>47</v>
       </c>
       <c r="R51">
-        <v>41.109513</v>
+        <v>40.589013</v>
       </c>
       <c r="S51">
-        <v>89.896242</v>
+        <v>86.935784</v>
       </c>
       <c r="T51">
-        <v>8112.4441</v>
+        <v>6168.9272</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4268,13 +4268,13 @@
         <v>47</v>
       </c>
       <c r="R52">
-        <v>42.678424</v>
+        <v>42.347455</v>
       </c>
       <c r="S52">
-        <v>83.07185200000001</v>
+        <v>80.15703499999999</v>
       </c>
       <c r="T52">
-        <v>8225.030500000001</v>
+        <v>6136.8635</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4330,13 +4330,13 @@
         <v>35</v>
       </c>
       <c r="R53">
-        <v>41.94246</v>
+        <v>42.955746</v>
       </c>
       <c r="S53">
-        <v>105.20418</v>
+        <v>108.10175</v>
       </c>
       <c r="T53">
-        <v>9880.6849</v>
+        <v>8903.26</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4392,13 +4392,13 @@
         <v>47</v>
       </c>
       <c r="R54">
-        <v>28.280392</v>
+        <v>28.878219</v>
       </c>
       <c r="S54">
-        <v>536.51921</v>
+        <v>560.8062200000001</v>
       </c>
       <c r="T54">
-        <v>11496.005</v>
+        <v>9608.776900000001</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4454,13 +4454,13 @@
         <v>47</v>
       </c>
       <c r="R55">
-        <v>44.056306</v>
+        <v>45.455011</v>
       </c>
       <c r="S55">
-        <v>142.80788</v>
+        <v>138.59109</v>
       </c>
       <c r="T55">
-        <v>15516.717</v>
+        <v>12937.924</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4516,13 +4516,13 @@
         <v>60</v>
       </c>
       <c r="R56">
-        <v>36.580361</v>
+        <v>36.882792</v>
       </c>
       <c r="S56">
-        <v>102.78494</v>
+        <v>112.77755</v>
       </c>
       <c r="T56">
-        <v>5768.9357</v>
+        <v>5521.8779</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4578,13 +4578,13 @@
         <v>60</v>
       </c>
       <c r="R57">
-        <v>40.248747</v>
+        <v>38.889736</v>
       </c>
       <c r="S57">
-        <v>77.767678</v>
+        <v>93.45229</v>
       </c>
       <c r="T57">
-        <v>6733.1727</v>
+        <v>6302.6623</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4640,13 +4640,13 @@
         <v>60</v>
       </c>
       <c r="R58">
-        <v>36.163823</v>
+        <v>36.758554</v>
       </c>
       <c r="S58">
-        <v>114.33385</v>
+        <v>123.83153</v>
       </c>
       <c r="T58">
-        <v>6092.1109</v>
+        <v>5826.3162</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4702,13 +4702,13 @@
         <v>60</v>
       </c>
       <c r="R59">
-        <v>41.187382</v>
+        <v>40.187722</v>
       </c>
       <c r="S59">
-        <v>76.919477</v>
+        <v>90.389065</v>
       </c>
       <c r="T59">
-        <v>7320.914</v>
+        <v>6898.0557</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4764,13 +4764,13 @@
         <v>60</v>
       </c>
       <c r="R60">
-        <v>28.734773</v>
+        <v>30.623358</v>
       </c>
       <c r="S60">
-        <v>264.57373</v>
+        <v>251.7281</v>
       </c>
       <c r="T60">
-        <v>6216.6979</v>
+        <v>5796.358</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4826,13 +4826,13 @@
         <v>60</v>
       </c>
       <c r="R61">
-        <v>43.551251</v>
+        <v>44.466736</v>
       </c>
       <c r="S61">
-        <v>72.753097</v>
+        <v>75.251963</v>
       </c>
       <c r="T61">
-        <v>8350.9409</v>
+        <v>7630.5882</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4888,13 +4888,13 @@
         <v>47</v>
       </c>
       <c r="R62">
-        <v>28.280392</v>
+        <v>28.878219</v>
       </c>
       <c r="S62">
-        <v>443.14848</v>
+        <v>468.73726</v>
       </c>
       <c r="T62">
-        <v>9825.0195</v>
+        <v>8476.125899999999</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4950,13 +4950,13 @@
         <v>47</v>
       </c>
       <c r="R63">
-        <v>28.580705</v>
+        <v>29.382948</v>
       </c>
       <c r="S63">
-        <v>427.28712</v>
+        <v>448.81731</v>
       </c>
       <c r="T63">
-        <v>9445.115599999999</v>
+        <v>8010.446</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5012,13 +5012,13 @@
         <v>47</v>
       </c>
       <c r="R64">
-        <v>28.580705</v>
+        <v>29.382948</v>
       </c>
       <c r="S64">
-        <v>353.10298</v>
+        <v>374.66449</v>
       </c>
       <c r="T64">
-        <v>8078.4012</v>
+        <v>7067.8428</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5074,13 +5074,13 @@
         <v>47</v>
       </c>
       <c r="R65">
-        <v>44.056306</v>
+        <v>45.455011</v>
       </c>
       <c r="S65">
-        <v>113.29347</v>
+        <v>110.21184</v>
       </c>
       <c r="T65">
-        <v>13261.328</v>
+        <v>11389</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5136,13 +5136,13 @@
         <v>47</v>
       </c>
       <c r="R66">
-        <v>45.494982</v>
+        <v>46.943818</v>
       </c>
       <c r="S66">
-        <v>102.08419</v>
+        <v>100.09038</v>
       </c>
       <c r="T66">
-        <v>12936.163</v>
+        <v>10870.33</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5198,13 +5198,13 @@
         <v>47</v>
       </c>
       <c r="R67">
-        <v>45.494982</v>
+        <v>46.943818</v>
       </c>
       <c r="S67">
-        <v>80.87502499999999</v>
+        <v>79.49752599999999</v>
       </c>
       <c r="T67">
-        <v>11060.724</v>
+        <v>9571.8213</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5260,13 +5260,13 @@
         <v>60</v>
       </c>
       <c r="R68">
-        <v>34.65763</v>
+        <v>32.833089</v>
       </c>
       <c r="S68">
-        <v>184.91281</v>
+        <v>235.84204</v>
       </c>
       <c r="T68">
-        <v>7996.0318</v>
+        <v>7238.2378</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5322,13 +5322,13 @@
         <v>60</v>
       </c>
       <c r="R69">
-        <v>34.65763</v>
+        <v>32.833089</v>
       </c>
       <c r="S69">
-        <v>147.14427</v>
+        <v>190.46698</v>
       </c>
       <c r="T69">
-        <v>6710.4567</v>
+        <v>6247.2424</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5384,13 +5384,13 @@
         <v>60</v>
       </c>
       <c r="R70">
-        <v>36.580361</v>
+        <v>36.882792</v>
       </c>
       <c r="S70">
-        <v>129.3795</v>
+        <v>140.99696</v>
       </c>
       <c r="T70">
-        <v>6863.622</v>
+        <v>6378.4295</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5446,13 +5446,13 @@
         <v>60</v>
       </c>
       <c r="R71">
-        <v>37.441731</v>
+        <v>33.021956</v>
       </c>
       <c r="S71">
-        <v>148.57177</v>
+        <v>225.02256</v>
       </c>
       <c r="T71">
-        <v>9073.1922</v>
+        <v>7861.3017</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5508,13 +5508,13 @@
         <v>60</v>
       </c>
       <c r="R72">
-        <v>37.441731</v>
+        <v>33.021956</v>
       </c>
       <c r="S72">
-        <v>117.53087</v>
+        <v>181.34612</v>
       </c>
       <c r="T72">
-        <v>7558.8454</v>
+        <v>6689.569</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5570,13 +5570,13 @@
         <v>60</v>
       </c>
       <c r="R73">
-        <v>40.248747</v>
+        <v>38.889736</v>
       </c>
       <c r="S73">
-        <v>98.468473</v>
+        <v>117.38071</v>
       </c>
       <c r="T73">
-        <v>8047.0502</v>
+        <v>7366.1851</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5632,13 +5632,13 @@
         <v>47</v>
       </c>
       <c r="R74">
-        <v>34.65763</v>
+        <v>33.405512</v>
       </c>
       <c r="S74">
-        <v>184.91281</v>
+        <v>227.39288</v>
       </c>
       <c r="T74">
-        <v>7996.0318</v>
+        <v>7304.1975</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5694,13 +5694,13 @@
         <v>47</v>
       </c>
       <c r="R75">
-        <v>34.65763</v>
+        <v>33.405512</v>
       </c>
       <c r="S75">
-        <v>147.14427</v>
+        <v>183.4675</v>
       </c>
       <c r="T75">
-        <v>6710.4567</v>
+        <v>6313.8204</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5756,13 +5756,13 @@
         <v>47</v>
       </c>
       <c r="R76">
-        <v>36.580361</v>
+        <v>37.16584</v>
       </c>
       <c r="S76">
-        <v>129.3795</v>
+        <v>138.63299</v>
       </c>
       <c r="T76">
-        <v>6863.622</v>
+        <v>6385.7628</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5818,13 +5818,13 @@
         <v>47</v>
       </c>
       <c r="R77">
-        <v>37.441731</v>
+        <v>33.983232</v>
       </c>
       <c r="S77">
-        <v>148.57177</v>
+        <v>210.8982</v>
       </c>
       <c r="T77">
-        <v>9073.1922</v>
+        <v>8028.8328</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5880,13 +5880,13 @@
         <v>47</v>
       </c>
       <c r="R78">
-        <v>37.441731</v>
+        <v>33.983232</v>
       </c>
       <c r="S78">
-        <v>117.53087</v>
+        <v>169.63757</v>
       </c>
       <c r="T78">
-        <v>7558.8454</v>
+        <v>6848.0984</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5942,13 +5942,13 @@
         <v>47</v>
       </c>
       <c r="R79">
-        <v>40.248747</v>
+        <v>39.337149</v>
       </c>
       <c r="S79">
-        <v>98.468473</v>
+        <v>114.74819</v>
       </c>
       <c r="T79">
-        <v>8047.0502</v>
+        <v>7415.9538</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6004,13 +6004,13 @@
         <v>60</v>
       </c>
       <c r="R80">
-        <v>34.51093</v>
+        <v>32.564479</v>
       </c>
       <c r="S80">
-        <v>200.88344</v>
+        <v>262.31748</v>
       </c>
       <c r="T80">
-        <v>8506.423699999999</v>
+        <v>7700.4731</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6066,13 +6066,13 @@
         <v>60</v>
       </c>
       <c r="R81">
-        <v>34.51093</v>
+        <v>32.564479</v>
       </c>
       <c r="S81">
-        <v>160.1221</v>
+        <v>212.7052</v>
       </c>
       <c r="T81">
-        <v>7149.5067</v>
+        <v>6659.9969</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6128,13 +6128,13 @@
         <v>60</v>
       </c>
       <c r="R82">
-        <v>36.163823</v>
+        <v>36.758554</v>
       </c>
       <c r="S82">
-        <v>143.61837</v>
+        <v>154.62334</v>
       </c>
       <c r="T82">
-        <v>7236.4796</v>
+        <v>6715.8117</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6190,13 +6190,13 @@
         <v>60</v>
       </c>
       <c r="R83">
-        <v>38.709868</v>
+        <v>34.834011</v>
       </c>
       <c r="S83">
-        <v>143.41261</v>
+        <v>208.4232</v>
       </c>
       <c r="T83">
-        <v>9959.9619</v>
+        <v>8710.563599999999</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6252,13 +6252,13 @@
         <v>60</v>
       </c>
       <c r="R84">
-        <v>38.709868</v>
+        <v>34.834011</v>
       </c>
       <c r="S84">
-        <v>113.41432</v>
+        <v>167.57079</v>
       </c>
       <c r="T84">
-        <v>8320.551799999999</v>
+        <v>7435.0435</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6314,13 +6314,13 @@
         <v>60</v>
       </c>
       <c r="R85">
-        <v>41.187382</v>
+        <v>40.187722</v>
       </c>
       <c r="S85">
-        <v>97.380245</v>
+        <v>113.62748</v>
       </c>
       <c r="T85">
-        <v>8727.865100000001</v>
+        <v>8034.2827</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6376,13 +6376,13 @@
         <v>47</v>
       </c>
       <c r="R86">
-        <v>34.51093</v>
+        <v>33.28684</v>
       </c>
       <c r="S86">
-        <v>200.88344</v>
+        <v>249.57965</v>
       </c>
       <c r="T86">
-        <v>8506.423699999999</v>
+        <v>7777.3104</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6438,13 +6438,13 @@
         <v>47</v>
       </c>
       <c r="R87">
-        <v>34.51093</v>
+        <v>33.28684</v>
       </c>
       <c r="S87">
-        <v>160.1221</v>
+        <v>201.9749</v>
       </c>
       <c r="T87">
-        <v>7149.5067</v>
+        <v>6736.0501</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6500,13 +6500,13 @@
         <v>47</v>
       </c>
       <c r="R88">
-        <v>36.163823</v>
+        <v>37.086008</v>
       </c>
       <c r="S88">
-        <v>143.61837</v>
+        <v>151.2494</v>
       </c>
       <c r="T88">
-        <v>7236.4796</v>
+        <v>6724.706</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6562,13 +6562,13 @@
         <v>47</v>
       </c>
       <c r="R89">
-        <v>38.709868</v>
+        <v>35.808473</v>
       </c>
       <c r="S89">
-        <v>143.41261</v>
+        <v>195.11076</v>
       </c>
       <c r="T89">
-        <v>9959.9619</v>
+        <v>8887.385</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6624,13 +6624,13 @@
         <v>47</v>
       </c>
       <c r="R90">
-        <v>38.709868</v>
+        <v>35.808473</v>
       </c>
       <c r="S90">
-        <v>113.41432</v>
+        <v>156.54102</v>
       </c>
       <c r="T90">
-        <v>8320.551799999999</v>
+        <v>7602.693</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6686,13 +6686,13 @@
         <v>47</v>
       </c>
       <c r="R91">
-        <v>41.187382</v>
+        <v>40.587386</v>
       </c>
       <c r="S91">
-        <v>97.380245</v>
+        <v>111.52675</v>
       </c>
       <c r="T91">
-        <v>8727.865100000001</v>
+        <v>8080.3438</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6748,13 +6748,13 @@
         <v>60</v>
       </c>
       <c r="R92">
-        <v>28.407381</v>
+        <v>29.936691</v>
       </c>
       <c r="S92">
-        <v>401.6325</v>
+        <v>384.06427</v>
       </c>
       <c r="T92">
-        <v>8768.8125</v>
+        <v>7793.1305</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6810,13 +6810,13 @@
         <v>60</v>
       </c>
       <c r="R93">
-        <v>28.407381</v>
+        <v>29.936691</v>
       </c>
       <c r="S93">
-        <v>328.12822</v>
+        <v>315.99963</v>
       </c>
       <c r="T93">
-        <v>7438.9597</v>
+        <v>6820.4007</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6872,13 +6872,13 @@
         <v>60</v>
       </c>
       <c r="R94">
-        <v>28.734773</v>
+        <v>30.623358</v>
       </c>
       <c r="S94">
-        <v>323.9399</v>
+        <v>306.68921</v>
       </c>
       <c r="T94">
-        <v>7326.9411</v>
+        <v>6623.7157</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6934,13 +6934,13 @@
         <v>60</v>
       </c>
       <c r="R95">
-        <v>42.064773</v>
+        <v>42.403126</v>
       </c>
       <c r="S95">
-        <v>127.37684</v>
+        <v>134.62426</v>
       </c>
       <c r="T95">
-        <v>11584.157</v>
+        <v>10149.784</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6996,13 +6996,13 @@
         <v>60</v>
       </c>
       <c r="R96">
-        <v>42.064773</v>
+        <v>42.403126</v>
       </c>
       <c r="S96">
-        <v>100.78156</v>
+        <v>107.02558</v>
       </c>
       <c r="T96">
-        <v>9838.2626</v>
+        <v>8860.069299999999</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7058,13 +7058,13 @@
         <v>60</v>
       </c>
       <c r="R97">
-        <v>43.551251</v>
+        <v>44.466736</v>
       </c>
       <c r="S97">
-        <v>92.02782500000001</v>
+        <v>94.822728</v>
       </c>
       <c r="T97">
-        <v>9825.374900000001</v>
+        <v>8727.490400000001</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7120,13 +7120,13 @@
         <v>47</v>
       </c>
       <c r="R98">
-        <v>28.407381</v>
+        <v>30.242074</v>
       </c>
       <c r="S98">
-        <v>401.6325</v>
+        <v>379.21116</v>
       </c>
       <c r="T98">
-        <v>8768.8125</v>
+        <v>7928.6342</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7182,13 +7182,13 @@
         <v>47</v>
       </c>
       <c r="R99">
-        <v>28.407381</v>
+        <v>30.242074</v>
       </c>
       <c r="S99">
-        <v>328.12822</v>
+        <v>311.4992</v>
       </c>
       <c r="T99">
-        <v>7438.9597</v>
+        <v>6937.966</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7244,13 +7244,13 @@
         <v>47</v>
       </c>
       <c r="R100">
-        <v>28.734773</v>
+        <v>30.88948</v>
       </c>
       <c r="S100">
-        <v>323.9399</v>
+        <v>302.96253</v>
       </c>
       <c r="T100">
-        <v>7326.9411</v>
+        <v>6721.8759</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7306,13 +7306,13 @@
         <v>47</v>
       </c>
       <c r="R101">
-        <v>42.064773</v>
+        <v>42.55979</v>
       </c>
       <c r="S101">
-        <v>127.37684</v>
+        <v>134.35518</v>
       </c>
       <c r="T101">
-        <v>11584.157</v>
+        <v>10199.33</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7368,13 +7368,13 @@
         <v>47</v>
       </c>
       <c r="R102">
-        <v>42.064773</v>
+        <v>42.55979</v>
       </c>
       <c r="S102">
-        <v>100.78156</v>
+        <v>106.81132</v>
       </c>
       <c r="T102">
-        <v>9838.2626</v>
+        <v>8908.632600000001</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7430,13 +7430,13 @@
         <v>47</v>
       </c>
       <c r="R103">
-        <v>43.551251</v>
+        <v>44.507112</v>
       </c>
       <c r="S103">
-        <v>92.02782500000001</v>
+        <v>95.236918</v>
       </c>
       <c r="T103">
-        <v>9825.374900000001</v>
+        <v>8746.4414</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7492,13 +7492,13 @@
         <v>35</v>
       </c>
       <c r="R104">
-        <v>42.127437</v>
+        <v>43.335073</v>
       </c>
       <c r="S104">
-        <v>103.67527</v>
+        <v>104.99751</v>
       </c>
       <c r="T104">
-        <v>9841.2228</v>
+        <v>8742.0748</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7554,13 +7554,13 @@
         <v>47</v>
       </c>
       <c r="R105">
-        <v>28.307944</v>
+        <v>28.799452</v>
       </c>
       <c r="S105">
-        <v>532.1758599999999</v>
+        <v>557.48448</v>
       </c>
       <c r="T105">
-        <v>11450.338</v>
+        <v>9499.3128</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7616,13 +7616,13 @@
         <v>47</v>
       </c>
       <c r="R106">
-        <v>44.082851</v>
+        <v>45.512111</v>
       </c>
       <c r="S106">
-        <v>142.42841</v>
+        <v>137.77522</v>
       </c>
       <c r="T106">
-        <v>15474.873</v>
+        <v>12839.706</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7678,13 +7678,13 @@
         <v>60</v>
       </c>
       <c r="R107">
-        <v>36.910827</v>
+        <v>37.613522</v>
       </c>
       <c r="S107">
-        <v>100.50221</v>
+        <v>107.37222</v>
       </c>
       <c r="T107">
-        <v>5773.3382</v>
+        <v>5435.7336</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7740,13 +7740,13 @@
         <v>60</v>
       </c>
       <c r="R108">
-        <v>41.703052</v>
+        <v>41.590364</v>
       </c>
       <c r="S108">
-        <v>71.219098</v>
+        <v>79.366587</v>
       </c>
       <c r="T108">
-        <v>6941.1439</v>
+        <v>6521.8684</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7802,13 +7802,13 @@
         <v>60</v>
       </c>
       <c r="R109">
-        <v>36.394956</v>
+        <v>37.262503</v>
       </c>
       <c r="S109">
-        <v>112.58438</v>
+        <v>120.64922</v>
       </c>
       <c r="T109">
-        <v>6080.2528</v>
+        <v>5719.1698</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7864,13 +7864,13 @@
         <v>60</v>
       </c>
       <c r="R110">
-        <v>42.40256</v>
+        <v>42.510935</v>
       </c>
       <c r="S110">
-        <v>71.44812899999999</v>
+        <v>79.240101</v>
       </c>
       <c r="T110">
-        <v>7481.5344</v>
+        <v>7079.4078</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7926,13 +7926,13 @@
         <v>60</v>
       </c>
       <c r="R111">
-        <v>28.790135</v>
+        <v>30.38918</v>
       </c>
       <c r="S111">
-        <v>260.09303</v>
+        <v>250.52341</v>
       </c>
       <c r="T111">
-        <v>6152.7615</v>
+        <v>5623.7541</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7988,13 +7988,13 @@
         <v>60</v>
       </c>
       <c r="R112">
-        <v>43.772812</v>
+        <v>44.857849</v>
       </c>
       <c r="S112">
-        <v>71.326317</v>
+        <v>72.193793</v>
       </c>
       <c r="T112">
-        <v>8288.386399999999</v>
+        <v>7394.9971</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -8050,13 +8050,13 @@
         <v>47</v>
       </c>
       <c r="R113">
-        <v>28.307944</v>
+        <v>28.799452</v>
       </c>
       <c r="S113">
-        <v>439.77996</v>
+        <v>466.5215</v>
       </c>
       <c r="T113">
-        <v>9787.556200000001</v>
+        <v>8381.600899999999</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8112,13 +8112,13 @@
         <v>47</v>
       </c>
       <c r="R114">
-        <v>28.603264</v>
+        <v>29.320639</v>
       </c>
       <c r="S114">
-        <v>424.14498</v>
+        <v>446.77655</v>
       </c>
       <c r="T114">
-        <v>9405.990599999999</v>
+        <v>7933.4464</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -8174,13 +8174,13 @@
         <v>47</v>
       </c>
       <c r="R115">
-        <v>28.603264</v>
+        <v>29.320639</v>
       </c>
       <c r="S115">
-        <v>350.68363</v>
+        <v>373.33403</v>
       </c>
       <c r="T115">
-        <v>8046.9066</v>
+        <v>7001.9786</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -8236,13 +8236,13 @@
         <v>47</v>
       </c>
       <c r="R116">
-        <v>44.082851</v>
+        <v>45.512111</v>
       </c>
       <c r="S116">
-        <v>113.00623</v>
+        <v>109.56871</v>
       </c>
       <c r="T116">
-        <v>13229.871</v>
+        <v>11307.256</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -8298,13 +8298,13 @@
         <v>47</v>
       </c>
       <c r="R117">
-        <v>45.517997</v>
+        <v>46.983923</v>
       </c>
       <c r="S117">
-        <v>101.83293</v>
+        <v>99.598231</v>
       </c>
       <c r="T117">
-        <v>12894.386</v>
+        <v>10787.281</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -8360,13 +8360,13 @@
         <v>47</v>
       </c>
       <c r="R118">
-        <v>45.517997</v>
+        <v>46.983923</v>
       </c>
       <c r="S118">
-        <v>80.68286500000001</v>
+        <v>79.11007600000001</v>
       </c>
       <c r="T118">
-        <v>11028.838</v>
+        <v>9502.323700000001</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -8422,13 +8422,13 @@
         <v>60</v>
       </c>
       <c r="R119">
-        <v>35.178573</v>
+        <v>34.30152</v>
       </c>
       <c r="S119">
-        <v>178.22092</v>
+        <v>213.04291</v>
       </c>
       <c r="T119">
-        <v>8020.1947</v>
+        <v>7197.6707</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8484,13 +8484,13 @@
         <v>60</v>
       </c>
       <c r="R120">
-        <v>35.178573</v>
+        <v>34.30152</v>
       </c>
       <c r="S120">
-        <v>141.97212</v>
+        <v>171.78707</v>
       </c>
       <c r="T120">
-        <v>6754.0308</v>
+        <v>6249.045</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -8546,13 +8546,13 @@
         <v>60</v>
       </c>
       <c r="R121">
-        <v>36.910827</v>
+        <v>37.613522</v>
       </c>
       <c r="S121">
-        <v>126.37306</v>
+        <v>134.22107</v>
       </c>
       <c r="T121">
-        <v>6849.1107</v>
+        <v>6250.86</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -8608,13 +8608,13 @@
         <v>60</v>
       </c>
       <c r="R122">
-        <v>39.538255</v>
+        <v>37.465635</v>
       </c>
       <c r="S122">
-        <v>130.60764</v>
+        <v>165.73446</v>
       </c>
       <c r="T122">
-        <v>9491.065000000001</v>
+        <v>8398.878500000001</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8670,13 +8670,13 @@
         <v>60</v>
       </c>
       <c r="R123">
-        <v>39.538255</v>
+        <v>37.465635</v>
       </c>
       <c r="S123">
-        <v>103.28853</v>
+        <v>132.62517</v>
       </c>
       <c r="T123">
-        <v>7990.1687</v>
+        <v>7244.3646</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8732,13 +8732,13 @@
         <v>60</v>
       </c>
       <c r="R124">
-        <v>41.703052</v>
+        <v>41.590364</v>
       </c>
       <c r="S124">
-        <v>90.178191</v>
+        <v>99.88893</v>
       </c>
       <c r="T124">
-        <v>8227.1641</v>
+        <v>7529.8667</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8794,13 +8794,13 @@
         <v>47</v>
       </c>
       <c r="R125">
-        <v>35.178573</v>
+        <v>34.673271</v>
       </c>
       <c r="S125">
-        <v>178.22092</v>
+        <v>208.30807</v>
       </c>
       <c r="T125">
-        <v>8020.1947</v>
+        <v>7246.1668</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8856,13 +8856,13 @@
         <v>47</v>
       </c>
       <c r="R126">
-        <v>35.178573</v>
+        <v>34.673271</v>
       </c>
       <c r="S126">
-        <v>141.97212</v>
+        <v>167.85937</v>
       </c>
       <c r="T126">
-        <v>6754.0308</v>
+        <v>6296.9282</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8918,13 +8918,13 @@
         <v>47</v>
       </c>
       <c r="R127">
-        <v>36.910827</v>
+        <v>37.814468</v>
       </c>
       <c r="S127">
-        <v>126.37306</v>
+        <v>132.69494</v>
       </c>
       <c r="T127">
-        <v>6849.1107</v>
+        <v>6266.7578</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8980,13 +8980,13 @@
         <v>47</v>
       </c>
       <c r="R128">
-        <v>39.538255</v>
+        <v>38.015301</v>
       </c>
       <c r="S128">
-        <v>130.60764</v>
+        <v>160.53414</v>
       </c>
       <c r="T128">
-        <v>9491.065000000001</v>
+        <v>8472.090700000001</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -9042,13 +9042,13 @@
         <v>47</v>
       </c>
       <c r="R129">
-        <v>39.538255</v>
+        <v>38.015301</v>
       </c>
       <c r="S129">
-        <v>103.28853</v>
+        <v>128.35302</v>
       </c>
       <c r="T129">
-        <v>7990.1687</v>
+        <v>7321.0374</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -9104,13 +9104,13 @@
         <v>47</v>
       </c>
       <c r="R130">
-        <v>41.703052</v>
+        <v>41.813162</v>
       </c>
       <c r="S130">
-        <v>90.178191</v>
+        <v>99.03943700000001</v>
       </c>
       <c r="T130">
-        <v>8227.1641</v>
+        <v>7529.2944</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -9166,13 +9166,13 @@
         <v>60</v>
       </c>
       <c r="R131">
-        <v>34.905312</v>
+        <v>33.675199</v>
       </c>
       <c r="S131">
-        <v>195.44647</v>
+        <v>246.71954</v>
       </c>
       <c r="T131">
-        <v>8509.7068</v>
+        <v>7660.6089</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9228,13 +9228,13 @@
         <v>60</v>
       </c>
       <c r="R132">
-        <v>34.905312</v>
+        <v>33.675199</v>
       </c>
       <c r="S132">
-        <v>156.00585</v>
+        <v>199.82543</v>
       </c>
       <c r="T132">
-        <v>7175.3486</v>
+        <v>6663.1952</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9290,13 +9290,13 @@
         <v>60</v>
       </c>
       <c r="R133">
-        <v>36.394956</v>
+        <v>37.262503</v>
       </c>
       <c r="S133">
-        <v>141.22221</v>
+        <v>150.5578</v>
       </c>
       <c r="T133">
-        <v>7203.2853</v>
+        <v>6564.2161</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9352,13 +9352,13 @@
         <v>60</v>
       </c>
       <c r="R134">
-        <v>40.480344</v>
+        <v>38.497</v>
       </c>
       <c r="S134">
-        <v>128.8616</v>
+        <v>165.35937</v>
       </c>
       <c r="T134">
-        <v>10307.988</v>
+        <v>9225.230299999999</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -9414,13 +9414,13 @@
         <v>60</v>
       </c>
       <c r="R135">
-        <v>40.480344</v>
+        <v>38.497</v>
       </c>
       <c r="S135">
-        <v>101.89416</v>
+        <v>132.28098</v>
       </c>
       <c r="T135">
-        <v>8691.0311</v>
+        <v>7975.6827</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9476,13 +9476,13 @@
         <v>60</v>
       </c>
       <c r="R136">
-        <v>42.40256</v>
+        <v>42.510935</v>
       </c>
       <c r="S136">
-        <v>90.454622</v>
+        <v>99.745447</v>
       </c>
       <c r="T136">
-        <v>8856.766900000001</v>
+        <v>8155.6497</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9538,13 +9538,13 @@
         <v>47</v>
       </c>
       <c r="R137">
-        <v>34.905312</v>
+        <v>34.241138</v>
       </c>
       <c r="S137">
-        <v>195.44647</v>
+        <v>236.68334</v>
       </c>
       <c r="T137">
-        <v>8509.7068</v>
+        <v>7717.6361</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9600,13 +9600,13 @@
         <v>47</v>
       </c>
       <c r="R138">
-        <v>34.905312</v>
+        <v>34.241138</v>
       </c>
       <c r="S138">
-        <v>156.00585</v>
+        <v>191.38442</v>
       </c>
       <c r="T138">
-        <v>7175.3486</v>
+        <v>6717.8688</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9662,13 +9662,13 @@
         <v>47</v>
       </c>
       <c r="R139">
-        <v>36.394956</v>
+        <v>37.541287</v>
       </c>
       <c r="S139">
-        <v>141.22221</v>
+        <v>147.57277</v>
       </c>
       <c r="T139">
-        <v>7203.2853</v>
+        <v>6586.6738</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9724,13 +9724,13 @@
         <v>47</v>
       </c>
       <c r="R140">
-        <v>40.480344</v>
+        <v>39.107074</v>
       </c>
       <c r="S140">
-        <v>128.8616</v>
+        <v>159.05947</v>
       </c>
       <c r="T140">
-        <v>10307.988</v>
+        <v>9302.6903</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9786,13 +9786,13 @@
         <v>47</v>
       </c>
       <c r="R141">
-        <v>40.480344</v>
+        <v>39.107074</v>
       </c>
       <c r="S141">
-        <v>101.89416</v>
+        <v>127.09884</v>
       </c>
       <c r="T141">
-        <v>8691.0311</v>
+        <v>8055.494</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9848,13 +9848,13 @@
         <v>47</v>
       </c>
       <c r="R142">
-        <v>42.40256</v>
+        <v>42.709162</v>
       </c>
       <c r="S142">
-        <v>90.454622</v>
+        <v>98.98733900000001</v>
       </c>
       <c r="T142">
-        <v>8856.766900000001</v>
+        <v>8154.3377</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -9910,13 +9910,13 @@
         <v>60</v>
       </c>
       <c r="R143">
-        <v>28.4848</v>
+        <v>29.692141</v>
       </c>
       <c r="S143">
-        <v>392.81934</v>
+        <v>377.39488</v>
       </c>
       <c r="T143">
-        <v>8668.7299</v>
+        <v>7486.598</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9972,13 +9972,13 @@
         <v>60</v>
       </c>
       <c r="R144">
-        <v>28.4848</v>
+        <v>29.692141</v>
       </c>
       <c r="S144">
-        <v>321.59428</v>
+        <v>312.33191</v>
       </c>
       <c r="T144">
-        <v>7361.6262</v>
+        <v>6562.9509</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10034,13 +10034,13 @@
         <v>60</v>
       </c>
       <c r="R145">
-        <v>28.790135</v>
+        <v>30.38918</v>
       </c>
       <c r="S145">
-        <v>317.85419</v>
+        <v>303.92248</v>
       </c>
       <c r="T145">
-        <v>7244.4813</v>
+        <v>6419.1364</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10096,13 +10096,13 @@
         <v>60</v>
       </c>
       <c r="R146">
-        <v>42.347177</v>
+        <v>43.111852</v>
       </c>
       <c r="S146">
-        <v>124.20696</v>
+        <v>125.92108</v>
       </c>
       <c r="T146">
-        <v>11485.831</v>
+        <v>9786.843500000001</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -10158,13 +10158,13 @@
         <v>60</v>
       </c>
       <c r="R147">
-        <v>42.347177</v>
+        <v>43.111852</v>
       </c>
       <c r="S147">
-        <v>98.287915</v>
+        <v>100.0728</v>
       </c>
       <c r="T147">
-        <v>9772.0519</v>
+        <v>8569.1358</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10220,13 +10220,13 @@
         <v>60</v>
       </c>
       <c r="R148">
-        <v>43.772812</v>
+        <v>44.857849</v>
       </c>
       <c r="S148">
-        <v>90.212957</v>
+        <v>90.97686299999999</v>
       </c>
       <c r="T148">
-        <v>9736.203799999999</v>
+        <v>8440.6206</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -10282,13 +10282,13 @@
         <v>47</v>
       </c>
       <c r="R149">
-        <v>28.4848</v>
+        <v>30.038328</v>
       </c>
       <c r="S149">
-        <v>392.81934</v>
+        <v>374.08883</v>
       </c>
       <c r="T149">
-        <v>8668.7299</v>
+        <v>7677.3202</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -10344,13 +10344,13 @@
         <v>47</v>
       </c>
       <c r="R150">
-        <v>28.4848</v>
+        <v>30.038328</v>
       </c>
       <c r="S150">
-        <v>321.59428</v>
+        <v>308.82913</v>
       </c>
       <c r="T150">
-        <v>7361.6262</v>
+        <v>6727.7481</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10406,13 +10406,13 @@
         <v>47</v>
       </c>
       <c r="R151">
-        <v>28.790135</v>
+        <v>30.695604</v>
       </c>
       <c r="S151">
-        <v>317.85419</v>
+        <v>300.7362</v>
       </c>
       <c r="T151">
-        <v>7244.4813</v>
+        <v>6548.4739</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10468,13 +10468,13 @@
         <v>47</v>
       </c>
       <c r="R152">
-        <v>42.347177</v>
+        <v>43.172283</v>
       </c>
       <c r="S152">
-        <v>124.20696</v>
+        <v>126.70678</v>
       </c>
       <c r="T152">
-        <v>11485.831</v>
+        <v>9875.353499999999</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10530,13 +10530,13 @@
         <v>47</v>
       </c>
       <c r="R153">
-        <v>42.347177</v>
+        <v>43.172283</v>
       </c>
       <c r="S153">
-        <v>98.287915</v>
+        <v>100.70158</v>
       </c>
       <c r="T153">
-        <v>9772.0519</v>
+        <v>8647.9504</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10592,13 +10592,13 @@
         <v>47</v>
       </c>
       <c r="R154">
-        <v>43.772812</v>
+        <v>44.872409</v>
       </c>
       <c r="S154">
-        <v>90.212957</v>
+        <v>91.67604900000001</v>
       </c>
       <c r="T154">
-        <v>9736.203799999999</v>
+        <v>8492.8076</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="1" customFormat="1">
@@ -10668,13 +10668,13 @@
         <v>221</v>
       </c>
       <c r="R156" s="1">
-        <v>25.644473</v>
+        <v>22.798999</v>
       </c>
       <c r="S156" s="1">
-        <v>62.660822</v>
+        <v>60.243707</v>
       </c>
       <c r="T156" s="1">
-        <v>4807.066</v>
+        <v>3132.1323</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
@@ -10682,13 +10682,13 @@
         <v>222</v>
       </c>
       <c r="R157" s="1">
-        <v>45.517997</v>
+        <v>46.983923</v>
       </c>
       <c r="S157" s="1">
-        <v>536.51921</v>
+        <v>560.8062200000001</v>
       </c>
       <c r="T157" s="1">
-        <v>15516.717</v>
+        <v>12937.924</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
@@ -10734,13 +10734,13 @@
         <v>227</v>
       </c>
       <c r="R162" s="1">
-        <v>37.00025268627452</v>
+        <v>36.71410841830065</v>
       </c>
       <c r="S162" s="1">
-        <v>170.9020487385622</v>
+        <v>181.1475665359476</v>
       </c>
       <c r="T162" s="1">
-        <v>8371.182799346412</v>
+        <v>7145.660553594771</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
@@ -10748,13 +10748,13 @@
         <v>228</v>
       </c>
       <c r="R163" s="1">
-        <v>5.745781686751988</v>
+        <v>6.151883082684572</v>
       </c>
       <c r="S163" s="1">
-        <v>109.4388374245474</v>
+        <v>107.8469706852383</v>
       </c>
       <c r="T163" s="1">
-        <v>1950.032482983352</v>
+        <v>1735.948831034644</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
@@ -10762,13 +10762,13 @@
         <v>229</v>
       </c>
       <c r="R164" s="1">
-        <v>15.5290336405822</v>
+        <v>16.75618269846935</v>
       </c>
       <c r="S164" s="1">
-        <v>64.03600087437317</v>
+        <v>59.53542338303325</v>
       </c>
       <c r="T164" s="1">
-        <v>23.29458727308646</v>
+        <v>24.29374888457778</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="231">
   <si>
     <t>Process</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>tsmc2p (101)</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (102)</t>
@@ -710,7 +713,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,13 +729,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000 "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -747,9 +763,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,13 +1185,13 @@
         <v>35</v>
       </c>
       <c r="R2">
-        <v>41.710423</v>
+        <v>38.87267</v>
       </c>
       <c r="S2">
-        <v>100.31855</v>
+        <v>129.7568</v>
       </c>
       <c r="T2">
-        <v>6936.8579</v>
+        <v>9575.314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1230,13 +1247,13 @@
         <v>47</v>
       </c>
       <c r="R3">
-        <v>22.97735</v>
+        <v>28.268038</v>
       </c>
       <c r="S3">
-        <v>477.73893</v>
+        <v>546.58714</v>
       </c>
       <c r="T3">
-        <v>5662.6349</v>
+        <v>12201.675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1292,13 +1309,13 @@
         <v>47</v>
       </c>
       <c r="R4">
-        <v>42.86326</v>
+        <v>40.810326</v>
       </c>
       <c r="S4">
-        <v>145.77342</v>
+        <v>183.89033</v>
       </c>
       <c r="T4">
-        <v>10235.39</v>
+        <v>15787.706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1354,13 +1371,13 @@
         <v>60</v>
       </c>
       <c r="R5">
-        <v>35.779893</v>
+        <v>34.368092</v>
       </c>
       <c r="S5">
-        <v>100.54057</v>
+        <v>115.93881</v>
       </c>
       <c r="T5">
-        <v>4248.7936</v>
+        <v>5428.6568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1416,13 +1433,13 @@
         <v>60</v>
       </c>
       <c r="R6">
-        <v>41.710295</v>
+        <v>38.259831</v>
       </c>
       <c r="S6">
-        <v>60.243707</v>
+        <v>77.277822</v>
       </c>
       <c r="T6">
-        <v>4795.8564</v>
+        <v>5648.9399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1478,13 +1495,13 @@
         <v>60</v>
       </c>
       <c r="R7">
-        <v>35.628701</v>
+        <v>34.887584</v>
       </c>
       <c r="S7">
-        <v>124.60195</v>
+        <v>127.73651</v>
       </c>
       <c r="T7">
-        <v>4800.8072</v>
+        <v>6295.3928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1540,13 +1557,13 @@
         <v>60</v>
       </c>
       <c r="R8">
-        <v>44.201686</v>
+        <v>39.842187</v>
       </c>
       <c r="S8">
-        <v>64.994482</v>
+        <v>87.27394700000001</v>
       </c>
       <c r="T8">
-        <v>6070.918</v>
+        <v>7390.5633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1602,13 +1619,13 @@
         <v>60</v>
       </c>
       <c r="R9">
-        <v>23.888187</v>
+        <v>27.778464</v>
       </c>
       <c r="S9">
-        <v>221.88188</v>
+        <v>265.35155</v>
       </c>
       <c r="T9">
-        <v>3132.1323</v>
+        <v>5932.7904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1664,13 +1681,13 @@
         <v>60</v>
       </c>
       <c r="R10">
-        <v>42.065844</v>
+        <v>39.400664</v>
       </c>
       <c r="S10">
-        <v>64.03134</v>
+        <v>84.23020099999999</v>
       </c>
       <c r="T10">
-        <v>5208.7659</v>
+        <v>6909.5147</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1726,13 +1743,13 @@
         <v>47</v>
       </c>
       <c r="R11">
-        <v>22.97735</v>
+        <v>28.268038</v>
       </c>
       <c r="S11">
-        <v>407.80297</v>
+        <v>435.35718</v>
       </c>
       <c r="T11">
-        <v>4914.6557</v>
+        <v>10111.975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1788,13 +1805,13 @@
         <v>47</v>
       </c>
       <c r="R12">
-        <v>23.808201</v>
+        <v>29.258657</v>
       </c>
       <c r="S12">
-        <v>402.9555</v>
+        <v>427.44947</v>
       </c>
       <c r="T12">
-        <v>5140.2086</v>
+        <v>10573.592</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1850,13 +1867,13 @@
         <v>47</v>
       </c>
       <c r="R13">
-        <v>23.808201</v>
+        <v>29.258657</v>
       </c>
       <c r="S13">
-        <v>342.48882</v>
+        <v>340.20515</v>
       </c>
       <c r="T13">
-        <v>4457.0922</v>
+        <v>8777.9017</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1912,13 +1929,13 @@
         <v>47</v>
       </c>
       <c r="R14">
-        <v>42.86326</v>
+        <v>40.810326</v>
       </c>
       <c r="S14">
-        <v>116.96806</v>
+        <v>145.05173</v>
       </c>
       <c r="T14">
-        <v>9017.4015</v>
+        <v>13231.004</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1974,13 +1991,13 @@
         <v>47</v>
       </c>
       <c r="R15">
-        <v>45.225633</v>
+        <v>42.285652</v>
       </c>
       <c r="S15">
-        <v>100.66214</v>
+        <v>135.25461</v>
       </c>
       <c r="T15">
-        <v>8673.013199999999</v>
+        <v>13655.239</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2036,13 +2053,13 @@
         <v>47</v>
       </c>
       <c r="R16">
-        <v>45.225633</v>
+        <v>42.285652</v>
       </c>
       <c r="S16">
-        <v>80.32186900000001</v>
+        <v>106.61879</v>
       </c>
       <c r="T16">
-        <v>7655.2874</v>
+        <v>11452.855</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2098,13 +2115,13 @@
         <v>60</v>
       </c>
       <c r="R17">
-        <v>33.762706</v>
+        <v>32.211321</v>
       </c>
       <c r="S17">
-        <v>169.24299</v>
+        <v>211.3582</v>
       </c>
       <c r="T17">
-        <v>5521.3614</v>
+        <v>7460.9484</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2160,13 +2177,13 @@
         <v>60</v>
       </c>
       <c r="R18">
-        <v>33.762706</v>
+        <v>32.211321</v>
       </c>
       <c r="S18">
-        <v>138.02178</v>
+        <v>167.40583</v>
       </c>
       <c r="T18">
-        <v>4797.1164</v>
+        <v>6153.0129</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2222,13 +2239,13 @@
         <v>60</v>
       </c>
       <c r="R19">
-        <v>35.779893</v>
+        <v>34.368092</v>
       </c>
       <c r="S19">
-        <v>124.06687</v>
+        <v>146.75414</v>
       </c>
       <c r="T19">
-        <v>4884.9763</v>
+        <v>6581.7577</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2284,13 +2301,13 @@
         <v>60</v>
       </c>
       <c r="R20">
-        <v>39.980187</v>
+        <v>36.441099</v>
       </c>
       <c r="S20">
-        <v>104.03165</v>
+        <v>136.30278</v>
       </c>
       <c r="T20">
-        <v>6314.2446</v>
+        <v>7771.4395</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2346,13 +2363,13 @@
         <v>60</v>
       </c>
       <c r="R21">
-        <v>39.980187</v>
+        <v>36.441099</v>
       </c>
       <c r="S21">
-        <v>82.495456</v>
+        <v>107.55073</v>
       </c>
       <c r="T21">
-        <v>5475.8587</v>
+        <v>6402.8983</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2408,13 +2425,13 @@
         <v>60</v>
       </c>
       <c r="R22">
-        <v>41.710295</v>
+        <v>38.259831</v>
       </c>
       <c r="S22">
-        <v>76.06012699999999</v>
+        <v>98.04647</v>
       </c>
       <c r="T22">
-        <v>5525.5191</v>
+        <v>6853.9777</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2470,13 +2487,13 @@
         <v>47</v>
       </c>
       <c r="R23">
-        <v>34.282187</v>
+        <v>32.211321</v>
       </c>
       <c r="S23">
-        <v>168.05346</v>
+        <v>211.3582</v>
       </c>
       <c r="T23">
-        <v>5715.969</v>
+        <v>7460.9484</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2532,13 +2549,13 @@
         <v>47</v>
       </c>
       <c r="R24">
-        <v>34.282187</v>
+        <v>32.211321</v>
       </c>
       <c r="S24">
-        <v>136.68371</v>
+        <v>167.40583</v>
       </c>
       <c r="T24">
-        <v>4969.6572</v>
+        <v>6153.0129</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2594,13 +2611,13 @@
         <v>47</v>
       </c>
       <c r="R25">
-        <v>36.255172</v>
+        <v>34.368092</v>
       </c>
       <c r="S25">
-        <v>122.58539</v>
+        <v>146.75414</v>
       </c>
       <c r="T25">
-        <v>5016.2633</v>
+        <v>6581.7577</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2656,13 +2673,13 @@
         <v>47</v>
       </c>
       <c r="R26">
-        <v>40.040073</v>
+        <v>36.441099</v>
       </c>
       <c r="S26">
-        <v>104.70799</v>
+        <v>136.30278</v>
       </c>
       <c r="T26">
-        <v>6395.5455</v>
+        <v>7771.4395</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2718,13 +2735,13 @@
         <v>47</v>
       </c>
       <c r="R27">
-        <v>40.040073</v>
+        <v>36.441099</v>
       </c>
       <c r="S27">
-        <v>83.04122599999999</v>
+        <v>107.55073</v>
       </c>
       <c r="T27">
-        <v>5547.1401</v>
+        <v>6402.8983</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2780,13 +2797,13 @@
         <v>47</v>
       </c>
       <c r="R28">
-        <v>41.766089</v>
+        <v>38.259831</v>
       </c>
       <c r="S28">
-        <v>76.487875</v>
+        <v>98.04647</v>
       </c>
       <c r="T28">
-        <v>5579.7145</v>
+        <v>6853.9777</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2842,13 +2859,13 @@
         <v>60</v>
       </c>
       <c r="R29">
-        <v>32.808844</v>
+        <v>32.424458</v>
       </c>
       <c r="S29">
-        <v>235.68174</v>
+        <v>243.6166</v>
       </c>
       <c r="T29">
-        <v>6339.4492</v>
+        <v>8725.417799999999</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2904,13 +2921,13 @@
         <v>60</v>
       </c>
       <c r="R30">
-        <v>32.808844</v>
+        <v>32.424458</v>
       </c>
       <c r="S30">
-        <v>191.45934</v>
+        <v>193.13011</v>
       </c>
       <c r="T30">
-        <v>5531.8911</v>
+        <v>7215.3587</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2966,13 +2983,13 @@
         <v>60</v>
       </c>
       <c r="R31">
-        <v>35.628701</v>
+        <v>34.887584</v>
       </c>
       <c r="S31">
-        <v>154.38099</v>
+        <v>161.70527</v>
       </c>
       <c r="T31">
-        <v>5495.5522</v>
+        <v>7616.6351</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3028,13 +3045,13 @@
         <v>60</v>
       </c>
       <c r="R32">
-        <v>42.32836</v>
+        <v>37.992</v>
       </c>
       <c r="S32">
-        <v>114.13227</v>
+        <v>155.0806</v>
       </c>
       <c r="T32">
-        <v>7938.4534</v>
+        <v>10122.803</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3090,13 +3107,13 @@
         <v>60</v>
       </c>
       <c r="R33">
-        <v>42.32836</v>
+        <v>37.992</v>
       </c>
       <c r="S33">
-        <v>90.632468</v>
+        <v>122.4084</v>
       </c>
       <c r="T33">
-        <v>6952.0855</v>
+        <v>8414.4805</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3152,13 +3169,13 @@
         <v>60</v>
       </c>
       <c r="R34">
-        <v>44.201686</v>
+        <v>39.842187</v>
       </c>
       <c r="S34">
-        <v>81.984722</v>
+        <v>110.73442</v>
       </c>
       <c r="T34">
-        <v>6928.2937</v>
+        <v>8889.3909</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3214,13 +3231,13 @@
         <v>47</v>
       </c>
       <c r="R35">
-        <v>33.658975</v>
+        <v>32.424458</v>
       </c>
       <c r="S35">
-        <v>225.58703</v>
+        <v>243.6166</v>
       </c>
       <c r="T35">
-        <v>6581.7186</v>
+        <v>8725.417799999999</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3276,13 +3293,13 @@
         <v>47</v>
       </c>
       <c r="R36">
-        <v>33.658975</v>
+        <v>32.424458</v>
       </c>
       <c r="S36">
-        <v>182.85254</v>
+        <v>193.13011</v>
       </c>
       <c r="T36">
-        <v>5747.5141</v>
+        <v>7215.3587</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3338,13 +3355,13 @@
         <v>47</v>
       </c>
       <c r="R37">
-        <v>36.279947</v>
+        <v>34.887584</v>
       </c>
       <c r="S37">
-        <v>149.51575</v>
+        <v>161.70527</v>
       </c>
       <c r="T37">
-        <v>5656.6953</v>
+        <v>7616.6351</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3400,13 +3417,13 @@
         <v>47</v>
       </c>
       <c r="R38">
-        <v>42.417634</v>
+        <v>37.992</v>
       </c>
       <c r="S38">
-        <v>114.87281</v>
+        <v>155.0806</v>
       </c>
       <c r="T38">
-        <v>8078.5558</v>
+        <v>10122.803</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3462,13 +3479,13 @@
         <v>47</v>
       </c>
       <c r="R39">
-        <v>42.417634</v>
+        <v>37.992</v>
       </c>
       <c r="S39">
-        <v>91.228112</v>
+        <v>122.4084</v>
       </c>
       <c r="T39">
-        <v>7074.5059</v>
+        <v>8414.4805</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3524,13 +3541,13 @@
         <v>47</v>
       </c>
       <c r="R40">
-        <v>44.260943</v>
+        <v>39.842187</v>
       </c>
       <c r="S40">
-        <v>82.596414</v>
+        <v>110.73442</v>
       </c>
       <c r="T40">
-        <v>7021.9544</v>
+        <v>8889.3909</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3586,13 +3603,13 @@
         <v>60</v>
       </c>
       <c r="R41">
-        <v>22.798999</v>
+        <v>26.664905</v>
       </c>
       <c r="S41">
-        <v>300.24373</v>
+        <v>427.00683</v>
       </c>
       <c r="T41">
-        <v>3773.4641</v>
+        <v>8182.5834</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3648,13 +3665,13 @@
         <v>60</v>
       </c>
       <c r="R42">
-        <v>22.798999</v>
+        <v>26.664905</v>
       </c>
       <c r="S42">
-        <v>256.04727</v>
+        <v>341.07839</v>
       </c>
       <c r="T42">
-        <v>3243.1745</v>
+        <v>6748.4185</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3710,13 +3727,13 @@
         <v>60</v>
       </c>
       <c r="R43">
-        <v>23.888187</v>
+        <v>27.778464</v>
       </c>
       <c r="S43">
-        <v>261.66625</v>
+        <v>332.84469</v>
       </c>
       <c r="T43">
-        <v>3650.179</v>
+        <v>7190.1051</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3772,13 +3789,13 @@
         <v>60</v>
       </c>
       <c r="R44">
-        <v>40.222361</v>
+        <v>37.838702</v>
       </c>
       <c r="S44">
-        <v>108.2718</v>
+        <v>145.03277</v>
       </c>
       <c r="T44">
-        <v>6855.0811</v>
+        <v>9530.4735</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3834,13 +3851,13 @@
         <v>60</v>
       </c>
       <c r="R45">
-        <v>40.222361</v>
+        <v>37.838702</v>
       </c>
       <c r="S45">
-        <v>87.01839699999999</v>
+        <v>114.47037</v>
       </c>
       <c r="T45">
-        <v>5966.7846</v>
+        <v>7884.5838</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3896,13 +3913,13 @@
         <v>60</v>
       </c>
       <c r="R46">
-        <v>42.065844</v>
+        <v>39.400664</v>
       </c>
       <c r="S46">
-        <v>80.100443</v>
+        <v>106.80021</v>
       </c>
       <c r="T46">
-        <v>5975.5961</v>
+        <v>8345.731900000001</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3958,13 +3975,13 @@
         <v>47</v>
       </c>
       <c r="R47">
-        <v>23.974268</v>
+        <v>26.664905</v>
       </c>
       <c r="S47">
-        <v>308.624</v>
+        <v>427.00683</v>
       </c>
       <c r="T47">
-        <v>4374.2774</v>
+        <v>8182.5834</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4020,13 +4037,13 @@
         <v>47</v>
       </c>
       <c r="R48">
-        <v>23.974268</v>
+        <v>26.664905</v>
       </c>
       <c r="S48">
-        <v>262.42584</v>
+        <v>341.07839</v>
       </c>
       <c r="T48">
-        <v>3759.7491</v>
+        <v>6748.4185</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4082,13 +4099,13 @@
         <v>47</v>
       </c>
       <c r="R49">
-        <v>24.944585</v>
+        <v>27.778464</v>
       </c>
       <c r="S49">
-        <v>265.35686</v>
+        <v>332.84469</v>
       </c>
       <c r="T49">
-        <v>4096.4974</v>
+        <v>7190.1051</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4144,13 +4161,13 @@
         <v>47</v>
       </c>
       <c r="R50">
-        <v>40.589013</v>
+        <v>37.838702</v>
       </c>
       <c r="S50">
-        <v>108.4368</v>
+        <v>145.03277</v>
       </c>
       <c r="T50">
-        <v>7087.3794</v>
+        <v>9530.4735</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4206,13 +4223,13 @@
         <v>47</v>
       </c>
       <c r="R51">
-        <v>40.589013</v>
+        <v>37.838702</v>
       </c>
       <c r="S51">
-        <v>86.935784</v>
+        <v>114.47037</v>
       </c>
       <c r="T51">
-        <v>6168.9272</v>
+        <v>7884.5838</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4268,13 +4285,13 @@
         <v>47</v>
       </c>
       <c r="R52">
-        <v>42.347455</v>
+        <v>39.400664</v>
       </c>
       <c r="S52">
-        <v>80.15703499999999</v>
+        <v>106.80021</v>
       </c>
       <c r="T52">
-        <v>6136.8635</v>
+        <v>8345.731900000001</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4330,13 +4347,13 @@
         <v>35</v>
       </c>
       <c r="R53">
-        <v>42.955746</v>
+        <v>38.421771</v>
       </c>
       <c r="S53">
-        <v>108.10175</v>
+        <v>142.49943</v>
       </c>
       <c r="T53">
-        <v>8903.26</v>
+        <v>10098.402</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4392,13 +4409,13 @@
         <v>47</v>
       </c>
       <c r="R54">
-        <v>28.878219</v>
+        <v>30.504339</v>
       </c>
       <c r="S54">
-        <v>560.8062200000001</v>
+        <v>480.14781</v>
       </c>
       <c r="T54">
-        <v>9608.776900000001</v>
+        <v>13349.876</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4454,13 +4471,13 @@
         <v>47</v>
       </c>
       <c r="R55">
-        <v>45.455011</v>
+        <v>40.364593</v>
       </c>
       <c r="S55">
-        <v>138.59109</v>
+        <v>198.18255</v>
       </c>
       <c r="T55">
-        <v>12937.924</v>
+        <v>16372.154</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4516,13 +4533,13 @@
         <v>60</v>
       </c>
       <c r="R56">
-        <v>36.882792</v>
+        <v>33.730454</v>
       </c>
       <c r="S56">
-        <v>112.77755</v>
+        <v>130.47882</v>
       </c>
       <c r="T56">
-        <v>5521.8779</v>
+        <v>5742.8876</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4578,13 +4595,13 @@
         <v>60</v>
       </c>
       <c r="R57">
-        <v>38.889736</v>
+        <v>35.803392</v>
       </c>
       <c r="S57">
-        <v>93.45229</v>
+        <v>110.1594</v>
       </c>
       <c r="T57">
-        <v>6302.6623</v>
+        <v>6226.9404</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4640,13 +4657,13 @@
         <v>60</v>
       </c>
       <c r="R58">
-        <v>36.758554</v>
+        <v>34.048931</v>
       </c>
       <c r="S58">
-        <v>123.83153</v>
+        <v>136.0713</v>
       </c>
       <c r="T58">
-        <v>5826.3162</v>
+        <v>6208.3207</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4702,13 +4719,13 @@
         <v>60</v>
       </c>
       <c r="R59">
-        <v>40.187722</v>
+        <v>36.940221</v>
       </c>
       <c r="S59">
-        <v>90.389065</v>
+        <v>107.62166</v>
       </c>
       <c r="T59">
-        <v>6898.0557</v>
+        <v>6894.384</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4764,13 +4781,13 @@
         <v>60</v>
       </c>
       <c r="R60">
-        <v>30.623358</v>
+        <v>31.026061</v>
       </c>
       <c r="S60">
-        <v>251.7281</v>
+        <v>220.64695</v>
       </c>
       <c r="T60">
-        <v>5796.358</v>
+        <v>6941.6094</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4826,13 +4843,13 @@
         <v>60</v>
       </c>
       <c r="R61">
-        <v>44.466736</v>
+        <v>39.62387</v>
       </c>
       <c r="S61">
-        <v>75.251963</v>
+        <v>102.46005</v>
       </c>
       <c r="T61">
-        <v>7630.5882</v>
+        <v>8451.421</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4888,13 +4905,13 @@
         <v>47</v>
       </c>
       <c r="R62">
-        <v>28.878219</v>
+        <v>30.504339</v>
       </c>
       <c r="S62">
-        <v>468.73726</v>
+        <v>381.02198</v>
       </c>
       <c r="T62">
-        <v>8476.125899999999</v>
+        <v>11115.741</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4950,13 +4967,13 @@
         <v>47</v>
       </c>
       <c r="R63">
-        <v>29.382948</v>
+        <v>30.901563</v>
       </c>
       <c r="S63">
-        <v>448.81731</v>
+        <v>389.37751</v>
       </c>
       <c r="T63">
-        <v>8010.446</v>
+        <v>11309.649</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5012,13 +5029,13 @@
         <v>47</v>
       </c>
       <c r="R64">
-        <v>29.382948</v>
+        <v>30.901563</v>
       </c>
       <c r="S64">
-        <v>374.66449</v>
+        <v>308.9073</v>
       </c>
       <c r="T64">
-        <v>7067.8428</v>
+        <v>9419.0522</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5074,13 +5091,13 @@
         <v>47</v>
       </c>
       <c r="R65">
-        <v>45.455011</v>
+        <v>40.364593</v>
       </c>
       <c r="S65">
-        <v>110.21184</v>
+        <v>156.23921</v>
       </c>
       <c r="T65">
-        <v>11389</v>
+        <v>13685.585</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5136,13 +5153,13 @@
         <v>47</v>
       </c>
       <c r="R66">
-        <v>46.943818</v>
+        <v>41.696352</v>
       </c>
       <c r="S66">
-        <v>100.09038</v>
+        <v>146.30173</v>
       </c>
       <c r="T66">
-        <v>10870.33</v>
+        <v>14020.452</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5198,13 +5215,13 @@
         <v>47</v>
       </c>
       <c r="R67">
-        <v>46.943818</v>
+        <v>41.696352</v>
       </c>
       <c r="S67">
-        <v>79.49752599999999</v>
+        <v>115.27543</v>
       </c>
       <c r="T67">
-        <v>9571.8213</v>
+        <v>11725.702</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5260,13 +5277,13 @@
         <v>60</v>
       </c>
       <c r="R68">
-        <v>32.833089</v>
+        <v>30.186111</v>
       </c>
       <c r="S68">
-        <v>235.84204</v>
+        <v>272.78396</v>
       </c>
       <c r="T68">
-        <v>7238.2378</v>
+        <v>7829.242</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5322,13 +5339,13 @@
         <v>60</v>
       </c>
       <c r="R69">
-        <v>32.833089</v>
+        <v>30.186111</v>
       </c>
       <c r="S69">
-        <v>190.46698</v>
+        <v>216.80789</v>
       </c>
       <c r="T69">
-        <v>6247.2424</v>
+        <v>6434.6974</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5384,13 +5401,13 @@
         <v>60</v>
       </c>
       <c r="R70">
-        <v>36.882792</v>
+        <v>33.730454</v>
       </c>
       <c r="S70">
-        <v>140.99696</v>
+        <v>165.10282</v>
       </c>
       <c r="T70">
-        <v>6378.4295</v>
+        <v>6985.0438</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5446,13 +5463,13 @@
         <v>60</v>
       </c>
       <c r="R71">
-        <v>33.021956</v>
+        <v>30.945013</v>
       </c>
       <c r="S71">
-        <v>225.02256</v>
+        <v>256.38035</v>
       </c>
       <c r="T71">
-        <v>7861.3017</v>
+        <v>8199.811400000001</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5508,13 +5525,13 @@
         <v>60</v>
       </c>
       <c r="R72">
-        <v>33.021956</v>
+        <v>30.945013</v>
       </c>
       <c r="S72">
-        <v>181.34612</v>
+        <v>203.61138</v>
       </c>
       <c r="T72">
-        <v>6689.569</v>
+        <v>6701.023</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5570,13 +5587,13 @@
         <v>60</v>
       </c>
       <c r="R73">
-        <v>38.889736</v>
+        <v>35.803392</v>
       </c>
       <c r="S73">
-        <v>117.38071</v>
+        <v>139.62445</v>
       </c>
       <c r="T73">
-        <v>7366.1851</v>
+        <v>7608.7231</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5632,13 +5649,13 @@
         <v>47</v>
       </c>
       <c r="R74">
-        <v>33.405512</v>
+        <v>30.186111</v>
       </c>
       <c r="S74">
-        <v>227.39288</v>
+        <v>272.78396</v>
       </c>
       <c r="T74">
-        <v>7304.1975</v>
+        <v>7829.242</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5694,13 +5711,13 @@
         <v>47</v>
       </c>
       <c r="R75">
-        <v>33.405512</v>
+        <v>30.186111</v>
       </c>
       <c r="S75">
-        <v>183.4675</v>
+        <v>216.80789</v>
       </c>
       <c r="T75">
-        <v>6313.8204</v>
+        <v>6434.6974</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5756,13 +5773,13 @@
         <v>47</v>
       </c>
       <c r="R76">
-        <v>37.16584</v>
+        <v>33.730454</v>
       </c>
       <c r="S76">
-        <v>138.63299</v>
+        <v>165.10282</v>
       </c>
       <c r="T76">
-        <v>6385.7628</v>
+        <v>6985.0438</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5818,13 +5835,13 @@
         <v>47</v>
       </c>
       <c r="R77">
-        <v>33.983232</v>
+        <v>30.945013</v>
       </c>
       <c r="S77">
-        <v>210.8982</v>
+        <v>256.38035</v>
       </c>
       <c r="T77">
-        <v>8028.8328</v>
+        <v>8199.811400000001</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5880,13 +5897,13 @@
         <v>47</v>
       </c>
       <c r="R78">
-        <v>33.983232</v>
+        <v>30.945013</v>
       </c>
       <c r="S78">
-        <v>169.63757</v>
+        <v>203.61138</v>
       </c>
       <c r="T78">
-        <v>6848.0984</v>
+        <v>6701.023</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5942,13 +5959,13 @@
         <v>47</v>
       </c>
       <c r="R79">
-        <v>39.337149</v>
+        <v>35.803392</v>
       </c>
       <c r="S79">
-        <v>114.74819</v>
+        <v>139.62445</v>
       </c>
       <c r="T79">
-        <v>7415.9538</v>
+        <v>7608.7231</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6004,13 +6021,13 @@
         <v>60</v>
       </c>
       <c r="R80">
-        <v>32.564479</v>
+        <v>30.590305</v>
       </c>
       <c r="S80">
-        <v>262.31748</v>
+        <v>283.30263</v>
       </c>
       <c r="T80">
-        <v>7700.4731</v>
+        <v>8506.117399999999</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6066,13 +6083,13 @@
         <v>60</v>
       </c>
       <c r="R81">
-        <v>32.564479</v>
+        <v>30.590305</v>
       </c>
       <c r="S81">
-        <v>212.7052</v>
+        <v>225.17608</v>
       </c>
       <c r="T81">
-        <v>6659.9969</v>
+        <v>6993.3703</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6128,13 +6145,13 @@
         <v>60</v>
       </c>
       <c r="R82">
-        <v>36.758554</v>
+        <v>34.048931</v>
       </c>
       <c r="S82">
-        <v>154.62334</v>
+        <v>172.218</v>
       </c>
       <c r="T82">
-        <v>6715.8117</v>
+        <v>7550.5101</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6190,13 +6207,13 @@
         <v>60</v>
       </c>
       <c r="R83">
-        <v>34.834011</v>
+        <v>32.909785</v>
       </c>
       <c r="S83">
-        <v>208.4232</v>
+        <v>231.69483</v>
       </c>
       <c r="T83">
-        <v>8710.563599999999</v>
+        <v>9194.4373</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6252,13 +6269,13 @@
         <v>60</v>
       </c>
       <c r="R84">
-        <v>34.834011</v>
+        <v>32.909785</v>
       </c>
       <c r="S84">
-        <v>167.57079</v>
+        <v>183.58132</v>
       </c>
       <c r="T84">
-        <v>7435.0435</v>
+        <v>7520.2459</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6314,13 +6331,13 @@
         <v>60</v>
       </c>
       <c r="R85">
-        <v>40.187722</v>
+        <v>36.940221</v>
       </c>
       <c r="S85">
-        <v>113.62748</v>
+        <v>136.47643</v>
       </c>
       <c r="T85">
-        <v>8034.2827</v>
+        <v>8411.5283</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6376,13 +6393,13 @@
         <v>47</v>
       </c>
       <c r="R86">
-        <v>33.28684</v>
+        <v>30.590305</v>
       </c>
       <c r="S86">
-        <v>249.57965</v>
+        <v>283.30263</v>
       </c>
       <c r="T86">
-        <v>7777.3104</v>
+        <v>8506.117399999999</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6438,13 +6455,13 @@
         <v>47</v>
       </c>
       <c r="R87">
-        <v>33.28684</v>
+        <v>30.590305</v>
       </c>
       <c r="S87">
-        <v>201.9749</v>
+        <v>225.17608</v>
       </c>
       <c r="T87">
-        <v>6736.0501</v>
+        <v>6993.3703</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6500,13 +6517,13 @@
         <v>47</v>
       </c>
       <c r="R88">
-        <v>37.086008</v>
+        <v>34.048931</v>
       </c>
       <c r="S88">
-        <v>151.2494</v>
+        <v>172.218</v>
       </c>
       <c r="T88">
-        <v>6724.706</v>
+        <v>7550.5101</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6562,13 +6579,13 @@
         <v>47</v>
       </c>
       <c r="R89">
-        <v>35.808473</v>
+        <v>32.909785</v>
       </c>
       <c r="S89">
-        <v>195.11076</v>
+        <v>231.69483</v>
       </c>
       <c r="T89">
-        <v>8887.385</v>
+        <v>9194.4373</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6624,13 +6641,13 @@
         <v>47</v>
       </c>
       <c r="R90">
-        <v>35.808473</v>
+        <v>32.909785</v>
       </c>
       <c r="S90">
-        <v>156.54102</v>
+        <v>183.58132</v>
       </c>
       <c r="T90">
-        <v>7602.693</v>
+        <v>7520.2459</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6686,13 +6703,13 @@
         <v>47</v>
       </c>
       <c r="R91">
-        <v>40.587386</v>
+        <v>36.940221</v>
       </c>
       <c r="S91">
-        <v>111.52675</v>
+        <v>136.47643</v>
       </c>
       <c r="T91">
-        <v>8080.3438</v>
+        <v>8411.5283</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6748,13 +6765,13 @@
         <v>60</v>
       </c>
       <c r="R92">
-        <v>29.936691</v>
+        <v>30.17907</v>
       </c>
       <c r="S92">
-        <v>384.06427</v>
+        <v>355.02623</v>
       </c>
       <c r="T92">
-        <v>7793.1305</v>
+        <v>9741.061100000001</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6810,13 +6827,13 @@
         <v>60</v>
       </c>
       <c r="R93">
-        <v>29.936691</v>
+        <v>30.17907</v>
       </c>
       <c r="S93">
-        <v>315.99963</v>
+        <v>281.56412</v>
       </c>
       <c r="T93">
-        <v>6820.4007</v>
+        <v>8070.3604</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6872,13 +6889,13 @@
         <v>60</v>
       </c>
       <c r="R94">
-        <v>30.623358</v>
+        <v>31.026061</v>
       </c>
       <c r="S94">
-        <v>306.68921</v>
+        <v>278.58352</v>
       </c>
       <c r="T94">
-        <v>6623.7157</v>
+        <v>8376.563700000001</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6934,13 +6951,13 @@
         <v>60</v>
       </c>
       <c r="R95">
-        <v>42.403126</v>
+        <v>37.963125</v>
       </c>
       <c r="S95">
-        <v>134.62426</v>
+        <v>179.49993</v>
       </c>
       <c r="T95">
-        <v>10149.784</v>
+        <v>11681.469</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6996,13 +7013,13 @@
         <v>60</v>
       </c>
       <c r="R96">
-        <v>42.403126</v>
+        <v>37.963125</v>
       </c>
       <c r="S96">
-        <v>107.02558</v>
+        <v>141.57411</v>
       </c>
       <c r="T96">
-        <v>8860.069299999999</v>
+        <v>9701.3145</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7058,13 +7075,13 @@
         <v>60</v>
       </c>
       <c r="R97">
-        <v>44.466736</v>
+        <v>39.62387</v>
       </c>
       <c r="S97">
-        <v>94.822728</v>
+        <v>130.03973</v>
       </c>
       <c r="T97">
-        <v>8727.490400000001</v>
+        <v>10168.437</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7120,13 +7137,13 @@
         <v>47</v>
       </c>
       <c r="R98">
-        <v>30.242074</v>
+        <v>30.17907</v>
       </c>
       <c r="S98">
-        <v>379.21116</v>
+        <v>355.02623</v>
       </c>
       <c r="T98">
-        <v>7928.6342</v>
+        <v>9741.061100000001</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7182,13 +7199,13 @@
         <v>47</v>
       </c>
       <c r="R99">
-        <v>30.242074</v>
+        <v>30.17907</v>
       </c>
       <c r="S99">
-        <v>311.4992</v>
+        <v>281.56412</v>
       </c>
       <c r="T99">
-        <v>6937.966</v>
+        <v>8070.3604</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7244,13 +7261,13 @@
         <v>47</v>
       </c>
       <c r="R100">
-        <v>30.88948</v>
+        <v>31.026061</v>
       </c>
       <c r="S100">
-        <v>302.96253</v>
+        <v>278.58352</v>
       </c>
       <c r="T100">
-        <v>6721.8759</v>
+        <v>8376.563700000001</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7306,13 +7323,13 @@
         <v>47</v>
       </c>
       <c r="R101">
-        <v>42.55979</v>
+        <v>37.963125</v>
       </c>
       <c r="S101">
-        <v>134.35518</v>
+        <v>179.49993</v>
       </c>
       <c r="T101">
-        <v>10199.33</v>
+        <v>11681.469</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7368,13 +7385,13 @@
         <v>47</v>
       </c>
       <c r="R102">
-        <v>42.55979</v>
+        <v>37.963125</v>
       </c>
       <c r="S102">
-        <v>106.81132</v>
+        <v>141.57411</v>
       </c>
       <c r="T102">
-        <v>8908.632600000001</v>
+        <v>9701.3145</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7429,19 +7446,19 @@
       <c r="Q103" t="s">
         <v>47</v>
       </c>
-      <c r="R103">
-        <v>44.507112</v>
-      </c>
-      <c r="S103">
-        <v>95.236918</v>
-      </c>
-      <c r="T103">
-        <v>8746.4414</v>
+      <c r="R103" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
@@ -7491,19 +7508,19 @@
       <c r="Q104" t="s">
         <v>35</v>
       </c>
-      <c r="R104">
-        <v>43.335073</v>
-      </c>
-      <c r="S104">
-        <v>104.99751</v>
-      </c>
-      <c r="T104">
-        <v>8742.0748</v>
+      <c r="R104" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -7553,19 +7570,19 @@
       <c r="Q105" t="s">
         <v>47</v>
       </c>
-      <c r="R105">
-        <v>28.799452</v>
-      </c>
-      <c r="S105">
-        <v>557.48448</v>
-      </c>
-      <c r="T105">
-        <v>9499.3128</v>
+      <c r="R105" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -7615,19 +7632,19 @@
       <c r="Q106" t="s">
         <v>47</v>
       </c>
-      <c r="R106">
-        <v>45.512111</v>
-      </c>
-      <c r="S106">
-        <v>137.77522</v>
-      </c>
-      <c r="T106">
-        <v>12839.706</v>
+      <c r="R106" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
         <v>51</v>
@@ -7677,19 +7694,19 @@
       <c r="Q107" t="s">
         <v>60</v>
       </c>
-      <c r="R107">
-        <v>37.613522</v>
-      </c>
-      <c r="S107">
-        <v>107.37222</v>
-      </c>
-      <c r="T107">
-        <v>5435.7336</v>
+      <c r="R107" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
         <v>51</v>
@@ -7739,19 +7756,19 @@
       <c r="Q108" t="s">
         <v>60</v>
       </c>
-      <c r="R108">
-        <v>41.590364</v>
-      </c>
-      <c r="S108">
-        <v>79.366587</v>
-      </c>
-      <c r="T108">
-        <v>6521.8684</v>
+      <c r="R108" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B109" t="s">
         <v>63</v>
@@ -7801,19 +7818,19 @@
       <c r="Q109" t="s">
         <v>60</v>
       </c>
-      <c r="R109">
-        <v>37.262503</v>
-      </c>
-      <c r="S109">
-        <v>120.64922</v>
-      </c>
-      <c r="T109">
-        <v>5719.1698</v>
+      <c r="R109" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B110" t="s">
         <v>63</v>
@@ -7863,19 +7880,19 @@
       <c r="Q110" t="s">
         <v>60</v>
       </c>
-      <c r="R110">
-        <v>42.510935</v>
-      </c>
-      <c r="S110">
-        <v>79.240101</v>
-      </c>
-      <c r="T110">
-        <v>7079.4078</v>
+      <c r="R110" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -7925,19 +7942,19 @@
       <c r="Q111" t="s">
         <v>60</v>
       </c>
-      <c r="R111">
-        <v>30.38918</v>
-      </c>
-      <c r="S111">
-        <v>250.52341</v>
-      </c>
-      <c r="T111">
-        <v>5623.7541</v>
+      <c r="R111" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
@@ -7987,19 +8004,19 @@
       <c r="Q112" t="s">
         <v>60</v>
       </c>
-      <c r="R112">
-        <v>44.857849</v>
-      </c>
-      <c r="S112">
-        <v>72.193793</v>
-      </c>
-      <c r="T112">
-        <v>7394.9971</v>
+      <c r="R112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -8049,19 +8066,19 @@
       <c r="Q113" t="s">
         <v>47</v>
       </c>
-      <c r="R113">
-        <v>28.799452</v>
-      </c>
-      <c r="S113">
-        <v>466.5215</v>
-      </c>
-      <c r="T113">
-        <v>8381.600899999999</v>
+      <c r="R113" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -8111,19 +8128,19 @@
       <c r="Q114" t="s">
         <v>47</v>
       </c>
-      <c r="R114">
-        <v>29.320639</v>
-      </c>
-      <c r="S114">
-        <v>446.77655</v>
-      </c>
-      <c r="T114">
-        <v>7933.4464</v>
+      <c r="R114" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -8173,19 +8190,19 @@
       <c r="Q115" t="s">
         <v>47</v>
       </c>
-      <c r="R115">
-        <v>29.320639</v>
-      </c>
-      <c r="S115">
-        <v>373.33403</v>
-      </c>
-      <c r="T115">
-        <v>7001.9786</v>
+      <c r="R115" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -8235,19 +8252,19 @@
       <c r="Q116" t="s">
         <v>47</v>
       </c>
-      <c r="R116">
-        <v>45.512111</v>
-      </c>
-      <c r="S116">
-        <v>109.56871</v>
-      </c>
-      <c r="T116">
-        <v>11307.256</v>
+      <c r="R116" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -8297,19 +8314,19 @@
       <c r="Q117" t="s">
         <v>47</v>
       </c>
-      <c r="R117">
-        <v>46.983923</v>
-      </c>
-      <c r="S117">
-        <v>99.598231</v>
-      </c>
-      <c r="T117">
-        <v>10787.281</v>
+      <c r="R117" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S117" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T117" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -8359,19 +8376,19 @@
       <c r="Q118" t="s">
         <v>47</v>
       </c>
-      <c r="R118">
-        <v>46.983923</v>
-      </c>
-      <c r="S118">
-        <v>79.11007600000001</v>
-      </c>
-      <c r="T118">
-        <v>9502.323700000001</v>
+      <c r="R118" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s">
         <v>51</v>
@@ -8421,19 +8438,19 @@
       <c r="Q119" t="s">
         <v>60</v>
       </c>
-      <c r="R119">
-        <v>34.30152</v>
-      </c>
-      <c r="S119">
-        <v>213.04291</v>
-      </c>
-      <c r="T119">
-        <v>7197.6707</v>
+      <c r="R119" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
         <v>51</v>
@@ -8483,19 +8500,19 @@
       <c r="Q120" t="s">
         <v>60</v>
       </c>
-      <c r="R120">
-        <v>34.30152</v>
-      </c>
-      <c r="S120">
-        <v>171.78707</v>
-      </c>
-      <c r="T120">
-        <v>6249.045</v>
+      <c r="R120" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B121" t="s">
         <v>51</v>
@@ -8545,19 +8562,19 @@
       <c r="Q121" t="s">
         <v>60</v>
       </c>
-      <c r="R121">
-        <v>37.613522</v>
-      </c>
-      <c r="S121">
-        <v>134.22107</v>
-      </c>
-      <c r="T121">
-        <v>6250.86</v>
+      <c r="R121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B122" t="s">
         <v>51</v>
@@ -8607,19 +8624,19 @@
       <c r="Q122" t="s">
         <v>60</v>
       </c>
-      <c r="R122">
-        <v>37.465635</v>
-      </c>
-      <c r="S122">
-        <v>165.73446</v>
-      </c>
-      <c r="T122">
-        <v>8398.878500000001</v>
+      <c r="R122" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
         <v>51</v>
@@ -8669,19 +8686,19 @@
       <c r="Q123" t="s">
         <v>60</v>
       </c>
-      <c r="R123">
-        <v>37.465635</v>
-      </c>
-      <c r="S123">
-        <v>132.62517</v>
-      </c>
-      <c r="T123">
-        <v>7244.3646</v>
+      <c r="R123" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B124" t="s">
         <v>51</v>
@@ -8731,19 +8748,19 @@
       <c r="Q124" t="s">
         <v>60</v>
       </c>
-      <c r="R124">
-        <v>41.590364</v>
-      </c>
-      <c r="S124">
-        <v>99.88893</v>
-      </c>
-      <c r="T124">
-        <v>7529.8667</v>
+      <c r="R124" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B125" t="s">
         <v>51</v>
@@ -8793,19 +8810,19 @@
       <c r="Q125" t="s">
         <v>47</v>
       </c>
-      <c r="R125">
-        <v>34.673271</v>
-      </c>
-      <c r="S125">
-        <v>208.30807</v>
-      </c>
-      <c r="T125">
-        <v>7246.1668</v>
+      <c r="R125" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B126" t="s">
         <v>51</v>
@@ -8855,19 +8872,19 @@
       <c r="Q126" t="s">
         <v>47</v>
       </c>
-      <c r="R126">
-        <v>34.673271</v>
-      </c>
-      <c r="S126">
-        <v>167.85937</v>
-      </c>
-      <c r="T126">
-        <v>6296.9282</v>
+      <c r="R126" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B127" t="s">
         <v>51</v>
@@ -8917,19 +8934,19 @@
       <c r="Q127" t="s">
         <v>47</v>
       </c>
-      <c r="R127">
-        <v>37.814468</v>
-      </c>
-      <c r="S127">
-        <v>132.69494</v>
-      </c>
-      <c r="T127">
-        <v>6266.7578</v>
+      <c r="R127" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
         <v>51</v>
@@ -8979,19 +8996,19 @@
       <c r="Q128" t="s">
         <v>47</v>
       </c>
-      <c r="R128">
-        <v>38.015301</v>
-      </c>
-      <c r="S128">
-        <v>160.53414</v>
-      </c>
-      <c r="T128">
-        <v>8472.090700000001</v>
+      <c r="R128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B129" t="s">
         <v>51</v>
@@ -9041,19 +9058,19 @@
       <c r="Q129" t="s">
         <v>47</v>
       </c>
-      <c r="R129">
-        <v>38.015301</v>
-      </c>
-      <c r="S129">
-        <v>128.35302</v>
-      </c>
-      <c r="T129">
-        <v>7321.0374</v>
+      <c r="R129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B130" t="s">
         <v>51</v>
@@ -9103,19 +9120,19 @@
       <c r="Q130" t="s">
         <v>47</v>
       </c>
-      <c r="R130">
-        <v>41.813162</v>
-      </c>
-      <c r="S130">
-        <v>99.03943700000001</v>
-      </c>
-      <c r="T130">
-        <v>7529.2944</v>
+      <c r="R130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B131" t="s">
         <v>63</v>
@@ -9165,19 +9182,19 @@
       <c r="Q131" t="s">
         <v>60</v>
       </c>
-      <c r="R131">
-        <v>33.675199</v>
-      </c>
-      <c r="S131">
-        <v>246.71954</v>
-      </c>
-      <c r="T131">
-        <v>7660.6089</v>
+      <c r="R131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
         <v>63</v>
@@ -9227,19 +9244,19 @@
       <c r="Q132" t="s">
         <v>60</v>
       </c>
-      <c r="R132">
-        <v>33.675199</v>
-      </c>
-      <c r="S132">
-        <v>199.82543</v>
-      </c>
-      <c r="T132">
-        <v>6663.1952</v>
+      <c r="R132" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B133" t="s">
         <v>63</v>
@@ -9289,19 +9306,19 @@
       <c r="Q133" t="s">
         <v>60</v>
       </c>
-      <c r="R133">
-        <v>37.262503</v>
-      </c>
-      <c r="S133">
-        <v>150.5578</v>
-      </c>
-      <c r="T133">
-        <v>6564.2161</v>
+      <c r="R133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T133" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B134" t="s">
         <v>63</v>
@@ -9351,19 +9368,19 @@
       <c r="Q134" t="s">
         <v>60</v>
       </c>
-      <c r="R134">
-        <v>38.497</v>
-      </c>
-      <c r="S134">
-        <v>165.35937</v>
-      </c>
-      <c r="T134">
-        <v>9225.230299999999</v>
+      <c r="R134" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S134" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T134" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
         <v>63</v>
@@ -9413,19 +9430,19 @@
       <c r="Q135" t="s">
         <v>60</v>
       </c>
-      <c r="R135">
-        <v>38.497</v>
-      </c>
-      <c r="S135">
-        <v>132.28098</v>
-      </c>
-      <c r="T135">
-        <v>7975.6827</v>
+      <c r="R135" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T135" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B136" t="s">
         <v>63</v>
@@ -9475,19 +9492,19 @@
       <c r="Q136" t="s">
         <v>60</v>
       </c>
-      <c r="R136">
-        <v>42.510935</v>
-      </c>
-      <c r="S136">
-        <v>99.745447</v>
-      </c>
-      <c r="T136">
-        <v>8155.6497</v>
+      <c r="R136" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S136" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T136" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B137" t="s">
         <v>63</v>
@@ -9537,19 +9554,19 @@
       <c r="Q137" t="s">
         <v>47</v>
       </c>
-      <c r="R137">
-        <v>34.241138</v>
-      </c>
-      <c r="S137">
-        <v>236.68334</v>
-      </c>
-      <c r="T137">
-        <v>7717.6361</v>
+      <c r="R137" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B138" t="s">
         <v>63</v>
@@ -9599,19 +9616,19 @@
       <c r="Q138" t="s">
         <v>47</v>
       </c>
-      <c r="R138">
-        <v>34.241138</v>
-      </c>
-      <c r="S138">
-        <v>191.38442</v>
-      </c>
-      <c r="T138">
-        <v>6717.8688</v>
+      <c r="R138" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -9661,19 +9678,19 @@
       <c r="Q139" t="s">
         <v>47</v>
       </c>
-      <c r="R139">
-        <v>37.541287</v>
-      </c>
-      <c r="S139">
-        <v>147.57277</v>
-      </c>
-      <c r="T139">
-        <v>6586.6738</v>
+      <c r="R139" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B140" t="s">
         <v>63</v>
@@ -9723,19 +9740,19 @@
       <c r="Q140" t="s">
         <v>47</v>
       </c>
-      <c r="R140">
-        <v>39.107074</v>
-      </c>
-      <c r="S140">
-        <v>159.05947</v>
-      </c>
-      <c r="T140">
-        <v>9302.6903</v>
+      <c r="R140" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -9785,19 +9802,19 @@
       <c r="Q141" t="s">
         <v>47</v>
       </c>
-      <c r="R141">
-        <v>39.107074</v>
-      </c>
-      <c r="S141">
-        <v>127.09884</v>
-      </c>
-      <c r="T141">
-        <v>8055.494</v>
+      <c r="R141" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
@@ -9847,19 +9864,19 @@
       <c r="Q142" t="s">
         <v>47</v>
       </c>
-      <c r="R142">
-        <v>42.709162</v>
-      </c>
-      <c r="S142">
-        <v>98.98733900000001</v>
-      </c>
-      <c r="T142">
-        <v>8154.3377</v>
+      <c r="R142" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S142" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B143" t="s">
         <v>69</v>
@@ -9909,19 +9926,19 @@
       <c r="Q143" t="s">
         <v>60</v>
       </c>
-      <c r="R143">
-        <v>29.692141</v>
-      </c>
-      <c r="S143">
-        <v>377.39488</v>
-      </c>
-      <c r="T143">
-        <v>7486.598</v>
+      <c r="R143" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S143" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B144" t="s">
         <v>69</v>
@@ -9971,19 +9988,19 @@
       <c r="Q144" t="s">
         <v>60</v>
       </c>
-      <c r="R144">
-        <v>29.692141</v>
-      </c>
-      <c r="S144">
-        <v>312.33191</v>
-      </c>
-      <c r="T144">
-        <v>6562.9509</v>
+      <c r="R144" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B145" t="s">
         <v>69</v>
@@ -10033,19 +10050,19 @@
       <c r="Q145" t="s">
         <v>60</v>
       </c>
-      <c r="R145">
-        <v>30.38918</v>
-      </c>
-      <c r="S145">
-        <v>303.92248</v>
-      </c>
-      <c r="T145">
-        <v>6419.1364</v>
+      <c r="R145" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B146" t="s">
         <v>69</v>
@@ -10095,19 +10112,19 @@
       <c r="Q146" t="s">
         <v>60</v>
       </c>
-      <c r="R146">
-        <v>43.111852</v>
-      </c>
-      <c r="S146">
-        <v>125.92108</v>
-      </c>
-      <c r="T146">
-        <v>9786.843500000001</v>
+      <c r="R146" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S146" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T146" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B147" t="s">
         <v>69</v>
@@ -10157,19 +10174,19 @@
       <c r="Q147" t="s">
         <v>60</v>
       </c>
-      <c r="R147">
-        <v>43.111852</v>
-      </c>
-      <c r="S147">
-        <v>100.0728</v>
-      </c>
-      <c r="T147">
-        <v>8569.1358</v>
+      <c r="R147" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B148" t="s">
         <v>69</v>
@@ -10219,19 +10236,19 @@
       <c r="Q148" t="s">
         <v>60</v>
       </c>
-      <c r="R148">
-        <v>44.857849</v>
-      </c>
-      <c r="S148">
-        <v>90.97686299999999</v>
-      </c>
-      <c r="T148">
-        <v>8440.6206</v>
+      <c r="R148" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B149" t="s">
         <v>69</v>
@@ -10281,19 +10298,19 @@
       <c r="Q149" t="s">
         <v>47</v>
       </c>
-      <c r="R149">
-        <v>30.038328</v>
-      </c>
-      <c r="S149">
-        <v>374.08883</v>
-      </c>
-      <c r="T149">
-        <v>7677.3202</v>
+      <c r="R149" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B150" t="s">
         <v>69</v>
@@ -10343,19 +10360,19 @@
       <c r="Q150" t="s">
         <v>47</v>
       </c>
-      <c r="R150">
-        <v>30.038328</v>
-      </c>
-      <c r="S150">
-        <v>308.82913</v>
-      </c>
-      <c r="T150">
-        <v>6727.7481</v>
+      <c r="R150" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S150" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B151" t="s">
         <v>69</v>
@@ -10405,19 +10422,19 @@
       <c r="Q151" t="s">
         <v>47</v>
       </c>
-      <c r="R151">
-        <v>30.695604</v>
-      </c>
-      <c r="S151">
-        <v>300.7362</v>
-      </c>
-      <c r="T151">
-        <v>6548.4739</v>
+      <c r="R151" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S151" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B152" t="s">
         <v>69</v>
@@ -10467,19 +10484,19 @@
       <c r="Q152" t="s">
         <v>47</v>
       </c>
-      <c r="R152">
-        <v>43.172283</v>
-      </c>
-      <c r="S152">
-        <v>126.70678</v>
-      </c>
-      <c r="T152">
-        <v>9875.353499999999</v>
+      <c r="R152" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B153" t="s">
         <v>69</v>
@@ -10529,19 +10546,19 @@
       <c r="Q153" t="s">
         <v>47</v>
       </c>
-      <c r="R153">
-        <v>43.172283</v>
-      </c>
-      <c r="S153">
-        <v>100.70158</v>
-      </c>
-      <c r="T153">
-        <v>8647.9504</v>
+      <c r="R153" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B154" t="s">
         <v>69</v>
@@ -10591,14 +10608,14 @@
       <c r="Q154" t="s">
         <v>47</v>
       </c>
-      <c r="R154">
-        <v>44.872409</v>
-      </c>
-      <c r="S154">
-        <v>91.67604900000001</v>
-      </c>
-      <c r="T154">
-        <v>8492.8076</v>
+      <c r="R154" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S154" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="1" customFormat="1">
@@ -10665,40 +10682,40 @@
     </row>
     <row r="156" spans="1:20" s="1" customFormat="1">
       <c r="Q156" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R156" s="1">
-        <v>22.798999</v>
+        <v>26.664905</v>
       </c>
       <c r="S156" s="1">
-        <v>60.243707</v>
+        <v>77.277822</v>
       </c>
       <c r="T156" s="1">
-        <v>3132.1323</v>
+        <v>5428.6568</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
       <c r="Q157" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R157" s="1">
-        <v>46.983923</v>
+        <v>42.285652</v>
       </c>
       <c r="S157" s="1">
-        <v>560.8062200000001</v>
+        <v>546.58714</v>
       </c>
       <c r="T157" s="1">
-        <v>12937.924</v>
+        <v>16372.154</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
       <c r="Q158" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:20" s="1" customFormat="1">
       <c r="Q159" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R159" s="1">
         <v>20</v>
@@ -10712,12 +10729,12 @@
     </row>
     <row r="160" spans="1:20" s="1" customFormat="1">
       <c r="Q160" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="161" spans="17:20" s="1" customFormat="1">
       <c r="Q161" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R161" s="1">
         <v>20</v>
@@ -10731,44 +10748,44 @@
     </row>
     <row r="162" spans="17:20" s="1" customFormat="1">
       <c r="Q162" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R162" s="1">
-        <v>36.71410841830065</v>
+        <v>34.34022217821782</v>
       </c>
       <c r="S162" s="1">
-        <v>181.1475665359476</v>
+        <v>203.4859467326733</v>
       </c>
       <c r="T162" s="1">
-        <v>7145.660553594771</v>
+        <v>8553.413898019802</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
       <c r="Q163" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R163" s="1">
-        <v>6.151883082684572</v>
+        <v>4.170685113144034</v>
       </c>
       <c r="S163" s="1">
-        <v>107.8469706852383</v>
+        <v>98.71613058350026</v>
       </c>
       <c r="T163" s="1">
-        <v>1735.948831034644</v>
+        <v>2178.863741450808</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
       <c r="Q164" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R164" s="1">
-        <v>16.75618269846935</v>
+        <v>12.14518965980809</v>
       </c>
       <c r="S164" s="1">
-        <v>59.53542338303325</v>
+        <v>48.5125052459702</v>
       </c>
       <c r="T164" s="1">
-        <v>24.29374888457778</v>
+        <v>25.47361518370152</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="230">
   <si>
     <t>Process</t>
   </si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t>tsmc2p (101)</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (102)</t>
@@ -713,7 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,26 +726,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000 "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -763,10 +747,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,13 +1168,13 @@
         <v>35</v>
       </c>
       <c r="R2">
-        <v>38.87267</v>
+        <v>39.101105</v>
       </c>
       <c r="S2">
-        <v>129.7568</v>
+        <v>128.25569</v>
       </c>
       <c r="T2">
-        <v>9575.314</v>
+        <v>9677.0267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1247,13 +1230,13 @@
         <v>47</v>
       </c>
       <c r="R3">
-        <v>28.268038</v>
+        <v>27.240891</v>
       </c>
       <c r="S3">
-        <v>546.58714</v>
+        <v>619.31131</v>
       </c>
       <c r="T3">
-        <v>12201.675</v>
+        <v>12305.843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1309,13 +1292,13 @@
         <v>47</v>
       </c>
       <c r="R4">
-        <v>40.810326</v>
+        <v>41.154181</v>
       </c>
       <c r="S4">
-        <v>183.89033</v>
+        <v>180.78315</v>
       </c>
       <c r="T4">
-        <v>15787.706</v>
+        <v>16014.854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1371,13 +1354,13 @@
         <v>60</v>
       </c>
       <c r="R5">
-        <v>34.368092</v>
+        <v>34.325569</v>
       </c>
       <c r="S5">
-        <v>115.93881</v>
+        <v>117.29176</v>
       </c>
       <c r="T5">
-        <v>5428.6568</v>
+        <v>5460.1889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1433,13 +1416,13 @@
         <v>60</v>
       </c>
       <c r="R6">
-        <v>38.259831</v>
+        <v>38.428179</v>
       </c>
       <c r="S6">
-        <v>77.277822</v>
+        <v>75.420756</v>
       </c>
       <c r="T6">
-        <v>5648.9399</v>
+        <v>5630.1128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1495,13 +1478,13 @@
         <v>60</v>
       </c>
       <c r="R7">
-        <v>34.887584</v>
+        <v>34.901847</v>
       </c>
       <c r="S7">
-        <v>127.73651</v>
+        <v>129.99115</v>
       </c>
       <c r="T7">
-        <v>6295.3928</v>
+        <v>6389.9521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1557,13 +1540,13 @@
         <v>60</v>
       </c>
       <c r="R8">
-        <v>39.842187</v>
+        <v>40.245981</v>
       </c>
       <c r="S8">
-        <v>87.27394700000001</v>
+        <v>85.174786</v>
       </c>
       <c r="T8">
-        <v>7390.5633</v>
+        <v>7507.0831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1619,13 +1602,13 @@
         <v>60</v>
       </c>
       <c r="R9">
-        <v>27.778464</v>
+        <v>27.02777</v>
       </c>
       <c r="S9">
-        <v>265.35155</v>
+        <v>288.68791</v>
       </c>
       <c r="T9">
-        <v>5932.7904</v>
+        <v>5937.8192</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1681,13 +1664,13 @@
         <v>60</v>
       </c>
       <c r="R10">
-        <v>39.400664</v>
+        <v>39.588307</v>
       </c>
       <c r="S10">
-        <v>84.23020099999999</v>
+        <v>82.00507899999999</v>
       </c>
       <c r="T10">
-        <v>6909.5147</v>
+        <v>6890.7434</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1743,13 +1726,13 @@
         <v>47</v>
       </c>
       <c r="R11">
-        <v>28.268038</v>
+        <v>27.240891</v>
       </c>
       <c r="S11">
-        <v>435.35718</v>
+        <v>495.88285</v>
       </c>
       <c r="T11">
-        <v>10111.975</v>
+        <v>10231.196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1805,13 +1788,13 @@
         <v>47</v>
       </c>
       <c r="R12">
-        <v>29.258657</v>
+        <v>28.259452</v>
       </c>
       <c r="S12">
-        <v>427.44947</v>
+        <v>481.94871</v>
       </c>
       <c r="T12">
-        <v>10573.592</v>
+        <v>10657.152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1867,13 +1850,13 @@
         <v>47</v>
       </c>
       <c r="R13">
-        <v>29.258657</v>
+        <v>28.259452</v>
       </c>
       <c r="S13">
-        <v>340.20515</v>
+        <v>385.40259</v>
       </c>
       <c r="T13">
-        <v>8777.9017</v>
+        <v>8870.502200000001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1929,13 +1912,13 @@
         <v>47</v>
       </c>
       <c r="R14">
-        <v>40.810326</v>
+        <v>41.154181</v>
       </c>
       <c r="S14">
-        <v>145.05173</v>
+        <v>142.70535</v>
       </c>
       <c r="T14">
-        <v>13231.004</v>
+        <v>13443.09</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1991,13 +1974,13 @@
         <v>47</v>
       </c>
       <c r="R15">
-        <v>42.285652</v>
+        <v>42.667615</v>
       </c>
       <c r="S15">
-        <v>135.25461</v>
+        <v>132.28025</v>
       </c>
       <c r="T15">
-        <v>13655.239</v>
+        <v>13846.62</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2053,13 +2036,13 @@
         <v>47</v>
       </c>
       <c r="R16">
-        <v>42.285652</v>
+        <v>42.667615</v>
       </c>
       <c r="S16">
-        <v>106.61879</v>
+        <v>104.32915</v>
       </c>
       <c r="T16">
-        <v>11452.855</v>
+        <v>11630.62</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2115,13 +2098,13 @@
         <v>60</v>
       </c>
       <c r="R17">
-        <v>32.211321</v>
+        <v>32.203877</v>
       </c>
       <c r="S17">
-        <v>211.3582</v>
+        <v>212.70806</v>
       </c>
       <c r="T17">
-        <v>7460.9484</v>
+        <v>7493.8894</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2177,13 +2160,13 @@
         <v>60</v>
       </c>
       <c r="R18">
-        <v>32.211321</v>
+        <v>32.203877</v>
       </c>
       <c r="S18">
-        <v>167.40583</v>
+        <v>168.63674</v>
       </c>
       <c r="T18">
-        <v>6153.0129</v>
+        <v>6185.4567</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2239,13 +2222,13 @@
         <v>60</v>
       </c>
       <c r="R19">
-        <v>34.368092</v>
+        <v>34.325569</v>
       </c>
       <c r="S19">
-        <v>146.75414</v>
+        <v>148.33581</v>
       </c>
       <c r="T19">
-        <v>6581.7577</v>
+        <v>6615.1139</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2301,13 +2284,13 @@
         <v>60</v>
       </c>
       <c r="R20">
-        <v>36.441099</v>
+        <v>36.601687</v>
       </c>
       <c r="S20">
-        <v>136.30278</v>
+        <v>133.09937</v>
       </c>
       <c r="T20">
-        <v>7771.4395</v>
+        <v>7746.3192</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2363,13 +2346,13 @@
         <v>60</v>
       </c>
       <c r="R21">
-        <v>36.441099</v>
+        <v>36.601687</v>
       </c>
       <c r="S21">
-        <v>107.55073</v>
+        <v>105.04701</v>
       </c>
       <c r="T21">
-        <v>6402.8983</v>
+        <v>6380.0466</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2425,13 +2408,13 @@
         <v>60</v>
       </c>
       <c r="R22">
-        <v>38.259831</v>
+        <v>38.428179</v>
       </c>
       <c r="S22">
-        <v>98.04647</v>
+        <v>95.668673</v>
       </c>
       <c r="T22">
-        <v>6853.9777</v>
+        <v>6833.9022</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2487,13 +2470,13 @@
         <v>47</v>
       </c>
       <c r="R23">
-        <v>32.211321</v>
+        <v>32.203877</v>
       </c>
       <c r="S23">
-        <v>211.3582</v>
+        <v>212.70806</v>
       </c>
       <c r="T23">
-        <v>7460.9484</v>
+        <v>7493.8894</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2549,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="R24">
-        <v>32.211321</v>
+        <v>32.203877</v>
       </c>
       <c r="S24">
-        <v>167.40583</v>
+        <v>168.63674</v>
       </c>
       <c r="T24">
-        <v>6153.0129</v>
+        <v>6185.4567</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2611,13 +2594,13 @@
         <v>47</v>
       </c>
       <c r="R25">
-        <v>34.368092</v>
+        <v>34.325569</v>
       </c>
       <c r="S25">
-        <v>146.75414</v>
+        <v>148.33581</v>
       </c>
       <c r="T25">
-        <v>6581.7577</v>
+        <v>6615.1139</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2673,13 +2656,13 @@
         <v>47</v>
       </c>
       <c r="R26">
-        <v>36.441099</v>
+        <v>36.601687</v>
       </c>
       <c r="S26">
-        <v>136.30278</v>
+        <v>133.09937</v>
       </c>
       <c r="T26">
-        <v>7771.4395</v>
+        <v>7746.3192</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2735,13 +2718,13 @@
         <v>47</v>
       </c>
       <c r="R27">
-        <v>36.441099</v>
+        <v>36.601687</v>
       </c>
       <c r="S27">
-        <v>107.55073</v>
+        <v>105.04701</v>
       </c>
       <c r="T27">
-        <v>6402.8983</v>
+        <v>6380.0466</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2797,13 +2780,13 @@
         <v>47</v>
       </c>
       <c r="R28">
-        <v>38.259831</v>
+        <v>38.428179</v>
       </c>
       <c r="S28">
-        <v>98.04647</v>
+        <v>95.668673</v>
       </c>
       <c r="T28">
-        <v>6853.9777</v>
+        <v>6833.9022</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2859,13 +2842,13 @@
         <v>60</v>
       </c>
       <c r="R29">
-        <v>32.424458</v>
+        <v>32.560192</v>
       </c>
       <c r="S29">
-        <v>243.6166</v>
+        <v>244.82879</v>
       </c>
       <c r="T29">
-        <v>8725.417799999999</v>
+        <v>8851.801600000001</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2921,13 +2904,13 @@
         <v>60</v>
       </c>
       <c r="R30">
-        <v>32.424458</v>
+        <v>32.560192</v>
       </c>
       <c r="S30">
-        <v>193.13011</v>
+        <v>194.19194</v>
       </c>
       <c r="T30">
-        <v>7215.3587</v>
+        <v>7331.7635</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2983,13 +2966,13 @@
         <v>60</v>
       </c>
       <c r="R31">
-        <v>34.887584</v>
+        <v>34.901847</v>
       </c>
       <c r="S31">
-        <v>161.70527</v>
+        <v>164.44665</v>
       </c>
       <c r="T31">
-        <v>7616.6351</v>
+        <v>7719.3921</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3045,13 +3028,13 @@
         <v>60</v>
       </c>
       <c r="R32">
-        <v>37.992</v>
+        <v>38.413361</v>
       </c>
       <c r="S32">
-        <v>155.0806</v>
+        <v>151.1407</v>
       </c>
       <c r="T32">
-        <v>10122.803</v>
+        <v>10270.363</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3107,13 +3090,13 @@
         <v>60</v>
       </c>
       <c r="R33">
-        <v>37.992</v>
+        <v>38.413361</v>
       </c>
       <c r="S33">
-        <v>122.4084</v>
+        <v>119.31502</v>
       </c>
       <c r="T33">
-        <v>8414.4805</v>
+        <v>8550.5146</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3169,13 +3152,13 @@
         <v>60</v>
       </c>
       <c r="R34">
-        <v>39.842187</v>
+        <v>40.245981</v>
       </c>
       <c r="S34">
-        <v>110.73442</v>
+        <v>108.05192</v>
       </c>
       <c r="T34">
-        <v>8889.3909</v>
+        <v>9016.0741</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3231,13 +3214,13 @@
         <v>47</v>
       </c>
       <c r="R35">
-        <v>32.424458</v>
+        <v>32.560192</v>
       </c>
       <c r="S35">
-        <v>243.6166</v>
+        <v>244.82879</v>
       </c>
       <c r="T35">
-        <v>8725.417799999999</v>
+        <v>8851.801600000001</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3293,13 +3276,13 @@
         <v>47</v>
       </c>
       <c r="R36">
-        <v>32.424458</v>
+        <v>32.560192</v>
       </c>
       <c r="S36">
-        <v>193.13011</v>
+        <v>194.19194</v>
       </c>
       <c r="T36">
-        <v>7215.3587</v>
+        <v>7331.7635</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3355,13 +3338,13 @@
         <v>47</v>
       </c>
       <c r="R37">
-        <v>34.887584</v>
+        <v>34.901847</v>
       </c>
       <c r="S37">
-        <v>161.70527</v>
+        <v>164.44665</v>
       </c>
       <c r="T37">
-        <v>7616.6351</v>
+        <v>7719.3921</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3417,13 +3400,13 @@
         <v>47</v>
       </c>
       <c r="R38">
-        <v>37.992</v>
+        <v>38.413361</v>
       </c>
       <c r="S38">
-        <v>155.0806</v>
+        <v>151.1407</v>
       </c>
       <c r="T38">
-        <v>10122.803</v>
+        <v>10270.363</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3479,13 +3462,13 @@
         <v>47</v>
       </c>
       <c r="R39">
-        <v>37.992</v>
+        <v>38.413361</v>
       </c>
       <c r="S39">
-        <v>122.4084</v>
+        <v>119.31502</v>
       </c>
       <c r="T39">
-        <v>8414.4805</v>
+        <v>8550.5146</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3541,13 +3524,13 @@
         <v>47</v>
       </c>
       <c r="R40">
-        <v>39.842187</v>
+        <v>40.245981</v>
       </c>
       <c r="S40">
-        <v>110.73442</v>
+        <v>108.05192</v>
       </c>
       <c r="T40">
-        <v>8889.3909</v>
+        <v>9016.0741</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3603,13 +3586,13 @@
         <v>60</v>
       </c>
       <c r="R41">
-        <v>26.664905</v>
+        <v>25.942959</v>
       </c>
       <c r="S41">
-        <v>427.00683</v>
+        <v>459.87978</v>
       </c>
       <c r="T41">
-        <v>8182.5834</v>
+        <v>8154.4576</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3665,13 +3648,13 @@
         <v>60</v>
       </c>
       <c r="R42">
-        <v>26.664905</v>
+        <v>25.942959</v>
       </c>
       <c r="S42">
-        <v>341.07839</v>
+        <v>369.14181</v>
       </c>
       <c r="T42">
-        <v>6748.4185</v>
+        <v>6741.6283</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3727,13 +3710,13 @@
         <v>60</v>
       </c>
       <c r="R43">
-        <v>27.778464</v>
+        <v>27.02777</v>
       </c>
       <c r="S43">
-        <v>332.84469</v>
+        <v>360.54321</v>
       </c>
       <c r="T43">
-        <v>7190.1051</v>
+        <v>7181.6226</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3789,13 +3772,13 @@
         <v>60</v>
       </c>
       <c r="R44">
-        <v>37.838702</v>
+        <v>38.014412</v>
       </c>
       <c r="S44">
-        <v>145.03277</v>
+        <v>141.24157</v>
       </c>
       <c r="T44">
-        <v>9530.4735</v>
+        <v>9502.0527</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3851,13 +3834,13 @@
         <v>60</v>
       </c>
       <c r="R45">
-        <v>37.838702</v>
+        <v>38.014412</v>
       </c>
       <c r="S45">
-        <v>114.47037</v>
+        <v>111.54853</v>
       </c>
       <c r="T45">
-        <v>7884.5838</v>
+        <v>7858.6536</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3913,13 +3896,13 @@
         <v>60</v>
       </c>
       <c r="R46">
-        <v>39.400664</v>
+        <v>39.588307</v>
       </c>
       <c r="S46">
-        <v>106.80021</v>
+        <v>103.9315</v>
       </c>
       <c r="T46">
-        <v>8345.731900000001</v>
+        <v>8326.032300000001</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3975,13 +3958,13 @@
         <v>47</v>
       </c>
       <c r="R47">
-        <v>26.664905</v>
+        <v>25.942959</v>
       </c>
       <c r="S47">
-        <v>427.00683</v>
+        <v>459.87978</v>
       </c>
       <c r="T47">
-        <v>8182.5834</v>
+        <v>8154.4576</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4037,13 +4020,13 @@
         <v>47</v>
       </c>
       <c r="R48">
-        <v>26.664905</v>
+        <v>25.942959</v>
       </c>
       <c r="S48">
-        <v>341.07839</v>
+        <v>369.14181</v>
       </c>
       <c r="T48">
-        <v>6748.4185</v>
+        <v>6741.6283</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4099,13 +4082,13 @@
         <v>47</v>
       </c>
       <c r="R49">
-        <v>27.778464</v>
+        <v>27.02777</v>
       </c>
       <c r="S49">
-        <v>332.84469</v>
+        <v>360.54321</v>
       </c>
       <c r="T49">
-        <v>7190.1051</v>
+        <v>7181.6226</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4161,13 +4144,13 @@
         <v>47</v>
       </c>
       <c r="R50">
-        <v>37.838702</v>
+        <v>38.014412</v>
       </c>
       <c r="S50">
-        <v>145.03277</v>
+        <v>141.24157</v>
       </c>
       <c r="T50">
-        <v>9530.4735</v>
+        <v>9502.0527</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4223,13 +4206,13 @@
         <v>47</v>
       </c>
       <c r="R51">
-        <v>37.838702</v>
+        <v>38.014412</v>
       </c>
       <c r="S51">
-        <v>114.47037</v>
+        <v>111.54853</v>
       </c>
       <c r="T51">
-        <v>7884.5838</v>
+        <v>7858.6536</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4285,13 +4268,13 @@
         <v>47</v>
       </c>
       <c r="R52">
-        <v>39.400664</v>
+        <v>39.588307</v>
       </c>
       <c r="S52">
-        <v>106.80021</v>
+        <v>103.9315</v>
       </c>
       <c r="T52">
-        <v>8345.731900000001</v>
+        <v>8326.032300000001</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4347,13 +4330,13 @@
         <v>35</v>
       </c>
       <c r="R53">
-        <v>38.421771</v>
+        <v>38.76235</v>
       </c>
       <c r="S53">
-        <v>142.49943</v>
+        <v>141.34608</v>
       </c>
       <c r="T53">
-        <v>10098.402</v>
+        <v>10329.244</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4409,13 +4392,13 @@
         <v>47</v>
       </c>
       <c r="R54">
-        <v>30.504339</v>
+        <v>29.166219</v>
       </c>
       <c r="S54">
-        <v>480.14781</v>
+        <v>565.09061</v>
       </c>
       <c r="T54">
-        <v>13349.876</v>
+        <v>13484.659</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4471,13 +4454,13 @@
         <v>47</v>
       </c>
       <c r="R55">
-        <v>40.364593</v>
+        <v>40.757504</v>
       </c>
       <c r="S55">
-        <v>198.18255</v>
+        <v>196.01087</v>
       </c>
       <c r="T55">
-        <v>16372.154</v>
+        <v>16740.774</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4533,13 +4516,13 @@
         <v>60</v>
       </c>
       <c r="R56">
-        <v>33.730454</v>
+        <v>33.981906</v>
       </c>
       <c r="S56">
-        <v>130.47882</v>
+        <v>130.30686</v>
       </c>
       <c r="T56">
-        <v>5742.8876</v>
+        <v>5871.5471</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4595,13 +4578,13 @@
         <v>60</v>
       </c>
       <c r="R57">
-        <v>35.803392</v>
+        <v>36.564663</v>
       </c>
       <c r="S57">
-        <v>110.1594</v>
+        <v>105.47376</v>
       </c>
       <c r="T57">
-        <v>6226.9404</v>
+        <v>6457.3289</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4657,13 +4640,13 @@
         <v>60</v>
       </c>
       <c r="R58">
-        <v>34.048931</v>
+        <v>34.210416</v>
       </c>
       <c r="S58">
-        <v>136.0713</v>
+        <v>137.31434</v>
       </c>
       <c r="T58">
-        <v>6208.3207</v>
+        <v>6346.5626</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4719,13 +4702,13 @@
         <v>60</v>
       </c>
       <c r="R59">
-        <v>36.940221</v>
+        <v>37.620786</v>
       </c>
       <c r="S59">
-        <v>107.62166</v>
+        <v>103.9328</v>
       </c>
       <c r="T59">
-        <v>6894.384</v>
+        <v>7139.0491</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4781,13 +4764,13 @@
         <v>60</v>
       </c>
       <c r="R60">
-        <v>31.026061</v>
+        <v>30.07547</v>
       </c>
       <c r="S60">
-        <v>220.64695</v>
+        <v>249.17669</v>
       </c>
       <c r="T60">
-        <v>6941.6094</v>
+        <v>7025.7754</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4843,13 +4826,13 @@
         <v>60</v>
       </c>
       <c r="R61">
-        <v>39.62387</v>
+        <v>40.081587</v>
       </c>
       <c r="S61">
-        <v>102.46005</v>
+        <v>100.21418</v>
       </c>
       <c r="T61">
-        <v>8451.421</v>
+        <v>8651.7721</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4905,13 +4888,13 @@
         <v>47</v>
       </c>
       <c r="R62">
-        <v>30.504339</v>
+        <v>29.166219</v>
       </c>
       <c r="S62">
-        <v>381.02198</v>
+        <v>450.27756</v>
       </c>
       <c r="T62">
-        <v>11115.741</v>
+        <v>11256.549</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4967,13 +4950,13 @@
         <v>47</v>
       </c>
       <c r="R63">
-        <v>30.901563</v>
+        <v>29.658008</v>
       </c>
       <c r="S63">
-        <v>389.37751</v>
+        <v>452.0792</v>
       </c>
       <c r="T63">
-        <v>11309.649</v>
+        <v>11408.921</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5029,13 +5012,13 @@
         <v>47</v>
       </c>
       <c r="R64">
-        <v>30.901563</v>
+        <v>29.658008</v>
       </c>
       <c r="S64">
-        <v>308.9073</v>
+        <v>360.06814</v>
       </c>
       <c r="T64">
-        <v>9419.0522</v>
+        <v>9521.864</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5091,13 +5074,13 @@
         <v>47</v>
       </c>
       <c r="R65">
-        <v>40.364593</v>
+        <v>40.757504</v>
       </c>
       <c r="S65">
-        <v>156.23921</v>
+        <v>154.59997</v>
       </c>
       <c r="T65">
-        <v>13685.585</v>
+        <v>14026.544</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5153,13 +5136,13 @@
         <v>47</v>
       </c>
       <c r="R66">
-        <v>41.696352</v>
+        <v>42.1337</v>
       </c>
       <c r="S66">
-        <v>146.30173</v>
+        <v>143.57395</v>
       </c>
       <c r="T66">
-        <v>14020.452</v>
+        <v>14310.108</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5215,13 +5198,13 @@
         <v>47</v>
       </c>
       <c r="R67">
-        <v>41.696352</v>
+        <v>42.1337</v>
       </c>
       <c r="S67">
-        <v>115.27543</v>
+        <v>113.17589</v>
       </c>
       <c r="T67">
-        <v>11725.702</v>
+        <v>11993.211</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5277,13 +5260,13 @@
         <v>60</v>
       </c>
       <c r="R68">
-        <v>30.186111</v>
+        <v>30.76113</v>
       </c>
       <c r="S68">
-        <v>272.78396</v>
+        <v>264.44053</v>
       </c>
       <c r="T68">
-        <v>7829.242</v>
+        <v>8032.167</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5339,13 +5322,13 @@
         <v>60</v>
       </c>
       <c r="R69">
-        <v>30.186111</v>
+        <v>30.76113</v>
       </c>
       <c r="S69">
-        <v>216.80789</v>
+        <v>210.04637</v>
       </c>
       <c r="T69">
-        <v>6434.6974</v>
+        <v>6613.2769</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5401,13 +5384,13 @@
         <v>60</v>
       </c>
       <c r="R70">
-        <v>33.730454</v>
+        <v>33.981906</v>
       </c>
       <c r="S70">
-        <v>165.10282</v>
+        <v>164.85659</v>
       </c>
       <c r="T70">
-        <v>6985.0438</v>
+        <v>7128.7738</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5463,13 +5446,13 @@
         <v>60</v>
       </c>
       <c r="R71">
-        <v>30.945013</v>
+        <v>32.409974</v>
       </c>
       <c r="S71">
-        <v>256.38035</v>
+        <v>229.25191</v>
       </c>
       <c r="T71">
-        <v>8199.811400000001</v>
+        <v>8570.422699999999</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5525,13 +5508,13 @@
         <v>60</v>
       </c>
       <c r="R72">
-        <v>30.945013</v>
+        <v>32.409974</v>
       </c>
       <c r="S72">
-        <v>203.61138</v>
+        <v>181.70789</v>
       </c>
       <c r="T72">
-        <v>6701.023</v>
+        <v>7015.7321</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5587,13 +5570,13 @@
         <v>60</v>
       </c>
       <c r="R73">
-        <v>35.803392</v>
+        <v>36.564663</v>
       </c>
       <c r="S73">
-        <v>139.62445</v>
+        <v>133.71595</v>
       </c>
       <c r="T73">
-        <v>7608.7231</v>
+        <v>7871.9701</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5649,13 +5632,13 @@
         <v>47</v>
       </c>
       <c r="R74">
-        <v>30.186111</v>
+        <v>30.76113</v>
       </c>
       <c r="S74">
-        <v>272.78396</v>
+        <v>264.44053</v>
       </c>
       <c r="T74">
-        <v>7829.242</v>
+        <v>8032.167</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5711,13 +5694,13 @@
         <v>47</v>
       </c>
       <c r="R75">
-        <v>30.186111</v>
+        <v>30.76113</v>
       </c>
       <c r="S75">
-        <v>216.80789</v>
+        <v>210.04637</v>
       </c>
       <c r="T75">
-        <v>6434.6974</v>
+        <v>6613.2769</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5773,13 +5756,13 @@
         <v>47</v>
       </c>
       <c r="R76">
-        <v>33.730454</v>
+        <v>33.981906</v>
       </c>
       <c r="S76">
-        <v>165.10282</v>
+        <v>164.85659</v>
       </c>
       <c r="T76">
-        <v>6985.0438</v>
+        <v>7128.7738</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5835,13 +5818,13 @@
         <v>47</v>
       </c>
       <c r="R77">
-        <v>30.945013</v>
+        <v>32.409974</v>
       </c>
       <c r="S77">
-        <v>256.38035</v>
+        <v>229.25191</v>
       </c>
       <c r="T77">
-        <v>8199.811400000001</v>
+        <v>8570.422699999999</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5897,13 +5880,13 @@
         <v>47</v>
       </c>
       <c r="R78">
-        <v>30.945013</v>
+        <v>32.409974</v>
       </c>
       <c r="S78">
-        <v>203.61138</v>
+        <v>181.70789</v>
       </c>
       <c r="T78">
-        <v>6701.023</v>
+        <v>7015.7321</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5959,13 +5942,13 @@
         <v>47</v>
       </c>
       <c r="R79">
-        <v>35.803392</v>
+        <v>36.564663</v>
       </c>
       <c r="S79">
-        <v>139.62445</v>
+        <v>133.71595</v>
       </c>
       <c r="T79">
-        <v>7608.7231</v>
+        <v>7871.9701</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6021,13 +6004,13 @@
         <v>60</v>
       </c>
       <c r="R80">
-        <v>30.590305</v>
+        <v>31.112374</v>
       </c>
       <c r="S80">
-        <v>283.30263</v>
+        <v>276.33466</v>
       </c>
       <c r="T80">
-        <v>8506.117399999999</v>
+        <v>8725.847100000001</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6083,13 +6066,13 @@
         <v>60</v>
       </c>
       <c r="R81">
-        <v>30.590305</v>
+        <v>31.112374</v>
       </c>
       <c r="S81">
-        <v>225.17608</v>
+        <v>219.50808</v>
       </c>
       <c r="T81">
-        <v>6993.3703</v>
+        <v>7187.3062</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6145,13 +6128,13 @@
         <v>60</v>
       </c>
       <c r="R82">
-        <v>34.048931</v>
+        <v>34.210416</v>
       </c>
       <c r="S82">
-        <v>172.218</v>
+        <v>173.73483</v>
       </c>
       <c r="T82">
-        <v>7550.5101</v>
+        <v>7704.1233</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6207,13 +6190,13 @@
         <v>60</v>
       </c>
       <c r="R83">
-        <v>32.909785</v>
+        <v>34.12738</v>
       </c>
       <c r="S83">
-        <v>231.69483</v>
+        <v>212.44778</v>
       </c>
       <c r="T83">
-        <v>9194.4373</v>
+        <v>9576.4565</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6269,13 +6252,13 @@
         <v>60</v>
       </c>
       <c r="R84">
-        <v>32.909785</v>
+        <v>34.12738</v>
       </c>
       <c r="S84">
-        <v>183.58132</v>
+        <v>168.11381</v>
       </c>
       <c r="T84">
-        <v>7520.2459</v>
+        <v>7850.1158</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6331,13 +6314,13 @@
         <v>60</v>
       </c>
       <c r="R85">
-        <v>36.940221</v>
+        <v>37.620786</v>
       </c>
       <c r="S85">
-        <v>136.47643</v>
+        <v>131.80299</v>
       </c>
       <c r="T85">
-        <v>8411.5283</v>
+        <v>8686.5263</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6393,13 +6376,13 @@
         <v>47</v>
       </c>
       <c r="R86">
-        <v>30.590305</v>
+        <v>31.112374</v>
       </c>
       <c r="S86">
-        <v>283.30263</v>
+        <v>276.33466</v>
       </c>
       <c r="T86">
-        <v>8506.117399999999</v>
+        <v>8725.847100000001</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6455,13 +6438,13 @@
         <v>47</v>
       </c>
       <c r="R87">
-        <v>30.590305</v>
+        <v>31.112374</v>
       </c>
       <c r="S87">
-        <v>225.17608</v>
+        <v>219.50808</v>
       </c>
       <c r="T87">
-        <v>6993.3703</v>
+        <v>7187.3062</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6517,13 +6500,13 @@
         <v>47</v>
       </c>
       <c r="R88">
-        <v>34.048931</v>
+        <v>34.210416</v>
       </c>
       <c r="S88">
-        <v>172.218</v>
+        <v>173.73483</v>
       </c>
       <c r="T88">
-        <v>7550.5101</v>
+        <v>7704.1233</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6579,13 +6562,13 @@
         <v>47</v>
       </c>
       <c r="R89">
-        <v>32.909785</v>
+        <v>34.12738</v>
       </c>
       <c r="S89">
-        <v>231.69483</v>
+        <v>212.44778</v>
       </c>
       <c r="T89">
-        <v>9194.4373</v>
+        <v>9576.4565</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6641,13 +6624,13 @@
         <v>47</v>
       </c>
       <c r="R90">
-        <v>32.909785</v>
+        <v>34.12738</v>
       </c>
       <c r="S90">
-        <v>183.58132</v>
+        <v>168.11381</v>
       </c>
       <c r="T90">
-        <v>7520.2459</v>
+        <v>7850.1158</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6703,13 +6686,13 @@
         <v>47</v>
       </c>
       <c r="R91">
-        <v>36.940221</v>
+        <v>37.620786</v>
       </c>
       <c r="S91">
-        <v>136.47643</v>
+        <v>131.80299</v>
       </c>
       <c r="T91">
-        <v>8411.5283</v>
+        <v>8686.5263</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6765,13 +6748,13 @@
         <v>60</v>
       </c>
       <c r="R92">
-        <v>30.17907</v>
+        <v>29.268298</v>
       </c>
       <c r="S92">
-        <v>355.02623</v>
+        <v>399.19041</v>
       </c>
       <c r="T92">
-        <v>9741.061100000001</v>
+        <v>9856.226000000001</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6827,13 +6810,13 @@
         <v>60</v>
       </c>
       <c r="R93">
-        <v>30.17907</v>
+        <v>29.268298</v>
       </c>
       <c r="S93">
-        <v>281.56412</v>
+        <v>317.45943</v>
       </c>
       <c r="T93">
-        <v>8070.3604</v>
+        <v>8182.64</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6889,13 +6872,13 @@
         <v>60</v>
       </c>
       <c r="R94">
-        <v>31.026061</v>
+        <v>30.07547</v>
       </c>
       <c r="S94">
-        <v>278.58352</v>
+        <v>313.75297</v>
       </c>
       <c r="T94">
-        <v>8376.563700000001</v>
+        <v>8463.1554</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6951,13 +6934,13 @@
         <v>60</v>
       </c>
       <c r="R95">
-        <v>37.963125</v>
+        <v>38.439683</v>
       </c>
       <c r="S95">
-        <v>179.49993</v>
+        <v>175.69421</v>
       </c>
       <c r="T95">
-        <v>11681.469</v>
+        <v>11961.953</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -7013,13 +6996,13 @@
         <v>60</v>
       </c>
       <c r="R96">
-        <v>37.963125</v>
+        <v>38.439683</v>
       </c>
       <c r="S96">
-        <v>141.57411</v>
+        <v>138.60514</v>
       </c>
       <c r="T96">
-        <v>9701.3145</v>
+        <v>9955.0656</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7075,13 +7058,13 @@
         <v>60</v>
       </c>
       <c r="R97">
-        <v>39.62387</v>
+        <v>40.081587</v>
       </c>
       <c r="S97">
-        <v>130.03973</v>
+        <v>127.15532</v>
       </c>
       <c r="T97">
-        <v>10168.437</v>
+        <v>10389.79</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7137,13 +7120,13 @@
         <v>47</v>
       </c>
       <c r="R98">
-        <v>30.17907</v>
+        <v>29.268298</v>
       </c>
       <c r="S98">
-        <v>355.02623</v>
+        <v>399.19041</v>
       </c>
       <c r="T98">
-        <v>9741.061100000001</v>
+        <v>9856.226000000001</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7199,13 +7182,13 @@
         <v>47</v>
       </c>
       <c r="R99">
-        <v>30.17907</v>
+        <v>29.268298</v>
       </c>
       <c r="S99">
-        <v>281.56412</v>
+        <v>317.45943</v>
       </c>
       <c r="T99">
-        <v>8070.3604</v>
+        <v>8182.64</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7261,13 +7244,13 @@
         <v>47</v>
       </c>
       <c r="R100">
-        <v>31.026061</v>
+        <v>30.07547</v>
       </c>
       <c r="S100">
-        <v>278.58352</v>
+        <v>313.75297</v>
       </c>
       <c r="T100">
-        <v>8376.563700000001</v>
+        <v>8463.1554</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7323,13 +7306,13 @@
         <v>47</v>
       </c>
       <c r="R101">
-        <v>37.963125</v>
+        <v>38.439683</v>
       </c>
       <c r="S101">
-        <v>179.49993</v>
+        <v>175.69421</v>
       </c>
       <c r="T101">
-        <v>11681.469</v>
+        <v>11961.953</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7385,13 +7368,13 @@
         <v>47</v>
       </c>
       <c r="R102">
-        <v>37.963125</v>
+        <v>38.439683</v>
       </c>
       <c r="S102">
-        <v>141.57411</v>
+        <v>138.60514</v>
       </c>
       <c r="T102">
-        <v>9701.3145</v>
+        <v>9955.0656</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7446,19 +7429,19 @@
       <c r="Q103" t="s">
         <v>47</v>
       </c>
-      <c r="R103" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S103" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T103" s="2" t="s">
-        <v>170</v>
+      <c r="R103">
+        <v>40.081587</v>
+      </c>
+      <c r="S103">
+        <v>127.15532</v>
+      </c>
+      <c r="T103">
+        <v>10389.79</v>
       </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
@@ -7508,19 +7491,19 @@
       <c r="Q104" t="s">
         <v>35</v>
       </c>
-      <c r="R104" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S104" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T104" s="2" t="s">
-        <v>170</v>
+      <c r="R104">
+        <v>38.979418</v>
+      </c>
+      <c r="S104">
+        <v>139.49509</v>
+      </c>
+      <c r="T104">
+        <v>10389.923</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -7570,19 +7553,19 @@
       <c r="Q105" t="s">
         <v>47</v>
       </c>
-      <c r="R105" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S105" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T105" s="2" t="s">
-        <v>170</v>
+      <c r="R105">
+        <v>29.147105</v>
+      </c>
+      <c r="S105">
+        <v>566.5159200000001</v>
+      </c>
+      <c r="T105">
+        <v>13483.867</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -7632,19 +7615,19 @@
       <c r="Q106" t="s">
         <v>47</v>
       </c>
-      <c r="R106" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>170</v>
+      <c r="R106">
+        <v>40.815807</v>
+      </c>
+      <c r="S106">
+        <v>195.24901</v>
+      </c>
+      <c r="T106">
+        <v>16757.722</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
         <v>51</v>
@@ -7694,19 +7677,19 @@
       <c r="Q107" t="s">
         <v>60</v>
       </c>
-      <c r="R107" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S107" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>170</v>
+      <c r="R107">
+        <v>34.421654</v>
+      </c>
+      <c r="S107">
+        <v>126.94782</v>
+      </c>
+      <c r="T107">
+        <v>5964.4</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
         <v>51</v>
@@ -7756,19 +7739,19 @@
       <c r="Q108" t="s">
         <v>60</v>
       </c>
-      <c r="R108" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S108" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>170</v>
+      <c r="R108">
+        <v>38.171999</v>
+      </c>
+      <c r="S108">
+        <v>96.14154499999999</v>
+      </c>
+      <c r="T108">
+        <v>6886.9646</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" t="s">
         <v>63</v>
@@ -7818,19 +7801,19 @@
       <c r="Q109" t="s">
         <v>60</v>
       </c>
-      <c r="R109" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S109" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T109" s="2" t="s">
-        <v>170</v>
+      <c r="R109">
+        <v>34.601036</v>
+      </c>
+      <c r="S109">
+        <v>134.59043</v>
+      </c>
+      <c r="T109">
+        <v>6451.8856</v>
       </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B110" t="s">
         <v>63</v>
@@ -7880,19 +7863,19 @@
       <c r="Q110" t="s">
         <v>60</v>
       </c>
-      <c r="R110" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S110" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T110" s="2" t="s">
-        <v>170</v>
+      <c r="R110">
+        <v>38.972244</v>
+      </c>
+      <c r="S110">
+        <v>96.673913</v>
+      </c>
+      <c r="T110">
+        <v>7558.6793</v>
       </c>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -7942,19 +7925,19 @@
       <c r="Q111" t="s">
         <v>60</v>
       </c>
-      <c r="R111" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T111" s="2" t="s">
-        <v>170</v>
+      <c r="R111">
+        <v>29.978123</v>
+      </c>
+      <c r="S111">
+        <v>251.96033</v>
+      </c>
+      <c r="T111">
+        <v>7015.8943</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
@@ -8004,19 +7987,19 @@
       <c r="Q112" t="s">
         <v>60</v>
       </c>
-      <c r="R112" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S112" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T112" s="2" t="s">
-        <v>170</v>
+      <c r="R112">
+        <v>40.33997</v>
+      </c>
+      <c r="S112">
+        <v>98.106632</v>
+      </c>
+      <c r="T112">
+        <v>8673.264300000001</v>
       </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -8066,19 +8049,19 @@
       <c r="Q113" t="s">
         <v>47</v>
       </c>
-      <c r="R113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T113" s="2" t="s">
-        <v>170</v>
+      <c r="R113">
+        <v>29.147105</v>
+      </c>
+      <c r="S113">
+        <v>451.49117</v>
+      </c>
+      <c r="T113">
+        <v>11257.954</v>
       </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -8128,19 +8111,19 @@
       <c r="Q114" t="s">
         <v>47</v>
       </c>
-      <c r="R114" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S114" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T114" s="2" t="s">
-        <v>170</v>
+      <c r="R114">
+        <v>29.644405</v>
+      </c>
+      <c r="S114">
+        <v>452.90541</v>
+      </c>
+      <c r="T114">
+        <v>11407.711</v>
       </c>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -8190,19 +8173,19 @@
       <c r="Q115" t="s">
         <v>47</v>
       </c>
-      <c r="R115" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S115" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T115" s="2" t="s">
-        <v>170</v>
+      <c r="R115">
+        <v>29.644405</v>
+      </c>
+      <c r="S115">
+        <v>360.78346</v>
+      </c>
+      <c r="T115">
+        <v>9522.476699999999</v>
       </c>
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -8252,19 +8235,19 @@
       <c r="Q116" t="s">
         <v>47</v>
       </c>
-      <c r="R116" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S116" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T116" s="2" t="s">
-        <v>170</v>
+      <c r="R116">
+        <v>40.815807</v>
+      </c>
+      <c r="S116">
+        <v>154.00624</v>
+      </c>
+      <c r="T116">
+        <v>14044.859</v>
       </c>
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -8314,19 +8297,19 @@
       <c r="Q117" t="s">
         <v>47</v>
       </c>
-      <c r="R117" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S117" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T117" s="2" t="s">
-        <v>170</v>
+      <c r="R117">
+        <v>42.188672</v>
+      </c>
+      <c r="S117">
+        <v>143.01562</v>
+      </c>
+      <c r="T117">
+        <v>14320.881</v>
       </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -8376,19 +8359,19 @@
       <c r="Q118" t="s">
         <v>47</v>
       </c>
-      <c r="R118" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S118" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T118" s="2" t="s">
-        <v>170</v>
+      <c r="R118">
+        <v>42.188672</v>
+      </c>
+      <c r="S118">
+        <v>112.73555</v>
+      </c>
+      <c r="T118">
+        <v>12005.412</v>
       </c>
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B119" t="s">
         <v>51</v>
@@ -8438,19 +8421,19 @@
       <c r="Q119" t="s">
         <v>60</v>
       </c>
-      <c r="R119" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S119" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T119" s="2" t="s">
-        <v>170</v>
+      <c r="R119">
+        <v>31.540523</v>
+      </c>
+      <c r="S119">
+        <v>250.85928</v>
+      </c>
+      <c r="T119">
+        <v>8211.190699999999</v>
       </c>
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B120" t="s">
         <v>51</v>
@@ -8500,19 +8483,19 @@
       <c r="Q120" t="s">
         <v>60</v>
       </c>
-      <c r="R120" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S120" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T120" s="2" t="s">
-        <v>170</v>
+      <c r="R120">
+        <v>31.540523</v>
+      </c>
+      <c r="S120">
+        <v>199.15463</v>
+      </c>
+      <c r="T120">
+        <v>6780.429</v>
       </c>
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B121" t="s">
         <v>51</v>
@@ -8562,19 +8545,19 @@
       <c r="Q121" t="s">
         <v>60</v>
       </c>
-      <c r="R121" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S121" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T121" s="2" t="s">
-        <v>170</v>
+      <c r="R121">
+        <v>34.421654</v>
+      </c>
+      <c r="S121">
+        <v>160.61534</v>
+      </c>
+      <c r="T121">
+        <v>7223.9568</v>
       </c>
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B122" t="s">
         <v>51</v>
@@ -8624,19 +8607,19 @@
       <c r="Q122" t="s">
         <v>60</v>
       </c>
-      <c r="R122" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S122" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T122" s="2" t="s">
-        <v>170</v>
+      <c r="R122">
+        <v>34.982442</v>
+      </c>
+      <c r="S122">
+        <v>192.18072</v>
+      </c>
+      <c r="T122">
+        <v>9278.163399999999</v>
       </c>
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B123" t="s">
         <v>51</v>
@@ -8686,19 +8669,19 @@
       <c r="Q123" t="s">
         <v>60</v>
       </c>
-      <c r="R123" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S123" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T123" s="2" t="s">
-        <v>170</v>
+      <c r="R123">
+        <v>34.982442</v>
+      </c>
+      <c r="S123">
+        <v>152.05359</v>
+      </c>
+      <c r="T123">
+        <v>7655.4152</v>
       </c>
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B124" t="s">
         <v>51</v>
@@ -8748,19 +8731,19 @@
       <c r="Q124" t="s">
         <v>60</v>
       </c>
-      <c r="R124" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S124" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T124" s="2" t="s">
-        <v>170</v>
+      <c r="R124">
+        <v>38.171999</v>
+      </c>
+      <c r="S124">
+        <v>121.92254</v>
+      </c>
+      <c r="T124">
+        <v>8331.7989</v>
       </c>
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B125" t="s">
         <v>51</v>
@@ -8810,19 +8793,19 @@
       <c r="Q125" t="s">
         <v>47</v>
       </c>
-      <c r="R125" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S125" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T125" s="2" t="s">
-        <v>170</v>
+      <c r="R125">
+        <v>31.540523</v>
+      </c>
+      <c r="S125">
+        <v>250.85928</v>
+      </c>
+      <c r="T125">
+        <v>8211.190699999999</v>
       </c>
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" t="s">
         <v>51</v>
@@ -8872,19 +8855,19 @@
       <c r="Q126" t="s">
         <v>47</v>
       </c>
-      <c r="R126" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S126" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T126" s="2" t="s">
-        <v>170</v>
+      <c r="R126">
+        <v>31.540523</v>
+      </c>
+      <c r="S126">
+        <v>199.15463</v>
+      </c>
+      <c r="T126">
+        <v>6780.429</v>
       </c>
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B127" t="s">
         <v>51</v>
@@ -8934,19 +8917,19 @@
       <c r="Q127" t="s">
         <v>47</v>
       </c>
-      <c r="R127" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S127" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T127" s="2" t="s">
-        <v>170</v>
+      <c r="R127">
+        <v>34.421654</v>
+      </c>
+      <c r="S127">
+        <v>160.61534</v>
+      </c>
+      <c r="T127">
+        <v>7223.9568</v>
       </c>
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B128" t="s">
         <v>51</v>
@@ -8996,19 +8979,19 @@
       <c r="Q128" t="s">
         <v>47</v>
       </c>
-      <c r="R128" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S128" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T128" s="2" t="s">
-        <v>170</v>
+      <c r="R128">
+        <v>34.982442</v>
+      </c>
+      <c r="S128">
+        <v>192.18072</v>
+      </c>
+      <c r="T128">
+        <v>9278.163399999999</v>
       </c>
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B129" t="s">
         <v>51</v>
@@ -9058,19 +9041,19 @@
       <c r="Q129" t="s">
         <v>47</v>
       </c>
-      <c r="R129" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S129" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T129" s="2" t="s">
-        <v>170</v>
+      <c r="R129">
+        <v>34.982442</v>
+      </c>
+      <c r="S129">
+        <v>152.05359</v>
+      </c>
+      <c r="T129">
+        <v>7655.4152</v>
       </c>
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B130" t="s">
         <v>51</v>
@@ -9120,19 +9103,19 @@
       <c r="Q130" t="s">
         <v>47</v>
       </c>
-      <c r="R130" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S130" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T130" s="2" t="s">
-        <v>170</v>
+      <c r="R130">
+        <v>38.171999</v>
+      </c>
+      <c r="S130">
+        <v>121.92254</v>
+      </c>
+      <c r="T130">
+        <v>8331.7989</v>
       </c>
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B131" t="s">
         <v>63</v>
@@ -9182,19 +9165,19 @@
       <c r="Q131" t="s">
         <v>60</v>
       </c>
-      <c r="R131" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S131" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T131" s="2" t="s">
-        <v>170</v>
+      <c r="R131">
+        <v>31.793179</v>
+      </c>
+      <c r="S131">
+        <v>265.23109</v>
+      </c>
+      <c r="T131">
+        <v>8930.340099999999</v>
       </c>
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B132" t="s">
         <v>63</v>
@@ -9244,19 +9227,19 @@
       <c r="Q132" t="s">
         <v>60</v>
       </c>
-      <c r="R132" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S132" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T132" s="2" t="s">
-        <v>170</v>
+      <c r="R132">
+        <v>31.793179</v>
+      </c>
+      <c r="S132">
+        <v>210.60374</v>
+      </c>
+      <c r="T132">
+        <v>7376.3028</v>
       </c>
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B133" t="s">
         <v>63</v>
@@ -9306,19 +9289,19 @@
       <c r="Q133" t="s">
         <v>60</v>
       </c>
-      <c r="R133" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S133" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T133" s="2" t="s">
-        <v>170</v>
+      <c r="R133">
+        <v>34.601036</v>
+      </c>
+      <c r="S133">
+        <v>170.29013</v>
+      </c>
+      <c r="T133">
+        <v>7814.2236</v>
       </c>
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B134" t="s">
         <v>63</v>
@@ -9368,19 +9351,19 @@
       <c r="Q134" t="s">
         <v>60</v>
       </c>
-      <c r="R134" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S134" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T134" s="2" t="s">
-        <v>170</v>
+      <c r="R134">
+        <v>36.195686</v>
+      </c>
+      <c r="S134">
+        <v>186.89768</v>
+      </c>
+      <c r="T134">
+        <v>10291.143</v>
       </c>
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B135" t="s">
         <v>63</v>
@@ -9430,19 +9413,19 @@
       <c r="Q135" t="s">
         <v>60</v>
       </c>
-      <c r="R135" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S135" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T135" s="2" t="s">
-        <v>170</v>
+      <c r="R135">
+        <v>36.195686</v>
+      </c>
+      <c r="S135">
+        <v>147.74129</v>
+      </c>
+      <c r="T135">
+        <v>8500.829100000001</v>
       </c>
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B136" t="s">
         <v>63</v>
@@ -9492,19 +9475,19 @@
       <c r="Q136" t="s">
         <v>60</v>
       </c>
-      <c r="R136" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S136" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T136" s="2" t="s">
-        <v>170</v>
+      <c r="R136">
+        <v>38.972244</v>
+      </c>
+      <c r="S136">
+        <v>122.6172</v>
+      </c>
+      <c r="T136">
+        <v>9133.945900000001</v>
       </c>
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B137" t="s">
         <v>63</v>
@@ -9554,19 +9537,19 @@
       <c r="Q137" t="s">
         <v>47</v>
       </c>
-      <c r="R137" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S137" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T137" s="2" t="s">
-        <v>170</v>
+      <c r="R137">
+        <v>31.793179</v>
+      </c>
+      <c r="S137">
+        <v>265.23109</v>
+      </c>
+      <c r="T137">
+        <v>8930.340099999999</v>
       </c>
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B138" t="s">
         <v>63</v>
@@ -9616,19 +9599,19 @@
       <c r="Q138" t="s">
         <v>47</v>
       </c>
-      <c r="R138" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S138" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T138" s="2" t="s">
-        <v>170</v>
+      <c r="R138">
+        <v>31.793179</v>
+      </c>
+      <c r="S138">
+        <v>210.60374</v>
+      </c>
+      <c r="T138">
+        <v>7376.3028</v>
       </c>
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -9678,19 +9661,19 @@
       <c r="Q139" t="s">
         <v>47</v>
       </c>
-      <c r="R139" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S139" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T139" s="2" t="s">
-        <v>170</v>
+      <c r="R139">
+        <v>34.601036</v>
+      </c>
+      <c r="S139">
+        <v>170.29013</v>
+      </c>
+      <c r="T139">
+        <v>7814.2236</v>
       </c>
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B140" t="s">
         <v>63</v>
@@ -9740,19 +9723,19 @@
       <c r="Q140" t="s">
         <v>47</v>
       </c>
-      <c r="R140" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S140" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T140" s="2" t="s">
-        <v>170</v>
+      <c r="R140">
+        <v>36.195686</v>
+      </c>
+      <c r="S140">
+        <v>186.89768</v>
+      </c>
+      <c r="T140">
+        <v>10291.143</v>
       </c>
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -9802,19 +9785,19 @@
       <c r="Q141" t="s">
         <v>47</v>
       </c>
-      <c r="R141" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S141" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T141" s="2" t="s">
-        <v>170</v>
+      <c r="R141">
+        <v>36.195686</v>
+      </c>
+      <c r="S141">
+        <v>147.74129</v>
+      </c>
+      <c r="T141">
+        <v>8500.829100000001</v>
       </c>
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
@@ -9864,19 +9847,19 @@
       <c r="Q142" t="s">
         <v>47</v>
       </c>
-      <c r="R142" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S142" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T142" s="2" t="s">
-        <v>170</v>
+      <c r="R142">
+        <v>38.972244</v>
+      </c>
+      <c r="S142">
+        <v>122.6172</v>
+      </c>
+      <c r="T142">
+        <v>9133.945900000001</v>
       </c>
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
         <v>69</v>
@@ -9926,19 +9909,19 @@
       <c r="Q143" t="s">
         <v>60</v>
       </c>
-      <c r="R143" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S143" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T143" s="2" t="s">
-        <v>170</v>
+      <c r="R143">
+        <v>29.158305</v>
+      </c>
+      <c r="S143">
+        <v>404.11876</v>
+      </c>
+      <c r="T143">
+        <v>9833.5178</v>
       </c>
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B144" t="s">
         <v>69</v>
@@ -9988,19 +9971,19 @@
       <c r="Q144" t="s">
         <v>60</v>
       </c>
-      <c r="R144" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S144" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T144" s="2" t="s">
-        <v>170</v>
+      <c r="R144">
+        <v>29.158305</v>
+      </c>
+      <c r="S144">
+        <v>321.59602</v>
+      </c>
+      <c r="T144">
+        <v>8170.7384</v>
       </c>
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B145" t="s">
         <v>69</v>
@@ -10050,19 +10033,19 @@
       <c r="Q145" t="s">
         <v>60</v>
       </c>
-      <c r="R145" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S145" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T145" s="2" t="s">
-        <v>170</v>
+      <c r="R145">
+        <v>29.978123</v>
+      </c>
+      <c r="S145">
+        <v>317.07272</v>
+      </c>
+      <c r="T145">
+        <v>8445.5188</v>
       </c>
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B146" t="s">
         <v>69</v>
@@ -10112,19 +10095,19 @@
       <c r="Q146" t="s">
         <v>60</v>
       </c>
-      <c r="R146" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S146" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T146" s="2" t="s">
-        <v>170</v>
+      <c r="R146">
+        <v>38.796628</v>
+      </c>
+      <c r="S146">
+        <v>170.58938</v>
+      </c>
+      <c r="T146">
+        <v>11986.814</v>
       </c>
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B147" t="s">
         <v>69</v>
@@ -10174,19 +10157,19 @@
       <c r="Q147" t="s">
         <v>60</v>
       </c>
-      <c r="R147" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S147" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T147" s="2" t="s">
-        <v>170</v>
+      <c r="R147">
+        <v>38.796628</v>
+      </c>
+      <c r="S147">
+        <v>134.57961</v>
+      </c>
+      <c r="T147">
+        <v>9993.0707</v>
       </c>
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B148" t="s">
         <v>69</v>
@@ -10236,19 +10219,19 @@
       <c r="Q148" t="s">
         <v>60</v>
       </c>
-      <c r="R148" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S148" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T148" s="2" t="s">
-        <v>170</v>
+      <c r="R148">
+        <v>40.33997</v>
+      </c>
+      <c r="S148">
+        <v>124.47483</v>
+      </c>
+      <c r="T148">
+        <v>10401.748</v>
       </c>
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B149" t="s">
         <v>69</v>
@@ -10298,19 +10281,19 @@
       <c r="Q149" t="s">
         <v>47</v>
       </c>
-      <c r="R149" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S149" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T149" s="2" t="s">
-        <v>170</v>
+      <c r="R149">
+        <v>29.158305</v>
+      </c>
+      <c r="S149">
+        <v>404.11876</v>
+      </c>
+      <c r="T149">
+        <v>9833.5178</v>
       </c>
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B150" t="s">
         <v>69</v>
@@ -10360,19 +10343,19 @@
       <c r="Q150" t="s">
         <v>47</v>
       </c>
-      <c r="R150" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S150" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T150" s="2" t="s">
-        <v>170</v>
+      <c r="R150">
+        <v>29.158305</v>
+      </c>
+      <c r="S150">
+        <v>321.59602</v>
+      </c>
+      <c r="T150">
+        <v>8170.7384</v>
       </c>
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B151" t="s">
         <v>69</v>
@@ -10422,19 +10405,19 @@
       <c r="Q151" t="s">
         <v>47</v>
       </c>
-      <c r="R151" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S151" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T151" s="2" t="s">
-        <v>170</v>
+      <c r="R151">
+        <v>29.978123</v>
+      </c>
+      <c r="S151">
+        <v>317.07272</v>
+      </c>
+      <c r="T151">
+        <v>8445.5188</v>
       </c>
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B152" t="s">
         <v>69</v>
@@ -10484,19 +10467,19 @@
       <c r="Q152" t="s">
         <v>47</v>
       </c>
-      <c r="R152" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S152" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T152" s="2" t="s">
-        <v>170</v>
+      <c r="R152">
+        <v>38.796628</v>
+      </c>
+      <c r="S152">
+        <v>170.58938</v>
+      </c>
+      <c r="T152">
+        <v>11986.814</v>
       </c>
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B153" t="s">
         <v>69</v>
@@ -10546,19 +10529,19 @@
       <c r="Q153" t="s">
         <v>47</v>
       </c>
-      <c r="R153" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S153" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T153" s="2" t="s">
-        <v>170</v>
+      <c r="R153">
+        <v>38.796628</v>
+      </c>
+      <c r="S153">
+        <v>134.57961</v>
+      </c>
+      <c r="T153">
+        <v>9993.0707</v>
       </c>
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B154" t="s">
         <v>69</v>
@@ -10608,14 +10591,14 @@
       <c r="Q154" t="s">
         <v>47</v>
       </c>
-      <c r="R154" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S154" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T154" s="2" t="s">
-        <v>170</v>
+      <c r="R154">
+        <v>40.33997</v>
+      </c>
+      <c r="S154">
+        <v>124.47483</v>
+      </c>
+      <c r="T154">
+        <v>10401.748</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="1" customFormat="1">
@@ -10682,40 +10665,40 @@
     </row>
     <row r="156" spans="1:20" s="1" customFormat="1">
       <c r="Q156" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R156" s="1">
-        <v>26.664905</v>
+        <v>25.942959</v>
       </c>
       <c r="S156" s="1">
-        <v>77.277822</v>
+        <v>75.420756</v>
       </c>
       <c r="T156" s="1">
-        <v>5428.6568</v>
+        <v>5460.1889</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
       <c r="Q157" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R157" s="1">
-        <v>42.285652</v>
+        <v>42.667615</v>
       </c>
       <c r="S157" s="1">
-        <v>546.58714</v>
+        <v>619.31131</v>
       </c>
       <c r="T157" s="1">
-        <v>16372.154</v>
+        <v>16757.722</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
       <c r="Q158" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="159" spans="1:20" s="1" customFormat="1">
       <c r="Q159" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R159" s="1">
         <v>20</v>
@@ -10729,12 +10712,12 @@
     </row>
     <row r="160" spans="1:20" s="1" customFormat="1">
       <c r="Q160" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="17:20" s="1" customFormat="1">
       <c r="Q161" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R161" s="1">
         <v>20</v>
@@ -10748,44 +10731,44 @@
     </row>
     <row r="162" spans="17:20" s="1" customFormat="1">
       <c r="Q162" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R162" s="1">
-        <v>34.34022217821782</v>
+        <v>34.65628020915033</v>
       </c>
       <c r="S162" s="1">
-        <v>203.4859467326733</v>
+        <v>209.131232267974</v>
       </c>
       <c r="T162" s="1">
-        <v>8553.413898019802</v>
+        <v>8892.66772810457</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
       <c r="Q163" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R163" s="1">
-        <v>4.170685113144034</v>
+        <v>4.373178253861012</v>
       </c>
       <c r="S163" s="1">
-        <v>98.71613058350026</v>
+        <v>112.4855431069056</v>
       </c>
       <c r="T163" s="1">
-        <v>2178.863741450808</v>
+        <v>2219.731943607706</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
       <c r="Q164" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R164" s="1">
-        <v>12.14518965980809</v>
+        <v>12.61871795665582</v>
       </c>
       <c r="S164" s="1">
-        <v>48.5125052459702</v>
+        <v>53.7870608263668</v>
       </c>
       <c r="T164" s="1">
-        <v>25.47361518370152</v>
+        <v>24.96137280146451</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="231">
   <si>
     <t>Process</t>
   </si>
@@ -704,13 +704,16 @@
   </si>
   <si>
     <t>Rel. Std. Dev. %</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,13 +729,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -747,9 +763,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,14 +1184,14 @@
       <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="R2">
-        <v>39.101105</v>
-      </c>
-      <c r="S2">
-        <v>128.25569</v>
-      </c>
-      <c r="T2">
-        <v>9677.0267</v>
+      <c r="R2" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1229,14 +1246,14 @@
       <c r="Q3" t="s">
         <v>47</v>
       </c>
-      <c r="R3">
-        <v>27.240891</v>
-      </c>
-      <c r="S3">
-        <v>619.31131</v>
-      </c>
-      <c r="T3">
-        <v>12305.843</v>
+      <c r="R3" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1291,14 +1308,14 @@
       <c r="Q4" t="s">
         <v>47</v>
       </c>
-      <c r="R4">
-        <v>41.154181</v>
-      </c>
-      <c r="S4">
-        <v>180.78315</v>
-      </c>
-      <c r="T4">
-        <v>16014.854</v>
+      <c r="R4" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1353,14 +1370,14 @@
       <c r="Q5" t="s">
         <v>60</v>
       </c>
-      <c r="R5">
-        <v>34.325569</v>
-      </c>
-      <c r="S5">
-        <v>117.29176</v>
-      </c>
-      <c r="T5">
-        <v>5460.1889</v>
+      <c r="R5" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1415,14 +1432,14 @@
       <c r="Q6" t="s">
         <v>60</v>
       </c>
-      <c r="R6">
-        <v>38.428179</v>
-      </c>
-      <c r="S6">
-        <v>75.420756</v>
-      </c>
-      <c r="T6">
-        <v>5630.1128</v>
+      <c r="R6" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1477,14 +1494,14 @@
       <c r="Q7" t="s">
         <v>60</v>
       </c>
-      <c r="R7">
-        <v>34.901847</v>
-      </c>
-      <c r="S7">
-        <v>129.99115</v>
-      </c>
-      <c r="T7">
-        <v>6389.9521</v>
+      <c r="R7" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1539,14 +1556,14 @@
       <c r="Q8" t="s">
         <v>60</v>
       </c>
-      <c r="R8">
-        <v>40.245981</v>
-      </c>
-      <c r="S8">
-        <v>85.174786</v>
-      </c>
-      <c r="T8">
-        <v>7507.0831</v>
+      <c r="R8" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1601,14 +1618,14 @@
       <c r="Q9" t="s">
         <v>60</v>
       </c>
-      <c r="R9">
-        <v>27.02777</v>
-      </c>
-      <c r="S9">
-        <v>288.68791</v>
-      </c>
-      <c r="T9">
-        <v>5937.8192</v>
+      <c r="R9" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1663,14 +1680,14 @@
       <c r="Q10" t="s">
         <v>60</v>
       </c>
-      <c r="R10">
-        <v>39.588307</v>
-      </c>
-      <c r="S10">
-        <v>82.00507899999999</v>
-      </c>
-      <c r="T10">
-        <v>6890.7434</v>
+      <c r="R10" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1725,14 +1742,14 @@
       <c r="Q11" t="s">
         <v>47</v>
       </c>
-      <c r="R11">
-        <v>27.240891</v>
-      </c>
-      <c r="S11">
-        <v>495.88285</v>
-      </c>
-      <c r="T11">
-        <v>10231.196</v>
+      <c r="R11" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1787,14 +1804,14 @@
       <c r="Q12" t="s">
         <v>47</v>
       </c>
-      <c r="R12">
-        <v>28.259452</v>
-      </c>
-      <c r="S12">
-        <v>481.94871</v>
-      </c>
-      <c r="T12">
-        <v>10657.152</v>
+      <c r="R12" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1849,14 +1866,14 @@
       <c r="Q13" t="s">
         <v>47</v>
       </c>
-      <c r="R13">
-        <v>28.259452</v>
-      </c>
-      <c r="S13">
-        <v>385.40259</v>
-      </c>
-      <c r="T13">
-        <v>8870.502200000001</v>
+      <c r="R13" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1911,14 +1928,14 @@
       <c r="Q14" t="s">
         <v>47</v>
       </c>
-      <c r="R14">
-        <v>41.154181</v>
-      </c>
-      <c r="S14">
-        <v>142.70535</v>
-      </c>
-      <c r="T14">
-        <v>13443.09</v>
+      <c r="R14" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1973,14 +1990,14 @@
       <c r="Q15" t="s">
         <v>47</v>
       </c>
-      <c r="R15">
-        <v>42.667615</v>
-      </c>
-      <c r="S15">
-        <v>132.28025</v>
-      </c>
-      <c r="T15">
-        <v>13846.62</v>
+      <c r="R15" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2035,14 +2052,14 @@
       <c r="Q16" t="s">
         <v>47</v>
       </c>
-      <c r="R16">
-        <v>42.667615</v>
-      </c>
-      <c r="S16">
-        <v>104.32915</v>
-      </c>
-      <c r="T16">
-        <v>11630.62</v>
+      <c r="R16" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2097,14 +2114,14 @@
       <c r="Q17" t="s">
         <v>60</v>
       </c>
-      <c r="R17">
-        <v>32.203877</v>
-      </c>
-      <c r="S17">
-        <v>212.70806</v>
-      </c>
-      <c r="T17">
-        <v>7493.8894</v>
+      <c r="R17" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2159,14 +2176,14 @@
       <c r="Q18" t="s">
         <v>60</v>
       </c>
-      <c r="R18">
-        <v>32.203877</v>
-      </c>
-      <c r="S18">
-        <v>168.63674</v>
-      </c>
-      <c r="T18">
-        <v>6185.4567</v>
+      <c r="R18" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2221,14 +2238,14 @@
       <c r="Q19" t="s">
         <v>60</v>
       </c>
-      <c r="R19">
-        <v>34.325569</v>
-      </c>
-      <c r="S19">
-        <v>148.33581</v>
-      </c>
-      <c r="T19">
-        <v>6615.1139</v>
+      <c r="R19" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2283,14 +2300,14 @@
       <c r="Q20" t="s">
         <v>60</v>
       </c>
-      <c r="R20">
-        <v>36.601687</v>
-      </c>
-      <c r="S20">
-        <v>133.09937</v>
-      </c>
-      <c r="T20">
-        <v>7746.3192</v>
+      <c r="R20" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2345,14 +2362,14 @@
       <c r="Q21" t="s">
         <v>60</v>
       </c>
-      <c r="R21">
-        <v>36.601687</v>
-      </c>
-      <c r="S21">
-        <v>105.04701</v>
-      </c>
-      <c r="T21">
-        <v>6380.0466</v>
+      <c r="R21" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2407,14 +2424,14 @@
       <c r="Q22" t="s">
         <v>60</v>
       </c>
-      <c r="R22">
-        <v>38.428179</v>
-      </c>
-      <c r="S22">
-        <v>95.668673</v>
-      </c>
-      <c r="T22">
-        <v>6833.9022</v>
+      <c r="R22" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2469,14 +2486,14 @@
       <c r="Q23" t="s">
         <v>47</v>
       </c>
-      <c r="R23">
-        <v>32.203877</v>
-      </c>
-      <c r="S23">
-        <v>212.70806</v>
-      </c>
-      <c r="T23">
-        <v>7493.8894</v>
+      <c r="R23" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2531,14 +2548,14 @@
       <c r="Q24" t="s">
         <v>47</v>
       </c>
-      <c r="R24">
-        <v>32.203877</v>
-      </c>
-      <c r="S24">
-        <v>168.63674</v>
-      </c>
-      <c r="T24">
-        <v>6185.4567</v>
+      <c r="R24" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2593,14 +2610,14 @@
       <c r="Q25" t="s">
         <v>47</v>
       </c>
-      <c r="R25">
-        <v>34.325569</v>
-      </c>
-      <c r="S25">
-        <v>148.33581</v>
-      </c>
-      <c r="T25">
-        <v>6615.1139</v>
+      <c r="R25" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2655,14 +2672,14 @@
       <c r="Q26" t="s">
         <v>47</v>
       </c>
-      <c r="R26">
-        <v>36.601687</v>
-      </c>
-      <c r="S26">
-        <v>133.09937</v>
-      </c>
-      <c r="T26">
-        <v>7746.3192</v>
+      <c r="R26" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2717,14 +2734,14 @@
       <c r="Q27" t="s">
         <v>47</v>
       </c>
-      <c r="R27">
-        <v>36.601687</v>
-      </c>
-      <c r="S27">
-        <v>105.04701</v>
-      </c>
-      <c r="T27">
-        <v>6380.0466</v>
+      <c r="R27" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2779,14 +2796,14 @@
       <c r="Q28" t="s">
         <v>47</v>
       </c>
-      <c r="R28">
-        <v>38.428179</v>
-      </c>
-      <c r="S28">
-        <v>95.668673</v>
-      </c>
-      <c r="T28">
-        <v>6833.9022</v>
+      <c r="R28" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2841,14 +2858,14 @@
       <c r="Q29" t="s">
         <v>60</v>
       </c>
-      <c r="R29">
-        <v>32.560192</v>
-      </c>
-      <c r="S29">
-        <v>244.82879</v>
-      </c>
-      <c r="T29">
-        <v>8851.801600000001</v>
+      <c r="R29" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2903,14 +2920,14 @@
       <c r="Q30" t="s">
         <v>60</v>
       </c>
-      <c r="R30">
-        <v>32.560192</v>
-      </c>
-      <c r="S30">
-        <v>194.19194</v>
-      </c>
-      <c r="T30">
-        <v>7331.7635</v>
+      <c r="R30" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2965,14 +2982,14 @@
       <c r="Q31" t="s">
         <v>60</v>
       </c>
-      <c r="R31">
-        <v>34.901847</v>
-      </c>
-      <c r="S31">
-        <v>164.44665</v>
-      </c>
-      <c r="T31">
-        <v>7719.3921</v>
+      <c r="R31" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3027,14 +3044,14 @@
       <c r="Q32" t="s">
         <v>60</v>
       </c>
-      <c r="R32">
-        <v>38.413361</v>
-      </c>
-      <c r="S32">
-        <v>151.1407</v>
-      </c>
-      <c r="T32">
-        <v>10270.363</v>
+      <c r="R32" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3089,14 +3106,14 @@
       <c r="Q33" t="s">
         <v>60</v>
       </c>
-      <c r="R33">
-        <v>38.413361</v>
-      </c>
-      <c r="S33">
-        <v>119.31502</v>
-      </c>
-      <c r="T33">
-        <v>8550.5146</v>
+      <c r="R33" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3151,14 +3168,14 @@
       <c r="Q34" t="s">
         <v>60</v>
       </c>
-      <c r="R34">
-        <v>40.245981</v>
-      </c>
-      <c r="S34">
-        <v>108.05192</v>
-      </c>
-      <c r="T34">
-        <v>9016.0741</v>
+      <c r="R34" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3213,14 +3230,14 @@
       <c r="Q35" t="s">
         <v>47</v>
       </c>
-      <c r="R35">
-        <v>32.560192</v>
-      </c>
-      <c r="S35">
-        <v>244.82879</v>
-      </c>
-      <c r="T35">
-        <v>8851.801600000001</v>
+      <c r="R35" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3275,14 +3292,14 @@
       <c r="Q36" t="s">
         <v>47</v>
       </c>
-      <c r="R36">
-        <v>32.560192</v>
-      </c>
-      <c r="S36">
-        <v>194.19194</v>
-      </c>
-      <c r="T36">
-        <v>7331.7635</v>
+      <c r="R36" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3337,14 +3354,14 @@
       <c r="Q37" t="s">
         <v>47</v>
       </c>
-      <c r="R37">
-        <v>34.901847</v>
-      </c>
-      <c r="S37">
-        <v>164.44665</v>
-      </c>
-      <c r="T37">
-        <v>7719.3921</v>
+      <c r="R37" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S37" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3399,14 +3416,14 @@
       <c r="Q38" t="s">
         <v>47</v>
       </c>
-      <c r="R38">
-        <v>38.413361</v>
-      </c>
-      <c r="S38">
-        <v>151.1407</v>
-      </c>
-      <c r="T38">
-        <v>10270.363</v>
+      <c r="R38" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3461,14 +3478,14 @@
       <c r="Q39" t="s">
         <v>47</v>
       </c>
-      <c r="R39">
-        <v>38.413361</v>
-      </c>
-      <c r="S39">
-        <v>119.31502</v>
-      </c>
-      <c r="T39">
-        <v>8550.5146</v>
+      <c r="R39" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3523,14 +3540,14 @@
       <c r="Q40" t="s">
         <v>47</v>
       </c>
-      <c r="R40">
-        <v>40.245981</v>
-      </c>
-      <c r="S40">
-        <v>108.05192</v>
-      </c>
-      <c r="T40">
-        <v>9016.0741</v>
+      <c r="R40" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S40" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3585,14 +3602,14 @@
       <c r="Q41" t="s">
         <v>60</v>
       </c>
-      <c r="R41">
-        <v>25.942959</v>
-      </c>
-      <c r="S41">
-        <v>459.87978</v>
-      </c>
-      <c r="T41">
-        <v>8154.4576</v>
+      <c r="R41" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S41" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3647,14 +3664,14 @@
       <c r="Q42" t="s">
         <v>60</v>
       </c>
-      <c r="R42">
-        <v>25.942959</v>
-      </c>
-      <c r="S42">
-        <v>369.14181</v>
-      </c>
-      <c r="T42">
-        <v>6741.6283</v>
+      <c r="R42" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S42" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3709,14 +3726,14 @@
       <c r="Q43" t="s">
         <v>60</v>
       </c>
-      <c r="R43">
-        <v>27.02777</v>
-      </c>
-      <c r="S43">
-        <v>360.54321</v>
-      </c>
-      <c r="T43">
-        <v>7181.6226</v>
+      <c r="R43" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S43" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3771,14 +3788,14 @@
       <c r="Q44" t="s">
         <v>60</v>
       </c>
-      <c r="R44">
-        <v>38.014412</v>
-      </c>
-      <c r="S44">
-        <v>141.24157</v>
-      </c>
-      <c r="T44">
-        <v>9502.0527</v>
+      <c r="R44" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S44" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3833,14 +3850,14 @@
       <c r="Q45" t="s">
         <v>60</v>
       </c>
-      <c r="R45">
-        <v>38.014412</v>
-      </c>
-      <c r="S45">
-        <v>111.54853</v>
-      </c>
-      <c r="T45">
-        <v>7858.6536</v>
+      <c r="R45" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S45" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3895,14 +3912,14 @@
       <c r="Q46" t="s">
         <v>60</v>
       </c>
-      <c r="R46">
-        <v>39.588307</v>
-      </c>
-      <c r="S46">
-        <v>103.9315</v>
-      </c>
-      <c r="T46">
-        <v>8326.032300000001</v>
+      <c r="R46" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S46" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3957,14 +3974,14 @@
       <c r="Q47" t="s">
         <v>47</v>
       </c>
-      <c r="R47">
-        <v>25.942959</v>
-      </c>
-      <c r="S47">
-        <v>459.87978</v>
-      </c>
-      <c r="T47">
-        <v>8154.4576</v>
+      <c r="R47" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S47" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4019,14 +4036,14 @@
       <c r="Q48" t="s">
         <v>47</v>
       </c>
-      <c r="R48">
-        <v>25.942959</v>
-      </c>
-      <c r="S48">
-        <v>369.14181</v>
-      </c>
-      <c r="T48">
-        <v>6741.6283</v>
+      <c r="R48" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S48" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4081,14 +4098,14 @@
       <c r="Q49" t="s">
         <v>47</v>
       </c>
-      <c r="R49">
-        <v>27.02777</v>
-      </c>
-      <c r="S49">
-        <v>360.54321</v>
-      </c>
-      <c r="T49">
-        <v>7181.6226</v>
+      <c r="R49" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S49" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4143,14 +4160,14 @@
       <c r="Q50" t="s">
         <v>47</v>
       </c>
-      <c r="R50">
-        <v>38.014412</v>
-      </c>
-      <c r="S50">
-        <v>141.24157</v>
-      </c>
-      <c r="T50">
-        <v>9502.0527</v>
+      <c r="R50" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S50" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4205,14 +4222,14 @@
       <c r="Q51" t="s">
         <v>47</v>
       </c>
-      <c r="R51">
-        <v>38.014412</v>
-      </c>
-      <c r="S51">
-        <v>111.54853</v>
-      </c>
-      <c r="T51">
-        <v>7858.6536</v>
+      <c r="R51" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S51" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4267,14 +4284,14 @@
       <c r="Q52" t="s">
         <v>47</v>
       </c>
-      <c r="R52">
-        <v>39.588307</v>
-      </c>
-      <c r="S52">
-        <v>103.9315</v>
-      </c>
-      <c r="T52">
-        <v>8326.032300000001</v>
+      <c r="R52" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S52" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4329,14 +4346,14 @@
       <c r="Q53" t="s">
         <v>35</v>
       </c>
-      <c r="R53">
-        <v>38.76235</v>
-      </c>
-      <c r="S53">
-        <v>141.34608</v>
-      </c>
-      <c r="T53">
-        <v>10329.244</v>
+      <c r="R53" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S53" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4391,14 +4408,14 @@
       <c r="Q54" t="s">
         <v>47</v>
       </c>
-      <c r="R54">
-        <v>29.166219</v>
-      </c>
-      <c r="S54">
-        <v>565.09061</v>
-      </c>
-      <c r="T54">
-        <v>13484.659</v>
+      <c r="R54" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S54" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4453,14 +4470,14 @@
       <c r="Q55" t="s">
         <v>47</v>
       </c>
-      <c r="R55">
-        <v>40.757504</v>
-      </c>
-      <c r="S55">
-        <v>196.01087</v>
-      </c>
-      <c r="T55">
-        <v>16740.774</v>
+      <c r="R55" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S55" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4515,14 +4532,14 @@
       <c r="Q56" t="s">
         <v>60</v>
       </c>
-      <c r="R56">
-        <v>33.981906</v>
-      </c>
-      <c r="S56">
-        <v>130.30686</v>
-      </c>
-      <c r="T56">
-        <v>5871.5471</v>
+      <c r="R56" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S56" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4577,14 +4594,14 @@
       <c r="Q57" t="s">
         <v>60</v>
       </c>
-      <c r="R57">
-        <v>36.564663</v>
-      </c>
-      <c r="S57">
-        <v>105.47376</v>
-      </c>
-      <c r="T57">
-        <v>6457.3289</v>
+      <c r="R57" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4639,14 +4656,14 @@
       <c r="Q58" t="s">
         <v>60</v>
       </c>
-      <c r="R58">
-        <v>34.210416</v>
-      </c>
-      <c r="S58">
-        <v>137.31434</v>
-      </c>
-      <c r="T58">
-        <v>6346.5626</v>
+      <c r="R58" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4701,14 +4718,14 @@
       <c r="Q59" t="s">
         <v>60</v>
       </c>
-      <c r="R59">
-        <v>37.620786</v>
-      </c>
-      <c r="S59">
-        <v>103.9328</v>
-      </c>
-      <c r="T59">
-        <v>7139.0491</v>
+      <c r="R59" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4763,14 +4780,14 @@
       <c r="Q60" t="s">
         <v>60</v>
       </c>
-      <c r="R60">
-        <v>30.07547</v>
-      </c>
-      <c r="S60">
-        <v>249.17669</v>
-      </c>
-      <c r="T60">
-        <v>7025.7754</v>
+      <c r="R60" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S60" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4825,14 +4842,14 @@
       <c r="Q61" t="s">
         <v>60</v>
       </c>
-      <c r="R61">
-        <v>40.081587</v>
-      </c>
-      <c r="S61">
-        <v>100.21418</v>
-      </c>
-      <c r="T61">
-        <v>8651.7721</v>
+      <c r="R61" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S61" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T61" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4887,14 +4904,14 @@
       <c r="Q62" t="s">
         <v>47</v>
       </c>
-      <c r="R62">
-        <v>29.166219</v>
-      </c>
-      <c r="S62">
-        <v>450.27756</v>
-      </c>
-      <c r="T62">
-        <v>11256.549</v>
+      <c r="R62" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S62" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4949,14 +4966,14 @@
       <c r="Q63" t="s">
         <v>47</v>
       </c>
-      <c r="R63">
-        <v>29.658008</v>
-      </c>
-      <c r="S63">
-        <v>452.0792</v>
-      </c>
-      <c r="T63">
-        <v>11408.921</v>
+      <c r="R63" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S63" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5011,14 +5028,14 @@
       <c r="Q64" t="s">
         <v>47</v>
       </c>
-      <c r="R64">
-        <v>29.658008</v>
-      </c>
-      <c r="S64">
-        <v>360.06814</v>
-      </c>
-      <c r="T64">
-        <v>9521.864</v>
+      <c r="R64" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S64" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5073,14 +5090,14 @@
       <c r="Q65" t="s">
         <v>47</v>
       </c>
-      <c r="R65">
-        <v>40.757504</v>
-      </c>
-      <c r="S65">
-        <v>154.59997</v>
-      </c>
-      <c r="T65">
-        <v>14026.544</v>
+      <c r="R65" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S65" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5135,14 +5152,14 @@
       <c r="Q66" t="s">
         <v>47</v>
       </c>
-      <c r="R66">
-        <v>42.1337</v>
-      </c>
-      <c r="S66">
-        <v>143.57395</v>
-      </c>
-      <c r="T66">
-        <v>14310.108</v>
+      <c r="R66" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S66" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T66" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5197,14 +5214,14 @@
       <c r="Q67" t="s">
         <v>47</v>
       </c>
-      <c r="R67">
-        <v>42.1337</v>
-      </c>
-      <c r="S67">
-        <v>113.17589</v>
-      </c>
-      <c r="T67">
-        <v>11993.211</v>
+      <c r="R67" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S67" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5259,14 +5276,14 @@
       <c r="Q68" t="s">
         <v>60</v>
       </c>
-      <c r="R68">
-        <v>30.76113</v>
-      </c>
-      <c r="S68">
-        <v>264.44053</v>
-      </c>
-      <c r="T68">
-        <v>8032.167</v>
+      <c r="R68" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S68" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T68" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5321,14 +5338,14 @@
       <c r="Q69" t="s">
         <v>60</v>
       </c>
-      <c r="R69">
-        <v>30.76113</v>
-      </c>
-      <c r="S69">
-        <v>210.04637</v>
-      </c>
-      <c r="T69">
-        <v>6613.2769</v>
+      <c r="R69" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S69" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T69" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5383,14 +5400,14 @@
       <c r="Q70" t="s">
         <v>60</v>
       </c>
-      <c r="R70">
-        <v>33.981906</v>
-      </c>
-      <c r="S70">
-        <v>164.85659</v>
-      </c>
-      <c r="T70">
-        <v>7128.7738</v>
+      <c r="R70" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S70" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T70" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5445,14 +5462,14 @@
       <c r="Q71" t="s">
         <v>60</v>
       </c>
-      <c r="R71">
-        <v>32.409974</v>
-      </c>
-      <c r="S71">
-        <v>229.25191</v>
-      </c>
-      <c r="T71">
-        <v>8570.422699999999</v>
+      <c r="R71" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S71" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5507,14 +5524,14 @@
       <c r="Q72" t="s">
         <v>60</v>
       </c>
-      <c r="R72">
-        <v>32.409974</v>
-      </c>
-      <c r="S72">
-        <v>181.70789</v>
-      </c>
-      <c r="T72">
-        <v>7015.7321</v>
+      <c r="R72" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S72" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T72" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5569,14 +5586,14 @@
       <c r="Q73" t="s">
         <v>60</v>
       </c>
-      <c r="R73">
-        <v>36.564663</v>
-      </c>
-      <c r="S73">
-        <v>133.71595</v>
-      </c>
-      <c r="T73">
-        <v>7871.9701</v>
+      <c r="R73" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S73" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5631,14 +5648,14 @@
       <c r="Q74" t="s">
         <v>47</v>
       </c>
-      <c r="R74">
-        <v>30.76113</v>
-      </c>
-      <c r="S74">
-        <v>264.44053</v>
-      </c>
-      <c r="T74">
-        <v>8032.167</v>
+      <c r="R74" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S74" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T74" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5693,14 +5710,14 @@
       <c r="Q75" t="s">
         <v>47</v>
       </c>
-      <c r="R75">
-        <v>30.76113</v>
-      </c>
-      <c r="S75">
-        <v>210.04637</v>
-      </c>
-      <c r="T75">
-        <v>6613.2769</v>
+      <c r="R75" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S75" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T75" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5755,14 +5772,14 @@
       <c r="Q76" t="s">
         <v>47</v>
       </c>
-      <c r="R76">
-        <v>33.981906</v>
-      </c>
-      <c r="S76">
-        <v>164.85659</v>
-      </c>
-      <c r="T76">
-        <v>7128.7738</v>
+      <c r="R76" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S76" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T76" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5817,14 +5834,14 @@
       <c r="Q77" t="s">
         <v>47</v>
       </c>
-      <c r="R77">
-        <v>32.409974</v>
-      </c>
-      <c r="S77">
-        <v>229.25191</v>
-      </c>
-      <c r="T77">
-        <v>8570.422699999999</v>
+      <c r="R77" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S77" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T77" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5879,14 +5896,14 @@
       <c r="Q78" t="s">
         <v>47</v>
       </c>
-      <c r="R78">
-        <v>32.409974</v>
-      </c>
-      <c r="S78">
-        <v>181.70789</v>
-      </c>
-      <c r="T78">
-        <v>7015.7321</v>
+      <c r="R78" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S78" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T78" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5941,14 +5958,14 @@
       <c r="Q79" t="s">
         <v>47</v>
       </c>
-      <c r="R79">
-        <v>36.564663</v>
-      </c>
-      <c r="S79">
-        <v>133.71595</v>
-      </c>
-      <c r="T79">
-        <v>7871.9701</v>
+      <c r="R79" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S79" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T79" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6003,14 +6020,14 @@
       <c r="Q80" t="s">
         <v>60</v>
       </c>
-      <c r="R80">
-        <v>31.112374</v>
-      </c>
-      <c r="S80">
-        <v>276.33466</v>
-      </c>
-      <c r="T80">
-        <v>8725.847100000001</v>
+      <c r="R80" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S80" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T80" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6065,14 +6082,14 @@
       <c r="Q81" t="s">
         <v>60</v>
       </c>
-      <c r="R81">
-        <v>31.112374</v>
-      </c>
-      <c r="S81">
-        <v>219.50808</v>
-      </c>
-      <c r="T81">
-        <v>7187.3062</v>
+      <c r="R81" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S81" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T81" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6127,14 +6144,14 @@
       <c r="Q82" t="s">
         <v>60</v>
       </c>
-      <c r="R82">
-        <v>34.210416</v>
-      </c>
-      <c r="S82">
-        <v>173.73483</v>
-      </c>
-      <c r="T82">
-        <v>7704.1233</v>
+      <c r="R82" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S82" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6189,14 +6206,14 @@
       <c r="Q83" t="s">
         <v>60</v>
       </c>
-      <c r="R83">
-        <v>34.12738</v>
-      </c>
-      <c r="S83">
-        <v>212.44778</v>
-      </c>
-      <c r="T83">
-        <v>9576.4565</v>
+      <c r="R83" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S83" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T83" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6251,14 +6268,14 @@
       <c r="Q84" t="s">
         <v>60</v>
       </c>
-      <c r="R84">
-        <v>34.12738</v>
-      </c>
-      <c r="S84">
-        <v>168.11381</v>
-      </c>
-      <c r="T84">
-        <v>7850.1158</v>
+      <c r="R84" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S84" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T84" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6313,14 +6330,14 @@
       <c r="Q85" t="s">
         <v>60</v>
       </c>
-      <c r="R85">
-        <v>37.620786</v>
-      </c>
-      <c r="S85">
-        <v>131.80299</v>
-      </c>
-      <c r="T85">
-        <v>8686.5263</v>
+      <c r="R85" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S85" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T85" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6375,14 +6392,14 @@
       <c r="Q86" t="s">
         <v>47</v>
       </c>
-      <c r="R86">
-        <v>31.112374</v>
-      </c>
-      <c r="S86">
-        <v>276.33466</v>
-      </c>
-      <c r="T86">
-        <v>8725.847100000001</v>
+      <c r="R86" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S86" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T86" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6437,14 +6454,14 @@
       <c r="Q87" t="s">
         <v>47</v>
       </c>
-      <c r="R87">
-        <v>31.112374</v>
-      </c>
-      <c r="S87">
-        <v>219.50808</v>
-      </c>
-      <c r="T87">
-        <v>7187.3062</v>
+      <c r="R87" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S87" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T87" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6499,14 +6516,14 @@
       <c r="Q88" t="s">
         <v>47</v>
       </c>
-      <c r="R88">
-        <v>34.210416</v>
-      </c>
-      <c r="S88">
-        <v>173.73483</v>
-      </c>
-      <c r="T88">
-        <v>7704.1233</v>
+      <c r="R88" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S88" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T88" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6561,14 +6578,14 @@
       <c r="Q89" t="s">
         <v>47</v>
       </c>
-      <c r="R89">
-        <v>34.12738</v>
-      </c>
-      <c r="S89">
-        <v>212.44778</v>
-      </c>
-      <c r="T89">
-        <v>9576.4565</v>
+      <c r="R89" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S89" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T89" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6623,14 +6640,14 @@
       <c r="Q90" t="s">
         <v>47</v>
       </c>
-      <c r="R90">
-        <v>34.12738</v>
-      </c>
-      <c r="S90">
-        <v>168.11381</v>
-      </c>
-      <c r="T90">
-        <v>7850.1158</v>
+      <c r="R90" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S90" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T90" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6685,14 +6702,14 @@
       <c r="Q91" t="s">
         <v>47</v>
       </c>
-      <c r="R91">
-        <v>37.620786</v>
-      </c>
-      <c r="S91">
-        <v>131.80299</v>
-      </c>
-      <c r="T91">
-        <v>8686.5263</v>
+      <c r="R91" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S91" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T91" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6747,14 +6764,14 @@
       <c r="Q92" t="s">
         <v>60</v>
       </c>
-      <c r="R92">
-        <v>29.268298</v>
-      </c>
-      <c r="S92">
-        <v>399.19041</v>
-      </c>
-      <c r="T92">
-        <v>9856.226000000001</v>
+      <c r="R92" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S92" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T92" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6809,14 +6826,14 @@
       <c r="Q93" t="s">
         <v>60</v>
       </c>
-      <c r="R93">
-        <v>29.268298</v>
-      </c>
-      <c r="S93">
-        <v>317.45943</v>
-      </c>
-      <c r="T93">
-        <v>8182.64</v>
+      <c r="R93" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S93" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T93" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6871,14 +6888,14 @@
       <c r="Q94" t="s">
         <v>60</v>
       </c>
-      <c r="R94">
-        <v>30.07547</v>
-      </c>
-      <c r="S94">
-        <v>313.75297</v>
-      </c>
-      <c r="T94">
-        <v>8463.1554</v>
+      <c r="R94" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S94" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T94" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6933,14 +6950,14 @@
       <c r="Q95" t="s">
         <v>60</v>
       </c>
-      <c r="R95">
-        <v>38.439683</v>
-      </c>
-      <c r="S95">
-        <v>175.69421</v>
-      </c>
-      <c r="T95">
-        <v>11961.953</v>
+      <c r="R95" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S95" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T95" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6995,14 +7012,14 @@
       <c r="Q96" t="s">
         <v>60</v>
       </c>
-      <c r="R96">
-        <v>38.439683</v>
-      </c>
-      <c r="S96">
-        <v>138.60514</v>
-      </c>
-      <c r="T96">
-        <v>9955.0656</v>
+      <c r="R96" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S96" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T96" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7057,14 +7074,14 @@
       <c r="Q97" t="s">
         <v>60</v>
       </c>
-      <c r="R97">
-        <v>40.081587</v>
-      </c>
-      <c r="S97">
-        <v>127.15532</v>
-      </c>
-      <c r="T97">
-        <v>10389.79</v>
+      <c r="R97" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S97" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T97" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7119,14 +7136,14 @@
       <c r="Q98" t="s">
         <v>47</v>
       </c>
-      <c r="R98">
-        <v>29.268298</v>
-      </c>
-      <c r="S98">
-        <v>399.19041</v>
-      </c>
-      <c r="T98">
-        <v>9856.226000000001</v>
+      <c r="R98" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S98" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T98" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7181,14 +7198,14 @@
       <c r="Q99" t="s">
         <v>47</v>
       </c>
-      <c r="R99">
-        <v>29.268298</v>
-      </c>
-      <c r="S99">
-        <v>317.45943</v>
-      </c>
-      <c r="T99">
-        <v>8182.64</v>
+      <c r="R99" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S99" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T99" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7243,14 +7260,14 @@
       <c r="Q100" t="s">
         <v>47</v>
       </c>
-      <c r="R100">
-        <v>30.07547</v>
-      </c>
-      <c r="S100">
-        <v>313.75297</v>
-      </c>
-      <c r="T100">
-        <v>8463.1554</v>
+      <c r="R100" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S100" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T100" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7305,14 +7322,14 @@
       <c r="Q101" t="s">
         <v>47</v>
       </c>
-      <c r="R101">
-        <v>38.439683</v>
-      </c>
-      <c r="S101">
-        <v>175.69421</v>
-      </c>
-      <c r="T101">
-        <v>11961.953</v>
+      <c r="R101" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S101" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T101" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7367,14 +7384,14 @@
       <c r="Q102" t="s">
         <v>47</v>
       </c>
-      <c r="R102">
-        <v>38.439683</v>
-      </c>
-      <c r="S102">
-        <v>138.60514</v>
-      </c>
-      <c r="T102">
-        <v>9955.0656</v>
+      <c r="R102" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S102" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T102" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7429,14 +7446,14 @@
       <c r="Q103" t="s">
         <v>47</v>
       </c>
-      <c r="R103">
-        <v>40.081587</v>
-      </c>
-      <c r="S103">
-        <v>127.15532</v>
-      </c>
-      <c r="T103">
-        <v>10389.79</v>
+      <c r="R103" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S103" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T103" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7491,14 +7508,14 @@
       <c r="Q104" t="s">
         <v>35</v>
       </c>
-      <c r="R104">
-        <v>38.979418</v>
-      </c>
-      <c r="S104">
-        <v>139.49509</v>
-      </c>
-      <c r="T104">
-        <v>10389.923</v>
+      <c r="R104" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S104" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T104" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7553,14 +7570,14 @@
       <c r="Q105" t="s">
         <v>47</v>
       </c>
-      <c r="R105">
-        <v>29.147105</v>
-      </c>
-      <c r="S105">
-        <v>566.5159200000001</v>
-      </c>
-      <c r="T105">
-        <v>13483.867</v>
+      <c r="R105" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S105" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T105" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7615,14 +7632,14 @@
       <c r="Q106" t="s">
         <v>47</v>
       </c>
-      <c r="R106">
-        <v>40.815807</v>
-      </c>
-      <c r="S106">
-        <v>195.24901</v>
-      </c>
-      <c r="T106">
-        <v>16757.722</v>
+      <c r="R106" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S106" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T106" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7677,14 +7694,14 @@
       <c r="Q107" t="s">
         <v>60</v>
       </c>
-      <c r="R107">
-        <v>34.421654</v>
-      </c>
-      <c r="S107">
-        <v>126.94782</v>
-      </c>
-      <c r="T107">
-        <v>5964.4</v>
+      <c r="R107" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S107" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T107" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7739,14 +7756,14 @@
       <c r="Q108" t="s">
         <v>60</v>
       </c>
-      <c r="R108">
-        <v>38.171999</v>
-      </c>
-      <c r="S108">
-        <v>96.14154499999999</v>
-      </c>
-      <c r="T108">
-        <v>6886.9646</v>
+      <c r="R108" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S108" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T108" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7801,14 +7818,14 @@
       <c r="Q109" t="s">
         <v>60</v>
       </c>
-      <c r="R109">
-        <v>34.601036</v>
-      </c>
-      <c r="S109">
-        <v>134.59043</v>
-      </c>
-      <c r="T109">
-        <v>6451.8856</v>
+      <c r="R109" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S109" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T109" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7863,14 +7880,14 @@
       <c r="Q110" t="s">
         <v>60</v>
       </c>
-      <c r="R110">
-        <v>38.972244</v>
-      </c>
-      <c r="S110">
-        <v>96.673913</v>
-      </c>
-      <c r="T110">
-        <v>7558.6793</v>
+      <c r="R110" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S110" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T110" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7925,14 +7942,14 @@
       <c r="Q111" t="s">
         <v>60</v>
       </c>
-      <c r="R111">
-        <v>29.978123</v>
-      </c>
-      <c r="S111">
-        <v>251.96033</v>
-      </c>
-      <c r="T111">
-        <v>7015.8943</v>
+      <c r="R111" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S111" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T111" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7987,14 +8004,14 @@
       <c r="Q112" t="s">
         <v>60</v>
       </c>
-      <c r="R112">
-        <v>40.33997</v>
-      </c>
-      <c r="S112">
-        <v>98.106632</v>
-      </c>
-      <c r="T112">
-        <v>8673.264300000001</v>
+      <c r="R112" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S112" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T112" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -8049,14 +8066,14 @@
       <c r="Q113" t="s">
         <v>47</v>
       </c>
-      <c r="R113">
-        <v>29.147105</v>
-      </c>
-      <c r="S113">
-        <v>451.49117</v>
-      </c>
-      <c r="T113">
-        <v>11257.954</v>
+      <c r="R113" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S113" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T113" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8111,14 +8128,14 @@
       <c r="Q114" t="s">
         <v>47</v>
       </c>
-      <c r="R114">
-        <v>29.644405</v>
-      </c>
-      <c r="S114">
-        <v>452.90541</v>
-      </c>
-      <c r="T114">
-        <v>11407.711</v>
+      <c r="R114" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S114" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T114" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -8173,14 +8190,14 @@
       <c r="Q115" t="s">
         <v>47</v>
       </c>
-      <c r="R115">
-        <v>29.644405</v>
-      </c>
-      <c r="S115">
-        <v>360.78346</v>
-      </c>
-      <c r="T115">
-        <v>9522.476699999999</v>
+      <c r="R115" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S115" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T115" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -8235,14 +8252,14 @@
       <c r="Q116" t="s">
         <v>47</v>
       </c>
-      <c r="R116">
-        <v>40.815807</v>
-      </c>
-      <c r="S116">
-        <v>154.00624</v>
-      </c>
-      <c r="T116">
-        <v>14044.859</v>
+      <c r="R116" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S116" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T116" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -8297,14 +8314,14 @@
       <c r="Q117" t="s">
         <v>47</v>
       </c>
-      <c r="R117">
-        <v>42.188672</v>
-      </c>
-      <c r="S117">
-        <v>143.01562</v>
-      </c>
-      <c r="T117">
-        <v>14320.881</v>
+      <c r="R117" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S117" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T117" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -8359,14 +8376,14 @@
       <c r="Q118" t="s">
         <v>47</v>
       </c>
-      <c r="R118">
-        <v>42.188672</v>
-      </c>
-      <c r="S118">
-        <v>112.73555</v>
-      </c>
-      <c r="T118">
-        <v>12005.412</v>
+      <c r="R118" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S118" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T118" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -8421,14 +8438,14 @@
       <c r="Q119" t="s">
         <v>60</v>
       </c>
-      <c r="R119">
-        <v>31.540523</v>
-      </c>
-      <c r="S119">
-        <v>250.85928</v>
-      </c>
-      <c r="T119">
-        <v>8211.190699999999</v>
+      <c r="R119" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S119" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T119" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8483,14 +8500,14 @@
       <c r="Q120" t="s">
         <v>60</v>
       </c>
-      <c r="R120">
-        <v>31.540523</v>
-      </c>
-      <c r="S120">
-        <v>199.15463</v>
-      </c>
-      <c r="T120">
-        <v>6780.429</v>
+      <c r="R120" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S120" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T120" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -8545,14 +8562,14 @@
       <c r="Q121" t="s">
         <v>60</v>
       </c>
-      <c r="R121">
-        <v>34.421654</v>
-      </c>
-      <c r="S121">
-        <v>160.61534</v>
-      </c>
-      <c r="T121">
-        <v>7223.9568</v>
+      <c r="R121" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S121" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T121" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -8607,14 +8624,14 @@
       <c r="Q122" t="s">
         <v>60</v>
       </c>
-      <c r="R122">
-        <v>34.982442</v>
-      </c>
-      <c r="S122">
-        <v>192.18072</v>
-      </c>
-      <c r="T122">
-        <v>9278.163399999999</v>
+      <c r="R122" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S122" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T122" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8669,14 +8686,14 @@
       <c r="Q123" t="s">
         <v>60</v>
       </c>
-      <c r="R123">
-        <v>34.982442</v>
-      </c>
-      <c r="S123">
-        <v>152.05359</v>
-      </c>
-      <c r="T123">
-        <v>7655.4152</v>
+      <c r="R123" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S123" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T123" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8731,14 +8748,14 @@
       <c r="Q124" t="s">
         <v>60</v>
       </c>
-      <c r="R124">
-        <v>38.171999</v>
-      </c>
-      <c r="S124">
-        <v>121.92254</v>
-      </c>
-      <c r="T124">
-        <v>8331.7989</v>
+      <c r="R124" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S124" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T124" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8793,14 +8810,14 @@
       <c r="Q125" t="s">
         <v>47</v>
       </c>
-      <c r="R125">
-        <v>31.540523</v>
-      </c>
-      <c r="S125">
-        <v>250.85928</v>
-      </c>
-      <c r="T125">
-        <v>8211.190699999999</v>
+      <c r="R125" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S125" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T125" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8855,14 +8872,14 @@
       <c r="Q126" t="s">
         <v>47</v>
       </c>
-      <c r="R126">
-        <v>31.540523</v>
-      </c>
-      <c r="S126">
-        <v>199.15463</v>
-      </c>
-      <c r="T126">
-        <v>6780.429</v>
+      <c r="R126" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S126" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T126" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8917,14 +8934,14 @@
       <c r="Q127" t="s">
         <v>47</v>
       </c>
-      <c r="R127">
-        <v>34.421654</v>
-      </c>
-      <c r="S127">
-        <v>160.61534</v>
-      </c>
-      <c r="T127">
-        <v>7223.9568</v>
+      <c r="R127" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S127" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T127" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8979,14 +8996,14 @@
       <c r="Q128" t="s">
         <v>47</v>
       </c>
-      <c r="R128">
-        <v>34.982442</v>
-      </c>
-      <c r="S128">
-        <v>192.18072</v>
-      </c>
-      <c r="T128">
-        <v>9278.163399999999</v>
+      <c r="R128" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S128" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T128" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -9041,14 +9058,14 @@
       <c r="Q129" t="s">
         <v>47</v>
       </c>
-      <c r="R129">
-        <v>34.982442</v>
-      </c>
-      <c r="S129">
-        <v>152.05359</v>
-      </c>
-      <c r="T129">
-        <v>7655.4152</v>
+      <c r="R129" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S129" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T129" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -9103,14 +9120,14 @@
       <c r="Q130" t="s">
         <v>47</v>
       </c>
-      <c r="R130">
-        <v>38.171999</v>
-      </c>
-      <c r="S130">
-        <v>121.92254</v>
-      </c>
-      <c r="T130">
-        <v>8331.7989</v>
+      <c r="R130" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S130" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T130" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -9165,14 +9182,14 @@
       <c r="Q131" t="s">
         <v>60</v>
       </c>
-      <c r="R131">
-        <v>31.793179</v>
-      </c>
-      <c r="S131">
-        <v>265.23109</v>
-      </c>
-      <c r="T131">
-        <v>8930.340099999999</v>
+      <c r="R131" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S131" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T131" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9227,14 +9244,14 @@
       <c r="Q132" t="s">
         <v>60</v>
       </c>
-      <c r="R132">
-        <v>31.793179</v>
-      </c>
-      <c r="S132">
-        <v>210.60374</v>
-      </c>
-      <c r="T132">
-        <v>7376.3028</v>
+      <c r="R132" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S132" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T132" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9289,14 +9306,14 @@
       <c r="Q133" t="s">
         <v>60</v>
       </c>
-      <c r="R133">
-        <v>34.601036</v>
-      </c>
-      <c r="S133">
-        <v>170.29013</v>
-      </c>
-      <c r="T133">
-        <v>7814.2236</v>
+      <c r="R133" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S133" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T133" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9351,14 +9368,14 @@
       <c r="Q134" t="s">
         <v>60</v>
       </c>
-      <c r="R134">
-        <v>36.195686</v>
-      </c>
-      <c r="S134">
-        <v>186.89768</v>
-      </c>
-      <c r="T134">
-        <v>10291.143</v>
+      <c r="R134" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S134" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T134" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -9413,14 +9430,14 @@
       <c r="Q135" t="s">
         <v>60</v>
       </c>
-      <c r="R135">
-        <v>36.195686</v>
-      </c>
-      <c r="S135">
-        <v>147.74129</v>
-      </c>
-      <c r="T135">
-        <v>8500.829100000001</v>
+      <c r="R135" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S135" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T135" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9475,14 +9492,14 @@
       <c r="Q136" t="s">
         <v>60</v>
       </c>
-      <c r="R136">
-        <v>38.972244</v>
-      </c>
-      <c r="S136">
-        <v>122.6172</v>
-      </c>
-      <c r="T136">
-        <v>9133.945900000001</v>
+      <c r="R136" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S136" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T136" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9537,14 +9554,14 @@
       <c r="Q137" t="s">
         <v>47</v>
       </c>
-      <c r="R137">
-        <v>31.793179</v>
-      </c>
-      <c r="S137">
-        <v>265.23109</v>
-      </c>
-      <c r="T137">
-        <v>8930.340099999999</v>
+      <c r="R137" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S137" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T137" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9599,14 +9616,14 @@
       <c r="Q138" t="s">
         <v>47</v>
       </c>
-      <c r="R138">
-        <v>31.793179</v>
-      </c>
-      <c r="S138">
-        <v>210.60374</v>
-      </c>
-      <c r="T138">
-        <v>7376.3028</v>
+      <c r="R138" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S138" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T138" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9661,14 +9678,14 @@
       <c r="Q139" t="s">
         <v>47</v>
       </c>
-      <c r="R139">
-        <v>34.601036</v>
-      </c>
-      <c r="S139">
-        <v>170.29013</v>
-      </c>
-      <c r="T139">
-        <v>7814.2236</v>
+      <c r="R139" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S139" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T139" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9723,14 +9740,14 @@
       <c r="Q140" t="s">
         <v>47</v>
       </c>
-      <c r="R140">
-        <v>36.195686</v>
-      </c>
-      <c r="S140">
-        <v>186.89768</v>
-      </c>
-      <c r="T140">
-        <v>10291.143</v>
+      <c r="R140" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S140" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T140" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9785,14 +9802,14 @@
       <c r="Q141" t="s">
         <v>47</v>
       </c>
-      <c r="R141">
-        <v>36.195686</v>
-      </c>
-      <c r="S141">
-        <v>147.74129</v>
-      </c>
-      <c r="T141">
-        <v>8500.829100000001</v>
+      <c r="R141" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S141" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T141" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9847,14 +9864,14 @@
       <c r="Q142" t="s">
         <v>47</v>
       </c>
-      <c r="R142">
-        <v>38.972244</v>
-      </c>
-      <c r="S142">
-        <v>122.6172</v>
-      </c>
-      <c r="T142">
-        <v>9133.945900000001</v>
+      <c r="R142" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S142" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T142" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -9909,14 +9926,14 @@
       <c r="Q143" t="s">
         <v>60</v>
       </c>
-      <c r="R143">
-        <v>29.158305</v>
-      </c>
-      <c r="S143">
-        <v>404.11876</v>
-      </c>
-      <c r="T143">
-        <v>9833.5178</v>
+      <c r="R143" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S143" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T143" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9971,14 +9988,14 @@
       <c r="Q144" t="s">
         <v>60</v>
       </c>
-      <c r="R144">
-        <v>29.158305</v>
-      </c>
-      <c r="S144">
-        <v>321.59602</v>
-      </c>
-      <c r="T144">
-        <v>8170.7384</v>
+      <c r="R144" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S144" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T144" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10033,14 +10050,14 @@
       <c r="Q145" t="s">
         <v>60</v>
       </c>
-      <c r="R145">
-        <v>29.978123</v>
-      </c>
-      <c r="S145">
-        <v>317.07272</v>
-      </c>
-      <c r="T145">
-        <v>8445.5188</v>
+      <c r="R145" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S145" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T145" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10095,14 +10112,14 @@
       <c r="Q146" t="s">
         <v>60</v>
       </c>
-      <c r="R146">
-        <v>38.796628</v>
-      </c>
-      <c r="S146">
-        <v>170.58938</v>
-      </c>
-      <c r="T146">
-        <v>11986.814</v>
+      <c r="R146" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S146" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T146" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -10157,14 +10174,14 @@
       <c r="Q147" t="s">
         <v>60</v>
       </c>
-      <c r="R147">
-        <v>38.796628</v>
-      </c>
-      <c r="S147">
-        <v>134.57961</v>
-      </c>
-      <c r="T147">
-        <v>9993.0707</v>
+      <c r="R147" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S147" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T147" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10219,14 +10236,14 @@
       <c r="Q148" t="s">
         <v>60</v>
       </c>
-      <c r="R148">
-        <v>40.33997</v>
-      </c>
-      <c r="S148">
-        <v>124.47483</v>
-      </c>
-      <c r="T148">
-        <v>10401.748</v>
+      <c r="R148" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S148" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T148" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -10281,14 +10298,14 @@
       <c r="Q149" t="s">
         <v>47</v>
       </c>
-      <c r="R149">
-        <v>29.158305</v>
-      </c>
-      <c r="S149">
-        <v>404.11876</v>
-      </c>
-      <c r="T149">
-        <v>9833.5178</v>
+      <c r="R149" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S149" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T149" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -10343,14 +10360,14 @@
       <c r="Q150" t="s">
         <v>47</v>
       </c>
-      <c r="R150">
-        <v>29.158305</v>
-      </c>
-      <c r="S150">
-        <v>321.59602</v>
-      </c>
-      <c r="T150">
-        <v>8170.7384</v>
+      <c r="R150" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S150" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T150" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10405,14 +10422,14 @@
       <c r="Q151" t="s">
         <v>47</v>
       </c>
-      <c r="R151">
-        <v>29.978123</v>
-      </c>
-      <c r="S151">
-        <v>317.07272</v>
-      </c>
-      <c r="T151">
-        <v>8445.5188</v>
+      <c r="R151" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S151" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T151" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10467,14 +10484,14 @@
       <c r="Q152" t="s">
         <v>47</v>
       </c>
-      <c r="R152">
-        <v>38.796628</v>
-      </c>
-      <c r="S152">
-        <v>170.58938</v>
-      </c>
-      <c r="T152">
-        <v>11986.814</v>
+      <c r="R152" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S152" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T152" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10529,14 +10546,14 @@
       <c r="Q153" t="s">
         <v>47</v>
       </c>
-      <c r="R153">
-        <v>38.796628</v>
-      </c>
-      <c r="S153">
-        <v>134.57961</v>
-      </c>
-      <c r="T153">
-        <v>9993.0707</v>
+      <c r="R153" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S153" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T153" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10591,14 +10608,14 @@
       <c r="Q154" t="s">
         <v>47</v>
       </c>
-      <c r="R154">
-        <v>40.33997</v>
-      </c>
-      <c r="S154">
-        <v>124.47483</v>
-      </c>
-      <c r="T154">
-        <v>10401.748</v>
+      <c r="R154" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S154" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T154" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="1" customFormat="1">
@@ -10667,28 +10684,28 @@
       <c r="Q156" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="R156" s="1">
-        <v>25.942959</v>
-      </c>
-      <c r="S156" s="1">
-        <v>75.420756</v>
-      </c>
-      <c r="T156" s="1">
-        <v>5460.1889</v>
+      <c r="R156" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S156" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T156" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
       <c r="Q157" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="R157" s="1">
-        <v>42.667615</v>
-      </c>
-      <c r="S157" s="1">
-        <v>619.31131</v>
-      </c>
-      <c r="T157" s="1">
-        <v>16757.722</v>
+      <c r="R157" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="S157" s="2">
+        <v>1E-06</v>
+      </c>
+      <c r="T157" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
@@ -10734,13 +10751,13 @@
         <v>227</v>
       </c>
       <c r="R162" s="1">
-        <v>34.65628020915033</v>
+        <v>-1600</v>
       </c>
       <c r="S162" s="1">
-        <v>209.131232267974</v>
+        <v>9.999999999999978E-07</v>
       </c>
       <c r="T162" s="1">
-        <v>8892.66772810457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
@@ -10748,13 +10765,13 @@
         <v>228</v>
       </c>
       <c r="R163" s="1">
-        <v>4.373178253861012</v>
+        <v>0</v>
       </c>
       <c r="S163" s="1">
-        <v>112.4855431069056</v>
+        <v>2.117582368135751E-21</v>
       </c>
       <c r="T163" s="1">
-        <v>2219.731943607706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
@@ -10762,13 +10779,13 @@
         <v>229</v>
       </c>
       <c r="R164" s="1">
-        <v>12.61871795665582</v>
+        <v>0</v>
       </c>
       <c r="S164" s="1">
-        <v>53.7870608263668</v>
-      </c>
-      <c r="T164" s="1">
-        <v>24.96137280146451</v>
+        <v>2.117582368135755E-13</v>
+      </c>
+      <c r="T164" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="230">
   <si>
     <t>Process</t>
   </si>
@@ -704,9 +704,6 @@
   </si>
   <si>
     <t>Rel. Std. Dev. %</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1182,10 @@
         <v>35</v>
       </c>
       <c r="R2" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1E-06</v>
+        <v>-0.4596503</v>
+      </c>
+      <c r="S2">
+        <v>3638.7747</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -1247,10 +1244,10 @@
         <v>47</v>
       </c>
       <c r="R3" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1E-06</v>
+        <v>-3.7440889</v>
+      </c>
+      <c r="S3">
+        <v>4568.0957</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
@@ -1309,10 +1306,10 @@
         <v>47</v>
       </c>
       <c r="R4" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S4" s="2">
-        <v>1E-06</v>
+        <v>-15.162484</v>
+      </c>
+      <c r="S4">
+        <v>5032.5723</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -1371,13 +1368,13 @@
         <v>60</v>
       </c>
       <c r="R5" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
+        <v>2.6941397</v>
+      </c>
+      <c r="S5">
+        <v>2194.1485</v>
+      </c>
+      <c r="T5">
+        <v>2024.7707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1433,13 +1430,13 @@
         <v>60</v>
       </c>
       <c r="R6" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S6" s="2">
-        <v>1E-06</v>
+        <v>0.6845267900000001</v>
+      </c>
+      <c r="S6">
+        <v>2356.5088</v>
       </c>
       <c r="T6" s="2">
-        <v>0</v>
+        <v>0.006754185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1495,10 +1492,10 @@
         <v>60</v>
       </c>
       <c r="R7" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1E-06</v>
+        <v>-0.85898486</v>
+      </c>
+      <c r="S7">
+        <v>3129.2533</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1557,10 +1554,10 @@
         <v>60</v>
       </c>
       <c r="R8" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S8" s="2">
-        <v>1E-06</v>
+        <v>-3.3941895</v>
+      </c>
+      <c r="S8">
+        <v>5756.3509</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -1619,13 +1616,13 @@
         <v>60</v>
       </c>
       <c r="R9" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S9" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
+        <v>2.4850371</v>
+      </c>
+      <c r="S9">
+        <v>1742.5636</v>
+      </c>
+      <c r="T9">
+        <v>1448.2627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1681,10 +1678,10 @@
         <v>60</v>
       </c>
       <c r="R10" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1E-06</v>
+        <v>-1.2473155</v>
+      </c>
+      <c r="S10">
+        <v>2394.41</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
@@ -1743,10 +1740,10 @@
         <v>47</v>
       </c>
       <c r="R11" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S11" s="2">
-        <v>1E-06</v>
+        <v>-3.7440889</v>
+      </c>
+      <c r="S11">
+        <v>3742.1518</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
@@ -1805,10 +1802,10 @@
         <v>47</v>
       </c>
       <c r="R12" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S12" s="2">
-        <v>1E-06</v>
+        <v>-10.516069</v>
+      </c>
+      <c r="S12">
+        <v>3489.7413</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -1867,10 +1864,10 @@
         <v>47</v>
       </c>
       <c r="R13" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S13" s="2">
-        <v>1E-06</v>
+        <v>-10.516069</v>
+      </c>
+      <c r="S13">
+        <v>2858.3233</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
@@ -1929,10 +1926,10 @@
         <v>47</v>
       </c>
       <c r="R14" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1E-06</v>
+        <v>-15.162484</v>
+      </c>
+      <c r="S14">
+        <v>4133.7975</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
@@ -1991,10 +1988,10 @@
         <v>47</v>
       </c>
       <c r="R15" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S15" s="2">
-        <v>1E-06</v>
+        <v>-28.273048</v>
+      </c>
+      <c r="S15">
+        <v>8769.964900000001</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
@@ -2053,10 +2050,10 @@
         <v>47</v>
       </c>
       <c r="R16" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S16" s="2">
-        <v>1E-06</v>
+        <v>-28.273048</v>
+      </c>
+      <c r="S16">
+        <v>7281.1196</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
@@ -2115,13 +2112,13 @@
         <v>60</v>
       </c>
       <c r="R17" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S17" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
+        <v>4.2708352</v>
+      </c>
+      <c r="S17">
+        <v>2849.1529</v>
+      </c>
+      <c r="T17">
+        <v>3586.7358</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2177,13 +2174,13 @@
         <v>60</v>
       </c>
       <c r="R18" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
+        <v>4.2708352</v>
+      </c>
+      <c r="S18">
+        <v>2245.7867</v>
+      </c>
+      <c r="T18">
+        <v>2909.0616</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2239,13 +2236,13 @@
         <v>60</v>
       </c>
       <c r="R19" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S19" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
+        <v>2.6941397</v>
+      </c>
+      <c r="S19">
+        <v>2756.9492</v>
+      </c>
+      <c r="T19">
+        <v>2576.0064</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2301,13 +2298,13 @@
         <v>60</v>
       </c>
       <c r="R20" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S20" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
+        <v>2.3476535</v>
+      </c>
+      <c r="S20">
+        <v>3017.7587</v>
+      </c>
+      <c r="T20">
+        <v>2653.6275</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2363,13 +2360,13 @@
         <v>60</v>
       </c>
       <c r="R21" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S21" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
+        <v>2.3476535</v>
+      </c>
+      <c r="S21">
+        <v>2510.1101</v>
+      </c>
+      <c r="T21">
+        <v>2162.9733</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2425,13 +2422,13 @@
         <v>60</v>
       </c>
       <c r="R22" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S22" s="2">
-        <v>1E-06</v>
+        <v>0.6845267900000001</v>
+      </c>
+      <c r="S22">
+        <v>2792.9112</v>
       </c>
       <c r="T22" s="2">
-        <v>0</v>
+        <v>0.006754184900000001</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2487,13 +2484,13 @@
         <v>47</v>
       </c>
       <c r="R23" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S23" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
+        <v>4.2708352</v>
+      </c>
+      <c r="S23">
+        <v>2849.1529</v>
+      </c>
+      <c r="T23">
+        <v>3586.7358</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2549,13 +2546,13 @@
         <v>47</v>
       </c>
       <c r="R24" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S24" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
+        <v>4.2708352</v>
+      </c>
+      <c r="S24">
+        <v>2245.7867</v>
+      </c>
+      <c r="T24">
+        <v>2909.0616</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2611,13 +2608,13 @@
         <v>47</v>
       </c>
       <c r="R25" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S25" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0</v>
+        <v>2.6941397</v>
+      </c>
+      <c r="S25">
+        <v>2756.9492</v>
+      </c>
+      <c r="T25">
+        <v>2576.0064</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2673,13 +2670,13 @@
         <v>47</v>
       </c>
       <c r="R26" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S26" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0</v>
+        <v>2.3476535</v>
+      </c>
+      <c r="S26">
+        <v>3017.7587</v>
+      </c>
+      <c r="T26">
+        <v>2653.6275</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2735,13 +2732,13 @@
         <v>47</v>
       </c>
       <c r="R27" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S27" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0</v>
+        <v>2.3476535</v>
+      </c>
+      <c r="S27">
+        <v>2510.1101</v>
+      </c>
+      <c r="T27">
+        <v>2162.9733</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2797,13 +2794,13 @@
         <v>47</v>
       </c>
       <c r="R28" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S28" s="2">
-        <v>1E-06</v>
+        <v>0.6845267900000001</v>
+      </c>
+      <c r="S28">
+        <v>2792.9112</v>
       </c>
       <c r="T28" s="2">
-        <v>0</v>
+        <v>0.006754184900000001</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2859,13 +2856,13 @@
         <v>60</v>
       </c>
       <c r="R29" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S29" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0</v>
+        <v>1.2436527</v>
+      </c>
+      <c r="S29">
+        <v>4415.9484</v>
+      </c>
+      <c r="T29">
+        <v>3187.1937</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2921,13 +2918,13 @@
         <v>60</v>
       </c>
       <c r="R30" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S30" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0</v>
+        <v>1.2436527</v>
+      </c>
+      <c r="S30">
+        <v>3625.5272</v>
+      </c>
+      <c r="T30">
+        <v>2467.5265</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2983,10 +2980,10 @@
         <v>60</v>
       </c>
       <c r="R31" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S31" s="2">
-        <v>1E-06</v>
+        <v>-0.85898486</v>
+      </c>
+      <c r="S31">
+        <v>3747.0411</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -3045,13 +3042,13 @@
         <v>60</v>
       </c>
       <c r="R32" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S32" s="2">
-        <v>1E-06</v>
+        <v>-0.36712999</v>
+      </c>
+      <c r="S32">
+        <v>6487.9231</v>
       </c>
       <c r="T32" s="2">
-        <v>0</v>
+        <v>0.0050948601</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3107,13 +3104,13 @@
         <v>60</v>
       </c>
       <c r="R33" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S33" s="2">
-        <v>1E-06</v>
+        <v>-0.36712999</v>
+      </c>
+      <c r="S33">
+        <v>5480.1732</v>
       </c>
       <c r="T33" s="2">
-        <v>0</v>
+        <v>0.0050948598</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3169,10 +3166,10 @@
         <v>60</v>
       </c>
       <c r="R34" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S34" s="2">
-        <v>1E-06</v>
+        <v>-3.3941895</v>
+      </c>
+      <c r="S34">
+        <v>6765.1621</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -3231,13 +3228,13 @@
         <v>47</v>
       </c>
       <c r="R35" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S35" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0</v>
+        <v>1.2436527</v>
+      </c>
+      <c r="S35">
+        <v>4415.9484</v>
+      </c>
+      <c r="T35">
+        <v>3187.1937</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3293,13 +3290,13 @@
         <v>47</v>
       </c>
       <c r="R36" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S36" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
+        <v>1.2436527</v>
+      </c>
+      <c r="S36">
+        <v>3625.5272</v>
+      </c>
+      <c r="T36">
+        <v>2467.5265</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3355,10 +3352,10 @@
         <v>47</v>
       </c>
       <c r="R37" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S37" s="2">
-        <v>1E-06</v>
+        <v>-0.85898486</v>
+      </c>
+      <c r="S37">
+        <v>3747.0411</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
@@ -3417,13 +3414,13 @@
         <v>47</v>
       </c>
       <c r="R38" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S38" s="2">
-        <v>1E-06</v>
+        <v>-0.36712999</v>
+      </c>
+      <c r="S38">
+        <v>6487.9231</v>
       </c>
       <c r="T38" s="2">
-        <v>0</v>
+        <v>0.0050948601</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3479,13 +3476,13 @@
         <v>47</v>
       </c>
       <c r="R39" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S39" s="2">
-        <v>1E-06</v>
+        <v>-0.36712999</v>
+      </c>
+      <c r="S39">
+        <v>5480.1732</v>
       </c>
       <c r="T39" s="2">
-        <v>0</v>
+        <v>0.0050948598</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3541,10 +3538,10 @@
         <v>47</v>
       </c>
       <c r="R40" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S40" s="2">
-        <v>1E-06</v>
+        <v>-3.3941895</v>
+      </c>
+      <c r="S40">
+        <v>6765.1621</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
@@ -3603,13 +3600,13 @@
         <v>60</v>
       </c>
       <c r="R41" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S41" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0</v>
+        <v>3.764144</v>
+      </c>
+      <c r="S41">
+        <v>2619.1239</v>
+      </c>
+      <c r="T41">
+        <v>3137.8667</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3665,13 +3662,13 @@
         <v>60</v>
       </c>
       <c r="R42" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S42" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0</v>
+        <v>3.764144</v>
+      </c>
+      <c r="S42">
+        <v>2042.0028</v>
+      </c>
+      <c r="T42">
+        <v>2485.1918</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3727,13 +3724,13 @@
         <v>60</v>
       </c>
       <c r="R43" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S43" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0</v>
+        <v>2.4850371</v>
+      </c>
+      <c r="S43">
+        <v>2230.2307</v>
+      </c>
+      <c r="T43">
+        <v>1881.5706</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3789,13 +3786,13 @@
         <v>60</v>
       </c>
       <c r="R44" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S44" s="2">
-        <v>1E-06</v>
+        <v>0.59307054</v>
+      </c>
+      <c r="S44">
+        <v>3724.4485</v>
       </c>
       <c r="T44" s="2">
-        <v>0</v>
+        <v>0.0027794729</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3851,13 +3848,13 @@
         <v>60</v>
       </c>
       <c r="R45" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S45" s="2">
-        <v>1E-06</v>
+        <v>0.59307054</v>
+      </c>
+      <c r="S45">
+        <v>3058.8852</v>
       </c>
       <c r="T45" s="2">
-        <v>0</v>
+        <v>0.0027794729</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3913,10 +3910,10 @@
         <v>60</v>
       </c>
       <c r="R46" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S46" s="2">
-        <v>1E-06</v>
+        <v>-1.2473155</v>
+      </c>
+      <c r="S46">
+        <v>2894.8505</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
@@ -3975,13 +3972,13 @@
         <v>47</v>
       </c>
       <c r="R47" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S47" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0</v>
+        <v>3.764144</v>
+      </c>
+      <c r="S47">
+        <v>2619.1239</v>
+      </c>
+      <c r="T47">
+        <v>3137.8667</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4037,13 +4034,13 @@
         <v>47</v>
       </c>
       <c r="R48" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S48" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T48" s="2">
-        <v>0</v>
+        <v>3.764144</v>
+      </c>
+      <c r="S48">
+        <v>2042.0028</v>
+      </c>
+      <c r="T48">
+        <v>2485.1918</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4099,13 +4096,13 @@
         <v>47</v>
       </c>
       <c r="R49" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S49" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T49" s="2">
-        <v>0</v>
+        <v>2.4850371</v>
+      </c>
+      <c r="S49">
+        <v>2230.2307</v>
+      </c>
+      <c r="T49">
+        <v>1881.5706</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4161,13 +4158,13 @@
         <v>47</v>
       </c>
       <c r="R50" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S50" s="2">
-        <v>1E-06</v>
+        <v>0.59307054</v>
+      </c>
+      <c r="S50">
+        <v>3724.4485</v>
       </c>
       <c r="T50" s="2">
-        <v>0</v>
+        <v>0.0027794729</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4223,13 +4220,13 @@
         <v>47</v>
       </c>
       <c r="R51" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S51" s="2">
-        <v>1E-06</v>
+        <v>0.59307054</v>
+      </c>
+      <c r="S51">
+        <v>3058.8852</v>
       </c>
       <c r="T51" s="2">
-        <v>0</v>
+        <v>0.0027794729</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4285,10 +4282,10 @@
         <v>47</v>
       </c>
       <c r="R52" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S52" s="2">
-        <v>1E-06</v>
+        <v>-1.2473155</v>
+      </c>
+      <c r="S52">
+        <v>2894.8505</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -4347,13 +4344,13 @@
         <v>35</v>
       </c>
       <c r="R53" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S53" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T53" s="2">
-        <v>0</v>
+        <v>16.151334</v>
+      </c>
+      <c r="S53">
+        <v>953.8522400000001</v>
+      </c>
+      <c r="T53">
+        <v>6214.9572</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4409,13 +4406,13 @@
         <v>47</v>
       </c>
       <c r="R54" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S54" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T54" s="2">
-        <v>0</v>
+        <v>18.712353</v>
+      </c>
+      <c r="S54">
+        <v>953.39178</v>
+      </c>
+      <c r="T54">
+        <v>8729.9017</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4470,14 +4467,14 @@
       <c r="Q55" t="s">
         <v>47</v>
       </c>
-      <c r="R55" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S55" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T55" s="2">
-        <v>0</v>
+      <c r="R55">
+        <v>25.234548</v>
+      </c>
+      <c r="S55">
+        <v>439.84512</v>
+      </c>
+      <c r="T55">
+        <v>10200.09</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -4533,13 +4530,13 @@
         <v>60</v>
       </c>
       <c r="R56" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S56" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T56" s="2">
-        <v>0</v>
+        <v>9.237326899999999</v>
+      </c>
+      <c r="S56">
+        <v>1195.2904</v>
+      </c>
+      <c r="T56">
+        <v>3070.5515</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4595,13 +4592,13 @@
         <v>60</v>
       </c>
       <c r="R57" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S57" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T57" s="2">
-        <v>0</v>
+        <v>14.876423</v>
+      </c>
+      <c r="S57">
+        <v>619.473</v>
+      </c>
+      <c r="T57">
+        <v>3084.8179</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4656,14 +4653,14 @@
       <c r="Q58" t="s">
         <v>60</v>
       </c>
-      <c r="R58" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S58" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T58" s="2">
-        <v>0</v>
+      <c r="R58">
+        <v>20.877411</v>
+      </c>
+      <c r="S58">
+        <v>327.87149</v>
+      </c>
+      <c r="T58">
+        <v>3992.6289</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4719,13 +4716,13 @@
         <v>60</v>
       </c>
       <c r="R59" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S59" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T59" s="2">
-        <v>0</v>
+        <v>17.75043</v>
+      </c>
+      <c r="S59">
+        <v>649.03198</v>
+      </c>
+      <c r="T59">
+        <v>4873.3426</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4781,13 +4778,13 @@
         <v>60</v>
       </c>
       <c r="R60" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S60" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T60" s="2">
-        <v>0</v>
+        <v>8.074429500000001</v>
+      </c>
+      <c r="S60">
+        <v>1758.0664</v>
+      </c>
+      <c r="T60">
+        <v>3879.7048</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4843,13 +4840,13 @@
         <v>60</v>
       </c>
       <c r="R61" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S61" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T61" s="2">
-        <v>0</v>
+        <v>7.7480291</v>
+      </c>
+      <c r="S61">
+        <v>1861.246</v>
+      </c>
+      <c r="T61">
+        <v>4114.382</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4905,13 +4902,13 @@
         <v>47</v>
       </c>
       <c r="R62" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S62" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T62" s="2">
-        <v>0</v>
+        <v>18.712353</v>
+      </c>
+      <c r="S62">
+        <v>754.22409</v>
+      </c>
+      <c r="T62">
+        <v>6704.7864</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4966,14 +4963,14 @@
       <c r="Q63" t="s">
         <v>47</v>
       </c>
-      <c r="R63" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S63" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T63" s="2">
-        <v>0</v>
+      <c r="R63">
+        <v>20.908881</v>
+      </c>
+      <c r="S63">
+        <v>549.98725</v>
+      </c>
+      <c r="T63">
+        <v>6852.1392</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5028,14 +5025,14 @@
       <c r="Q64" t="s">
         <v>47</v>
       </c>
-      <c r="R64" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S64" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T64" s="2">
-        <v>0</v>
+      <c r="R64">
+        <v>20.908881</v>
+      </c>
+      <c r="S64">
+        <v>431.60944</v>
+      </c>
+      <c r="T64">
+        <v>5227.0204</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5090,14 +5087,14 @@
       <c r="Q65" t="s">
         <v>47</v>
       </c>
-      <c r="R65" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S65" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T65" s="2">
-        <v>0</v>
+      <c r="R65">
+        <v>25.234548</v>
+      </c>
+      <c r="S65">
+        <v>342.88582</v>
+      </c>
+      <c r="T65">
+        <v>7736.1434</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5152,14 +5149,14 @@
       <c r="Q66" t="s">
         <v>47</v>
       </c>
-      <c r="R66" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S66" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T66" s="2">
-        <v>0</v>
+      <c r="R66">
+        <v>21.666851</v>
+      </c>
+      <c r="S66">
+        <v>560.57281</v>
+      </c>
+      <c r="T66">
+        <v>8048.6791</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5214,14 +5211,14 @@
       <c r="Q67" t="s">
         <v>47</v>
       </c>
-      <c r="R67" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S67" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T67" s="2">
-        <v>0</v>
+      <c r="R67">
+        <v>21.666851</v>
+      </c>
+      <c r="S67">
+        <v>417.17297</v>
+      </c>
+      <c r="T67">
+        <v>6135.9476</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5277,13 +5274,13 @@
         <v>60</v>
       </c>
       <c r="R68" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S68" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T68" s="2">
-        <v>0</v>
+        <v>7.5858188</v>
+      </c>
+      <c r="S68">
+        <v>2062.1578</v>
+      </c>
+      <c r="T68">
+        <v>4275.8324</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5339,13 +5336,13 @@
         <v>60</v>
       </c>
       <c r="R69" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S69" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T69" s="2">
-        <v>0</v>
+        <v>7.5858188</v>
+      </c>
+      <c r="S69">
+        <v>1625.2409</v>
+      </c>
+      <c r="T69">
+        <v>3292.7362</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5401,13 +5398,13 @@
         <v>60</v>
       </c>
       <c r="R70" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S70" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T70" s="2">
-        <v>0</v>
+        <v>9.237326899999999</v>
+      </c>
+      <c r="S70">
+        <v>1522.8368</v>
+      </c>
+      <c r="T70">
+        <v>3987.1674</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5463,13 +5460,13 @@
         <v>60</v>
       </c>
       <c r="R71" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S71" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T71" s="2">
-        <v>0</v>
+        <v>13.929565</v>
+      </c>
+      <c r="S71">
+        <v>944.80112</v>
+      </c>
+      <c r="T71">
+        <v>4504.7961</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5525,13 +5522,13 @@
         <v>60</v>
       </c>
       <c r="R72" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S72" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T72" s="2">
-        <v>0</v>
+        <v>13.929565</v>
+      </c>
+      <c r="S72">
+        <v>769.7778</v>
+      </c>
+      <c r="T72">
+        <v>3404.875</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5587,13 +5584,13 @@
         <v>60</v>
       </c>
       <c r="R73" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S73" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T73" s="2">
-        <v>0</v>
+        <v>14.876423</v>
+      </c>
+      <c r="S73">
+        <v>764.08613</v>
+      </c>
+      <c r="T73">
+        <v>4090.7988</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5649,13 +5646,13 @@
         <v>47</v>
       </c>
       <c r="R74" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S74" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T74" s="2">
-        <v>0</v>
+        <v>7.5858188</v>
+      </c>
+      <c r="S74">
+        <v>2062.1578</v>
+      </c>
+      <c r="T74">
+        <v>4275.8324</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5711,13 +5708,13 @@
         <v>47</v>
       </c>
       <c r="R75" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S75" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T75" s="2">
-        <v>0</v>
+        <v>7.5858188</v>
+      </c>
+      <c r="S75">
+        <v>1625.2409</v>
+      </c>
+      <c r="T75">
+        <v>3292.7362</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5773,13 +5770,13 @@
         <v>47</v>
       </c>
       <c r="R76" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S76" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T76" s="2">
-        <v>0</v>
+        <v>9.237326899999999</v>
+      </c>
+      <c r="S76">
+        <v>1522.8368</v>
+      </c>
+      <c r="T76">
+        <v>3987.1674</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5835,13 +5832,13 @@
         <v>47</v>
       </c>
       <c r="R77" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S77" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T77" s="2">
-        <v>0</v>
+        <v>13.929565</v>
+      </c>
+      <c r="S77">
+        <v>944.80112</v>
+      </c>
+      <c r="T77">
+        <v>4504.7961</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5897,13 +5894,13 @@
         <v>47</v>
       </c>
       <c r="R78" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S78" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T78" s="2">
-        <v>0</v>
+        <v>13.929565</v>
+      </c>
+      <c r="S78">
+        <v>769.7778</v>
+      </c>
+      <c r="T78">
+        <v>3404.875</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5959,13 +5956,13 @@
         <v>47</v>
       </c>
       <c r="R79" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S79" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T79" s="2">
-        <v>0</v>
+        <v>14.876423</v>
+      </c>
+      <c r="S79">
+        <v>764.08613</v>
+      </c>
+      <c r="T79">
+        <v>4090.7988</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6020,14 +6017,14 @@
       <c r="Q80" t="s">
         <v>60</v>
       </c>
-      <c r="R80" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S80" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T80" s="2">
-        <v>0</v>
+      <c r="R80">
+        <v>21.724135</v>
+      </c>
+      <c r="S80">
+        <v>463.76632</v>
+      </c>
+      <c r="T80">
+        <v>5892.5859</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6082,14 +6079,14 @@
       <c r="Q81" t="s">
         <v>60</v>
       </c>
-      <c r="R81" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S81" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T81" s="2">
-        <v>0</v>
+      <c r="R81">
+        <v>21.724135</v>
+      </c>
+      <c r="S81">
+        <v>366.03043</v>
+      </c>
+      <c r="T81">
+        <v>4537.743</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6144,14 +6141,14 @@
       <c r="Q82" t="s">
         <v>60</v>
       </c>
-      <c r="R82" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S82" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T82" s="2">
-        <v>0</v>
+      <c r="R82">
+        <v>20.877411</v>
+      </c>
+      <c r="S82">
+        <v>415.39578</v>
+      </c>
+      <c r="T82">
+        <v>5208.2737</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6207,13 +6204,13 @@
         <v>60</v>
       </c>
       <c r="R83" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S83" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T83" s="2">
-        <v>0</v>
+        <v>19.512947</v>
+      </c>
+      <c r="S83">
+        <v>782.54868</v>
+      </c>
+      <c r="T83">
+        <v>6745.9919</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -6269,13 +6266,13 @@
         <v>60</v>
       </c>
       <c r="R84" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S84" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T84" s="2">
-        <v>0</v>
+        <v>19.512947</v>
+      </c>
+      <c r="S84">
+        <v>588.6911700000001</v>
+      </c>
+      <c r="T84">
+        <v>5338.1408</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -6331,13 +6328,13 @@
         <v>60</v>
       </c>
       <c r="R85" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S85" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T85" s="2">
-        <v>0</v>
+        <v>17.75043</v>
+      </c>
+      <c r="S85">
+        <v>869.32961</v>
+      </c>
+      <c r="T85">
+        <v>6145.0843</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6392,14 +6389,14 @@
       <c r="Q86" t="s">
         <v>47</v>
       </c>
-      <c r="R86" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S86" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T86" s="2">
-        <v>0</v>
+      <c r="R86">
+        <v>21.724135</v>
+      </c>
+      <c r="S86">
+        <v>463.76632</v>
+      </c>
+      <c r="T86">
+        <v>5892.5859</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6454,14 +6451,14 @@
       <c r="Q87" t="s">
         <v>47</v>
       </c>
-      <c r="R87" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S87" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T87" s="2">
-        <v>0</v>
+      <c r="R87">
+        <v>21.724135</v>
+      </c>
+      <c r="S87">
+        <v>366.03043</v>
+      </c>
+      <c r="T87">
+        <v>4537.743</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6516,14 +6513,14 @@
       <c r="Q88" t="s">
         <v>47</v>
       </c>
-      <c r="R88" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S88" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T88" s="2">
-        <v>0</v>
+      <c r="R88">
+        <v>20.877411</v>
+      </c>
+      <c r="S88">
+        <v>415.39578</v>
+      </c>
+      <c r="T88">
+        <v>5208.2737</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -6579,13 +6576,13 @@
         <v>47</v>
       </c>
       <c r="R89" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S89" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T89" s="2">
-        <v>0</v>
+        <v>19.512947</v>
+      </c>
+      <c r="S89">
+        <v>782.54868</v>
+      </c>
+      <c r="T89">
+        <v>6745.9919</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6641,13 +6638,13 @@
         <v>47</v>
       </c>
       <c r="R90" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S90" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T90" s="2">
-        <v>0</v>
+        <v>19.512947</v>
+      </c>
+      <c r="S90">
+        <v>588.6911700000001</v>
+      </c>
+      <c r="T90">
+        <v>5338.1408</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6703,13 +6700,13 @@
         <v>47</v>
       </c>
       <c r="R91" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S91" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T91" s="2">
-        <v>0</v>
+        <v>17.75043</v>
+      </c>
+      <c r="S91">
+        <v>869.32961</v>
+      </c>
+      <c r="T91">
+        <v>6145.0843</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6765,13 +6762,13 @@
         <v>60</v>
       </c>
       <c r="R92" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S92" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T92" s="2">
-        <v>0</v>
+        <v>6.8438591</v>
+      </c>
+      <c r="S92">
+        <v>2994.9107</v>
+      </c>
+      <c r="T92">
+        <v>5371.3485</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6827,13 +6824,13 @@
         <v>60</v>
       </c>
       <c r="R93" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S93" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T93" s="2">
-        <v>0</v>
+        <v>6.8438591</v>
+      </c>
+      <c r="S93">
+        <v>2302.3759</v>
+      </c>
+      <c r="T93">
+        <v>4215.4832</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6889,13 +6886,13 @@
         <v>60</v>
       </c>
       <c r="R94" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S94" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T94" s="2">
-        <v>0</v>
+        <v>8.074429500000001</v>
+      </c>
+      <c r="S94">
+        <v>2324.2801</v>
+      </c>
+      <c r="T94">
+        <v>4960.0763</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6951,13 +6948,13 @@
         <v>60</v>
       </c>
       <c r="R95" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S95" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T95" s="2">
-        <v>0</v>
+        <v>7.7125303</v>
+      </c>
+      <c r="S95">
+        <v>2785.6887</v>
+      </c>
+      <c r="T95">
+        <v>6065.4284</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -7013,13 +7010,13 @@
         <v>60</v>
       </c>
       <c r="R96" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S96" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T96" s="2">
-        <v>0</v>
+        <v>7.7125303</v>
+      </c>
+      <c r="S96">
+        <v>2151.6866</v>
+      </c>
+      <c r="T96">
+        <v>4712.6762</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7075,13 +7072,13 @@
         <v>60</v>
       </c>
       <c r="R97" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S97" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T97" s="2">
-        <v>0</v>
+        <v>7.7480291</v>
+      </c>
+      <c r="S97">
+        <v>2428.0618</v>
+      </c>
+      <c r="T97">
+        <v>5298.345</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7137,13 +7134,13 @@
         <v>47</v>
       </c>
       <c r="R98" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S98" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T98" s="2">
-        <v>0</v>
+        <v>6.8438591</v>
+      </c>
+      <c r="S98">
+        <v>2994.9107</v>
+      </c>
+      <c r="T98">
+        <v>5371.3485</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7199,13 +7196,13 @@
         <v>47</v>
       </c>
       <c r="R99" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S99" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T99" s="2">
-        <v>0</v>
+        <v>6.8438591</v>
+      </c>
+      <c r="S99">
+        <v>2302.3759</v>
+      </c>
+      <c r="T99">
+        <v>4215.4832</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7261,13 +7258,13 @@
         <v>47</v>
       </c>
       <c r="R100" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S100" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T100" s="2">
-        <v>0</v>
+        <v>8.074429500000001</v>
+      </c>
+      <c r="S100">
+        <v>2324.2801</v>
+      </c>
+      <c r="T100">
+        <v>4960.0763</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7323,13 +7320,13 @@
         <v>47</v>
       </c>
       <c r="R101" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S101" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T101" s="2">
-        <v>0</v>
+        <v>7.7125303</v>
+      </c>
+      <c r="S101">
+        <v>2785.6887</v>
+      </c>
+      <c r="T101">
+        <v>6065.4284</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7385,13 +7382,13 @@
         <v>47</v>
       </c>
       <c r="R102" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S102" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T102" s="2">
-        <v>0</v>
+        <v>7.7125303</v>
+      </c>
+      <c r="S102">
+        <v>2151.6866</v>
+      </c>
+      <c r="T102">
+        <v>4712.6762</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7447,13 +7444,13 @@
         <v>47</v>
       </c>
       <c r="R103" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S103" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T103" s="2">
-        <v>0</v>
+        <v>7.7480291</v>
+      </c>
+      <c r="S103">
+        <v>2428.0618</v>
+      </c>
+      <c r="T103">
+        <v>5298.345</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7508,14 +7505,14 @@
       <c r="Q104" t="s">
         <v>35</v>
       </c>
-      <c r="R104" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S104" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T104" s="2">
-        <v>0</v>
+      <c r="R104">
+        <v>26.804211</v>
+      </c>
+      <c r="S104">
+        <v>255.71779</v>
+      </c>
+      <c r="T104">
+        <v>6657.5796</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -7571,13 +7568,13 @@
         <v>47</v>
       </c>
       <c r="R105" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S105" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T105" s="2">
-        <v>0</v>
+        <v>19.672676</v>
+      </c>
+      <c r="S105">
+        <v>781.90113</v>
+      </c>
+      <c r="T105">
+        <v>8063.3165</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7633,13 +7630,13 @@
         <v>47</v>
       </c>
       <c r="R106" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S106" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T106" s="2">
-        <v>0</v>
+        <v>17.050404</v>
+      </c>
+      <c r="S106">
+        <v>1057.8063</v>
+      </c>
+      <c r="T106">
+        <v>9136.5507</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7695,13 +7692,13 @@
         <v>60</v>
       </c>
       <c r="R107" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S107" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T107" s="2">
-        <v>0</v>
+        <v>18.41745</v>
+      </c>
+      <c r="S107">
+        <v>441.48253</v>
+      </c>
+      <c r="T107">
+        <v>3538.3135</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7756,14 +7753,14 @@
       <c r="Q108" t="s">
         <v>60</v>
       </c>
-      <c r="R108" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S108" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T108" s="2">
-        <v>0</v>
+      <c r="R108">
+        <v>25.130966</v>
+      </c>
+      <c r="S108">
+        <v>228.56959</v>
+      </c>
+      <c r="T108">
+        <v>4685.7812</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7819,13 +7816,13 @@
         <v>60</v>
       </c>
       <c r="R109" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S109" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T109" s="2">
-        <v>0</v>
+        <v>10.667106</v>
+      </c>
+      <c r="S109">
+        <v>1081.7161</v>
+      </c>
+      <c r="T109">
+        <v>3716.093</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7881,13 +7878,13 @@
         <v>60</v>
       </c>
       <c r="R110" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S110" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T110" s="2">
-        <v>0</v>
+        <v>10.595345</v>
+      </c>
+      <c r="S110">
+        <v>1687.6689</v>
+      </c>
+      <c r="T110">
+        <v>4997.5189</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7943,13 +7940,13 @@
         <v>60</v>
       </c>
       <c r="R111" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S111" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T111" s="2">
-        <v>0</v>
+        <v>11.306782</v>
+      </c>
+      <c r="S111">
+        <v>1278.6791</v>
+      </c>
+      <c r="T111">
+        <v>4451.5063</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -8005,13 +8002,13 @@
         <v>60</v>
       </c>
       <c r="R112" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S112" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T112" s="2">
-        <v>0</v>
+        <v>15.120121</v>
+      </c>
+      <c r="S112">
+        <v>882.5001099999999</v>
+      </c>
+      <c r="T112">
+        <v>5228.5521</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -8067,13 +8064,13 @@
         <v>47</v>
       </c>
       <c r="R113" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S113" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T113" s="2">
-        <v>0</v>
+        <v>19.672676</v>
+      </c>
+      <c r="S113">
+        <v>618.13332</v>
+      </c>
+      <c r="T113">
+        <v>6185.293</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8129,13 +8126,13 @@
         <v>47</v>
       </c>
       <c r="R114" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S114" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T114" s="2">
-        <v>0</v>
+        <v>18.102156</v>
+      </c>
+      <c r="S114">
+        <v>755.41031</v>
+      </c>
+      <c r="T114">
+        <v>6321.0428</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -8191,13 +8188,13 @@
         <v>47</v>
       </c>
       <c r="R115" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S115" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T115" s="2">
-        <v>0</v>
+        <v>18.102156</v>
+      </c>
+      <c r="S115">
+        <v>575.68358</v>
+      </c>
+      <c r="T115">
+        <v>4900.8738</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -8253,13 +8250,13 @@
         <v>47</v>
       </c>
       <c r="R116" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S116" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T116" s="2">
-        <v>0</v>
+        <v>17.050404</v>
+      </c>
+      <c r="S116">
+        <v>826.33644</v>
+      </c>
+      <c r="T116">
+        <v>7069.5909</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -8315,13 +8312,13 @@
         <v>47</v>
       </c>
       <c r="R117" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S117" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T117" s="2">
-        <v>0</v>
+        <v>16.211144</v>
+      </c>
+      <c r="S117">
+        <v>1011.0244</v>
+      </c>
+      <c r="T117">
+        <v>7398.0066</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -8377,13 +8374,13 @@
         <v>47</v>
       </c>
       <c r="R118" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S118" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T118" s="2">
-        <v>0</v>
+        <v>16.211144</v>
+      </c>
+      <c r="S118">
+        <v>769.65944</v>
+      </c>
+      <c r="T118">
+        <v>5733.4233</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -8439,13 +8436,13 @@
         <v>60</v>
       </c>
       <c r="R119" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S119" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T119" s="2">
-        <v>0</v>
+        <v>13.930503</v>
+      </c>
+      <c r="S119">
+        <v>1035.4271</v>
+      </c>
+      <c r="T119">
+        <v>4928.6644</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8501,13 +8498,13 @@
         <v>60</v>
       </c>
       <c r="R120" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S120" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T120" s="2">
-        <v>0</v>
+        <v>13.930503</v>
+      </c>
+      <c r="S120">
+        <v>826.92922</v>
+      </c>
+      <c r="T120">
+        <v>3781.1355</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -8563,13 +8560,13 @@
         <v>60</v>
       </c>
       <c r="R121" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S121" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T121" s="2">
-        <v>0</v>
+        <v>18.41745</v>
+      </c>
+      <c r="S121">
+        <v>558.00051</v>
+      </c>
+      <c r="T121">
+        <v>4678.6114</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -8624,14 +8621,14 @@
       <c r="Q122" t="s">
         <v>60</v>
       </c>
-      <c r="R122" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S122" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T122" s="2">
-        <v>0</v>
+      <c r="R122">
+        <v>25.637586</v>
+      </c>
+      <c r="S122">
+        <v>319.13085</v>
+      </c>
+      <c r="T122">
+        <v>6704.2121</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8686,14 +8683,14 @@
       <c r="Q123" t="s">
         <v>60</v>
       </c>
-      <c r="R123" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S123" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T123" s="2">
-        <v>0</v>
+      <c r="R123">
+        <v>25.637586</v>
+      </c>
+      <c r="S123">
+        <v>250.60869</v>
+      </c>
+      <c r="T123">
+        <v>5275.3591</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8748,14 +8745,14 @@
       <c r="Q124" t="s">
         <v>60</v>
       </c>
-      <c r="R124" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S124" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T124" s="2">
-        <v>0</v>
+      <c r="R124">
+        <v>25.130966</v>
+      </c>
+      <c r="S124">
+        <v>292.38133</v>
+      </c>
+      <c r="T124">
+        <v>5996.7292</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8811,13 +8808,13 @@
         <v>47</v>
       </c>
       <c r="R125" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S125" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T125" s="2">
-        <v>0</v>
+        <v>13.930503</v>
+      </c>
+      <c r="S125">
+        <v>1035.4271</v>
+      </c>
+      <c r="T125">
+        <v>4928.6644</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8873,13 +8870,13 @@
         <v>47</v>
       </c>
       <c r="R126" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S126" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T126" s="2">
-        <v>0</v>
+        <v>13.930503</v>
+      </c>
+      <c r="S126">
+        <v>826.92922</v>
+      </c>
+      <c r="T126">
+        <v>3781.1355</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8935,13 +8932,13 @@
         <v>47</v>
       </c>
       <c r="R127" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S127" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T127" s="2">
-        <v>0</v>
+        <v>18.41745</v>
+      </c>
+      <c r="S127">
+        <v>558.00051</v>
+      </c>
+      <c r="T127">
+        <v>4678.6114</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8996,14 +8993,14 @@
       <c r="Q128" t="s">
         <v>47</v>
       </c>
-      <c r="R128" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S128" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T128" s="2">
-        <v>0</v>
+      <c r="R128">
+        <v>25.637586</v>
+      </c>
+      <c r="S128">
+        <v>319.13085</v>
+      </c>
+      <c r="T128">
+        <v>6704.2121</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -9058,14 +9055,14 @@
       <c r="Q129" t="s">
         <v>47</v>
       </c>
-      <c r="R129" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S129" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T129" s="2">
-        <v>0</v>
+      <c r="R129">
+        <v>25.637586</v>
+      </c>
+      <c r="S129">
+        <v>250.60869</v>
+      </c>
+      <c r="T129">
+        <v>5275.3591</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -9120,14 +9117,14 @@
       <c r="Q130" t="s">
         <v>47</v>
       </c>
-      <c r="R130" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S130" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T130" s="2">
-        <v>0</v>
+      <c r="R130">
+        <v>25.130966</v>
+      </c>
+      <c r="S130">
+        <v>292.38133</v>
+      </c>
+      <c r="T130">
+        <v>5996.7292</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -9183,13 +9180,13 @@
         <v>60</v>
       </c>
       <c r="R131" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S131" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T131" s="2">
-        <v>0</v>
+        <v>13.136666</v>
+      </c>
+      <c r="S131">
+        <v>1326.7784</v>
+      </c>
+      <c r="T131">
+        <v>5876.166</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9245,13 +9242,13 @@
         <v>60</v>
       </c>
       <c r="R132" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S132" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T132" s="2">
-        <v>0</v>
+        <v>13.136666</v>
+      </c>
+      <c r="S132">
+        <v>1005.3973</v>
+      </c>
+      <c r="T132">
+        <v>4623.8789</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9307,13 +9304,13 @@
         <v>60</v>
       </c>
       <c r="R133" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S133" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T133" s="2">
-        <v>0</v>
+        <v>10.667106</v>
+      </c>
+      <c r="S133">
+        <v>1411.4398</v>
+      </c>
+      <c r="T133">
+        <v>4712.2383</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9369,13 +9366,13 @@
         <v>60</v>
       </c>
       <c r="R134" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S134" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T134" s="2">
-        <v>0</v>
+        <v>12.402625</v>
+      </c>
+      <c r="S134">
+        <v>2205.3558</v>
+      </c>
+      <c r="T134">
+        <v>7284.3782</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -9431,13 +9428,13 @@
         <v>60</v>
       </c>
       <c r="R135" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S135" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T135" s="2">
-        <v>0</v>
+        <v>12.402625</v>
+      </c>
+      <c r="S135">
+        <v>1653.733</v>
+      </c>
+      <c r="T135">
+        <v>5875.8674</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9493,13 +9490,13 @@
         <v>60</v>
       </c>
       <c r="R136" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S136" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T136" s="2">
-        <v>0</v>
+        <v>10.595345</v>
+      </c>
+      <c r="S136">
+        <v>2252.7486</v>
+      </c>
+      <c r="T136">
+        <v>6214.6439</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9555,13 +9552,13 @@
         <v>47</v>
       </c>
       <c r="R137" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S137" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T137" s="2">
-        <v>0</v>
+        <v>13.136666</v>
+      </c>
+      <c r="S137">
+        <v>1326.7784</v>
+      </c>
+      <c r="T137">
+        <v>5876.166</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9617,13 +9614,13 @@
         <v>47</v>
       </c>
       <c r="R138" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S138" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T138" s="2">
-        <v>0</v>
+        <v>13.136666</v>
+      </c>
+      <c r="S138">
+        <v>1005.3973</v>
+      </c>
+      <c r="T138">
+        <v>4623.8789</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9679,13 +9676,13 @@
         <v>47</v>
       </c>
       <c r="R139" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S139" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T139" s="2">
-        <v>0</v>
+        <v>10.667106</v>
+      </c>
+      <c r="S139">
+        <v>1411.4398</v>
+      </c>
+      <c r="T139">
+        <v>4712.2383</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9741,13 +9738,13 @@
         <v>47</v>
       </c>
       <c r="R140" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S140" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T140" s="2">
-        <v>0</v>
+        <v>12.402625</v>
+      </c>
+      <c r="S140">
+        <v>2205.3558</v>
+      </c>
+      <c r="T140">
+        <v>7284.3782</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9803,13 +9800,13 @@
         <v>47</v>
       </c>
       <c r="R141" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S141" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T141" s="2">
-        <v>0</v>
+        <v>12.402625</v>
+      </c>
+      <c r="S141">
+        <v>1653.733</v>
+      </c>
+      <c r="T141">
+        <v>5875.8674</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9865,13 +9862,13 @@
         <v>47</v>
       </c>
       <c r="R142" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S142" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T142" s="2">
-        <v>0</v>
+        <v>10.595345</v>
+      </c>
+      <c r="S142">
+        <v>2252.7486</v>
+      </c>
+      <c r="T142">
+        <v>6214.6439</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -9927,13 +9924,13 @@
         <v>60</v>
       </c>
       <c r="R143" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S143" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T143" s="2">
-        <v>0</v>
+        <v>10.141844</v>
+      </c>
+      <c r="S143">
+        <v>2227.2741</v>
+      </c>
+      <c r="T143">
+        <v>6226.4257</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9989,13 +9986,13 @@
         <v>60</v>
       </c>
       <c r="R144" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S144" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T144" s="2">
-        <v>0</v>
+        <v>10.141844</v>
+      </c>
+      <c r="S144">
+        <v>1686.6699</v>
+      </c>
+      <c r="T144">
+        <v>4894.2352</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10051,13 +10048,13 @@
         <v>60</v>
       </c>
       <c r="R145" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S145" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T145" s="2">
-        <v>0</v>
+        <v>11.306782</v>
+      </c>
+      <c r="S145">
+        <v>1717.2592</v>
+      </c>
+      <c r="T145">
+        <v>5696.3618</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10113,13 +10110,13 @@
         <v>60</v>
       </c>
       <c r="R146" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S146" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T146" s="2">
-        <v>0</v>
+        <v>15.388891</v>
+      </c>
+      <c r="S146">
+        <v>1234.3987</v>
+      </c>
+      <c r="T146">
+        <v>7441.9235</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -10175,13 +10172,13 @@
         <v>60</v>
       </c>
       <c r="R147" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S147" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T147" s="2">
-        <v>0</v>
+        <v>15.388891</v>
+      </c>
+      <c r="S147">
+        <v>965.51456</v>
+      </c>
+      <c r="T147">
+        <v>5826.56</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10237,13 +10234,13 @@
         <v>60</v>
       </c>
       <c r="R148" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S148" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T148" s="2">
-        <v>0</v>
+        <v>15.120121</v>
+      </c>
+      <c r="S148">
+        <v>1146.5373</v>
+      </c>
+      <c r="T148">
+        <v>6706.1028</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -10299,13 +10296,13 @@
         <v>47</v>
       </c>
       <c r="R149" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S149" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T149" s="2">
-        <v>0</v>
+        <v>10.141844</v>
+      </c>
+      <c r="S149">
+        <v>2227.2741</v>
+      </c>
+      <c r="T149">
+        <v>6226.4257</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -10361,13 +10358,13 @@
         <v>47</v>
       </c>
       <c r="R150" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S150" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T150" s="2">
-        <v>0</v>
+        <v>10.141844</v>
+      </c>
+      <c r="S150">
+        <v>1686.6699</v>
+      </c>
+      <c r="T150">
+        <v>4894.2352</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10423,13 +10420,13 @@
         <v>47</v>
       </c>
       <c r="R151" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S151" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T151" s="2">
-        <v>0</v>
+        <v>11.306782</v>
+      </c>
+      <c r="S151">
+        <v>1717.2592</v>
+      </c>
+      <c r="T151">
+        <v>5696.3618</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10485,13 +10482,13 @@
         <v>47</v>
       </c>
       <c r="R152" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S152" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T152" s="2">
-        <v>0</v>
+        <v>15.388891</v>
+      </c>
+      <c r="S152">
+        <v>1234.3987</v>
+      </c>
+      <c r="T152">
+        <v>7441.9235</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -10547,13 +10544,13 @@
         <v>47</v>
       </c>
       <c r="R153" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S153" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T153" s="2">
-        <v>0</v>
+        <v>15.388891</v>
+      </c>
+      <c r="S153">
+        <v>965.51456</v>
+      </c>
+      <c r="T153">
+        <v>5826.56</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10609,13 +10606,13 @@
         <v>47</v>
       </c>
       <c r="R154" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S154" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T154" s="2">
-        <v>0</v>
+        <v>15.120121</v>
+      </c>
+      <c r="S154">
+        <v>1146.5373</v>
+      </c>
+      <c r="T154">
+        <v>6706.1028</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="1" customFormat="1">
@@ -10685,10 +10682,10 @@
         <v>221</v>
       </c>
       <c r="R156" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S156" s="2">
-        <v>1E-06</v>
+        <v>-28.273048</v>
+      </c>
+      <c r="S156" s="1">
+        <v>228.56959</v>
       </c>
       <c r="T156" s="2">
         <v>0</v>
@@ -10698,14 +10695,14 @@
       <c r="Q157" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="R157" s="2">
-        <v>-1600</v>
-      </c>
-      <c r="S157" s="2">
-        <v>1E-06</v>
-      </c>
-      <c r="T157" s="2">
-        <v>0</v>
+      <c r="R157" s="1">
+        <v>26.804211</v>
+      </c>
+      <c r="S157" s="1">
+        <v>8769.964900000001</v>
+      </c>
+      <c r="T157" s="1">
+        <v>10200.09</v>
       </c>
     </row>
     <row r="158" spans="1:20" s="1" customFormat="1">
@@ -10751,13 +10748,13 @@
         <v>227</v>
       </c>
       <c r="R162" s="1">
-        <v>-1600</v>
+        <v>9.620355720196088</v>
       </c>
       <c r="S162" s="1">
-        <v>9.999999999999978E-07</v>
+        <v>2014.621296928104</v>
       </c>
       <c r="T162" s="1">
-        <v>0</v>
+        <v>4026.79007097965</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
@@ -10765,13 +10762,13 @@
         <v>228</v>
       </c>
       <c r="R163" s="1">
-        <v>0</v>
+        <v>9.839821939776744</v>
       </c>
       <c r="S163" s="1">
-        <v>2.117582368135751E-21</v>
+        <v>1597.272402014863</v>
       </c>
       <c r="T163" s="1">
-        <v>0</v>
+        <v>2450.346531598365</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
@@ -10779,13 +10776,13 @@
         <v>229</v>
       </c>
       <c r="R164" s="1">
-        <v>0</v>
+        <v>102.2812692790551</v>
       </c>
       <c r="S164" s="1">
-        <v>2.117582368135755E-13</v>
-      </c>
-      <c r="T164" s="1" t="s">
-        <v>230</v>
+        <v>79.2840026287017</v>
+      </c>
+      <c r="T164" s="1">
+        <v>60.85111188828965</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>

--- a/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
+++ b/dcd_opamp_ac_feb28_tsmc2p_meas.xlsx
@@ -103,7 +103,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>0.42</t>
+    <t>0.65</t>
   </si>
   <si>
     <t>0.75</t>
@@ -151,7 +151,7 @@
     <t>125</t>
   </si>
   <si>
-    <t>0.441</t>
+    <t>0.702</t>
   </si>
   <si>
     <t>0.825</t>
@@ -190,7 +190,7 @@
     <t>cap_h</t>
   </si>
   <si>
-    <t>0.386</t>
+    <t>0.585</t>
   </si>
   <si>
     <t>0.675</t>
@@ -1182,13 +1182,13 @@
         <v>35</v>
       </c>
       <c r="R2" s="2">
-        <v>-0.4596503</v>
+        <v>8.2623248</v>
       </c>
       <c r="S2">
-        <v>3638.7747</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
+        <v>2247.671</v>
+      </c>
+      <c r="T2">
+        <v>5535.2371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1244,13 +1244,13 @@
         <v>47</v>
       </c>
       <c r="R3" s="2">
-        <v>-3.7440889</v>
+        <v>8.829784</v>
       </c>
       <c r="S3">
-        <v>4568.0957</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
+        <v>2151.6256</v>
+      </c>
+      <c r="T3">
+        <v>6440.5309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1306,13 +1306,13 @@
         <v>47</v>
       </c>
       <c r="R4" s="2">
-        <v>-15.162484</v>
+        <v>5.9779546</v>
       </c>
       <c r="S4">
-        <v>5032.5723</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
+        <v>4200.7378</v>
+      </c>
+      <c r="T4">
+        <v>7370.719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1368,13 +1368,13 @@
         <v>60</v>
       </c>
       <c r="R5" s="2">
-        <v>2.6941397</v>
+        <v>12.601511</v>
       </c>
       <c r="S5">
-        <v>2194.1485</v>
+        <v>784.69156</v>
       </c>
       <c r="T5">
-        <v>2024.7707</v>
+        <v>3648.1859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1430,13 +1430,13 @@
         <v>60</v>
       </c>
       <c r="R6" s="2">
-        <v>0.6845267900000001</v>
+        <v>10.635951</v>
       </c>
       <c r="S6">
-        <v>2356.5088</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0.006754185</v>
+        <v>1573.1081</v>
+      </c>
+      <c r="T6">
+        <v>4778.5769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1492,13 +1492,13 @@
         <v>60</v>
       </c>
       <c r="R7" s="2">
-        <v>-0.85898486</v>
+        <v>5.5309681</v>
       </c>
       <c r="S7">
-        <v>3129.2533</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
+        <v>2128.7712</v>
+      </c>
+      <c r="T7">
+        <v>3298.7125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1554,13 +1554,13 @@
         <v>60</v>
       </c>
       <c r="R8" s="2">
-        <v>-3.3941895</v>
+        <v>4.8600759</v>
       </c>
       <c r="S8">
-        <v>5756.3509</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
+        <v>3122.1153</v>
+      </c>
+      <c r="T8">
+        <v>4172.5454</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1615,14 +1615,14 @@
       <c r="Q9" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="2">
-        <v>2.4850371</v>
+      <c r="R9">
+        <v>20.119321</v>
       </c>
       <c r="S9">
-        <v>1742.5636</v>
+        <v>385.80108</v>
       </c>
       <c r="T9">
-        <v>1448.2627</v>
+        <v>4119.8067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1678,13 +1678,13 @@
         <v>60</v>
       </c>
       <c r="R10" s="2">
-        <v>-1.2473155</v>
+        <v>12.397002</v>
       </c>
       <c r="S10">
-        <v>2394.41</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
+        <v>1088.8204</v>
+      </c>
+      <c r="T10">
+        <v>4991.5672</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1740,13 +1740,13 @@
         <v>47</v>
       </c>
       <c r="R11" s="2">
-        <v>-3.7440889</v>
+        <v>8.829784</v>
       </c>
       <c r="S11">
-        <v>3742.1518</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
+        <v>1708.9227</v>
+      </c>
+      <c r="T11">
+        <v>5118.2438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1802,13 +1802,13 @@
         <v>47</v>
       </c>
       <c r="R12" s="2">
-        <v>-10.516069</v>
+        <v>8.158432400000001</v>
       </c>
       <c r="S12">
-        <v>3489.7413</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
+        <v>1651.3459</v>
+      </c>
+      <c r="T12">
+        <v>4748.2023</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1864,13 +1864,13 @@
         <v>47</v>
       </c>
       <c r="R13" s="2">
-        <v>-10.516069</v>
+        <v>8.158432400000001</v>
       </c>
       <c r="S13">
-        <v>2858.3233</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
+        <v>1322.3856</v>
+      </c>
+      <c r="T13">
+        <v>3763.8809</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1926,13 +1926,13 @@
         <v>47</v>
       </c>
       <c r="R14" s="2">
-        <v>-15.162484</v>
+        <v>5.9779546</v>
       </c>
       <c r="S14">
-        <v>4133.7975</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
+        <v>3177.146</v>
+      </c>
+      <c r="T14">
+        <v>5887.9456</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1988,13 +1988,13 @@
         <v>47</v>
       </c>
       <c r="R15" s="2">
-        <v>-28.273048</v>
+        <v>5.0036618</v>
       </c>
       <c r="S15">
-        <v>8769.964900000001</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
+        <v>3262.2934</v>
+      </c>
+      <c r="T15">
+        <v>5239.8631</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2050,13 +2050,13 @@
         <v>47</v>
       </c>
       <c r="R16" s="2">
-        <v>-28.273048</v>
+        <v>5.0036618</v>
       </c>
       <c r="S16">
-        <v>7281.1196</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
+        <v>2464.1341</v>
+      </c>
+      <c r="T16">
+        <v>4136.3297</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2112,13 +2112,13 @@
         <v>60</v>
       </c>
       <c r="R17" s="2">
-        <v>4.2708352</v>
+        <v>15.575786</v>
       </c>
       <c r="S17">
-        <v>2849.1529</v>
+        <v>858.96924</v>
       </c>
       <c r="T17">
-        <v>3586.7358</v>
+        <v>5745.0116</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2174,13 +2174,13 @@
         <v>60</v>
       </c>
       <c r="R18" s="2">
-        <v>4.2708352</v>
+        <v>15.575786</v>
       </c>
       <c r="S18">
-        <v>2245.7867</v>
+        <v>657.30704</v>
       </c>
       <c r="T18">
-        <v>2909.0616</v>
+        <v>4523.525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2236,13 +2236,13 @@
         <v>60</v>
       </c>
       <c r="R19" s="2">
-        <v>2.6941397</v>
+        <v>12.601511</v>
       </c>
       <c r="S19">
-        <v>2756.9492</v>
+        <v>1016.6855</v>
       </c>
       <c r="T19">
-        <v>2576.0064</v>
+        <v>4642.3941</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2298,13 +2298,13 @@
         <v>60</v>
       </c>
       <c r="R20" s="2">
-        <v>2.3476535</v>
+        <v>12.218335</v>
       </c>
       <c r="S20">
-        <v>3017.7587</v>
+        <v>2163.2892</v>
       </c>
       <c r="T20">
-        <v>2653.6275</v>
+        <v>6997.5602</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2360,13 +2360,13 @@
         <v>60</v>
       </c>
       <c r="R21" s="2">
-        <v>2.3476535</v>
+        <v>12.218335</v>
       </c>
       <c r="S21">
-        <v>2510.1101</v>
+        <v>1590.5531</v>
       </c>
       <c r="T21">
-        <v>2162.9733</v>
+        <v>5763.8683</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2422,13 +2422,13 @@
         <v>60</v>
       </c>
       <c r="R22" s="2">
-        <v>0.6845267900000001</v>
+        <v>10.635951</v>
       </c>
       <c r="S22">
-        <v>2792.9112</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0.006754184900000001</v>
+        <v>2115.1237</v>
+      </c>
+      <c r="T22">
+        <v>5851.6392</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2484,13 +2484,13 @@
         <v>47</v>
       </c>
       <c r="R23" s="2">
-        <v>4.2708352</v>
+        <v>15.575786</v>
       </c>
       <c r="S23">
-        <v>2849.1529</v>
+        <v>858.96924</v>
       </c>
       <c r="T23">
-        <v>3586.7358</v>
+        <v>5745.0116</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2546,13 +2546,13 @@
         <v>47</v>
       </c>
       <c r="R24" s="2">
-        <v>4.2708352</v>
+        <v>15.575786</v>
       </c>
       <c r="S24">
-        <v>2245.7867</v>
+        <v>657.30704</v>
       </c>
       <c r="T24">
-        <v>2909.0616</v>
+        <v>4523.525</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2608,13 +2608,13 @@
         <v>47</v>
       </c>
       <c r="R25" s="2">
-        <v>2.6941397</v>
+        <v>12.601511</v>
       </c>
       <c r="S25">
-        <v>2756.9492</v>
+        <v>1016.6855</v>
       </c>
       <c r="T25">
-        <v>2576.0064</v>
+        <v>4642.3941</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2670,13 +2670,13 @@
         <v>47</v>
       </c>
       <c r="R26" s="2">
-        <v>2.3476535</v>
+        <v>12.218335</v>
       </c>
       <c r="S26">
-        <v>3017.7587</v>
+        <v>2163.2892</v>
       </c>
       <c r="T26">
-        <v>2653.6275</v>
+        <v>6997.5602</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2732,13 +2732,13 @@
         <v>47</v>
       </c>
       <c r="R27" s="2">
-        <v>2.3476535</v>
+        <v>12.218335</v>
       </c>
       <c r="S27">
-        <v>2510.1101</v>
+        <v>1590.5531</v>
       </c>
       <c r="T27">
-        <v>2162.9733</v>
+        <v>5763.8683</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2794,13 +2794,13 @@
         <v>47</v>
       </c>
       <c r="R28" s="2">
-        <v>0.6845267900000001</v>
+        <v>10.635951</v>
       </c>
       <c r="S28">
-        <v>2792.9112</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0.006754184900000001</v>
+        <v>2115.1237</v>
+      </c>
+      <c r="T28">
+        <v>5851.6392</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2856,13 +2856,13 @@
         <v>60</v>
       </c>
       <c r="R29" s="2">
-        <v>1.2436527</v>
+        <v>7.1571849</v>
       </c>
       <c r="S29">
-        <v>4415.9484</v>
+        <v>2851.152</v>
       </c>
       <c r="T29">
-        <v>3187.1937</v>
+        <v>5262.6236</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2918,13 +2918,13 @@
         <v>60</v>
       </c>
       <c r="R30" s="2">
-        <v>1.2436527</v>
+        <v>7.1571849</v>
       </c>
       <c r="S30">
-        <v>3625.5272</v>
+        <v>2183.7953</v>
       </c>
       <c r="T30">
-        <v>2467.5265</v>
+        <v>4210.5878</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2980,13 +2980,13 @@
         <v>60</v>
       </c>
       <c r="R31" s="2">
-        <v>-0.85898486</v>
+        <v>5.5309681</v>
       </c>
       <c r="S31">
-        <v>3747.0411</v>
-      </c>
-      <c r="T31" s="2">
-        <v>0</v>
+        <v>2760.2424</v>
+      </c>
+      <c r="T31">
+        <v>4126.4614</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3042,13 +3042,13 @@
         <v>60</v>
       </c>
       <c r="R32" s="2">
-        <v>-0.36712999</v>
+        <v>6.6607203</v>
       </c>
       <c r="S32">
-        <v>6487.9231</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0.0050948601</v>
+        <v>4093.2768</v>
+      </c>
+      <c r="T32">
+        <v>6670.5244</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3104,13 +3104,13 @@
         <v>60</v>
       </c>
       <c r="R33" s="2">
-        <v>-0.36712999</v>
+        <v>6.6607203</v>
       </c>
       <c r="S33">
-        <v>5480.1732</v>
-      </c>
-      <c r="T33" s="2">
-        <v>0.0050948598</v>
+        <v>3163.8778</v>
+      </c>
+      <c r="T33">
+        <v>5398.9299</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3166,13 +3166,13 @@
         <v>60</v>
       </c>
       <c r="R34" s="2">
-        <v>-3.3941895</v>
+        <v>4.8600759</v>
       </c>
       <c r="S34">
-        <v>6765.1621</v>
-      </c>
-      <c r="T34" s="2">
-        <v>0</v>
+        <v>4000.3248</v>
+      </c>
+      <c r="T34">
+        <v>5198.795</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3228,13 +3228,13 @@
         <v>47</v>
       </c>
       <c r="R35" s="2">
-        <v>1.2436527</v>
+        <v>7.1571849</v>
       </c>
       <c r="S35">
-        <v>4415.9484</v>
+        <v>2851.152</v>
       </c>
       <c r="T35">
-        <v>3187.1937</v>
+        <v>5262.6236</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3290,13 +3290,13 @@
         <v>47</v>
       </c>
       <c r="R36" s="2">
-        <v>1.2436527</v>
+        <v>7.1571849</v>
       </c>
       <c r="S36">
-        <v>3625.5272</v>
+        <v>2183.7953</v>
       </c>
       <c r="T36">
-        <v>2467.5265</v>
+        <v>4210.5878</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3352,13 +3352,13 @@
         <v>47</v>
       </c>
       <c r="R37" s="2">
-        <v>-0.85898486</v>
+        <v>5.5309681</v>
       </c>
       <c r="S37">
-        <v>3747.0411</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
+        <v>2760.2424</v>
+      </c>
+      <c r="T37">
+        <v>4126.4614</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3414,13 +3414,13 @@
         <v>47</v>
       </c>
       <c r="R38" s="2">
-        <v>-0.36712999</v>
+        <v>6.6607203</v>
       </c>
       <c r="S38">
-        <v>6487.9231</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0.0050948601</v>
+        <v>4093.2768</v>
+      </c>
+      <c r="T38">
+        <v>6670.5244</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3476,13 +3476,13 @@
         <v>47</v>
       </c>
       <c r="R39" s="2">
-        <v>-0.36712999</v>
+        <v>6.6607203</v>
       </c>
       <c r="S39">
-        <v>5480.1732</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0.0050948598</v>
+        <v>3163.8778</v>
+      </c>
+      <c r="T39">
+        <v>5398.9299</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3538,13 +3538,13 @@
         <v>47</v>
       </c>
       <c r="R40" s="2">
-        <v>-3.3941895</v>
+        <v>4.8600759</v>
       </c>
       <c r="S40">
-        <v>6765.1621</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
+        <v>4000.3248</v>
+      </c>
+      <c r="T40">
+        <v>5198.795</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3600,13 +3600,13 @@
         <v>60</v>
       </c>
       <c r="R41" s="2">
-        <v>3.764144</v>
+        <v>19.81364</v>
       </c>
       <c r="S41">
-        <v>2619.1239</v>
+        <v>635.45586</v>
       </c>
       <c r="T41">
-        <v>3137.8667</v>
+        <v>6682.4282</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3662,13 +3662,13 @@
         <v>60</v>
       </c>
       <c r="R42" s="2">
-        <v>3.764144</v>
+        <v>19.81364</v>
       </c>
       <c r="S42">
-        <v>2042.0028</v>
+        <v>502.83411</v>
       </c>
       <c r="T42">
-        <v>2485.1918</v>
+        <v>5181.1365</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3723,14 +3723,14 @@
       <c r="Q43" t="s">
         <v>60</v>
       </c>
-      <c r="R43" s="2">
-        <v>2.4850371</v>
+      <c r="R43">
+        <v>20.119321</v>
       </c>
       <c r="S43">
-        <v>2230.2307</v>
+        <v>489.46918</v>
       </c>
       <c r="T43">
-        <v>1881.5706</v>
+        <v>5368.5527</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3786,13 +3786,13 @@
         <v>60</v>
       </c>
       <c r="R44" s="2">
-        <v>0.59307054</v>
+        <v>13.017138</v>
       </c>
       <c r="S44">
-        <v>3724.4485</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0.0027794729</v>
+        <v>1618.3605</v>
+      </c>
+      <c r="T44">
+        <v>7522.2014</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3848,13 +3848,13 @@
         <v>60</v>
       </c>
       <c r="R45" s="2">
-        <v>0.59307054</v>
+        <v>13.017138</v>
       </c>
       <c r="S45">
-        <v>3058.8852</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0.0027794729</v>
+        <v>1246.2998</v>
+      </c>
+      <c r="T45">
+        <v>6041.3567</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3910,13 +3910,13 @@
         <v>60</v>
       </c>
       <c r="R46" s="2">
-        <v>-1.2473155</v>
+        <v>12.397002</v>
       </c>
       <c r="S46">
-        <v>2894.8505</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0</v>
+        <v>1396.6022</v>
+      </c>
+      <c r="T46">
+        <v>6255.5767</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3972,13 +3972,13 @@
         <v>47</v>
       </c>
       <c r="R47" s="2">
-        <v>3.764144</v>
+        <v>19.81364</v>
       </c>
       <c r="S47">
-        <v>2619.1239</v>
+        <v>635.45586</v>
       </c>
       <c r="T47">
-        <v>3137.8667</v>
+        <v>6682.4282</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4034,13 +4034,13 @@
         <v>47</v>
       </c>
       <c r="R48" s="2">
-        <v>3.764144</v>
+        <v>19.81364</v>
       </c>
       <c r="S48">
-        <v>2042.0028</v>
+        <v>502.83411</v>
       </c>
       <c r="T48">
-        <v>2485.1918</v>
+        <v>5181.1365</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4095,14 +4095,14 @@
       <c r="Q49" t="s">
         <v>47</v>
       </c>
-      <c r="R49" s="2">
-        <v>2.4850371</v>
+      <c r="R49">
+        <v>20.119321</v>
       </c>
       <c r="S49">
-        <v>2230.2307</v>
+        <v>489.46918</v>
       </c>
       <c r="T49">
-        <v>1881.5706</v>
+        <v>5368.5527</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4158,13 +4158,13 @@
         <v>47</v>
       </c>
       <c r="R50" s="2">
-        <v>0.59307054</v>
+        <v>13.017138</v>
       </c>
       <c r="S50">
-        <v>3724.4485</v>
-      </c>
-      <c r="T50" s="2">
-        <v>0.0027794729</v>
+        <v>1618.3605</v>
+      </c>
+      <c r="T50">
+        <v>7522.2014</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4220,13 +4220,13 @@
         <v>47</v>
       </c>
       <c r="R51" s="2">
-        <v>0.59307054</v>
+        <v>13.017138</v>
       </c>
       <c r="S51">
-        <v>3058.8852</v>
-      </c>
-      <c r="T51" s="2">
-        <v>0.0027794729</v>
+        <v>1246.2998</v>
+      </c>
+      <c r="T51">
+        <v>6041.3567</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -4282,13 +4282,13 @@
         <v>47</v>
       </c>
       <c r="R52" s="2">
-        <v>-1.2473155</v>
+        <v>12.397002</v>
       </c>
       <c r="S52">
-        <v>2894.8505</v>
-      </c>
-      <c r="T52" s="2">
-        <v>0</v>
+        <v>1396.6022</v>
+      </c>
+      <c r="T52">
+        <v>6255.5767</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -4344,13 +4344,13 @@
         <v>35</v>
       </c>
       <c r="R53" s="2">
-        <v>16.151334</v>
+        <v>16.151335</v>
       </c>
       <c r="S53">
-        <v>953.8522400000001</v>
+        <v>953.85221</v>
       </c>
       <c r="T53">
-        <v>6214.9572</v>
+        <v>6214.9571</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -4406,13 +4406,13 @@
         <v>47</v>
       </c>
       <c r="R54" s="2">
-        <v>18.712353</v>
+        <v>18.712352</v>
       </c>
       <c r="S54">
-        <v>953.39178</v>
+        <v>953.3919</v>
       </c>
       <c r="T54">
-        <v>8729.9017</v>
+        <v>8729.9018</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -4468,10 +4468,10 @@
         <v>47</v>
       </c>
       <c r="R55">
-        <v>25.234548</v>
+        <v>25.234547</v>
       </c>
       <c r="S55">
-        <v>439.84512</v>
+        <v>439.84515</v>
       </c>
       <c r="T55">
         <v>10200.09</v>
@@ -4530,13 +4530,13 @@
         <v>60</v>
       </c>
       <c r="R56" s="2">
-        <v>9.237326899999999</v>
+        <v>9.2373271</v>
       </c>
       <c r="S56">
         <v>1195.2904</v>
       </c>
       <c r="T56">
-        <v>3070.5515</v>
+        <v>3070.5514</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4598,7 +4598,7 @@
         <v>619.473</v>
       </c>
       <c r="T57">
-        <v>3084.8179</v>
+        <v>3084.8175</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4654,10 +4654,10 @@
         <v>60</v>
       </c>
       <c r="R58">
-        <v>20.877411</v>
+        <v>20.877405</v>
       </c>
       <c r="S58">
-        <v>327.87149</v>
+        <v>327.87171</v>
       </c>
       <c r="T58">
         <v>3992.6289</v>
@@ -4716,10 +4716,10 @@
         <v>60</v>
       </c>
       <c r="R59" s="2">
-        <v>17.75043</v>
+        <v>17.750429</v>
       </c>
       <c r="S59">
-        <v>649.03198</v>
+        <v>649.03202</v>
       </c>
       <c r="T59">
         <v>4873.3426</v>
@@ -4778,13 +4778,13 @@
         <v>60</v>
       </c>
       <c r="R60" s="2">
-        <v>8.074429500000001</v>
+        <v>8.074429</v>
       </c>
       <c r="S60">
-        <v>1758.0664</v>
+        <v>1758.0665</v>
       </c>
       <c r="T60">
-        <v>3879.7048</v>
+        <v>3879.7045</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4846,7 +4846,7 @@
         <v>1861.246</v>
       </c>
       <c r="T61">
-        <v>4114.382</v>
+        <v>4114.3818</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4902,13 +4902,13 @@
         <v>47</v>
       </c>
       <c r="R62" s="2">
-        <v>18.712353</v>
+        <v>18.712352</v>
       </c>
       <c r="S62">
-        <v>754.22409</v>
+        <v>754.22418</v>
       </c>
       <c r="T62">
-        <v>6704.7864</v>
+        <v>6704.7865</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4967,10 +4967,10 @@
         <v>20.908881</v>
       </c>
       <c r="S63">
-        <v>549.98725</v>
+        <v>549.98723</v>
       </c>
       <c r="T63">
-        <v>6852.1392</v>
+        <v>6852.1393</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5029,10 +5029,10 @@
         <v>20.908881</v>
       </c>
       <c r="S64">
-        <v>431.60944</v>
+        <v>431.60943</v>
       </c>
       <c r="T64">
-        <v>5227.0204</v>
+        <v>5227.0205</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -5088,13 +5088,13 @@
         <v>47</v>
       </c>
       <c r="R65">
-        <v>25.234548</v>
+        <v>25.234547</v>
       </c>
       <c r="S65">
-        <v>342.88582</v>
+        <v>342.88584</v>
       </c>
       <c r="T65">
-        <v>7736.1434</v>
+        <v>7736.1433</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -5150,13 +5150,13 @@
         <v>47</v>
       </c>
       <c r="R66">
-        <v>21.666851</v>
+        <v>21.66685</v>
       </c>
       <c r="S66">
-        <v>560.57281</v>
+        <v>560.57284</v>
       </c>
       <c r="T66">
-        <v>8048.6791</v>
+        <v>8048.679</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -5212,13 +5212,13 @@
         <v>47</v>
       </c>
       <c r="R67">
-        <v>21.666851</v>
+        <v>21.66685</v>
       </c>
       <c r="S67">
-        <v>417.17297</v>
+        <v>417.173</v>
       </c>
       <c r="T67">
-        <v>6135.9476</v>
+        <v>6135.9475</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -5274,13 +5274,13 @@
         <v>60</v>
       </c>
       <c r="R68" s="2">
-        <v>7.5858188</v>
+        <v>7.585819</v>
       </c>
       <c r="S68">
-        <v>2062.1578</v>
+        <v>2062.1577</v>
       </c>
       <c r="T68">
-        <v>4275.8324</v>
+        <v>4275.832</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -5336,13 +5336,13 @@
         <v>60</v>
       </c>
       <c r="R69" s="2">
-        <v>7.5858188</v>
+        <v>7.585819</v>
       </c>
       <c r="S69">
         <v>1625.2409</v>
       </c>
       <c r="T69">
-        <v>3292.7362</v>
+        <v>3292.736</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -5398,13 +5398,13 @@
         <v>60</v>
       </c>
       <c r="R70" s="2">
-        <v>9.237326899999999</v>
+        <v>9.2373271</v>
       </c>
       <c r="S70">
-        <v>1522.8368</v>
+        <v>1522.8367</v>
       </c>
       <c r="T70">
-        <v>3987.1674</v>
+        <v>3987.1672</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -5463,10 +5463,10 @@
         <v>13.929565</v>
       </c>
       <c r="S71">
-        <v>944.80112</v>
+        <v>944.80111</v>
       </c>
       <c r="T71">
-        <v>4504.7961</v>
+        <v>4504.7955</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -5528,7 +5528,7 @@
         <v>769.7778</v>
       </c>
       <c r="T72">
-        <v>3404.875</v>
+        <v>3404.8743</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5587,10 +5587,10 @@
         <v>14.876423</v>
       </c>
       <c r="S73">
-        <v>764.08613</v>
+        <v>764.0861200000001</v>
       </c>
       <c r="T73">
-        <v>4090.7988</v>
+        <v>4090.7984</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5646,13 +5646,13 @@
         <v>47</v>
       </c>
       <c r="R74" s="2">
-        <v>7.5858188</v>
+        <v>7.585819</v>
       </c>
       <c r="S74">
-        <v>2062.1578</v>
+        <v>2062.1577</v>
       </c>
       <c r="T74">
-        <v>4275.8324</v>
+        <v>4275.832</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5708,13 +5708,13 @@
         <v>47</v>
       </c>
       <c r="R75" s="2">
-        <v>7.5858188</v>
+        <v>7.585819</v>
       </c>
       <c r="S75">
         <v>1625.2409</v>
       </c>
       <c r="T75">
-        <v>3292.7362</v>
+        <v>3292.736</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5770,13 +5770,13 @@
         <v>47</v>
       </c>
       <c r="R76" s="2">
-        <v>9.237326899999999</v>
+        <v>9.2373271</v>
       </c>
       <c r="S76">
-        <v>1522.8368</v>
+        <v>1522.8367</v>
       </c>
       <c r="T76">
-        <v>3987.1674</v>
+        <v>3987.1672</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5835,10 +5835,10 @@
         <v>13.929565</v>
       </c>
       <c r="S77">
-        <v>944.80112</v>
+        <v>944.80111</v>
       </c>
       <c r="T77">
-        <v>4504.7961</v>
+        <v>4504.7955</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5900,7 +5900,7 @@
         <v>769.7778</v>
       </c>
       <c r="T78">
-        <v>3404.875</v>
+        <v>3404.8743</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5959,10 +5959,10 @@
         <v>14.876423</v>
       </c>
       <c r="S79">
-        <v>764.08613</v>
+        <v>764.0861200000001</v>
       </c>
       <c r="T79">
-        <v>4090.7988</v>
+        <v>4090.7984</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6021,10 +6021,10 @@
         <v>21.724135</v>
       </c>
       <c r="S80">
-        <v>463.76632</v>
+        <v>463.76629</v>
       </c>
       <c r="T80">
-        <v>5892.5859</v>
+        <v>5892.5865</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6083,10 +6083,10 @@
         <v>21.724135</v>
       </c>
       <c r="S81">
-        <v>366.03043</v>
+        <v>366.03041</v>
       </c>
       <c r="T81">
-        <v>4537.743</v>
+        <v>4537.7435</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6142,10 +6142,10 @@
         <v>60</v>
       </c>
       <c r="R82">
-        <v>20.877411</v>
+        <v>20.877405</v>
       </c>
       <c r="S82">
-        <v>415.39578</v>
+        <v>415.39606</v>
       </c>
       <c r="T82">
         <v>5208.2737</v>
@@ -6204,10 +6204,10 @@
         <v>60</v>
       </c>
       <c r="R83" s="2">
-        <v>19.512947</v>
+        <v>19.512946</v>
       </c>
       <c r="S83">
-        <v>782.54868</v>
+        <v>782.54874</v>
       </c>
       <c r="T83">
         <v>6745.9919</v>
@@ -6266,10 +6266,10 @@
         <v>60</v>
       </c>
       <c r="R84" s="2">
-        <v>19.512947</v>
+        <v>19.512946</v>
       </c>
       <c r="S84">
-        <v>588.6911700000001</v>
+        <v>588.69121</v>
       </c>
       <c r="T84">
         <v>5338.1408</v>
@@ -6328,13 +6328,13 @@
         <v>60</v>
       </c>
       <c r="R85" s="2">
-        <v>17.75043</v>
+        <v>17.750429</v>
       </c>
       <c r="S85">
-        <v>869.32961</v>
+        <v>869.32967</v>
       </c>
       <c r="T85">
-        <v>6145.0843</v>
+        <v>6145.0844</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -6393,10 +6393,10 @@
         <v>21.724135</v>
       </c>
       <c r="S86">
-        <v>463.76632</v>
+        <v>463.76629</v>
       </c>
       <c r="T86">
-        <v>5892.5859</v>
+        <v>5892.5865</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -6455,10 +6455,10 @@
         <v>21.724135</v>
       </c>
       <c r="S87">
-        <v>366.03043</v>
+        <v>366.03041</v>
       </c>
       <c r="T87">
-        <v>4537.743</v>
+        <v>4537.7435</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -6514,10 +6514,10 @@
         <v>47</v>
       </c>
       <c r="R88">
-        <v>20.877411</v>
+        <v>20.877405</v>
       </c>
       <c r="S88">
-        <v>415.39578</v>
+        <v>415.39606</v>
       </c>
       <c r="T88">
         <v>5208.2737</v>
@@ -6576,10 +6576,10 @@
         <v>47</v>
       </c>
       <c r="R89" s="2">
-        <v>19.512947</v>
+        <v>19.512946</v>
       </c>
       <c r="S89">
-        <v>782.54868</v>
+        <v>782.54874</v>
       </c>
       <c r="T89">
         <v>6745.9919</v>
@@ -6638,10 +6638,10 @@
         <v>47</v>
       </c>
       <c r="R90" s="2">
-        <v>19.512947</v>
+        <v>19.512946</v>
       </c>
       <c r="S90">
-        <v>588.6911700000001</v>
+        <v>588.69121</v>
       </c>
       <c r="T90">
         <v>5338.1408</v>
@@ -6700,13 +6700,13 @@
         <v>47</v>
       </c>
       <c r="R91" s="2">
-        <v>17.75043</v>
+        <v>17.750429</v>
       </c>
       <c r="S91">
-        <v>869.32961</v>
+        <v>869.32967</v>
       </c>
       <c r="T91">
-        <v>6145.0843</v>
+        <v>6145.0844</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6762,13 +6762,13 @@
         <v>60</v>
       </c>
       <c r="R92" s="2">
-        <v>6.8438591</v>
+        <v>6.8438585</v>
       </c>
       <c r="S92">
-        <v>2994.9107</v>
+        <v>2994.9108</v>
       </c>
       <c r="T92">
-        <v>5371.3485</v>
+        <v>5371.3478</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6824,13 +6824,13 @@
         <v>60</v>
       </c>
       <c r="R93" s="2">
-        <v>6.8438591</v>
+        <v>6.8438585</v>
       </c>
       <c r="S93">
-        <v>2302.3759</v>
+        <v>2302.376</v>
       </c>
       <c r="T93">
-        <v>4215.4832</v>
+        <v>4215.4827</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6886,13 +6886,13 @@
         <v>60</v>
       </c>
       <c r="R94" s="2">
-        <v>8.074429500000001</v>
+        <v>8.074429</v>
       </c>
       <c r="S94">
         <v>2324.2801</v>
       </c>
       <c r="T94">
-        <v>4960.0763</v>
+        <v>4960.0759</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6951,10 +6951,10 @@
         <v>7.7125303</v>
       </c>
       <c r="S95">
-        <v>2785.6887</v>
+        <v>2785.6884</v>
       </c>
       <c r="T95">
-        <v>6065.4284</v>
+        <v>6065.4282</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -7013,10 +7013,10 @@
         <v>7.7125303</v>
       </c>
       <c r="S96">
-        <v>2151.6866</v>
+        <v>2151.6865</v>
       </c>
       <c r="T96">
-        <v>4712.6762</v>
+        <v>4712.6758</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -7075,10 +7075,10 @@
         <v>7.7480291</v>
       </c>
       <c r="S97">
-        <v>2428.0618</v>
+        <v>2428.0617</v>
       </c>
       <c r="T97">
-        <v>5298.345</v>
+        <v>5298.3448</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -7134,13 +7134,13 @@
         <v>47</v>
       </c>
       <c r="R98" s="2">
-        <v>6.8438591</v>
+        <v>6.8438585</v>
       </c>
       <c r="S98">
-        <v>2994.9107</v>
+        <v>2994.9108</v>
       </c>
       <c r="T98">
-        <v>5371.3485</v>
+        <v>5371.3478</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -7196,13 +7196,13 @@
         <v>47</v>
       </c>
       <c r="R99" s="2">
-        <v>6.8438591</v>
+        <v>6.8438585</v>
       </c>
       <c r="S99">
-        <v>2302.3759</v>
+        <v>2302.376</v>
       </c>
       <c r="T99">
-        <v>4215.4832</v>
+        <v>4215.4827</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -7258,13 +7258,13 @@
         <v>47</v>
       </c>
       <c r="R100" s="2">
-        <v>8.074429500000001</v>
+        <v>8.074429</v>
       </c>
       <c r="S100">
         <v>2324.2801</v>
       </c>
       <c r="T100">
-        <v>4960.0763</v>
+        <v>4960.0759</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -7323,10 +7323,10 @@
         <v>7.7125303</v>
       </c>
       <c r="S101">
-        <v>2785.6887</v>
+        <v>2785.6884</v>
       </c>
       <c r="T101">
-        <v>6065.4284</v>
+        <v>6065.4282</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7385,10 +7385,10 @@
         <v>7.7125303</v>
       </c>
       <c r="S102">
-        <v>2151.6866</v>
+        <v>2151.6865</v>
       </c>
       <c r="T102">
-        <v>4712.6762</v>
+        <v>4712.6758</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -7447,10 +7447,10 @@
         <v>7.7480291</v>
       </c>
       <c r="S103">
-        <v>2428.0618</v>
+        <v>2428.0617</v>
       </c>
       <c r="T103">
-        <v>5298.345</v>
+        <v>5298.3448</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -7509,7 +7509,7 @@
         <v>26.804211</v>
       </c>
       <c r="S104">
-        <v>255.71779</v>
+        <v>255.7178</v>
       </c>
       <c r="T104">
         <v>6657.5796</v>
@@ -7568,13 +7568,13 @@
         <v>47</v>
       </c>
       <c r="R105" s="2">
-        <v>19.672676</v>
+        <v>19.672677</v>
       </c>
       <c r="S105">
-        <v>781.90113</v>
+        <v>781.9011</v>
       </c>
       <c r="T105">
-        <v>8063.3165</v>
+        <v>8063.3166</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7630,7 +7630,7 @@
         <v>47</v>
       </c>
       <c r="R106" s="2">
-        <v>17.050404</v>
+        <v>17.050403</v>
       </c>
       <c r="S106">
         <v>1057.8063</v>
@@ -7692,10 +7692,10 @@
         <v>60</v>
       </c>
       <c r="R107" s="2">
-        <v>18.41745</v>
+        <v>18.417451</v>
       </c>
       <c r="S107">
-        <v>441.48253</v>
+        <v>441.48249</v>
       </c>
       <c r="T107">
         <v>3538.3135</v>
@@ -7816,13 +7816,13 @@
         <v>60</v>
       </c>
       <c r="R109" s="2">
-        <v>10.667106</v>
+        <v>10.667104</v>
       </c>
       <c r="S109">
-        <v>1081.7161</v>
+        <v>1081.7164</v>
       </c>
       <c r="T109">
-        <v>3716.093</v>
+        <v>3716.0932</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7884,7 +7884,7 @@
         <v>1687.6689</v>
       </c>
       <c r="T110">
-        <v>4997.5189</v>
+        <v>4997.5191</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7940,13 +7940,13 @@
         <v>60</v>
       </c>
       <c r="R111" s="2">
-        <v>11.306782</v>
+        <v>11.306781</v>
       </c>
       <c r="S111">
-        <v>1278.6791</v>
+        <v>1278.6792</v>
       </c>
       <c r="T111">
-        <v>4451.5063</v>
+        <v>4451.5062</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -8008,7 +8008,7 @@
         <v>882.5001099999999</v>
       </c>
       <c r="T112">
-        <v>5228.5521</v>
+        <v>5228.5519</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -8064,13 +8064,13 @@
         <v>47</v>
       </c>
       <c r="R113" s="2">
-        <v>19.672676</v>
+        <v>19.672677</v>
       </c>
       <c r="S113">
-        <v>618.13332</v>
+        <v>618.1333</v>
       </c>
       <c r="T113">
-        <v>6185.293</v>
+        <v>6185.2931</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8126,10 +8126,10 @@
         <v>47</v>
       </c>
       <c r="R114" s="2">
-        <v>18.102156</v>
+        <v>18.102157</v>
       </c>
       <c r="S114">
-        <v>755.41031</v>
+        <v>755.41026</v>
       </c>
       <c r="T114">
         <v>6321.0428</v>
@@ -8188,10 +8188,10 @@
         <v>47</v>
       </c>
       <c r="R115" s="2">
-        <v>18.102156</v>
+        <v>18.102157</v>
       </c>
       <c r="S115">
-        <v>575.68358</v>
+        <v>575.68354</v>
       </c>
       <c r="T115">
         <v>4900.8738</v>
@@ -8250,10 +8250,10 @@
         <v>47</v>
       </c>
       <c r="R116" s="2">
-        <v>17.050404</v>
+        <v>17.050403</v>
       </c>
       <c r="S116">
-        <v>826.33644</v>
+        <v>826.33646</v>
       </c>
       <c r="T116">
         <v>7069.5909</v>
@@ -8312,10 +8312,10 @@
         <v>47</v>
       </c>
       <c r="R117" s="2">
-        <v>16.211144</v>
+        <v>16.211143</v>
       </c>
       <c r="S117">
-        <v>1011.0244</v>
+        <v>1011.0245</v>
       </c>
       <c r="T117">
         <v>7398.0066</v>
@@ -8374,13 +8374,13 @@
         <v>47</v>
       </c>
       <c r="R118" s="2">
-        <v>16.211144</v>
+        <v>16.211143</v>
       </c>
       <c r="S118">
-        <v>769.65944</v>
+        <v>769.65946</v>
       </c>
       <c r="T118">
-        <v>5733.4233</v>
+        <v>5733.4232</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -8439,10 +8439,10 @@
         <v>13.930503</v>
       </c>
       <c r="S119">
-        <v>1035.4271</v>
+        <v>1035.427</v>
       </c>
       <c r="T119">
-        <v>4928.6644</v>
+        <v>4928.664</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -8501,10 +8501,10 @@
         <v>13.930503</v>
       </c>
       <c r="S120">
-        <v>826.92922</v>
+        <v>826.9291899999999</v>
       </c>
       <c r="T120">
-        <v>3781.1355</v>
+        <v>3781.1353</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -8560,13 +8560,13 @@
         <v>60</v>
       </c>
       <c r="R121" s="2">
-        <v>18.41745</v>
+        <v>18.417451</v>
       </c>
       <c r="S121">
-        <v>558.00051</v>
+        <v>558.00047</v>
       </c>
       <c r="T121">
-        <v>4678.6114</v>
+        <v>4678.6113</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -8628,7 +8628,7 @@
         <v>319.13085</v>
       </c>
       <c r="T122">
-        <v>6704.2121</v>
+        <v>6704.2116</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8690,7 +8690,7 @@
         <v>250.60869</v>
       </c>
       <c r="T123">
-        <v>5275.3591</v>
+        <v>5275.3587</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8752,7 +8752,7 @@
         <v>292.38133</v>
       </c>
       <c r="T124">
-        <v>5996.7292</v>
+        <v>5996.7291</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8811,10 +8811,10 @@
         <v>13.930503</v>
       </c>
       <c r="S125">
-        <v>1035.4271</v>
+        <v>1035.427</v>
       </c>
       <c r="T125">
-        <v>4928.6644</v>
+        <v>4928.664</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8873,10 +8873,10 @@
         <v>13.930503</v>
       </c>
       <c r="S126">
-        <v>826.92922</v>
+        <v>826.9291899999999</v>
       </c>
       <c r="T126">
-        <v>3781.1355</v>
+        <v>3781.1353</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8932,13 +8932,13 @@
         <v>47</v>
       </c>
       <c r="R127" s="2">
-        <v>18.41745</v>
+        <v>18.417451</v>
       </c>
       <c r="S127">
-        <v>558.00051</v>
+        <v>558.00047</v>
       </c>
       <c r="T127">
-        <v>4678.6114</v>
+        <v>4678.6113</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -9000,7 +9000,7 @@
         <v>319.13085</v>
       </c>
       <c r="T128">
-        <v>6704.2121</v>
+        <v>6704.2116</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -9062,7 +9062,7 @@
         <v>250.60869</v>
       </c>
       <c r="T129">
-        <v>5275.3591</v>
+        <v>5275.3587</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -9124,7 +9124,7 @@
         <v>292.38133</v>
       </c>
       <c r="T130">
-        <v>5996.7292</v>
+        <v>5996.7291</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -9180,13 +9180,13 @@
         <v>60</v>
       </c>
       <c r="R131" s="2">
-        <v>13.136666</v>
+        <v>13.136664</v>
       </c>
       <c r="S131">
-        <v>1326.7784</v>
+        <v>1326.7788</v>
       </c>
       <c r="T131">
-        <v>5876.166</v>
+        <v>5876.1661</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -9242,13 +9242,13 @@
         <v>60</v>
       </c>
       <c r="R132" s="2">
-        <v>13.136666</v>
+        <v>13.136664</v>
       </c>
       <c r="S132">
-        <v>1005.3973</v>
+        <v>1005.3976</v>
       </c>
       <c r="T132">
-        <v>4623.8789</v>
+        <v>4623.8791</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -9304,13 +9304,13 @@
         <v>60</v>
       </c>
       <c r="R133" s="2">
-        <v>10.667106</v>
+        <v>10.667104</v>
       </c>
       <c r="S133">
-        <v>1411.4398</v>
+        <v>1411.4401</v>
       </c>
       <c r="T133">
-        <v>4712.2383</v>
+        <v>4712.2385</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -9369,7 +9369,7 @@
         <v>12.402625</v>
       </c>
       <c r="S134">
-        <v>2205.3558</v>
+        <v>2205.3559</v>
       </c>
       <c r="T134">
         <v>7284.3782</v>
@@ -9434,7 +9434,7 @@
         <v>1653.733</v>
       </c>
       <c r="T135">
-        <v>5875.8674</v>
+        <v>5875.8676</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -9493,10 +9493,10 @@
         <v>10.595345</v>
       </c>
       <c r="S136">
-        <v>2252.7486</v>
+        <v>2252.7487</v>
       </c>
       <c r="T136">
-        <v>6214.6439</v>
+        <v>6214.644</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -9552,13 +9552,13 @@
         <v>47</v>
       </c>
       <c r="R137" s="2">
-        <v>13.136666</v>
+        <v>13.136664</v>
       </c>
       <c r="S137">
-        <v>1326.7784</v>
+        <v>1326.7788</v>
       </c>
       <c r="T137">
-        <v>5876.166</v>
+        <v>5876.1661</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -9614,13 +9614,13 @@
         <v>47</v>
       </c>
       <c r="R138" s="2">
-        <v>13.136666</v>
+        <v>13.136664</v>
       </c>
       <c r="S138">
-        <v>1005.3973</v>
+        <v>1005.3976</v>
       </c>
       <c r="T138">
-        <v>4623.8789</v>
+        <v>4623.8791</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9676,13 +9676,13 @@
         <v>47</v>
       </c>
       <c r="R139" s="2">
-        <v>10.667106</v>
+        <v>10.667104</v>
       </c>
       <c r="S139">
-        <v>1411.4398</v>
+        <v>1411.4401</v>
       </c>
       <c r="T139">
-        <v>4712.2383</v>
+        <v>4712.2385</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9741,7 +9741,7 @@
         <v>12.402625</v>
       </c>
       <c r="S140">
-        <v>2205.3558</v>
+        <v>2205.3559</v>
       </c>
       <c r="T140">
         <v>7284.3782</v>
@@ -9806,7 +9806,7 @@
         <v>1653.733</v>
       </c>
       <c r="T141">
-        <v>5875.8674</v>
+        <v>5875.8676</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9865,10 +9865,10 @@
         <v>10.595345</v>
       </c>
       <c r="S142">
-        <v>2252.7486</v>
+        <v>2252.7487</v>
       </c>
       <c r="T142">
-        <v>6214.6439</v>
+        <v>6214.644</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -9924,13 +9924,13 @@
         <v>60</v>
       </c>
       <c r="R143" s="2">
-        <v>10.141844</v>
+        <v>10.141843</v>
       </c>
       <c r="S143">
-        <v>2227.2741</v>
+        <v>2227.2743</v>
       </c>
       <c r="T143">
-        <v>6226.4257</v>
+        <v>6226.4249</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9986,13 +9986,13 @@
         <v>60</v>
       </c>
       <c r="R144" s="2">
-        <v>10.141844</v>
+        <v>10.141843</v>
       </c>
       <c r="S144">
-        <v>1686.6699</v>
+        <v>1686.67</v>
       </c>
       <c r="T144">
-        <v>4894.2352</v>
+        <v>4894.2348</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10048,13 +10048,13 @@
         <v>60</v>
       </c>
       <c r="R145" s="2">
-        <v>11.306782</v>
+        <v>11.306781</v>
       </c>
       <c r="S145">
-        <v>1717.2592</v>
+        <v>1717.2593</v>
       </c>
       <c r="T145">
-        <v>5696.3618</v>
+        <v>5696.3614</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10178,7 +10178,7 @@
         <v>965.51456</v>
       </c>
       <c r="T147">
-        <v>5826.56</v>
+        <v>5826.5596</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -10240,7 +10240,7 @@
         <v>1146.5373</v>
       </c>
       <c r="T148">
-        <v>6706.1028</v>
+        <v>6706.1026</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -10296,13 +10296,13 @@
         <v>47</v>
       </c>
       <c r="R149" s="2">
-        <v>10.141844</v>
+        <v>10.141843</v>
       </c>
       <c r="S149">
-        <v>2227.2741</v>
+        <v>2227.2743</v>
       </c>
       <c r="T149">
-        <v>6226.4257</v>
+        <v>6226.4249</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -10358,13 +10358,13 @@
         <v>47</v>
       </c>
       <c r="R150" s="2">
-        <v>10.141844</v>
+        <v>10.141843</v>
       </c>
       <c r="S150">
-        <v>1686.6699</v>
+        <v>1686.67</v>
       </c>
       <c r="T150">
-        <v>4894.2352</v>
+        <v>4894.2348</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -10420,13 +10420,13 @@
         <v>47</v>
       </c>
       <c r="R151" s="2">
-        <v>11.306782</v>
+        <v>11.306781</v>
       </c>
       <c r="S151">
-        <v>1717.2592</v>
+        <v>1717.2593</v>
       </c>
       <c r="T151">
-        <v>5696.3618</v>
+        <v>5696.3614</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -10550,7 +10550,7 @@
         <v>965.51456</v>
       </c>
       <c r="T153">
-        <v>5826.56</v>
+        <v>5826.5596</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -10612,7 +10612,7 @@
         <v>1146.5373</v>
       </c>
       <c r="T154">
-        <v>6706.1028</v>
+        <v>6706.1026</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="1" customFormat="1">
@@ -10682,13 +10682,13 @@
         <v>221</v>
       </c>
       <c r="R156" s="2">
-        <v>-28.273048</v>
+        <v>4.8600759</v>
       </c>
       <c r="S156" s="1">
         <v>228.56959</v>
       </c>
-      <c r="T156" s="2">
-        <v>0</v>
+      <c r="T156" s="1">
+        <v>3070.5514</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="1" customFormat="1">
@@ -10699,7 +10699,7 @@
         <v>26.804211</v>
       </c>
       <c r="S157" s="1">
-        <v>8769.964900000001</v>
+        <v>4200.7378</v>
       </c>
       <c r="T157" s="1">
         <v>10200.09</v>
@@ -10748,13 +10748,13 @@
         <v>227</v>
       </c>
       <c r="R162" s="1">
-        <v>9.620355720196088</v>
+        <v>13.72336309803922</v>
       </c>
       <c r="S162" s="1">
-        <v>2014.621296928104</v>
+        <v>1428.615173986928</v>
       </c>
       <c r="T162" s="1">
-        <v>4026.79007097965</v>
+        <v>5455.339646405228</v>
       </c>
     </row>
     <row r="163" spans="17:20" s="1" customFormat="1">
@@ -10762,13 +10762,13 @@
         <v>228</v>
       </c>
       <c r="R163" s="1">
-        <v>9.839821939776744</v>
+        <v>5.681826435349947</v>
       </c>
       <c r="S163" s="1">
-        <v>1597.272402014863</v>
+        <v>930.5743237946575</v>
       </c>
       <c r="T163" s="1">
-        <v>2450.346531598365</v>
+        <v>1247.467854444146</v>
       </c>
     </row>
     <row r="164" spans="17:20" s="1" customFormat="1">
@@ -10776,13 +10776,13 @@
         <v>229</v>
       </c>
       <c r="R164" s="1">
-        <v>102.2812692790551</v>
+        <v>41.40258036429685</v>
       </c>
       <c r="S164" s="1">
-        <v>79.2840026287017</v>
+        <v>65.13820801704382</v>
       </c>
       <c r="T164" s="1">
-        <v>60.85111188828965</v>
+        <v>22.86691453328959</v>
       </c>
     </row>
     <row r="165" spans="17:20" s="1" customFormat="1"/>
